--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N422"/>
+  <dimension ref="A1:N438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -19367,49 +19367,785 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr">
+      <c r="A422" s="23" t="inlineStr">
         <is>
           <t>2022/12/29</t>
         </is>
       </c>
-      <c r="B422" t="n">
+      <c r="B422" s="23" t="n">
         <v>21.05</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422" s="23" t="n">
         <v>35.84</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422" s="23" t="n">
         <v>21.4</v>
       </c>
-      <c r="E422" t="n">
+      <c r="E422" s="23" t="n">
         <v>20.87</v>
       </c>
-      <c r="F422" t="n">
+      <c r="F422" s="23" t="n">
         <v>21.31</v>
       </c>
-      <c r="G422" t="n">
+      <c r="G422" s="23" t="n">
         <v>13.58</v>
       </c>
-      <c r="H422" t="n">
+      <c r="H422" s="23" t="n">
         <v>12.78</v>
       </c>
-      <c r="I422" t="n">
+      <c r="I422" s="23" t="n">
         <v>22.63</v>
       </c>
-      <c r="J422" t="n">
+      <c r="J422" s="23" t="n">
         <v>14.38</v>
       </c>
-      <c r="K422" t="n">
+      <c r="K422" s="23" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="L422" t="n">
+      <c r="L422" s="23" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="M422" t="n">
+      <c r="M422" s="23" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="N422" t="n">
+      <c r="N422" s="23" t="n">
         <v>19.64</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="23" t="inlineStr">
+        <is>
+          <t>2022/12/30</t>
+        </is>
+      </c>
+      <c r="B423" s="23" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="C423" s="23" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="D423" s="23" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="E423" s="23" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F423" s="23" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="G423" s="23" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="H423" s="23" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="I423" s="23" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="J423" s="23" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="K423" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L423" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="M423" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="N423" s="23" t="n">
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/03</t>
+        </is>
+      </c>
+      <c r="B424" s="23" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="C424" s="23" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="D424" s="23" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E424" s="23" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="F424" s="23" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="G424" s="23" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H424" s="23" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I424" s="23" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="J424" s="23" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K424" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="L424" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="M424" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="N424" s="23" t="n">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/04</t>
+        </is>
+      </c>
+      <c r="B425" s="23" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="C425" s="23" t="n">
+        <v>35.59</v>
+      </c>
+      <c r="D425" s="23" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="E425" s="23" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="F425" s="23" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="G425" s="23" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H425" s="23" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="I425" s="23" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="J425" s="23" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="K425" s="23" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="L425" s="23" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="M425" s="23" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="N425" s="23" t="n">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/05</t>
+        </is>
+      </c>
+      <c r="B426" s="23" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="C426" s="23" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="D426" s="23" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="E426" s="23" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="F426" s="23" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="G426" s="23" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H426" s="23" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="I426" s="23" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="J426" s="23" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="K426" s="23" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="L426" s="23" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="M426" s="23" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="N426" s="23" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/06</t>
+        </is>
+      </c>
+      <c r="B427" s="23" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C427" s="23" t="n">
+        <v>36.94</v>
+      </c>
+      <c r="D427" s="23" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E427" s="23" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F427" s="23" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="G427" s="23" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="H427" s="23" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="I427" s="23" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="J427" s="23" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="K427" s="23" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L427" s="23" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="M427" s="23" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="N427" s="23" t="n">
+        <v>20.12</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/09</t>
+        </is>
+      </c>
+      <c r="B428" s="23" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="C428" s="23" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="D428" s="23" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="E428" s="23" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="F428" s="23" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="G428" s="23" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="H428" s="23" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="I428" s="23" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="J428" s="23" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="K428" s="23" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="L428" s="23" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="M428" s="23" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="N428" s="23" t="n">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/10</t>
+        </is>
+      </c>
+      <c r="B429" s="23" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="C429" s="23" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="D429" s="23" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="E429" s="23" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="F429" s="23" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="G429" s="23" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="H429" s="23" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="I429" s="23" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="J429" s="23" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="K429" s="23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L429" s="23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M429" s="23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N429" s="23" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/11</t>
+        </is>
+      </c>
+      <c r="B430" s="23" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="C430" s="23" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="D430" s="23" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="E430" s="23" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="F430" s="23" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="G430" s="23" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="H430" s="23" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="I430" s="23" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="J430" s="23" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K430" s="23" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="L430" s="23" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="M430" s="23" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="N430" s="23" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/12</t>
+        </is>
+      </c>
+      <c r="B431" s="23" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="C431" s="23" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D431" s="23" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="E431" s="23" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="F431" s="23" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="G431" s="23" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="H431" s="23" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="I431" s="23" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="J431" s="23" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="K431" s="23" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="L431" s="23" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="M431" s="23" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="N431" s="23" t="n">
+        <v>20.26</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/13</t>
+        </is>
+      </c>
+      <c r="B432" s="23" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="C432" s="23" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="D432" s="23" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E432" s="23" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="F432" s="23" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="G432" s="23" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H432" s="23" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="I432" s="23" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="J432" s="23" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="K432" s="23" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L432" s="23" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M432" s="23" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N432" s="23" t="n">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/16</t>
+        </is>
+      </c>
+      <c r="B433" s="23" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C433" s="23" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="D433" s="23" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="E433" s="23" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="F433" s="23" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="G433" s="23" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="H433" s="23" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="I433" s="23" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="J433" s="23" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="K433" s="23" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="L433" s="23" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="M433" s="23" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="N433" s="23" t="n">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/17</t>
+        </is>
+      </c>
+      <c r="B434" s="23" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="C434" s="23" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="D434" s="23" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E434" s="23" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="F434" s="23" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="G434" s="23" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="H434" s="23" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="I434" s="23" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="J434" s="23" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="K434" s="23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L434" s="23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M434" s="23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N434" s="23" t="n">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/18</t>
+        </is>
+      </c>
+      <c r="B435" s="23" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="C435" s="23" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="D435" s="23" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="E435" s="23" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="F435" s="23" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="G435" s="23" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="H435" s="23" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="I435" s="23" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="J435" s="23" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="K435" s="23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="L435" s="23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M435" s="23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="N435" s="23" t="n">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/19</t>
+        </is>
+      </c>
+      <c r="B436" s="23" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="C436" s="23" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="D436" s="23" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="E436" s="23" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="F436" s="23" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="G436" s="23" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="H436" s="23" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="I436" s="23" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="J436" s="23" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="K436" s="23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="L436" s="23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="M436" s="23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="N436" s="23" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="23" t="inlineStr">
+        <is>
+          <t>2023/1/20</t>
+        </is>
+      </c>
+      <c r="B437" s="23" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="C437" s="23" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="D437" s="23" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="E437" s="23" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="F437" s="23" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="G437" s="23" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="H437" s="23" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="I437" s="23" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="J437" s="23" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="K437" s="23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="L437" s="23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="M437" s="23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="N437" s="23" t="n">
+        <v>20.89</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2023/1/30</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="C438" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="D438" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="E438" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="F438" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="G438" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H438" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="I438" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="J438" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="K438" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="L438" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="M438" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="N438" t="n">
+        <v>21.04</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -3806,7 +3806,7 @@
         <v>11.89</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" ref="L66:L97" si="5">M66</f>
+        <f t="shared" ref="L66:L90" si="5">M66</f>
         <v>11.89</v>
       </c>
       <c r="M66" s="7">

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>DATE</t>
   </si>
@@ -329,6 +329,75 @@
   </si>
   <si>
     <t>2023/2/27</t>
+  </si>
+  <si>
+    <t>2023/2/28</t>
+  </si>
+  <si>
+    <t>2023/3/01</t>
+  </si>
+  <si>
+    <t>2023/3/02</t>
+  </si>
+  <si>
+    <t>2023/3/03</t>
+  </si>
+  <si>
+    <t>2023/3/06</t>
+  </si>
+  <si>
+    <t>2023/3/07</t>
+  </si>
+  <si>
+    <t>2023/3/08</t>
+  </si>
+  <si>
+    <t>2023/3/09</t>
+  </si>
+  <si>
+    <t>2023/3/10</t>
+  </si>
+  <si>
+    <t>2023/3/13</t>
+  </si>
+  <si>
+    <t>2023/3/14</t>
+  </si>
+  <si>
+    <t>2023/3/15</t>
+  </si>
+  <si>
+    <t>2023/3/16</t>
+  </si>
+  <si>
+    <t>2023/3/17</t>
+  </si>
+  <si>
+    <t>2023/3/20</t>
+  </si>
+  <si>
+    <t>2023/3/21</t>
+  </si>
+  <si>
+    <t>2023/3/22</t>
+  </si>
+  <si>
+    <t>2023/3/23</t>
+  </si>
+  <si>
+    <t>2023/3/24</t>
+  </si>
+  <si>
+    <t>2023/3/27</t>
+  </si>
+  <si>
+    <t>2023/3/28</t>
+  </si>
+  <si>
+    <t>2023/3/29</t>
+  </si>
+  <si>
+    <t>2023/3/30</t>
   </si>
 </sst>
 </file>
@@ -807,7 +876,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N458"/>
+  <dimension ref="A1:N481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3806,7 +3875,7 @@
         <v>11.89</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" ref="L66:L90" si="5">M66</f>
+        <f t="shared" ref="L66:L97" si="5">M66</f>
         <v>11.89</v>
       </c>
       <c r="M66" s="7">
@@ -21110,6 +21179,1018 @@
       </c>
       <c r="N458" s="23">
         <v>20.149999999999999</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A459" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B459" s="23">
+        <v>22.67</v>
+      </c>
+      <c r="C459" s="23">
+        <v>37.03</v>
+      </c>
+      <c r="D459" s="23">
+        <v>22.59</v>
+      </c>
+      <c r="E459" s="23">
+        <v>22.36</v>
+      </c>
+      <c r="F459" s="23">
+        <v>23.09</v>
+      </c>
+      <c r="G459" s="23">
+        <v>14.27</v>
+      </c>
+      <c r="H459" s="23">
+        <v>13.6</v>
+      </c>
+      <c r="I459" s="23">
+        <v>25.37</v>
+      </c>
+      <c r="J459" s="23">
+        <v>15.59</v>
+      </c>
+      <c r="K459" s="23">
+        <v>9.57</v>
+      </c>
+      <c r="L459" s="23">
+        <v>9.57</v>
+      </c>
+      <c r="M459" s="23">
+        <v>9.57</v>
+      </c>
+      <c r="N459" s="23">
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A460" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B460" s="23">
+        <v>22.91</v>
+      </c>
+      <c r="C460" s="23">
+        <v>37.28</v>
+      </c>
+      <c r="D460" s="23">
+        <v>22.88</v>
+      </c>
+      <c r="E460" s="23">
+        <v>22.61</v>
+      </c>
+      <c r="F460" s="23">
+        <v>23.33</v>
+      </c>
+      <c r="G460" s="23">
+        <v>14.5</v>
+      </c>
+      <c r="H460" s="23">
+        <v>13.75</v>
+      </c>
+      <c r="I460" s="23">
+        <v>25.53</v>
+      </c>
+      <c r="J460" s="23">
+        <v>15.74</v>
+      </c>
+      <c r="K460" s="23">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="L460" s="23">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="M460" s="23">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="N460" s="23">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A461" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B461" s="23">
+        <v>22.79</v>
+      </c>
+      <c r="C461" s="23">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="D461" s="23">
+        <v>22.74</v>
+      </c>
+      <c r="E461" s="23">
+        <v>22.48</v>
+      </c>
+      <c r="F461" s="23">
+        <v>23.21</v>
+      </c>
+      <c r="G461" s="23">
+        <v>14.47</v>
+      </c>
+      <c r="H461" s="23">
+        <v>13.73</v>
+      </c>
+      <c r="I461" s="23">
+        <v>25.39</v>
+      </c>
+      <c r="J461" s="23">
+        <v>15.7</v>
+      </c>
+      <c r="K461" s="23">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="L461" s="23">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="M461" s="23">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="N461" s="23">
+        <v>20.58</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A462" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B462" s="23">
+        <v>22.8</v>
+      </c>
+      <c r="C462" s="23">
+        <v>36.92</v>
+      </c>
+      <c r="D462" s="23">
+        <v>22.76</v>
+      </c>
+      <c r="E462" s="23">
+        <v>22.49</v>
+      </c>
+      <c r="F462" s="23">
+        <v>23.21</v>
+      </c>
+      <c r="G462" s="23">
+        <v>14.54</v>
+      </c>
+      <c r="H462" s="23">
+        <v>13.79</v>
+      </c>
+      <c r="I462" s="23">
+        <v>25.36</v>
+      </c>
+      <c r="J462" s="23">
+        <v>15.75</v>
+      </c>
+      <c r="K462" s="23">
+        <v>9.73</v>
+      </c>
+      <c r="L462" s="23">
+        <v>9.73</v>
+      </c>
+      <c r="M462" s="23">
+        <v>9.73</v>
+      </c>
+      <c r="N462" s="23">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A463" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B463" s="23">
+        <v>22.78</v>
+      </c>
+      <c r="C463" s="23">
+        <v>37.07</v>
+      </c>
+      <c r="D463" s="23">
+        <v>22.73</v>
+      </c>
+      <c r="E463" s="23">
+        <v>22.47</v>
+      </c>
+      <c r="F463" s="23">
+        <v>23.21</v>
+      </c>
+      <c r="G463" s="23">
+        <v>14.47</v>
+      </c>
+      <c r="H463" s="23">
+        <v>13.75</v>
+      </c>
+      <c r="I463" s="23">
+        <v>25.48</v>
+      </c>
+      <c r="J463" s="23">
+        <v>15.73</v>
+      </c>
+      <c r="K463" s="23">
+        <v>9.64</v>
+      </c>
+      <c r="L463" s="23">
+        <v>9.64</v>
+      </c>
+      <c r="M463" s="23">
+        <v>9.64</v>
+      </c>
+      <c r="N463" s="23">
+        <v>20.440000000000001</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A464" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B464" s="23">
+        <v>22.35</v>
+      </c>
+      <c r="C464" s="23">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="D464" s="23">
+        <v>22.3</v>
+      </c>
+      <c r="E464" s="23">
+        <v>22.05</v>
+      </c>
+      <c r="F464" s="23">
+        <v>22.75</v>
+      </c>
+      <c r="G464" s="23">
+        <v>14.27</v>
+      </c>
+      <c r="H464" s="23">
+        <v>13.58</v>
+      </c>
+      <c r="I464" s="23">
+        <v>24.92</v>
+      </c>
+      <c r="J464" s="23">
+        <v>15.51</v>
+      </c>
+      <c r="K464" s="23">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="L464" s="23">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="M464" s="23">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="N464" s="23">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A465" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B465" s="23">
+        <v>22.31</v>
+      </c>
+      <c r="C465" s="23">
+        <v>36.25</v>
+      </c>
+      <c r="D465" s="23">
+        <v>22.2</v>
+      </c>
+      <c r="E465" s="23">
+        <v>21.99</v>
+      </c>
+      <c r="F465" s="23">
+        <v>22.75</v>
+      </c>
+      <c r="G465" s="23">
+        <v>14.2</v>
+      </c>
+      <c r="H465" s="23">
+        <v>13.55</v>
+      </c>
+      <c r="I465" s="23">
+        <v>25.07</v>
+      </c>
+      <c r="J465" s="23">
+        <v>15.51</v>
+      </c>
+      <c r="K465" s="23">
+        <v>9.49</v>
+      </c>
+      <c r="L465" s="23">
+        <v>9.49</v>
+      </c>
+      <c r="M465" s="23">
+        <v>9.49</v>
+      </c>
+      <c r="N465" s="23">
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A466" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B466" s="23">
+        <v>22.27</v>
+      </c>
+      <c r="C466" s="23">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="D466" s="23">
+        <v>22.14</v>
+      </c>
+      <c r="E466" s="23">
+        <v>21.95</v>
+      </c>
+      <c r="F466" s="23">
+        <v>22.72</v>
+      </c>
+      <c r="G466" s="23">
+        <v>14.17</v>
+      </c>
+      <c r="H466" s="23">
+        <v>13.52</v>
+      </c>
+      <c r="I466" s="23">
+        <v>25.09</v>
+      </c>
+      <c r="J466" s="23">
+        <v>15.49</v>
+      </c>
+      <c r="K466" s="23">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="L466" s="23">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="M466" s="23">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="N466" s="23">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A467" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B467" s="23">
+        <v>22</v>
+      </c>
+      <c r="C467" s="23">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="D467" s="23">
+        <v>21.91</v>
+      </c>
+      <c r="E467" s="23">
+        <v>21.69</v>
+      </c>
+      <c r="F467" s="23">
+        <v>22.44</v>
+      </c>
+      <c r="G467" s="23">
+        <v>13.99</v>
+      </c>
+      <c r="H467" s="23">
+        <v>13.34</v>
+      </c>
+      <c r="I467" s="23">
+        <v>24.74</v>
+      </c>
+      <c r="J467" s="23">
+        <v>15.28</v>
+      </c>
+      <c r="K467" s="23">
+        <v>9.34</v>
+      </c>
+      <c r="L467" s="23">
+        <v>9.34</v>
+      </c>
+      <c r="M467" s="23">
+        <v>9.34</v>
+      </c>
+      <c r="N467" s="23">
+        <v>19.760000000000002</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A468" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B468" s="23">
+        <v>22.11</v>
+      </c>
+      <c r="C468" s="23">
+        <v>35.92</v>
+      </c>
+      <c r="D468" s="23">
+        <v>22.01</v>
+      </c>
+      <c r="E468" s="23">
+        <v>21.79</v>
+      </c>
+      <c r="F468" s="23">
+        <v>22.56</v>
+      </c>
+      <c r="G468" s="23">
+        <v>14.19</v>
+      </c>
+      <c r="H468" s="23">
+        <v>13.48</v>
+      </c>
+      <c r="I468" s="23">
+        <v>24.83</v>
+      </c>
+      <c r="J468" s="23">
+        <v>15.42</v>
+      </c>
+      <c r="K468" s="23">
+        <v>9.44</v>
+      </c>
+      <c r="L468" s="23">
+        <v>9.44</v>
+      </c>
+      <c r="M468" s="23">
+        <v>9.44</v>
+      </c>
+      <c r="N468" s="23">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A469" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B469" s="23">
+        <v>21.91</v>
+      </c>
+      <c r="C469" s="23">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="D469" s="23">
+        <v>21.8</v>
+      </c>
+      <c r="E469" s="23">
+        <v>21.59</v>
+      </c>
+      <c r="F469" s="23">
+        <v>22.34</v>
+      </c>
+      <c r="G469" s="23">
+        <v>14.09</v>
+      </c>
+      <c r="H469" s="23">
+        <v>13.38</v>
+      </c>
+      <c r="I469" s="23">
+        <v>24.55</v>
+      </c>
+      <c r="J469" s="23">
+        <v>15.29</v>
+      </c>
+      <c r="K469" s="23">
+        <v>9.39</v>
+      </c>
+      <c r="L469" s="23">
+        <v>9.39</v>
+      </c>
+      <c r="M469" s="23">
+        <v>9.39</v>
+      </c>
+      <c r="N469" s="23">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A470" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B470" s="23">
+        <v>21.92</v>
+      </c>
+      <c r="C470" s="23">
+        <v>35.520000000000003</v>
+      </c>
+      <c r="D470" s="23">
+        <v>21.75</v>
+      </c>
+      <c r="E470" s="23">
+        <v>21.58</v>
+      </c>
+      <c r="F470" s="23">
+        <v>22.36</v>
+      </c>
+      <c r="G470" s="23">
+        <v>14.07</v>
+      </c>
+      <c r="H470" s="23">
+        <v>13.42</v>
+      </c>
+      <c r="I470" s="23">
+        <v>24.74</v>
+      </c>
+      <c r="J470" s="23">
+        <v>15.36</v>
+      </c>
+      <c r="K470" s="23">
+        <v>9.42</v>
+      </c>
+      <c r="L470" s="23">
+        <v>9.42</v>
+      </c>
+      <c r="M470" s="23">
+        <v>9.42</v>
+      </c>
+      <c r="N470" s="23">
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A471" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B471" s="23">
+        <v>21.6</v>
+      </c>
+      <c r="C471" s="23">
+        <v>35.1</v>
+      </c>
+      <c r="D471" s="23">
+        <v>21.47</v>
+      </c>
+      <c r="E471" s="23">
+        <v>21.27</v>
+      </c>
+      <c r="F471" s="23">
+        <v>22.04</v>
+      </c>
+      <c r="G471" s="23">
+        <v>13.96</v>
+      </c>
+      <c r="H471" s="23">
+        <v>13.27</v>
+      </c>
+      <c r="I471" s="23">
+        <v>24.33</v>
+      </c>
+      <c r="J471" s="23">
+        <v>15.16</v>
+      </c>
+      <c r="K471" s="23">
+        <v>9.42</v>
+      </c>
+      <c r="L471" s="23">
+        <v>9.42</v>
+      </c>
+      <c r="M471" s="23">
+        <v>9.42</v>
+      </c>
+      <c r="N471" s="23">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A472" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B472" s="23">
+        <v>21.61</v>
+      </c>
+      <c r="C472" s="23">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="D472" s="23">
+        <v>21.5</v>
+      </c>
+      <c r="E472" s="23">
+        <v>21.29</v>
+      </c>
+      <c r="F472" s="23">
+        <v>22.13</v>
+      </c>
+      <c r="G472" s="23">
+        <v>14.06</v>
+      </c>
+      <c r="H472" s="23">
+        <v>13.35</v>
+      </c>
+      <c r="I472" s="23">
+        <v>24.5</v>
+      </c>
+      <c r="J472" s="23">
+        <v>15.25</v>
+      </c>
+      <c r="K472" s="23">
+        <v>9.44</v>
+      </c>
+      <c r="L472" s="23">
+        <v>9.44</v>
+      </c>
+      <c r="M472" s="23">
+        <v>9.44</v>
+      </c>
+      <c r="N472" s="23">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A473" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B473" s="23">
+        <v>21.56</v>
+      </c>
+      <c r="C473" s="23">
+        <v>34.92</v>
+      </c>
+      <c r="D473" s="23">
+        <v>21.45</v>
+      </c>
+      <c r="E473" s="23">
+        <v>21.23</v>
+      </c>
+      <c r="F473" s="23">
+        <v>22.07</v>
+      </c>
+      <c r="G473" s="23">
+        <v>13.96</v>
+      </c>
+      <c r="H473" s="23">
+        <v>13.29</v>
+      </c>
+      <c r="I473" s="23">
+        <v>24.45</v>
+      </c>
+      <c r="J473" s="23">
+        <v>15.2</v>
+      </c>
+      <c r="K473" s="23">
+        <v>9.41</v>
+      </c>
+      <c r="L473" s="23">
+        <v>9.41</v>
+      </c>
+      <c r="M473" s="23">
+        <v>9.41</v>
+      </c>
+      <c r="N473" s="23">
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A474" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B474" s="23">
+        <v>21.89</v>
+      </c>
+      <c r="C474" s="23">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="D474" s="23">
+        <v>21.81</v>
+      </c>
+      <c r="E474" s="23">
+        <v>21.58</v>
+      </c>
+      <c r="F474" s="23">
+        <v>22.41</v>
+      </c>
+      <c r="G474" s="23">
+        <v>14.13</v>
+      </c>
+      <c r="H474" s="23">
+        <v>13.4</v>
+      </c>
+      <c r="I474" s="23">
+        <v>24.78</v>
+      </c>
+      <c r="J474" s="23">
+        <v>15.35</v>
+      </c>
+      <c r="K474" s="23">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="L474" s="23">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="M474" s="23">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="N474" s="23">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A475" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B475" s="23">
+        <v>22.01</v>
+      </c>
+      <c r="C475" s="23">
+        <v>35.71</v>
+      </c>
+      <c r="D475" s="23">
+        <v>21.93</v>
+      </c>
+      <c r="E475" s="23">
+        <v>21.7</v>
+      </c>
+      <c r="F475" s="23">
+        <v>22.53</v>
+      </c>
+      <c r="G475" s="23">
+        <v>14.21</v>
+      </c>
+      <c r="H475" s="23">
+        <v>13.46</v>
+      </c>
+      <c r="I475" s="23">
+        <v>24.88</v>
+      </c>
+      <c r="J475" s="23">
+        <v>15.42</v>
+      </c>
+      <c r="K475" s="23">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="L475" s="23">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="M475" s="23">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="N475" s="23">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A476" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B476" s="23">
+        <v>22.21</v>
+      </c>
+      <c r="C476" s="23">
+        <v>35.99</v>
+      </c>
+      <c r="D476" s="23">
+        <v>22.13</v>
+      </c>
+      <c r="E476" s="23">
+        <v>21.9</v>
+      </c>
+      <c r="F476" s="23">
+        <v>22.71</v>
+      </c>
+      <c r="G476" s="23">
+        <v>14.34</v>
+      </c>
+      <c r="H476" s="23">
+        <v>13.58</v>
+      </c>
+      <c r="I476" s="23">
+        <v>24.88</v>
+      </c>
+      <c r="J476" s="23">
+        <v>15.53</v>
+      </c>
+      <c r="K476" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L476" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="M476" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="N476" s="23">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A477" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B477" s="23">
+        <v>22.21</v>
+      </c>
+      <c r="C477" s="23">
+        <v>35.99</v>
+      </c>
+      <c r="D477" s="23">
+        <v>22.13</v>
+      </c>
+      <c r="E477" s="23">
+        <v>21.9</v>
+      </c>
+      <c r="F477" s="23">
+        <v>22.71</v>
+      </c>
+      <c r="G477" s="23">
+        <v>14.34</v>
+      </c>
+      <c r="H477" s="23">
+        <v>13.58</v>
+      </c>
+      <c r="I477" s="23">
+        <v>24.88</v>
+      </c>
+      <c r="J477" s="23">
+        <v>15.53</v>
+      </c>
+      <c r="K477" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L477" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="M477" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="N477" s="23">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A478" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B478" s="23">
+        <v>22.23</v>
+      </c>
+      <c r="C478" s="23">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="D478" s="23">
+        <v>22.13</v>
+      </c>
+      <c r="E478" s="23">
+        <v>21.93</v>
+      </c>
+      <c r="F478" s="23">
+        <v>22.75</v>
+      </c>
+      <c r="G478" s="23">
+        <v>14.19</v>
+      </c>
+      <c r="H478" s="23">
+        <v>13.46</v>
+      </c>
+      <c r="I478" s="23">
+        <v>24.91</v>
+      </c>
+      <c r="J478" s="23">
+        <v>15.43</v>
+      </c>
+      <c r="K478" s="23">
+        <v>9.5</v>
+      </c>
+      <c r="L478" s="23">
+        <v>9.5</v>
+      </c>
+      <c r="M478" s="23">
+        <v>9.5</v>
+      </c>
+      <c r="N478" s="23">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A479" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B479" s="23">
+        <v>22.1</v>
+      </c>
+      <c r="C479" s="23">
+        <v>36.01</v>
+      </c>
+      <c r="D479" s="23">
+        <v>22.03</v>
+      </c>
+      <c r="E479" s="23">
+        <v>21.81</v>
+      </c>
+      <c r="F479" s="23">
+        <v>22.61</v>
+      </c>
+      <c r="G479" s="23">
+        <v>14.18</v>
+      </c>
+      <c r="H479" s="23">
+        <v>13.43</v>
+      </c>
+      <c r="I479" s="23">
+        <v>24.65</v>
+      </c>
+      <c r="J479" s="23">
+        <v>15.37</v>
+      </c>
+      <c r="K479" s="23">
+        <v>9.51</v>
+      </c>
+      <c r="L479" s="23">
+        <v>9.51</v>
+      </c>
+      <c r="M479" s="23">
+        <v>9.51</v>
+      </c>
+      <c r="N479" s="23">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A480" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B480" s="23">
+        <v>22.14</v>
+      </c>
+      <c r="C480" s="23">
+        <v>36.07</v>
+      </c>
+      <c r="D480" s="23">
+        <v>22.16</v>
+      </c>
+      <c r="E480" s="23">
+        <v>21.88</v>
+      </c>
+      <c r="F480" s="23">
+        <v>22.65</v>
+      </c>
+      <c r="G480" s="23">
+        <v>14.23</v>
+      </c>
+      <c r="H480" s="23">
+        <v>13.43</v>
+      </c>
+      <c r="I480" s="23">
+        <v>24.61</v>
+      </c>
+      <c r="J480" s="23">
+        <v>15.36</v>
+      </c>
+      <c r="K480" s="23">
+        <v>9.52</v>
+      </c>
+      <c r="L480" s="23">
+        <v>9.52</v>
+      </c>
+      <c r="M480" s="23">
+        <v>9.52</v>
+      </c>
+      <c r="N480" s="23">
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A481" t="s">
+        <v>127</v>
+      </c>
+      <c r="B481">
+        <v>22.29</v>
+      </c>
+      <c r="C481">
+        <v>36.28</v>
+      </c>
+      <c r="D481">
+        <v>22.34</v>
+      </c>
+      <c r="E481">
+        <v>22.04</v>
+      </c>
+      <c r="F481">
+        <v>22.77</v>
+      </c>
+      <c r="G481">
+        <v>14.38</v>
+      </c>
+      <c r="H481">
+        <v>13.53</v>
+      </c>
+      <c r="I481">
+        <v>24.57</v>
+      </c>
+      <c r="J481">
+        <v>15.43</v>
+      </c>
+      <c r="K481">
+        <v>9.59</v>
+      </c>
+      <c r="L481">
+        <v>9.59</v>
+      </c>
+      <c r="M481">
+        <v>9.59</v>
+      </c>
+      <c r="N481">
+        <v>20.04</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>DATE</t>
   </si>
@@ -398,6 +398,63 @@
   </si>
   <si>
     <t>2023/3/30</t>
+  </si>
+  <si>
+    <t>2023/3/31</t>
+  </si>
+  <si>
+    <t>2023/4/03</t>
+  </si>
+  <si>
+    <t>2023/4/04</t>
+  </si>
+  <si>
+    <t>2023/4/06</t>
+  </si>
+  <si>
+    <t>2023/4/07</t>
+  </si>
+  <si>
+    <t>2023/4/10</t>
+  </si>
+  <si>
+    <t>2023/4/11</t>
+  </si>
+  <si>
+    <t>2023/4/12</t>
+  </si>
+  <si>
+    <t>2023/4/13</t>
+  </si>
+  <si>
+    <t>2023/4/14</t>
+  </si>
+  <si>
+    <t>2023/4/17</t>
+  </si>
+  <si>
+    <t>2023/4/18</t>
+  </si>
+  <si>
+    <t>2023/4/19</t>
+  </si>
+  <si>
+    <t>2023/4/20</t>
+  </si>
+  <si>
+    <t>2023/4/21</t>
+  </si>
+  <si>
+    <t>2023/4/24</t>
+  </si>
+  <si>
+    <t>2023/4/25</t>
+  </si>
+  <si>
+    <t>2023/4/26</t>
+  </si>
+  <si>
+    <t>2023/4/27</t>
   </si>
 </sst>
 </file>
@@ -876,7 +933,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N481"/>
+  <dimension ref="A1:N500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -22150,47 +22207,883 @@
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A481" t="s">
+      <c r="A481" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="23">
         <v>22.29</v>
       </c>
-      <c r="C481">
+      <c r="C481" s="23">
         <v>36.28</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="23">
         <v>22.34</v>
       </c>
-      <c r="E481">
+      <c r="E481" s="23">
         <v>22.04</v>
       </c>
-      <c r="F481">
+      <c r="F481" s="23">
         <v>22.77</v>
       </c>
-      <c r="G481">
+      <c r="G481" s="23">
         <v>14.38</v>
       </c>
-      <c r="H481">
+      <c r="H481" s="23">
         <v>13.53</v>
       </c>
-      <c r="I481">
+      <c r="I481" s="23">
         <v>24.57</v>
       </c>
-      <c r="J481">
+      <c r="J481" s="23">
         <v>15.43</v>
       </c>
-      <c r="K481">
+      <c r="K481" s="23">
         <v>9.59</v>
       </c>
-      <c r="L481">
+      <c r="L481" s="23">
         <v>9.59</v>
       </c>
-      <c r="M481">
+      <c r="M481" s="23">
         <v>9.59</v>
       </c>
-      <c r="N481">
+      <c r="N481" s="23">
         <v>20.04</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A482" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B482" s="23">
+        <v>22.4</v>
+      </c>
+      <c r="C482" s="23">
+        <v>36.49</v>
+      </c>
+      <c r="D482" s="23">
+        <v>22.39</v>
+      </c>
+      <c r="E482" s="23">
+        <v>22.13</v>
+      </c>
+      <c r="F482" s="23">
+        <v>22.9</v>
+      </c>
+      <c r="G482" s="23">
+        <v>14.41</v>
+      </c>
+      <c r="H482" s="23">
+        <v>13.57</v>
+      </c>
+      <c r="I482" s="23">
+        <v>24.78</v>
+      </c>
+      <c r="J482" s="23">
+        <v>15.5</v>
+      </c>
+      <c r="K482" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L482" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="M482" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="N482" s="23">
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A483" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B483" s="23">
+        <v>22.62</v>
+      </c>
+      <c r="C483" s="23">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="D483" s="23">
+        <v>22.59</v>
+      </c>
+      <c r="E483" s="23">
+        <v>22.34</v>
+      </c>
+      <c r="F483" s="23">
+        <v>23.13</v>
+      </c>
+      <c r="G483" s="23">
+        <v>14.45</v>
+      </c>
+      <c r="H483" s="23">
+        <v>13.67</v>
+      </c>
+      <c r="I483" s="23">
+        <v>25.01</v>
+      </c>
+      <c r="J483" s="23">
+        <v>15.64</v>
+      </c>
+      <c r="K483" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L483" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="M483" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="N483" s="23">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A484" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B484" s="23">
+        <v>22.56</v>
+      </c>
+      <c r="C484" s="23">
+        <v>36.54</v>
+      </c>
+      <c r="D484" s="23">
+        <v>22.51</v>
+      </c>
+      <c r="E484" s="23">
+        <v>22.27</v>
+      </c>
+      <c r="F484" s="23">
+        <v>23.06</v>
+      </c>
+      <c r="G484" s="23">
+        <v>14.52</v>
+      </c>
+      <c r="H484" s="23">
+        <v>13.73</v>
+      </c>
+      <c r="I484" s="23">
+        <v>24.83</v>
+      </c>
+      <c r="J484" s="23">
+        <v>15.65</v>
+      </c>
+      <c r="K484" s="23">
+        <v>9.69</v>
+      </c>
+      <c r="L484" s="23">
+        <v>9.69</v>
+      </c>
+      <c r="M484" s="23">
+        <v>9.69</v>
+      </c>
+      <c r="N484" s="23">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A485" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B485" s="23">
+        <v>22.56</v>
+      </c>
+      <c r="C485" s="23">
+        <v>36.56</v>
+      </c>
+      <c r="D485" s="23">
+        <v>22.43</v>
+      </c>
+      <c r="E485" s="23">
+        <v>22.25</v>
+      </c>
+      <c r="F485" s="23">
+        <v>23.07</v>
+      </c>
+      <c r="G485" s="23">
+        <v>14.49</v>
+      </c>
+      <c r="H485" s="23">
+        <v>13.73</v>
+      </c>
+      <c r="I485" s="23">
+        <v>24.91</v>
+      </c>
+      <c r="J485" s="23">
+        <v>15.66</v>
+      </c>
+      <c r="K485" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="L485" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="M485" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="N485" s="23">
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A486" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B486" s="23">
+        <v>22.76</v>
+      </c>
+      <c r="C486" s="23">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="D486" s="23">
+        <v>22.63</v>
+      </c>
+      <c r="E486" s="23">
+        <v>22.44</v>
+      </c>
+      <c r="F486" s="23">
+        <v>23.28</v>
+      </c>
+      <c r="G486" s="23">
+        <v>14.58</v>
+      </c>
+      <c r="H486" s="23">
+        <v>13.79</v>
+      </c>
+      <c r="I486" s="23">
+        <v>25.15</v>
+      </c>
+      <c r="J486" s="23">
+        <v>15.76</v>
+      </c>
+      <c r="K486" s="23">
+        <v>9.69</v>
+      </c>
+      <c r="L486" s="23">
+        <v>9.69</v>
+      </c>
+      <c r="M486" s="23">
+        <v>9.69</v>
+      </c>
+      <c r="N486" s="23">
+        <v>20.440000000000001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A487" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B487" s="23">
+        <v>22.61</v>
+      </c>
+      <c r="C487" s="23">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="D487" s="23">
+        <v>22.52</v>
+      </c>
+      <c r="E487" s="23">
+        <v>22.3</v>
+      </c>
+      <c r="F487" s="23">
+        <v>23.1</v>
+      </c>
+      <c r="G487" s="23">
+        <v>14.58</v>
+      </c>
+      <c r="H487" s="23">
+        <v>13.74</v>
+      </c>
+      <c r="I487" s="23">
+        <v>24.91</v>
+      </c>
+      <c r="J487" s="23">
+        <v>15.68</v>
+      </c>
+      <c r="K487" s="23">
+        <v>9.66</v>
+      </c>
+      <c r="L487" s="23">
+        <v>9.66</v>
+      </c>
+      <c r="M487" s="23">
+        <v>9.66</v>
+      </c>
+      <c r="N487" s="23">
+        <v>20.329999999999998</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A488" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B488" s="23">
+        <v>22.6</v>
+      </c>
+      <c r="C488" s="23">
+        <v>36.9</v>
+      </c>
+      <c r="D488" s="23">
+        <v>22.47</v>
+      </c>
+      <c r="E488" s="23">
+        <v>22.28</v>
+      </c>
+      <c r="F488" s="23">
+        <v>23.11</v>
+      </c>
+      <c r="G488" s="23">
+        <v>14.51</v>
+      </c>
+      <c r="H488" s="23">
+        <v>13.73</v>
+      </c>
+      <c r="I488" s="23">
+        <v>24.96</v>
+      </c>
+      <c r="J488" s="23">
+        <v>15.68</v>
+      </c>
+      <c r="K488" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="L488" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="M488" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="N488" s="23">
+        <v>20.29</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A489" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B489" s="23">
+        <v>22.59</v>
+      </c>
+      <c r="C489" s="23">
+        <v>36.69</v>
+      </c>
+      <c r="D489" s="23">
+        <v>22.37</v>
+      </c>
+      <c r="E489" s="23">
+        <v>22.24</v>
+      </c>
+      <c r="F489" s="23">
+        <v>23.13</v>
+      </c>
+      <c r="G489" s="23">
+        <v>14.53</v>
+      </c>
+      <c r="H489" s="23">
+        <v>13.76</v>
+      </c>
+      <c r="I489" s="23">
+        <v>25.13</v>
+      </c>
+      <c r="J489" s="23">
+        <v>15.74</v>
+      </c>
+      <c r="K489" s="23">
+        <v>9.61</v>
+      </c>
+      <c r="L489" s="23">
+        <v>9.61</v>
+      </c>
+      <c r="M489" s="23">
+        <v>9.61</v>
+      </c>
+      <c r="N489" s="23">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A490" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B490" s="23">
+        <v>22.36</v>
+      </c>
+      <c r="C490" s="23">
+        <v>36.39</v>
+      </c>
+      <c r="D490" s="23">
+        <v>22.14</v>
+      </c>
+      <c r="E490" s="23">
+        <v>22</v>
+      </c>
+      <c r="F490" s="23">
+        <v>22.9</v>
+      </c>
+      <c r="G490" s="23">
+        <v>14.45</v>
+      </c>
+      <c r="H490" s="23">
+        <v>13.7</v>
+      </c>
+      <c r="I490" s="23">
+        <v>24.95</v>
+      </c>
+      <c r="J490" s="23">
+        <v>15.65</v>
+      </c>
+      <c r="K490" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="L490" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="M490" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="N490" s="23">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A491" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B491" s="23">
+        <v>22.49</v>
+      </c>
+      <c r="C491" s="23">
+        <v>36.75</v>
+      </c>
+      <c r="D491" s="23">
+        <v>22.25</v>
+      </c>
+      <c r="E491" s="23">
+        <v>22.13</v>
+      </c>
+      <c r="F491" s="23">
+        <v>23.04</v>
+      </c>
+      <c r="G491" s="23">
+        <v>14.54</v>
+      </c>
+      <c r="H491" s="23">
+        <v>13.77</v>
+      </c>
+      <c r="I491" s="23">
+        <v>25.12</v>
+      </c>
+      <c r="J491" s="23">
+        <v>15.74</v>
+      </c>
+      <c r="K491" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L491" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="M491" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="N491" s="23">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A492" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B492" s="23">
+        <v>22.62</v>
+      </c>
+      <c r="C492" s="23">
+        <v>36.86</v>
+      </c>
+      <c r="D492" s="23">
+        <v>22.43</v>
+      </c>
+      <c r="E492" s="23">
+        <v>22.28</v>
+      </c>
+      <c r="F492" s="23">
+        <v>23.14</v>
+      </c>
+      <c r="G492" s="23">
+        <v>14.8</v>
+      </c>
+      <c r="H492" s="23">
+        <v>13.96</v>
+      </c>
+      <c r="I492" s="23">
+        <v>25.15</v>
+      </c>
+      <c r="J492" s="23">
+        <v>15.9</v>
+      </c>
+      <c r="K492" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L492" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M492" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N492" s="23">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A493" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B493" s="23">
+        <v>22.63</v>
+      </c>
+      <c r="C493" s="23">
+        <v>36.86</v>
+      </c>
+      <c r="D493" s="23">
+        <v>22.44</v>
+      </c>
+      <c r="E493" s="23">
+        <v>22.29</v>
+      </c>
+      <c r="F493" s="23">
+        <v>23.15</v>
+      </c>
+      <c r="G493" s="23">
+        <v>14.86</v>
+      </c>
+      <c r="H493" s="23">
+        <v>14</v>
+      </c>
+      <c r="I493" s="23">
+        <v>25.09</v>
+      </c>
+      <c r="J493" s="23">
+        <v>15.93</v>
+      </c>
+      <c r="K493" s="23">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="L493" s="23">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="M493" s="23">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="N493" s="23">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="494" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A494" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B494" s="23">
+        <v>22.44</v>
+      </c>
+      <c r="C494" s="23">
+        <v>36.64</v>
+      </c>
+      <c r="D494" s="23">
+        <v>22.23</v>
+      </c>
+      <c r="E494" s="23">
+        <v>22.09</v>
+      </c>
+      <c r="F494" s="23">
+        <v>22.97</v>
+      </c>
+      <c r="G494" s="23">
+        <v>14.71</v>
+      </c>
+      <c r="H494" s="23">
+        <v>13.9</v>
+      </c>
+      <c r="I494" s="23">
+        <v>24.99</v>
+      </c>
+      <c r="J494" s="23">
+        <v>15.83</v>
+      </c>
+      <c r="K494" s="23">
+        <v>9.82</v>
+      </c>
+      <c r="L494" s="23">
+        <v>9.82</v>
+      </c>
+      <c r="M494" s="23">
+        <v>9.82</v>
+      </c>
+      <c r="N494" s="23">
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A495" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B495" s="23">
+        <v>22.3</v>
+      </c>
+      <c r="C495" s="23">
+        <v>36.08</v>
+      </c>
+      <c r="D495" s="23">
+        <v>22.03</v>
+      </c>
+      <c r="E495" s="23">
+        <v>21.92</v>
+      </c>
+      <c r="F495" s="23">
+        <v>22.86</v>
+      </c>
+      <c r="G495" s="23">
+        <v>14.63</v>
+      </c>
+      <c r="H495" s="23">
+        <v>13.86</v>
+      </c>
+      <c r="I495" s="23">
+        <v>24.96</v>
+      </c>
+      <c r="J495" s="23">
+        <v>15.81</v>
+      </c>
+      <c r="K495" s="23">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="L495" s="23">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="M495" s="23">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="N495" s="23">
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="496" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A496" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B496" s="23">
+        <v>21.83</v>
+      </c>
+      <c r="C496" s="23">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="D496" s="23">
+        <v>21.64</v>
+      </c>
+      <c r="E496" s="23">
+        <v>21.48</v>
+      </c>
+      <c r="F496" s="23">
+        <v>22.35</v>
+      </c>
+      <c r="G496" s="23">
+        <v>14.43</v>
+      </c>
+      <c r="H496" s="23">
+        <v>13.6</v>
+      </c>
+      <c r="I496" s="23">
+        <v>24.3</v>
+      </c>
+      <c r="J496" s="23">
+        <v>15.47</v>
+      </c>
+      <c r="K496" s="23">
+        <v>9.64</v>
+      </c>
+      <c r="L496" s="23">
+        <v>9.64</v>
+      </c>
+      <c r="M496" s="23">
+        <v>9.64</v>
+      </c>
+      <c r="N496" s="23">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A497" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B497" s="23">
+        <v>21.58</v>
+      </c>
+      <c r="C497" s="23">
+        <v>34.9</v>
+      </c>
+      <c r="D497" s="23">
+        <v>21.31</v>
+      </c>
+      <c r="E497" s="23">
+        <v>21.22</v>
+      </c>
+      <c r="F497" s="23">
+        <v>22.12</v>
+      </c>
+      <c r="G497" s="23">
+        <v>14.29</v>
+      </c>
+      <c r="H497" s="23">
+        <v>13.48</v>
+      </c>
+      <c r="I497" s="23">
+        <v>24.19</v>
+      </c>
+      <c r="J497" s="23">
+        <v>15.36</v>
+      </c>
+      <c r="K497" s="23">
+        <v>9.58</v>
+      </c>
+      <c r="L497" s="23">
+        <v>9.58</v>
+      </c>
+      <c r="M497" s="23">
+        <v>9.58</v>
+      </c>
+      <c r="N497" s="23">
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A498" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B498" s="23">
+        <v>21.16</v>
+      </c>
+      <c r="C498" s="23">
+        <v>34.33</v>
+      </c>
+      <c r="D498" s="23">
+        <v>21.09</v>
+      </c>
+      <c r="E498" s="23">
+        <v>20.81</v>
+      </c>
+      <c r="F498" s="23">
+        <v>21.68</v>
+      </c>
+      <c r="G498" s="23">
+        <v>14.29</v>
+      </c>
+      <c r="H498" s="23">
+        <v>13.4</v>
+      </c>
+      <c r="I498" s="23">
+        <v>23.72</v>
+      </c>
+      <c r="J498" s="23">
+        <v>15.22</v>
+      </c>
+      <c r="K498" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L498" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="M498" s="23">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="N498" s="23">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A499" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B499" s="23">
+        <v>21.25</v>
+      </c>
+      <c r="C499" s="23">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="D499" s="23">
+        <v>21.21</v>
+      </c>
+      <c r="E499" s="23">
+        <v>20.93</v>
+      </c>
+      <c r="F499" s="23">
+        <v>21.78</v>
+      </c>
+      <c r="G499" s="23">
+        <v>14.28</v>
+      </c>
+      <c r="H499" s="23">
+        <v>13.39</v>
+      </c>
+      <c r="I499" s="23">
+        <v>23.95</v>
+      </c>
+      <c r="J499" s="23">
+        <v>15.24</v>
+      </c>
+      <c r="K499" s="23">
+        <v>9.59</v>
+      </c>
+      <c r="L499" s="23">
+        <v>9.59</v>
+      </c>
+      <c r="M499" s="23">
+        <v>9.59</v>
+      </c>
+      <c r="N499" s="23">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A500" t="s">
+        <v>146</v>
+      </c>
+      <c r="B500">
+        <v>21.38</v>
+      </c>
+      <c r="C500">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="D500">
+        <v>21.38</v>
+      </c>
+      <c r="E500">
+        <v>21.05</v>
+      </c>
+      <c r="F500">
+        <v>21.88</v>
+      </c>
+      <c r="G500">
+        <v>14.42</v>
+      </c>
+      <c r="H500">
+        <v>13.49</v>
+      </c>
+      <c r="I500">
+        <v>23.95</v>
+      </c>
+      <c r="J500">
+        <v>15.33</v>
+      </c>
+      <c r="K500">
+        <v>9.67</v>
+      </c>
+      <c r="L500">
+        <v>9.67</v>
+      </c>
+      <c r="M500">
+        <v>9.67</v>
+      </c>
+      <c r="N500">
+        <v>19.48</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>DATE</t>
   </si>
@@ -455,6 +455,66 @@
   </si>
   <si>
     <t>2023/4/27</t>
+  </si>
+  <si>
+    <t>2023/4/28</t>
+  </si>
+  <si>
+    <t>2023/5/04</t>
+  </si>
+  <si>
+    <t>2023/5/05</t>
+  </si>
+  <si>
+    <t>2023/5/08</t>
+  </si>
+  <si>
+    <t>2023/5/09</t>
+  </si>
+  <si>
+    <t>2023/5/10</t>
+  </si>
+  <si>
+    <t>2023/5/11</t>
+  </si>
+  <si>
+    <t>2023/5/12</t>
+  </si>
+  <si>
+    <t>2023/5/15</t>
+  </si>
+  <si>
+    <t>2023/5/16</t>
+  </si>
+  <si>
+    <t>2023/5/17</t>
+  </si>
+  <si>
+    <t>2023/5/18</t>
+  </si>
+  <si>
+    <t>2023/5/19</t>
+  </si>
+  <si>
+    <t>2023/5/22</t>
+  </si>
+  <si>
+    <t>2023/5/24</t>
+  </si>
+  <si>
+    <t>2023/5/25</t>
+  </si>
+  <si>
+    <t>2023/5/26</t>
+  </si>
+  <si>
+    <t>2023/5/29</t>
+  </si>
+  <si>
+    <t>2023/5/30</t>
+  </si>
+  <si>
+    <t>2023/5/23</t>
   </si>
 </sst>
 </file>
@@ -933,7 +993,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N500"/>
+  <dimension ref="A1:N520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3932,7 +3992,7 @@
         <v>11.89</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" ref="L66:L97" si="5">M66</f>
+        <f t="shared" ref="L66:L90" si="5">M66</f>
         <v>11.89</v>
       </c>
       <c r="M66" s="7">
@@ -23043,47 +23103,940 @@
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A500" t="s">
+      <c r="A500" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="23">
         <v>21.38</v>
       </c>
-      <c r="C500">
+      <c r="C500" s="23">
         <v>35.409999999999997</v>
       </c>
-      <c r="D500">
+      <c r="D500" s="23">
         <v>21.38</v>
       </c>
-      <c r="E500">
+      <c r="E500" s="23">
         <v>21.05</v>
       </c>
-      <c r="F500">
+      <c r="F500" s="23">
         <v>21.88</v>
       </c>
-      <c r="G500">
+      <c r="G500" s="23">
         <v>14.42</v>
       </c>
-      <c r="H500">
+      <c r="H500" s="23">
         <v>13.49</v>
       </c>
-      <c r="I500">
+      <c r="I500" s="23">
         <v>23.95</v>
       </c>
-      <c r="J500">
+      <c r="J500" s="23">
         <v>15.33</v>
       </c>
-      <c r="K500">
+      <c r="K500" s="23">
         <v>9.67</v>
       </c>
-      <c r="L500">
+      <c r="L500" s="23">
         <v>9.67</v>
       </c>
-      <c r="M500">
+      <c r="M500" s="23">
         <v>9.67</v>
       </c>
-      <c r="N500">
+      <c r="N500" s="23">
         <v>19.48</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A501" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B501" s="23">
+        <v>21.58</v>
+      </c>
+      <c r="C501" s="23">
+        <v>35.67</v>
+      </c>
+      <c r="D501" s="23">
+        <v>21.53</v>
+      </c>
+      <c r="E501" s="23">
+        <v>21.23</v>
+      </c>
+      <c r="F501" s="23">
+        <v>22.09</v>
+      </c>
+      <c r="G501" s="23">
+        <v>14.55</v>
+      </c>
+      <c r="H501" s="23">
+        <v>13.63</v>
+      </c>
+      <c r="I501" s="23">
+        <v>24.26</v>
+      </c>
+      <c r="J501" s="23">
+        <v>15.51</v>
+      </c>
+      <c r="K501" s="23">
+        <v>9.74</v>
+      </c>
+      <c r="L501" s="23">
+        <v>9.74</v>
+      </c>
+      <c r="M501" s="23">
+        <v>9.74</v>
+      </c>
+      <c r="N501" s="23">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A502" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B502" s="23">
+        <v>21.22</v>
+      </c>
+      <c r="C502" s="23">
+        <v>32.03</v>
+      </c>
+      <c r="D502" s="23">
+        <v>20.5</v>
+      </c>
+      <c r="E502" s="23">
+        <v>20.59</v>
+      </c>
+      <c r="F502" s="23">
+        <v>21.9</v>
+      </c>
+      <c r="G502" s="23">
+        <v>14.41</v>
+      </c>
+      <c r="H502" s="23">
+        <v>13.72</v>
+      </c>
+      <c r="I502" s="23">
+        <v>26.32</v>
+      </c>
+      <c r="J502" s="23">
+        <v>15.71</v>
+      </c>
+      <c r="K502" s="23">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="L502" s="23">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="M502" s="23">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="N502" s="23">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A503" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B503" s="23">
+        <v>21.07</v>
+      </c>
+      <c r="C503" s="23">
+        <v>31.64</v>
+      </c>
+      <c r="D503" s="23">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="E503" s="23">
+        <v>20.47</v>
+      </c>
+      <c r="F503" s="23">
+        <v>21.73</v>
+      </c>
+      <c r="G503" s="23">
+        <v>14.35</v>
+      </c>
+      <c r="H503" s="23">
+        <v>13.66</v>
+      </c>
+      <c r="I503" s="23">
+        <v>26.02</v>
+      </c>
+      <c r="J503" s="23">
+        <v>15.61</v>
+      </c>
+      <c r="K503" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L503" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M503" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N503" s="23">
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A504" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B504" s="23">
+        <v>21.15</v>
+      </c>
+      <c r="C504" s="23">
+        <v>31.68</v>
+      </c>
+      <c r="D504" s="23">
+        <v>20.48</v>
+      </c>
+      <c r="E504" s="23">
+        <v>20.53</v>
+      </c>
+      <c r="F504" s="23">
+        <v>21.83</v>
+      </c>
+      <c r="G504" s="23">
+        <v>14.53</v>
+      </c>
+      <c r="H504" s="23">
+        <v>13.88</v>
+      </c>
+      <c r="I504" s="23">
+        <v>26.21</v>
+      </c>
+      <c r="J504" s="23">
+        <v>15.83</v>
+      </c>
+      <c r="K504" s="23">
+        <v>10.01</v>
+      </c>
+      <c r="L504" s="23">
+        <v>10.01</v>
+      </c>
+      <c r="M504" s="23">
+        <v>10.01</v>
+      </c>
+      <c r="N504" s="23">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A505" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B505" s="23">
+        <v>20.96</v>
+      </c>
+      <c r="C505" s="23">
+        <v>31.29</v>
+      </c>
+      <c r="D505" s="23">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="E505" s="23">
+        <v>20.36</v>
+      </c>
+      <c r="F505" s="23">
+        <v>21.61</v>
+      </c>
+      <c r="G505" s="23">
+        <v>14.39</v>
+      </c>
+      <c r="H505" s="23">
+        <v>13.75</v>
+      </c>
+      <c r="I505" s="23">
+        <v>25.8</v>
+      </c>
+      <c r="J505" s="23">
+        <v>15.65</v>
+      </c>
+      <c r="K505" s="23">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="L505" s="23">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="M505" s="23">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="N505" s="23">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A506" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B506" s="23">
+        <v>20.99</v>
+      </c>
+      <c r="C506" s="23">
+        <v>31.53</v>
+      </c>
+      <c r="D506" s="23">
+        <v>20.38</v>
+      </c>
+      <c r="E506" s="23">
+        <v>20.39</v>
+      </c>
+      <c r="F506" s="23">
+        <v>21.65</v>
+      </c>
+      <c r="G506" s="23">
+        <v>14.29</v>
+      </c>
+      <c r="H506" s="23">
+        <v>13.62</v>
+      </c>
+      <c r="I506" s="23">
+        <v>25.91</v>
+      </c>
+      <c r="J506" s="23">
+        <v>15.56</v>
+      </c>
+      <c r="K506" s="23">
+        <v>9.81</v>
+      </c>
+      <c r="L506" s="23">
+        <v>9.81</v>
+      </c>
+      <c r="M506" s="23">
+        <v>9.81</v>
+      </c>
+      <c r="N506" s="23">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A507" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B507" s="23">
+        <v>21</v>
+      </c>
+      <c r="C507" s="23">
+        <v>31.73</v>
+      </c>
+      <c r="D507" s="23">
+        <v>20.41</v>
+      </c>
+      <c r="E507" s="23">
+        <v>20.41</v>
+      </c>
+      <c r="F507" s="23">
+        <v>21.65</v>
+      </c>
+      <c r="G507" s="23">
+        <v>14.27</v>
+      </c>
+      <c r="H507" s="23">
+        <v>13.58</v>
+      </c>
+      <c r="I507" s="23">
+        <v>25.93</v>
+      </c>
+      <c r="J507" s="23">
+        <v>15.53</v>
+      </c>
+      <c r="K507" s="23">
+        <v>9.74</v>
+      </c>
+      <c r="L507" s="23">
+        <v>9.74</v>
+      </c>
+      <c r="M507" s="23">
+        <v>9.74</v>
+      </c>
+      <c r="N507" s="23">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A508" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B508" s="23">
+        <v>20.75</v>
+      </c>
+      <c r="C508" s="23">
+        <v>31.43</v>
+      </c>
+      <c r="D508" s="23">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="E508" s="23">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="F508" s="23">
+        <v>21.39</v>
+      </c>
+      <c r="G508" s="23">
+        <v>14.09</v>
+      </c>
+      <c r="H508" s="23">
+        <v>13.42</v>
+      </c>
+      <c r="I508" s="23">
+        <v>25.62</v>
+      </c>
+      <c r="J508" s="23">
+        <v>15.36</v>
+      </c>
+      <c r="K508" s="23">
+        <v>9.67</v>
+      </c>
+      <c r="L508" s="23">
+        <v>9.67</v>
+      </c>
+      <c r="M508" s="23">
+        <v>9.67</v>
+      </c>
+      <c r="N508" s="23">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="509" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A509" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B509" s="23">
+        <v>21.07</v>
+      </c>
+      <c r="C509" s="23">
+        <v>32.04</v>
+      </c>
+      <c r="D509" s="23">
+        <v>20.48</v>
+      </c>
+      <c r="E509" s="23">
+        <v>20.5</v>
+      </c>
+      <c r="F509" s="23">
+        <v>21.7</v>
+      </c>
+      <c r="G509" s="23">
+        <v>14.26</v>
+      </c>
+      <c r="H509" s="23">
+        <v>13.61</v>
+      </c>
+      <c r="I509" s="23">
+        <v>25.81</v>
+      </c>
+      <c r="J509" s="23">
+        <v>15.56</v>
+      </c>
+      <c r="K509" s="23">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="L509" s="23">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="M509" s="23">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="N509" s="23">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A510" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B510" s="23">
+        <v>20.95</v>
+      </c>
+      <c r="C510" s="23">
+        <v>31.98</v>
+      </c>
+      <c r="D510" s="23">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="E510" s="23">
+        <v>20.39</v>
+      </c>
+      <c r="F510" s="23">
+        <v>21.56</v>
+      </c>
+      <c r="G510" s="23">
+        <v>14.2</v>
+      </c>
+      <c r="H510" s="23">
+        <v>13.53</v>
+      </c>
+      <c r="I510" s="23">
+        <v>25.6</v>
+      </c>
+      <c r="J510" s="23">
+        <v>15.46</v>
+      </c>
+      <c r="K510" s="23">
+        <v>9.76</v>
+      </c>
+      <c r="L510" s="23">
+        <v>9.76</v>
+      </c>
+      <c r="M510" s="23">
+        <v>9.76</v>
+      </c>
+      <c r="N510" s="23">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A511" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B511" s="23">
+        <v>20.92</v>
+      </c>
+      <c r="C511" s="23">
+        <v>31.95</v>
+      </c>
+      <c r="D511" s="23">
+        <v>20.29</v>
+      </c>
+      <c r="E511" s="23">
+        <v>20.34</v>
+      </c>
+      <c r="F511" s="23">
+        <v>21.56</v>
+      </c>
+      <c r="G511" s="23">
+        <v>14.12</v>
+      </c>
+      <c r="H511" s="23">
+        <v>13.49</v>
+      </c>
+      <c r="I511" s="23">
+        <v>25.81</v>
+      </c>
+      <c r="J511" s="23">
+        <v>15.46</v>
+      </c>
+      <c r="K511" s="23">
+        <v>9.69</v>
+      </c>
+      <c r="L511" s="23">
+        <v>9.69</v>
+      </c>
+      <c r="M511" s="23">
+        <v>9.69</v>
+      </c>
+      <c r="N511" s="23">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="512" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A512" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B512" s="23">
+        <v>20.87</v>
+      </c>
+      <c r="C512" s="23">
+        <v>31.72</v>
+      </c>
+      <c r="D512" s="23">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="E512" s="23">
+        <v>20.27</v>
+      </c>
+      <c r="F512" s="23">
+        <v>21.54</v>
+      </c>
+      <c r="G512" s="23">
+        <v>14.14</v>
+      </c>
+      <c r="H512" s="23">
+        <v>13.52</v>
+      </c>
+      <c r="I512" s="23">
+        <v>25.95</v>
+      </c>
+      <c r="J512" s="23">
+        <v>15.5</v>
+      </c>
+      <c r="K512" s="23">
+        <v>9.73</v>
+      </c>
+      <c r="L512" s="23">
+        <v>9.73</v>
+      </c>
+      <c r="M512" s="23">
+        <v>9.73</v>
+      </c>
+      <c r="N512" s="23">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A513" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B513" s="23">
+        <v>20.9</v>
+      </c>
+      <c r="C513" s="23">
+        <v>31.75</v>
+      </c>
+      <c r="D513" s="23">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="E513" s="23">
+        <v>20.28</v>
+      </c>
+      <c r="F513" s="23">
+        <v>21.57</v>
+      </c>
+      <c r="G513" s="23">
+        <v>14.09</v>
+      </c>
+      <c r="H513" s="23">
+        <v>13.47</v>
+      </c>
+      <c r="I513" s="23">
+        <v>26.01</v>
+      </c>
+      <c r="J513" s="23">
+        <v>15.47</v>
+      </c>
+      <c r="K513" s="23">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L513" s="23">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M513" s="23">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N513" s="23">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A514" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B514" s="23">
+        <v>21.01</v>
+      </c>
+      <c r="C514" s="23">
+        <v>31.79</v>
+      </c>
+      <c r="D514" s="23">
+        <v>20.36</v>
+      </c>
+      <c r="E514" s="23">
+        <v>20.41</v>
+      </c>
+      <c r="F514" s="23">
+        <v>21.66</v>
+      </c>
+      <c r="G514" s="23">
+        <v>14.22</v>
+      </c>
+      <c r="H514" s="23">
+        <v>13.53</v>
+      </c>
+      <c r="I514" s="23">
+        <v>26.07</v>
+      </c>
+      <c r="J514" s="23">
+        <v>15.54</v>
+      </c>
+      <c r="K514" s="23">
+        <v>9.81</v>
+      </c>
+      <c r="L514" s="23">
+        <v>9.81</v>
+      </c>
+      <c r="M514" s="23">
+        <v>9.81</v>
+      </c>
+      <c r="N514" s="23">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B515" s="7">
+        <f>(B514+B516)/2</f>
+        <v>20.810000000000002</v>
+      </c>
+      <c r="C515" s="7">
+        <f t="shared" ref="C515:N515" si="6">(C514+C516)/2</f>
+        <v>31.53</v>
+      </c>
+      <c r="D515" s="7">
+        <f t="shared" si="6"/>
+        <v>20.145</v>
+      </c>
+      <c r="E515" s="7">
+        <f t="shared" si="6"/>
+        <v>20.21</v>
+      </c>
+      <c r="F515" s="7">
+        <f t="shared" si="6"/>
+        <v>21.47</v>
+      </c>
+      <c r="G515" s="7">
+        <f t="shared" si="6"/>
+        <v>14.010000000000002</v>
+      </c>
+      <c r="H515" s="7">
+        <f t="shared" si="6"/>
+        <v>13.344999999999999</v>
+      </c>
+      <c r="I515" s="7">
+        <f t="shared" si="6"/>
+        <v>25.91</v>
+      </c>
+      <c r="J515" s="7">
+        <f t="shared" si="6"/>
+        <v>15.36</v>
+      </c>
+      <c r="K515" s="7">
+        <f t="shared" si="6"/>
+        <v>9.6350000000000016</v>
+      </c>
+      <c r="L515" s="7">
+        <f t="shared" si="6"/>
+        <v>9.6350000000000016</v>
+      </c>
+      <c r="M515" s="7">
+        <f t="shared" si="6"/>
+        <v>9.6350000000000016</v>
+      </c>
+      <c r="N515" s="7">
+        <f t="shared" si="6"/>
+        <v>17.770000000000003</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A516" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B516" s="23">
+        <v>20.61</v>
+      </c>
+      <c r="C516" s="23">
+        <v>31.27</v>
+      </c>
+      <c r="D516" s="23">
+        <v>19.93</v>
+      </c>
+      <c r="E516" s="23">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="F516" s="23">
+        <v>21.28</v>
+      </c>
+      <c r="G516" s="23">
+        <v>13.8</v>
+      </c>
+      <c r="H516" s="23">
+        <v>13.16</v>
+      </c>
+      <c r="I516" s="23">
+        <v>25.75</v>
+      </c>
+      <c r="J516" s="23">
+        <v>15.18</v>
+      </c>
+      <c r="K516" s="23">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="L516" s="23">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="M516" s="23">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="N516" s="23">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A517" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B517" s="23">
+        <v>20.57</v>
+      </c>
+      <c r="C517" s="23">
+        <v>31.24</v>
+      </c>
+      <c r="D517" s="23">
+        <v>19.86</v>
+      </c>
+      <c r="E517" s="23">
+        <v>19.97</v>
+      </c>
+      <c r="F517" s="23">
+        <v>21.23</v>
+      </c>
+      <c r="G517" s="23">
+        <v>13.74</v>
+      </c>
+      <c r="H517" s="23">
+        <v>13.14</v>
+      </c>
+      <c r="I517" s="23">
+        <v>25.74</v>
+      </c>
+      <c r="J517" s="23">
+        <v>15.17</v>
+      </c>
+      <c r="K517" s="23">
+        <v>9.41</v>
+      </c>
+      <c r="L517" s="23">
+        <v>9.41</v>
+      </c>
+      <c r="M517" s="23">
+        <v>9.41</v>
+      </c>
+      <c r="N517" s="23">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A518" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B518" s="23">
+        <v>20.59</v>
+      </c>
+      <c r="C518" s="23">
+        <v>31.05</v>
+      </c>
+      <c r="D518" s="23">
+        <v>19.79</v>
+      </c>
+      <c r="E518" s="23">
+        <v>19.95</v>
+      </c>
+      <c r="F518" s="23">
+        <v>21.26</v>
+      </c>
+      <c r="G518" s="23">
+        <v>13.73</v>
+      </c>
+      <c r="H518" s="23">
+        <v>13.16</v>
+      </c>
+      <c r="I518" s="23">
+        <v>25.92</v>
+      </c>
+      <c r="J518" s="23">
+        <v>15.21</v>
+      </c>
+      <c r="K518" s="23">
+        <v>9.43</v>
+      </c>
+      <c r="L518" s="23">
+        <v>9.43</v>
+      </c>
+      <c r="M518" s="23">
+        <v>9.43</v>
+      </c>
+      <c r="N518" s="23">
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A519" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B519" s="23">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="C519" s="23">
+        <v>30.69</v>
+      </c>
+      <c r="D519" s="23">
+        <v>19.55</v>
+      </c>
+      <c r="E519" s="23">
+        <v>19.77</v>
+      </c>
+      <c r="F519" s="23">
+        <v>21.11</v>
+      </c>
+      <c r="G519" s="23">
+        <v>13.76</v>
+      </c>
+      <c r="H519" s="23">
+        <v>13.15</v>
+      </c>
+      <c r="I519" s="23">
+        <v>25.87</v>
+      </c>
+      <c r="J519" s="23">
+        <v>15.2</v>
+      </c>
+      <c r="K519" s="23">
+        <v>9.42</v>
+      </c>
+      <c r="L519" s="23">
+        <v>9.42</v>
+      </c>
+      <c r="M519" s="23">
+        <v>9.42</v>
+      </c>
+      <c r="N519" s="23">
+        <v>17.579999999999998</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A520" t="s">
+        <v>165</v>
+      </c>
+      <c r="B520">
+        <v>20.48</v>
+      </c>
+      <c r="C520">
+        <v>30.88</v>
+      </c>
+      <c r="D520">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E520">
+        <v>19.84</v>
+      </c>
+      <c r="F520">
+        <v>21.19</v>
+      </c>
+      <c r="G520">
+        <v>13.79</v>
+      </c>
+      <c r="H520">
+        <v>13.17</v>
+      </c>
+      <c r="I520">
+        <v>25.99</v>
+      </c>
+      <c r="J520">
+        <v>15.23</v>
+      </c>
+      <c r="K520">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="L520">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="M520">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="N520">
+        <v>17.670000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N540"/>
+  <dimension ref="A1:N561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -24808,49 +24808,1015 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="inlineStr">
+      <c r="A540" s="23" t="inlineStr">
         <is>
           <t>2023/6/29</t>
         </is>
       </c>
-      <c r="B540" t="n">
+      <c r="B540" s="23" t="n">
         <v>20.66</v>
       </c>
-      <c r="C540" t="n">
+      <c r="C540" s="23" t="n">
         <v>30.92</v>
       </c>
-      <c r="D540" t="n">
+      <c r="D540" s="23" t="n">
         <v>19.81</v>
       </c>
-      <c r="E540" t="n">
+      <c r="E540" s="23" t="n">
         <v>20.08</v>
       </c>
-      <c r="F540" t="n">
+      <c r="F540" s="23" t="n">
         <v>21.43</v>
       </c>
-      <c r="G540" t="n">
+      <c r="G540" s="23" t="n">
         <v>14.56</v>
       </c>
-      <c r="H540" t="n">
+      <c r="H540" s="23" t="n">
         <v>13.15</v>
       </c>
-      <c r="I540" t="n">
+      <c r="I540" s="23" t="n">
         <v>26.62</v>
       </c>
-      <c r="J540" t="n">
+      <c r="J540" s="23" t="n">
         <v>15.17</v>
       </c>
-      <c r="K540" t="n">
+      <c r="K540" s="23" t="n">
         <v>9.4</v>
       </c>
-      <c r="L540" t="n">
+      <c r="L540" s="23" t="n">
         <v>9.4</v>
       </c>
-      <c r="M540" t="n">
+      <c r="M540" s="23" t="n">
         <v>9.4</v>
       </c>
-      <c r="N540" t="n">
+      <c r="N540" s="23" t="n">
         <v>18.2</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="23" t="inlineStr">
+        <is>
+          <t>2023/6/30</t>
+        </is>
+      </c>
+      <c r="B541" s="23" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="C541" s="23" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="D541" s="23" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="E541" s="23" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="F541" s="23" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="G541" s="23" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="H541" s="23" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="I541" s="23" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="J541" s="23" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="K541" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="L541" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="M541" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="N541" s="23" t="n">
+        <v>18.35</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/03</t>
+        </is>
+      </c>
+      <c r="B542" s="23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C542" s="23" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="D542" s="23" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="E542" s="23" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="F542" s="23" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="G542" s="23" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="H542" s="23" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="I542" s="23" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="J542" s="23" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="K542" s="23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L542" s="23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M542" s="23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="N542" s="23" t="n">
+        <v>18.61</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/04</t>
+        </is>
+      </c>
+      <c r="B543" s="23" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="C543" s="23" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="D543" s="23" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="E543" s="23" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="F543" s="23" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="G543" s="23" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="H543" s="23" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="I543" s="23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="J543" s="23" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="K543" s="23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L543" s="23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M543" s="23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="N543" s="23" t="n">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/05</t>
+        </is>
+      </c>
+      <c r="B544" s="23" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="C544" s="23" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="D544" s="23" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="E544" s="23" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="F544" s="23" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="G544" s="23" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="H544" s="23" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="I544" s="23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J544" s="23" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="K544" s="23" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L544" s="23" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="M544" s="23" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="N544" s="23" t="n">
+        <v>18.56</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/06</t>
+        </is>
+      </c>
+      <c r="B545" s="23" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="C545" s="23" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D545" s="23" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="E545" s="23" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="F545" s="23" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="G545" s="23" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="H545" s="23" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="I545" s="23" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="J545" s="23" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="K545" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="L545" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="M545" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="N545" s="23" t="n">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/07</t>
+        </is>
+      </c>
+      <c r="B546" s="23" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="C546" s="23" t="n">
+        <v>30.78</v>
+      </c>
+      <c r="D546" s="23" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="E546" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F546" s="23" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="G546" s="23" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="H546" s="23" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="I546" s="23" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="J546" s="23" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K546" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="L546" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="M546" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="N546" s="23" t="n">
+        <v>18.31</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/10</t>
+        </is>
+      </c>
+      <c r="B547" s="23" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C547" s="23" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="D547" s="23" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="E547" s="23" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="F547" s="23" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="G547" s="23" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="H547" s="23" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="I547" s="23" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="J547" s="23" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="K547" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="L547" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="M547" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="N547" s="23" t="n">
+        <v>18.31</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/11</t>
+        </is>
+      </c>
+      <c r="B548" s="23" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="C548" s="23" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="D548" s="23" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E548" s="23" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="F548" s="23" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="G548" s="23" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="H548" s="23" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="I548" s="23" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="J548" s="23" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="K548" s="23" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="L548" s="23" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="M548" s="23" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="N548" s="23" t="n">
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/12</t>
+        </is>
+      </c>
+      <c r="B549" s="23" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="C549" s="23" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="D549" s="23" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="E549" s="23" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="F549" s="23" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="G549" s="23" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="H549" s="23" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="I549" s="23" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J549" s="23" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="K549" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="L549" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="M549" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="N549" s="23" t="n">
+        <v>18.35</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/13</t>
+        </is>
+      </c>
+      <c r="B550" s="23" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="C550" s="23" t="n">
+        <v>31.72</v>
+      </c>
+      <c r="D550" s="23" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="E550" s="23" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="F550" s="23" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="G550" s="23" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="H550" s="23" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="I550" s="23" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="J550" s="23" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="K550" s="23" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="L550" s="23" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="M550" s="23" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="N550" s="23" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/14</t>
+        </is>
+      </c>
+      <c r="B551" s="23" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="C551" s="23" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="D551" s="23" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="E551" s="23" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="F551" s="23" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="G551" s="23" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="H551" s="23" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="I551" s="23" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="J551" s="23" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="K551" s="23" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="L551" s="23" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="M551" s="23" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="N551" s="23" t="n">
+        <v>18.62</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/17</t>
+        </is>
+      </c>
+      <c r="B552" s="23" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="C552" s="23" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="D552" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="E552" s="23" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="F552" s="23" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="G552" s="23" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="H552" s="23" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="I552" s="23" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="J552" s="23" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K552" s="23" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="L552" s="23" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="M552" s="23" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="N552" s="23" t="n">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/18</t>
+        </is>
+      </c>
+      <c r="B553" s="23" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="C553" s="23" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="D553" s="23" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="E553" s="23" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="F553" s="23" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="G553" s="23" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="H553" s="23" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="I553" s="23" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="J553" s="23" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="K553" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="L553" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="M553" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="N553" s="23" t="n">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/19</t>
+        </is>
+      </c>
+      <c r="B554" s="23" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="C554" s="23" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="D554" s="23" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="E554" s="23" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F554" s="23" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="G554" s="23" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="H554" s="23" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="I554" s="23" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="J554" s="23" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="K554" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="L554" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M554" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="N554" s="23" t="n">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/20</t>
+        </is>
+      </c>
+      <c r="B555" s="23" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="C555" s="23" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="D555" s="23" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="E555" s="23" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="F555" s="23" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="G555" s="23" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="H555" s="23" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="I555" s="23" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="J555" s="23" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K555" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L555" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="M555" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="N555" s="23" t="n">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/21</t>
+        </is>
+      </c>
+      <c r="B556" s="23" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="C556" s="23" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="D556" s="23" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="E556" s="23" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="F556" s="23" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="G556" s="23" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="H556" s="23" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="I556" s="23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J556" s="23" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="K556" s="23" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="L556" s="23" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="M556" s="23" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="N556" s="23" t="n">
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/24</t>
+        </is>
+      </c>
+      <c r="B557" s="23" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="C557" s="23" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D557" s="23" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="E557" s="23" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="F557" s="23" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="G557" s="23" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="H557" s="23" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="I557" s="23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J557" s="23" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="K557" s="23" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="L557" s="23" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="M557" s="23" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="N557" s="23" t="n">
+        <v>18.19</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/25</t>
+        </is>
+      </c>
+      <c r="B558" s="23" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="C558" s="23" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="D558" s="23" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="E558" s="23" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="F558" s="23" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="G558" s="23" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="H558" s="23" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="I558" s="23" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="J558" s="23" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="K558" s="23" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="L558" s="23" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="M558" s="23" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="N558" s="23" t="n">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/26</t>
+        </is>
+      </c>
+      <c r="B559" s="23" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="C559" s="23" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="D559" s="23" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="E559" s="23" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="F559" s="23" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="G559" s="23" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="H559" s="23" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="I559" s="23" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="J559" s="23" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="K559" s="23" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="L559" s="23" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="M559" s="23" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="N559" s="23" t="n">
+        <v>18.51</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/27</t>
+        </is>
+      </c>
+      <c r="B560" s="23" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="C560" s="23" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="D560" s="23" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="E560" s="23" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="F560" s="23" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="G560" s="23" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="H560" s="23" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="I560" s="23" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J560" s="23" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="K560" s="23" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L560" s="23" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="M560" s="23" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="N560" s="23" t="n">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2023/7/28</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="C561" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="D561" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="E561" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="F561" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="G561" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="H561" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="I561" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="J561" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="K561" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="L561" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="M561" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="N561" t="n">
+        <v>18.81</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N561"/>
+  <dimension ref="A1:N584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -25774,49 +25774,1107 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
+      <c r="A561" s="23" t="inlineStr">
         <is>
           <t>2023/7/28</t>
         </is>
       </c>
-      <c r="B561" t="n">
+      <c r="B561" s="23" t="n">
         <v>21.14</v>
       </c>
-      <c r="C561" t="n">
+      <c r="C561" s="23" t="n">
         <v>31.57</v>
       </c>
-      <c r="D561" t="n">
+      <c r="D561" s="23" t="n">
         <v>20.55</v>
       </c>
-      <c r="E561" t="n">
+      <c r="E561" s="23" t="n">
         <v>20.61</v>
       </c>
-      <c r="F561" t="n">
+      <c r="F561" s="23" t="n">
         <v>21.81</v>
       </c>
-      <c r="G561" t="n">
+      <c r="G561" s="23" t="n">
         <v>15.19</v>
       </c>
-      <c r="H561" t="n">
+      <c r="H561" s="23" t="n">
         <v>13.58</v>
       </c>
-      <c r="I561" t="n">
+      <c r="I561" s="23" t="n">
         <v>26.25</v>
       </c>
-      <c r="J561" t="n">
+      <c r="J561" s="23" t="n">
         <v>15.54</v>
       </c>
-      <c r="K561" t="n">
+      <c r="K561" s="23" t="n">
         <v>9.859999999999999</v>
       </c>
-      <c r="L561" t="n">
+      <c r="L561" s="23" t="n">
         <v>9.859999999999999</v>
       </c>
-      <c r="M561" t="n">
+      <c r="M561" s="23" t="n">
         <v>9.859999999999999</v>
       </c>
-      <c r="N561" t="n">
+      <c r="N561" s="23" t="n">
         <v>18.81</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="23" t="inlineStr">
+        <is>
+          <t>2023/7/31</t>
+        </is>
+      </c>
+      <c r="B562" s="23" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="C562" s="23" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="D562" s="23" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="E562" s="23" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="F562" s="23" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="G562" s="23" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="H562" s="23" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="I562" s="23" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J562" s="23" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="K562" s="23" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="L562" s="23" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="M562" s="23" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="N562" s="23" t="n">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/01</t>
+        </is>
+      </c>
+      <c r="B563" s="23" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C563" s="23" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="D563" s="23" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="E563" s="23" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="F563" s="23" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="G563" s="23" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="H563" s="23" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="I563" s="23" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="J563" s="23" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K563" s="23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="L563" s="23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="M563" s="23" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="N563" s="23" t="n">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/02</t>
+        </is>
+      </c>
+      <c r="B564" s="23" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="C564" s="23" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D564" s="23" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="E564" s="23" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="F564" s="23" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="G564" s="23" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="H564" s="23" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="I564" s="23" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="J564" s="23" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="K564" s="23" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="L564" s="23" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="M564" s="23" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="N564" s="23" t="n">
+        <v>18.78</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/03</t>
+        </is>
+      </c>
+      <c r="B565" s="23" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="C565" s="23" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D565" s="23" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="E565" s="23" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F565" s="23" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="G565" s="23" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="H565" s="23" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="I565" s="23" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="J565" s="23" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="K565" s="23" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="L565" s="23" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="M565" s="23" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="N565" s="23" t="n">
+        <v>18.92</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/04</t>
+        </is>
+      </c>
+      <c r="B566" s="23" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="C566" s="23" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="D566" s="23" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="E566" s="23" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="F566" s="23" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="G566" s="23" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="H566" s="23" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="I566" s="23" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="J566" s="23" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K566" s="23" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="L566" s="23" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="M566" s="23" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="N566" s="23" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/07</t>
+        </is>
+      </c>
+      <c r="B567" s="23" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="C567" s="23" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="D567" s="23" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="E567" s="23" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="F567" s="23" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="G567" s="23" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="H567" s="23" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="I567" s="23" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="J567" s="23" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="K567" s="23" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L567" s="23" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M567" s="23" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N567" s="23" t="n">
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/08</t>
+        </is>
+      </c>
+      <c r="B568" s="23" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="C568" s="23" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="D568" s="23" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="E568" s="23" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="F568" s="23" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="G568" s="23" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="H568" s="23" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="I568" s="23" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="J568" s="23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K568" s="23" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="L568" s="23" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="M568" s="23" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="N568" s="23" t="n">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/09</t>
+        </is>
+      </c>
+      <c r="B569" s="23" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="C569" s="23" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="D569" s="23" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="E569" s="23" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="F569" s="23" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="G569" s="23" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="H569" s="23" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="I569" s="23" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="J569" s="23" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="K569" s="23" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="L569" s="23" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="M569" s="23" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="N569" s="23" t="n">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/10</t>
+        </is>
+      </c>
+      <c r="B570" s="23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C570" s="23" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="D570" s="23" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="E570" s="23" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="F570" s="23" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="G570" s="23" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H570" s="23" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="I570" s="23" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="J570" s="23" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="K570" s="23" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="L570" s="23" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M570" s="23" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="N570" s="23" t="n">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/11</t>
+        </is>
+      </c>
+      <c r="B571" s="23" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="C571" s="23" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="D571" s="23" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="E571" s="23" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="F571" s="23" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="G571" s="23" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="H571" s="23" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="I571" s="23" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="J571" s="23" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="K571" s="23" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="L571" s="23" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="M571" s="23" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="N571" s="23" t="n">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/14</t>
+        </is>
+      </c>
+      <c r="B572" s="23" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="C572" s="23" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="D572" s="23" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="E572" s="23" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="F572" s="23" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="G572" s="23" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="H572" s="23" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="I572" s="23" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="J572" s="23" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="K572" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="L572" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="M572" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="N572" s="23" t="n">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/15</t>
+        </is>
+      </c>
+      <c r="B573" s="23" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="C573" s="23" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="D573" s="23" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="E573" s="23" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="F573" s="23" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="G573" s="23" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="H573" s="23" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="I573" s="23" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="J573" s="23" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="K573" s="23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L573" s="23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="M573" s="23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N573" s="23" t="n">
+        <v>17.83</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/16</t>
+        </is>
+      </c>
+      <c r="B574" s="23" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="C574" s="23" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="D574" s="23" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="E574" s="23" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="F574" s="23" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="G574" s="23" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="H574" s="23" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="I574" s="23" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="J574" s="23" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="K574" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="L574" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="M574" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="N574" s="23" t="n">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/17</t>
+        </is>
+      </c>
+      <c r="B575" s="23" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="C575" s="23" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="D575" s="23" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="E575" s="23" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="F575" s="23" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="G575" s="23" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="H575" s="23" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="I575" s="23" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J575" s="23" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="K575" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="L575" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="M575" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="N575" s="23" t="n">
+        <v>17.83</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/18</t>
+        </is>
+      </c>
+      <c r="B576" s="23" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="C576" s="23" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="D576" s="23" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="E576" s="23" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F576" s="23" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="G576" s="23" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="H576" s="23" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="I576" s="23" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="J576" s="23" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="K576" s="23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L576" s="23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="M576" s="23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N576" s="23" t="n">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/21</t>
+        </is>
+      </c>
+      <c r="B577" s="23" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="C577" s="23" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="D577" s="23" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="E577" s="23" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="F577" s="23" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="G577" s="23" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="H577" s="23" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I577" s="23" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="J577" s="23" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K577" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="L577" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="M577" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="N577" s="23" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/22</t>
+        </is>
+      </c>
+      <c r="B578" s="23" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="C578" s="23" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="D578" s="23" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="E578" s="23" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="F578" s="23" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="G578" s="23" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H578" s="23" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="I578" s="23" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="J578" s="23" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="K578" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L578" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="M578" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="N578" s="23" t="n">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/23</t>
+        </is>
+      </c>
+      <c r="B579" s="23" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="C579" s="23" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D579" s="23" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E579" s="23" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="F579" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="G579" s="23" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="H579" s="23" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="I579" s="23" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="J579" s="23" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="K579" s="23" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="L579" s="23" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="M579" s="23" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="N579" s="23" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/24</t>
+        </is>
+      </c>
+      <c r="B580" s="23" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="C580" s="23" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="D580" s="23" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="E580" s="23" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="F580" s="23" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="G580" s="23" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="H580" s="23" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="I580" s="23" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="J580" s="23" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="K580" s="23" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="L580" s="23" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="M580" s="23" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="N580" s="23" t="n">
+        <v>17.19</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/25</t>
+        </is>
+      </c>
+      <c r="B581" s="23" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C581" s="23" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="D581" s="23" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E581" s="23" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="F581" s="23" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="G581" s="23" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="H581" s="23" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="I581" s="23" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="J581" s="23" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="K581" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="L581" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="M581" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="N581" s="23" t="n">
+        <v>17.08</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/28</t>
+        </is>
+      </c>
+      <c r="B582" s="23" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="C582" s="23" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="D582" s="23" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="E582" s="23" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="F582" s="23" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="G582" s="23" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="H582" s="23" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="I582" s="23" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="J582" s="23" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="K582" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="L582" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="M582" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="N582" s="23" t="n">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/29</t>
+        </is>
+      </c>
+      <c r="B583" s="23" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="C583" s="23" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="D583" s="23" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="E583" s="23" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="F583" s="23" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="G583" s="23" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="H583" s="23" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="I583" s="23" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="J583" s="23" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="K583" s="23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L583" s="23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="M583" s="23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N583" s="23" t="n">
+        <v>17.59</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2023/8/30</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="C584" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="D584" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="E584" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="F584" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G584" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="H584" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="I584" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="J584" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="K584" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="L584" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="M584" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="N584" t="n">
+        <v>17.64</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N584"/>
+  <dimension ref="A1:N604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -26832,49 +26832,969 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr">
+      <c r="A584" s="23" t="inlineStr">
         <is>
           <t>2023/8/30</t>
         </is>
       </c>
-      <c r="B584" t="n">
+      <c r="B584" s="23" t="n">
         <v>19.91</v>
       </c>
-      <c r="C584" t="n">
+      <c r="C584" s="23" t="n">
         <v>29.93</v>
       </c>
-      <c r="D584" t="n">
+      <c r="D584" s="23" t="n">
         <v>19.34</v>
       </c>
-      <c r="E584" t="n">
+      <c r="E584" s="23" t="n">
         <v>19.41</v>
       </c>
-      <c r="F584" t="n">
+      <c r="F584" s="23" t="n">
         <v>20.6</v>
       </c>
-      <c r="G584" t="n">
+      <c r="G584" s="23" t="n">
         <v>14.57</v>
       </c>
-      <c r="H584" t="n">
+      <c r="H584" s="23" t="n">
         <v>12.94</v>
       </c>
-      <c r="I584" t="n">
+      <c r="I584" s="23" t="n">
         <v>25.26</v>
       </c>
-      <c r="J584" t="n">
+      <c r="J584" s="23" t="n">
         <v>14.95</v>
       </c>
-      <c r="K584" t="n">
+      <c r="K584" s="23" t="n">
         <v>9.390000000000001</v>
       </c>
-      <c r="L584" t="n">
+      <c r="L584" s="23" t="n">
         <v>9.390000000000001</v>
       </c>
-      <c r="M584" t="n">
+      <c r="M584" s="23" t="n">
         <v>9.390000000000001</v>
       </c>
-      <c r="N584" t="n">
+      <c r="N584" s="23" t="n">
         <v>17.64</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="23" t="inlineStr">
+        <is>
+          <t>2023/8/31</t>
+        </is>
+      </c>
+      <c r="B585" s="23" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C585" s="23" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="D585" s="23" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="E585" s="23" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="F585" s="23" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="G585" s="23" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="H585" s="23" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="I585" s="23" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="J585" s="23" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="K585" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="L585" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="M585" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="N585" s="23" t="n">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/01</t>
+        </is>
+      </c>
+      <c r="B586" s="23" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="C586" s="23" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="D586" s="23" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="E586" s="23" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="F586" s="23" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="G586" s="23" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="H586" s="23" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="I586" s="23" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="J586" s="23" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K586" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="L586" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="M586" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="N586" s="23" t="n">
+        <v>17.42</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/04</t>
+        </is>
+      </c>
+      <c r="B587" s="23" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="C587" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="D587" s="23" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="E587" s="23" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="F587" s="23" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="G587" s="23" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="H587" s="23" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="I587" s="23" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="J587" s="23" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="K587" s="23" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="L587" s="23" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="M587" s="23" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="N587" s="23" t="n">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/05</t>
+        </is>
+      </c>
+      <c r="B588" s="23" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="C588" s="23" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="D588" s="23" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="E588" s="23" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="F588" s="23" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="G588" s="23" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="H588" s="23" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="I588" s="23" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="J588" s="23" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="K588" s="23" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="L588" s="23" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="M588" s="23" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="N588" s="23" t="n">
+        <v>17.42</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/06</t>
+        </is>
+      </c>
+      <c r="B589" s="23" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="C589" s="23" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="D589" s="23" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="E589" s="23" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="F589" s="23" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="G589" s="23" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="H589" s="23" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="I589" s="23" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="J589" s="23" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="K589" s="23" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="L589" s="23" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="M589" s="23" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="N589" s="23" t="n">
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/07</t>
+        </is>
+      </c>
+      <c r="B590" s="23" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="C590" s="23" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="D590" s="23" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="E590" s="23" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="F590" s="23" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="G590" s="23" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="H590" s="23" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="I590" s="23" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="J590" s="23" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K590" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="L590" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="M590" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="N590" s="23" t="n">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/08</t>
+        </is>
+      </c>
+      <c r="B591" s="23" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="C591" s="23" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="D591" s="23" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E591" s="23" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F591" s="23" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="G591" s="23" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="H591" s="23" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="I591" s="23" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="J591" s="23" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="K591" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="L591" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="M591" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="N591" s="23" t="n">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/11</t>
+        </is>
+      </c>
+      <c r="B592" s="23" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C592" s="23" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="D592" s="23" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="E592" s="23" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="F592" s="23" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="G592" s="23" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="H592" s="23" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="I592" s="23" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="J592" s="23" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K592" s="23" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="L592" s="23" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="M592" s="23" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="N592" s="23" t="n">
+        <v>17.23</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/12</t>
+        </is>
+      </c>
+      <c r="B593" s="23" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="C593" s="23" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="D593" s="23" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="E593" s="23" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="F593" s="23" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="G593" s="23" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="H593" s="23" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="I593" s="23" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J593" s="23" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K593" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="L593" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="M593" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="N593" s="23" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/13</t>
+        </is>
+      </c>
+      <c r="B594" s="23" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="C594" s="23" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="D594" s="23" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="E594" s="23" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="F594" s="23" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="G594" s="23" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="H594" s="23" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="I594" s="23" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="J594" s="23" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="K594" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L594" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="M594" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="N594" s="23" t="n">
+        <v>17.06</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/14</t>
+        </is>
+      </c>
+      <c r="B595" s="23" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="C595" s="23" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="D595" s="23" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="E595" s="23" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="F595" s="23" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="G595" s="23" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="H595" s="23" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="I595" s="23" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="J595" s="23" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="K595" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="L595" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="M595" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="N595" s="23" t="n">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/15</t>
+        </is>
+      </c>
+      <c r="B596" s="23" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="C596" s="23" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="D596" s="23" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="E596" s="23" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="F596" s="23" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="G596" s="23" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="H596" s="23" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="I596" s="23" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="J596" s="23" t="n">
+        <v>15</v>
+      </c>
+      <c r="K596" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="L596" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="M596" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="N596" s="23" t="n">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/18</t>
+        </is>
+      </c>
+      <c r="B597" s="23" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="C597" s="23" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="D597" s="23" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="E597" s="23" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="F597" s="23" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="G597" s="23" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="H597" s="23" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="I597" s="23" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="J597" s="23" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="K597" s="23" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="L597" s="23" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="M597" s="23" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="N597" s="23" t="n">
+        <v>17.04</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/19</t>
+        </is>
+      </c>
+      <c r="B598" s="23" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="C598" s="23" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="D598" s="23" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="E598" s="23" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="F598" s="23" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="G598" s="23" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="H598" s="23" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="I598" s="23" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="J598" s="23" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="K598" s="23" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="L598" s="23" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="M598" s="23" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="N598" s="23" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/20</t>
+        </is>
+      </c>
+      <c r="B599" s="23" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="C599" s="23" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="D599" s="23" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="E599" s="23" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="F599" s="23" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="G599" s="23" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H599" s="23" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="I599" s="23" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J599" s="23" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="K599" s="23" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="L599" s="23" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="M599" s="23" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="N599" s="23" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/21</t>
+        </is>
+      </c>
+      <c r="B600" s="23" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="C600" s="23" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="D600" s="23" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="E600" s="23" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="F600" s="23" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="G600" s="23" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="H600" s="23" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="I600" s="23" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="J600" s="23" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="K600" s="23" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="L600" s="23" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="M600" s="23" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="N600" s="23" t="n">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/22</t>
+        </is>
+      </c>
+      <c r="B601" s="23" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="C601" s="23" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="D601" s="23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E601" s="23" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="F601" s="23" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="G601" s="23" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="H601" s="23" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="I601" s="23" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="J601" s="23" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="K601" s="23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L601" s="23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M601" s="23" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="N601" s="23" t="n">
+        <v>17.01</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/25</t>
+        </is>
+      </c>
+      <c r="B602" s="23" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="C602" s="23" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="D602" s="23" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="E602" s="23" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="F602" s="23" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="G602" s="23" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="H602" s="23" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="I602" s="23" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="J602" s="23" t="n">
+        <v>15</v>
+      </c>
+      <c r="K602" s="23" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="L602" s="23" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="M602" s="23" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="N602" s="23" t="n">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/26</t>
+        </is>
+      </c>
+      <c r="B603" s="23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C603" s="23" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="D603" s="23" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="E603" s="23" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="F603" s="23" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="G603" s="23" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="H603" s="23" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="I603" s="23" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="J603" s="23" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="K603" s="23" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="L603" s="23" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="M603" s="23" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="N603" s="23" t="n">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2023/9/27</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="C604" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="D604" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="E604" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="F604" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="G604" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="H604" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="I604" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="J604" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="K604" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="L604" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="M604" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="N604" t="n">
+        <v>16.76</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N604"/>
+  <dimension ref="A1:N621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -27752,49 +27752,831 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" t="inlineStr">
+      <c r="A604" s="23" t="inlineStr">
         <is>
           <t>2023/9/27</t>
         </is>
       </c>
-      <c r="B604" t="n">
+      <c r="B604" s="23" t="n">
         <v>19.58</v>
       </c>
-      <c r="C604" t="n">
+      <c r="C604" s="23" t="n">
         <v>28.46</v>
       </c>
-      <c r="D604" t="n">
+      <c r="D604" s="23" t="n">
         <v>18.34</v>
       </c>
-      <c r="E604" t="n">
+      <c r="E604" s="23" t="n">
         <v>18.97</v>
       </c>
-      <c r="F604" t="n">
+      <c r="F604" s="23" t="n">
         <v>20.27</v>
       </c>
-      <c r="G604" t="n">
+      <c r="G604" s="23" t="n">
         <v>14.26</v>
       </c>
-      <c r="H604" t="n">
+      <c r="H604" s="23" t="n">
         <v>13.01</v>
       </c>
-      <c r="I604" t="n">
+      <c r="I604" s="23" t="n">
         <v>24.92</v>
       </c>
-      <c r="J604" t="n">
+      <c r="J604" s="23" t="n">
         <v>14.97</v>
       </c>
-      <c r="K604" t="n">
+      <c r="K604" s="23" t="n">
         <v>9.44</v>
       </c>
-      <c r="L604" t="n">
+      <c r="L604" s="23" t="n">
         <v>9.44</v>
       </c>
-      <c r="M604" t="n">
+      <c r="M604" s="23" t="n">
         <v>9.44</v>
       </c>
-      <c r="N604" t="n">
+      <c r="N604" s="23" t="n">
         <v>16.76</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="23" t="inlineStr">
+        <is>
+          <t>2023/9/28</t>
+        </is>
+      </c>
+      <c r="B605" s="23" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="C605" s="23" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="D605" s="23" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="E605" s="23" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="F605" s="23" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="G605" s="23" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="H605" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="I605" s="23" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="J605" s="23" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="K605" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="L605" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="M605" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="N605" s="23" t="n">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/09</t>
+        </is>
+      </c>
+      <c r="B606" s="23" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="C606" s="23" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="D606" s="23" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="E606" s="23" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="F606" s="23" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="G606" s="23" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="H606" s="23" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="I606" s="23" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="J606" s="23" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="K606" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="L606" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="M606" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="N606" s="23" t="n">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/10</t>
+        </is>
+      </c>
+      <c r="B607" s="23" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="C607" s="23" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="D607" s="23" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="E607" s="23" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F607" s="23" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="G607" s="23" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="H607" s="23" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="I607" s="23" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="J607" s="23" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="K607" s="23" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="L607" s="23" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="M607" s="23" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="N607" s="23" t="n">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/11</t>
+        </is>
+      </c>
+      <c r="B608" s="23" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="C608" s="23" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="D608" s="23" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="E608" s="23" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="F608" s="23" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="G608" s="23" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="H608" s="23" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="I608" s="23" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="J608" s="23" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="K608" s="23" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="L608" s="23" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="M608" s="23" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="N608" s="23" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/12</t>
+        </is>
+      </c>
+      <c r="B609" s="23" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="C609" s="23" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="D609" s="23" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="E609" s="23" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="F609" s="23" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="G609" s="23" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="H609" s="23" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="I609" s="23" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="J609" s="23" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="K609" s="23" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="L609" s="23" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="M609" s="23" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="N609" s="23" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/13</t>
+        </is>
+      </c>
+      <c r="B610" s="23" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="C610" s="23" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="D610" s="23" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="E610" s="23" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="F610" s="23" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="G610" s="23" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="H610" s="23" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I610" s="23" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="J610" s="23" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K610" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="L610" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="M610" s="23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="N610" s="23" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/16</t>
+        </is>
+      </c>
+      <c r="B611" s="23" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="C611" s="23" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="D611" s="23" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="E611" s="23" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="F611" s="23" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="G611" s="23" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H611" s="23" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="I611" s="23" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="J611" s="23" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="K611" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L611" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="M611" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="N611" s="23" t="n">
+        <v>16.69</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/17</t>
+        </is>
+      </c>
+      <c r="B612" s="23" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="C612" s="23" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="D612" s="23" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="E612" s="23" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="F612" s="23" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="G612" s="23" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="H612" s="23" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="I612" s="23" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J612" s="23" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="K612" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="L612" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="M612" s="23" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="N612" s="23" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/18</t>
+        </is>
+      </c>
+      <c r="B613" s="23" t="n">
+        <v>19</v>
+      </c>
+      <c r="C613" s="23" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="D613" s="23" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E613" s="23" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="F613" s="23" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="G613" s="23" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="H613" s="23" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I613" s="23" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="J613" s="23" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="K613" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="L613" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="M613" s="23" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="N613" s="23" t="n">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/19</t>
+        </is>
+      </c>
+      <c r="B614" s="23" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="C614" s="23" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="D614" s="23" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="E614" s="23" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="F614" s="23" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="G614" s="23" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="H614" s="23" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I614" s="23" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="J614" s="23" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="K614" s="23" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="L614" s="23" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="M614" s="23" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="N614" s="23" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/20</t>
+        </is>
+      </c>
+      <c r="B615" s="23" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="C615" s="23" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="D615" s="23" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E615" s="23" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="F615" s="23" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="G615" s="23" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H615" s="23" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="I615" s="23" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="J615" s="23" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="K615" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="L615" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="M615" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="N615" s="23" t="n">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/23</t>
+        </is>
+      </c>
+      <c r="B616" s="23" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="C616" s="23" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="D616" s="23" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="E616" s="23" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="F616" s="23" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="G616" s="23" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="H616" s="23" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I616" s="23" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="J616" s="23" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="K616" s="23" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="L616" s="23" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="M616" s="23" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="N616" s="23" t="n">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/24</t>
+        </is>
+      </c>
+      <c r="B617" s="23" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C617" s="23" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="D617" s="23" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="E617" s="23" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="F617" s="23" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="G617" s="23" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="H617" s="23" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="I617" s="23" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="J617" s="23" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K617" s="23" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="L617" s="23" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="M617" s="23" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="N617" s="23" t="n">
+        <v>16.01</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/25</t>
+        </is>
+      </c>
+      <c r="B618" s="23" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="C618" s="23" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="D618" s="23" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="E618" s="23" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="F618" s="23" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="G618" s="23" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="H618" s="23" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="I618" s="23" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="J618" s="23" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="K618" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="L618" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="M618" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="N618" s="23" t="n">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/26</t>
+        </is>
+      </c>
+      <c r="B619" s="23" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="C619" s="23" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="D619" s="23" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="E619" s="23" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="F619" s="23" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="G619" s="23" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="H619" s="23" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="I619" s="23" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="J619" s="23" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="K619" s="23" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="L619" s="23" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="M619" s="23" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="N619" s="23" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/27</t>
+        </is>
+      </c>
+      <c r="B620" s="23" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="C620" s="23" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="D620" s="23" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="E620" s="23" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="F620" s="23" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="G620" s="23" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="H620" s="23" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="I620" s="23" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="J620" s="23" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="K620" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="L620" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="M620" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="N620" s="23" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2023/10/30</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="C621" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D621" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="E621" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="F621" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="G621" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="H621" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="I621" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="J621" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="K621" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="L621" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="M621" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="N621" t="n">
+        <v>16.57</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N621"/>
+  <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -28534,49 +28534,1061 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" t="inlineStr">
+      <c r="A621" s="23" t="inlineStr">
         <is>
           <t>2023/10/30</t>
         </is>
       </c>
-      <c r="B621" t="n">
+      <c r="B621" s="23" t="n">
         <v>19.24</v>
       </c>
-      <c r="C621" t="n">
+      <c r="C621" s="23" t="n">
         <v>28.1</v>
       </c>
-      <c r="D621" t="n">
+      <c r="D621" s="23" t="n">
         <v>18.02</v>
       </c>
-      <c r="E621" t="n">
+      <c r="E621" s="23" t="n">
         <v>18.59</v>
       </c>
-      <c r="F621" t="n">
+      <c r="F621" s="23" t="n">
         <v>19.95</v>
       </c>
-      <c r="G621" t="n">
+      <c r="G621" s="23" t="n">
         <v>13.85</v>
       </c>
-      <c r="H621" t="n">
+      <c r="H621" s="23" t="n">
         <v>12.62</v>
       </c>
-      <c r="I621" t="n">
+      <c r="I621" s="23" t="n">
         <v>24.82</v>
       </c>
-      <c r="J621" t="n">
+      <c r="J621" s="23" t="n">
         <v>14.65</v>
       </c>
-      <c r="K621" t="n">
+      <c r="K621" s="23" t="n">
         <v>9.24</v>
       </c>
-      <c r="L621" t="n">
+      <c r="L621" s="23" t="n">
         <v>9.24</v>
       </c>
-      <c r="M621" t="n">
+      <c r="M621" s="23" t="n">
         <v>9.24</v>
       </c>
-      <c r="N621" t="n">
+      <c r="N621" s="23" t="n">
         <v>16.57</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="23" t="inlineStr">
+        <is>
+          <t>2023/10/31</t>
+        </is>
+      </c>
+      <c r="B622" s="23" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="C622" s="23" t="n">
+        <v>28</v>
+      </c>
+      <c r="D622" s="23" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E622" s="23" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="F622" s="23" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="G622" s="23" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="H622" s="23" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="I622" s="23" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="J622" s="23" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="K622" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L622" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="M622" s="23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="N622" s="23" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/01</t>
+        </is>
+      </c>
+      <c r="B623" s="23" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="C623" s="23" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="D623" s="23" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="E623" s="23" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="F623" s="23" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G623" s="23" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="H623" s="23" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="I623" s="23" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="J623" s="23" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="K623" s="23" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="L623" s="23" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="M623" s="23" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="N623" s="23" t="n">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/02</t>
+        </is>
+      </c>
+      <c r="B624" s="23" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C624" s="23" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="D624" s="23" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="E624" s="23" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="F624" s="23" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="G624" s="23" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="H624" s="23" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="I624" s="23" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="J624" s="23" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="K624" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="L624" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="M624" s="23" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="N624" s="23" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/03</t>
+        </is>
+      </c>
+      <c r="B625" s="23" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C625" s="23" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="D625" s="23" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="E625" s="23" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="F625" s="23" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="G625" s="23" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H625" s="23" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I625" s="23" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="J625" s="23" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="K625" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L625" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="M625" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="N625" s="23" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/06</t>
+        </is>
+      </c>
+      <c r="B626" s="23" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C626" s="23" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="D626" s="23" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="E626" s="23" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="F626" s="23" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="G626" s="23" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H626" s="23" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I626" s="23" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="J626" s="23" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="K626" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L626" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="M626" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="N626" s="23" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/07</t>
+        </is>
+      </c>
+      <c r="B627" s="23" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C627" s="23" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="D627" s="23" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="E627" s="23" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="F627" s="23" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="G627" s="23" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H627" s="23" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I627" s="23" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="J627" s="23" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="K627" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L627" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="M627" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="N627" s="23" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/08</t>
+        </is>
+      </c>
+      <c r="B628" s="23" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C628" s="23" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="D628" s="23" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="E628" s="23" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="F628" s="23" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="G628" s="23" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H628" s="23" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I628" s="23" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="J628" s="23" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="K628" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L628" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="M628" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="N628" s="23" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/09</t>
+        </is>
+      </c>
+      <c r="B629" s="23" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C629" s="23" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="D629" s="23" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="E629" s="23" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="F629" s="23" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="G629" s="23" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H629" s="23" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I629" s="23" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="J629" s="23" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="K629" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L629" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="M629" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="N629" s="23" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/10</t>
+        </is>
+      </c>
+      <c r="B630" s="23" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C630" s="23" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="D630" s="23" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="E630" s="23" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="F630" s="23" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="G630" s="23" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H630" s="23" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I630" s="23" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="J630" s="23" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="K630" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L630" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="M630" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="N630" s="23" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/13</t>
+        </is>
+      </c>
+      <c r="B631" s="23" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C631" s="23" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="D631" s="23" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="E631" s="23" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="F631" s="23" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="G631" s="23" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H631" s="23" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I631" s="23" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="J631" s="23" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="K631" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="L631" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="M631" s="23" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="N631" s="23" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/14</t>
+        </is>
+      </c>
+      <c r="B632" s="23" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="C632" s="23" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="D632" s="23" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="E632" s="23" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="F632" s="23" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="G632" s="23" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="H632" s="23" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="I632" s="23" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="J632" s="23" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="K632" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="L632" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M632" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="N632" s="23" t="n">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/15</t>
+        </is>
+      </c>
+      <c r="B633" s="23" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="C633" s="23" t="n">
+        <v>28</v>
+      </c>
+      <c r="D633" s="23" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="E633" s="23" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="F633" s="23" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="G633" s="23" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="H633" s="23" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I633" s="23" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="J633" s="23" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="K633" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="L633" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="M633" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="N633" s="23" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/16</t>
+        </is>
+      </c>
+      <c r="B634" s="23" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="C634" s="23" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="D634" s="23" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="E634" s="23" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="F634" s="23" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="G634" s="23" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="H634" s="23" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="I634" s="23" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="J634" s="23" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="K634" s="23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L634" s="23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="M634" s="23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N634" s="23" t="n">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/17</t>
+        </is>
+      </c>
+      <c r="B635" s="23" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="C635" s="23" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="D635" s="23" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="E635" s="23" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="F635" s="23" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="G635" s="23" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="H635" s="23" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="I635" s="23" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="J635" s="23" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="K635" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="L635" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="M635" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="N635" s="23" t="n">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/20</t>
+        </is>
+      </c>
+      <c r="B636" s="23" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="C636" s="23" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="D636" s="23" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="E636" s="23" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="F636" s="23" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="G636" s="23" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="H636" s="23" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="I636" s="23" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="J636" s="23" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="K636" s="23" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="L636" s="23" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="M636" s="23" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="N636" s="23" t="n">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/21</t>
+        </is>
+      </c>
+      <c r="B637" s="23" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="C637" s="23" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="D637" s="23" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="E637" s="23" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="F637" s="23" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="G637" s="23" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H637" s="23" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="I637" s="23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J637" s="23" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="K637" s="23" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="L637" s="23" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="M637" s="23" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="N637" s="23" t="n">
+        <v>16.07</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/22</t>
+        </is>
+      </c>
+      <c r="B638" s="23" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="C638" s="23" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="D638" s="23" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="E638" s="23" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="F638" s="23" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="G638" s="23" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="H638" s="23" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="I638" s="23" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="J638" s="23" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="K638" s="23" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="L638" s="23" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="M638" s="23" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="N638" s="23" t="n">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/23</t>
+        </is>
+      </c>
+      <c r="B639" s="23" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="C639" s="23" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="D639" s="23" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="E639" s="23" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F639" s="23" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="G639" s="23" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="H639" s="23" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="I639" s="23" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="J639" s="23" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="K639" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="L639" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="M639" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="N639" s="23" t="n">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/24</t>
+        </is>
+      </c>
+      <c r="B640" s="23" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="C640" s="23" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="D640" s="23" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="E640" s="23" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="F640" s="23" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="G640" s="23" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="H640" s="23" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="I640" s="23" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="J640" s="23" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="K640" s="23" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="L640" s="23" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="M640" s="23" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="N640" s="23" t="n">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/27</t>
+        </is>
+      </c>
+      <c r="B641" s="23" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="C641" s="23" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="D641" s="23" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="E641" s="23" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="F641" s="23" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="G641" s="23" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H641" s="23" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="I641" s="23" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="J641" s="23" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="K641" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="L641" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="M641" s="23" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="N641" s="23" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/28</t>
+        </is>
+      </c>
+      <c r="B642" s="23" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="C642" s="23" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="D642" s="23" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E642" s="23" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="F642" s="23" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="G642" s="23" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="H642" s="23" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="I642" s="23" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J642" s="23" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K642" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="L642" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M642" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="N642" s="23" t="n">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2023/11/29</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="C643" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="D643" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="E643" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="F643" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="G643" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="H643" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="I643" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="J643" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K643" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="L643" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="M643" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="N643" t="n">
+        <v>15.66</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N643"/>
+  <dimension ref="A1:N664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -29546,49 +29546,1015 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" t="inlineStr">
+      <c r="A643" s="23" t="inlineStr">
         <is>
           <t>2023/11/29</t>
         </is>
       </c>
-      <c r="B643" t="n">
+      <c r="B643" s="23" t="n">
         <v>19.05</v>
       </c>
-      <c r="C643" t="n">
+      <c r="C643" s="23" t="n">
         <v>26.68</v>
       </c>
-      <c r="D643" t="n">
+      <c r="D643" s="23" t="n">
         <v>17.59</v>
       </c>
-      <c r="E643" t="n">
+      <c r="E643" s="23" t="n">
         <v>18.34</v>
       </c>
-      <c r="F643" t="n">
+      <c r="F643" s="23" t="n">
         <v>19.87</v>
       </c>
-      <c r="G643" t="n">
+      <c r="G643" s="23" t="n">
         <v>13.58</v>
       </c>
-      <c r="H643" t="n">
+      <c r="H643" s="23" t="n">
         <v>12.57</v>
       </c>
-      <c r="I643" t="n">
+      <c r="I643" s="23" t="n">
         <v>25.93</v>
       </c>
-      <c r="J643" t="n">
+      <c r="J643" s="23" t="n">
         <v>14.8</v>
       </c>
-      <c r="K643" t="n">
+      <c r="K643" s="23" t="n">
         <v>9.24</v>
       </c>
-      <c r="L643" t="n">
+      <c r="L643" s="23" t="n">
         <v>9.24</v>
       </c>
-      <c r="M643" t="n">
+      <c r="M643" s="23" t="n">
         <v>9.24</v>
       </c>
-      <c r="N643" t="n">
+      <c r="N643" s="23" t="n">
         <v>15.66</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="23" t="inlineStr">
+        <is>
+          <t>2023/11/30</t>
+        </is>
+      </c>
+      <c r="B644" s="23" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="C644" s="23" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="D644" s="23" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E644" s="23" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="F644" s="23" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="G644" s="23" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="H644" s="23" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="I644" s="23" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="J644" s="23" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="K644" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="L644" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M644" s="23" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="N644" s="23" t="n">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/01</t>
+        </is>
+      </c>
+      <c r="B645" s="23" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="C645" s="23" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="D645" s="23" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="E645" s="23" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="F645" s="23" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="G645" s="23" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="H645" s="23" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="I645" s="23" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="J645" s="23" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="K645" s="23" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="L645" s="23" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="M645" s="23" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="N645" s="23" t="n">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/04</t>
+        </is>
+      </c>
+      <c r="B646" s="23" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="C646" s="23" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="D646" s="23" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="E646" s="23" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="F646" s="23" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="G646" s="23" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="H646" s="23" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="I646" s="23" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="J646" s="23" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="K646" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="L646" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="M646" s="23" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="N646" s="23" t="n">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/05</t>
+        </is>
+      </c>
+      <c r="B647" s="23" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="C647" s="23" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="D647" s="23" t="n">
+        <v>17</v>
+      </c>
+      <c r="E647" s="23" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="F647" s="23" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="G647" s="23" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="H647" s="23" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="I647" s="23" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="J647" s="23" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="K647" s="23" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="L647" s="23" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="M647" s="23" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="N647" s="23" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/06</t>
+        </is>
+      </c>
+      <c r="B648" s="23" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="C648" s="23" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="D648" s="23" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="E648" s="23" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="F648" s="23" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="G648" s="23" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H648" s="23" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="I648" s="23" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="J648" s="23" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="K648" s="23" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="L648" s="23" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="M648" s="23" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="N648" s="23" t="n">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/07</t>
+        </is>
+      </c>
+      <c r="B649" s="23" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C649" s="23" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="D649" s="23" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="E649" s="23" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="F649" s="23" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="G649" s="23" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="H649" s="23" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I649" s="23" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="J649" s="23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K649" s="23" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="L649" s="23" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="M649" s="23" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="N649" s="23" t="n">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/08</t>
+        </is>
+      </c>
+      <c r="B650" s="23" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="C650" s="23" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="D650" s="23" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E650" s="23" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="F650" s="23" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="G650" s="23" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="H650" s="23" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="I650" s="23" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="J650" s="23" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="K650" s="23" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="L650" s="23" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="M650" s="23" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="N650" s="23" t="n">
+        <v>15.41</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/11</t>
+        </is>
+      </c>
+      <c r="B651" s="23" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="C651" s="23" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="D651" s="23" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E651" s="23" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="F651" s="23" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="G651" s="23" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="H651" s="23" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="I651" s="23" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J651" s="23" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="K651" s="23" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L651" s="23" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="M651" s="23" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="N651" s="23" t="n">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="B652" s="23" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C652" s="23" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="D652" s="23" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="E652" s="23" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="F652" s="23" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="G652" s="23" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H652" s="23" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="I652" s="23" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="J652" s="23" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="K652" s="23" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="L652" s="23" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="M652" s="23" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="N652" s="23" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/13</t>
+        </is>
+      </c>
+      <c r="B653" s="23" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="C653" s="23" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="D653" s="23" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="E653" s="23" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="F653" s="23" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="G653" s="23" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="H653" s="23" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="I653" s="23" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="J653" s="23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K653" s="23" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="L653" s="23" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="M653" s="23" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="N653" s="23" t="n">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/14</t>
+        </is>
+      </c>
+      <c r="B654" s="23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C654" s="23" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="D654" s="23" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="E654" s="23" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F654" s="23" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="G654" s="23" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="H654" s="23" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="I654" s="23" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="J654" s="23" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="K654" s="23" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="L654" s="23" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="M654" s="23" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="N654" s="23" t="n">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/15</t>
+        </is>
+      </c>
+      <c r="B655" s="23" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="C655" s="23" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="D655" s="23" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="E655" s="23" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="F655" s="23" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="G655" s="23" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="H655" s="23" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="I655" s="23" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="J655" s="23" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="K655" s="23" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="L655" s="23" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="M655" s="23" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="N655" s="23" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/18</t>
+        </is>
+      </c>
+      <c r="B656" s="23" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="C656" s="23" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="D656" s="23" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E656" s="23" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="F656" s="23" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="G656" s="23" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="H656" s="23" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="I656" s="23" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="J656" s="23" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="K656" s="23" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L656" s="23" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="M656" s="23" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="N656" s="23" t="n">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/19</t>
+        </is>
+      </c>
+      <c r="B657" s="23" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="C657" s="23" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="D657" s="23" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E657" s="23" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="F657" s="23" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="G657" s="23" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="H657" s="23" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="I657" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="J657" s="23" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="K657" s="23" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="L657" s="23" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="M657" s="23" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="N657" s="23" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/20</t>
+        </is>
+      </c>
+      <c r="B658" s="23" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="C658" s="23" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="D658" s="23" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E658" s="23" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F658" s="23" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="G658" s="23" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="H658" s="23" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="I658" s="23" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="J658" s="23" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="K658" s="23" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="L658" s="23" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="M658" s="23" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="N658" s="23" t="n">
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/21</t>
+        </is>
+      </c>
+      <c r="B659" s="23" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C659" s="23" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="D659" s="23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E659" s="23" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="F659" s="23" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="G659" s="23" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H659" s="23" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="I659" s="23" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="J659" s="23" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="K659" s="23" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="L659" s="23" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="M659" s="23" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="N659" s="23" t="n">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/22</t>
+        </is>
+      </c>
+      <c r="B660" s="23" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="C660" s="23" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="D660" s="23" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E660" s="23" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="F660" s="23" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="G660" s="23" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="H660" s="23" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="I660" s="23" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="J660" s="23" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="K660" s="23" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="L660" s="23" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="M660" s="23" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="N660" s="23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/25</t>
+        </is>
+      </c>
+      <c r="B661" s="23" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="C661" s="23" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D661" s="23" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="E661" s="23" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="F661" s="23" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="G661" s="23" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="H661" s="23" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="I661" s="23" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="J661" s="23" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="K661" s="23" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="L661" s="23" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="M661" s="23" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="N661" s="23" t="n">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/26</t>
+        </is>
+      </c>
+      <c r="B662" s="23" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="C662" s="23" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="D662" s="23" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="E662" s="23" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="F662" s="23" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="G662" s="23" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="H662" s="23" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="I662" s="23" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="J662" s="23" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="K662" s="23" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="L662" s="23" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="M662" s="23" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="N662" s="23" t="n">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="23" t="inlineStr">
+        <is>
+          <t>2023/12/27</t>
+        </is>
+      </c>
+      <c r="B663" s="23" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="C663" s="23" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="D663" s="23" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="E663" s="23" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="F663" s="23" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="G663" s="23" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="H663" s="23" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="I663" s="23" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="J663" s="23" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="K663" s="23" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="L663" s="23" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="M663" s="23" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="N663" s="23" t="n">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2023/12/28</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="C664" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="D664" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="E664" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="F664" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="G664" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="H664" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I664" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="J664" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="K664" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="L664" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="M664" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="N664" t="n">
+        <v>15.28</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2426,79 +2426,1675 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2024/2/28</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="4" t="n">
         <v>17.92</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="4" t="n">
         <v>24.63</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="4" t="n">
         <v>16.58</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="4" t="n">
         <v>18.2</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="4" t="n">
         <v>23.17</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="4" t="n">
         <v>14.45</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="4" t="n">
         <v>16.96</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="4" t="n">
         <v>30.66</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35" s="4" t="n">
         <v>30.19</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="4" t="n">
         <v>17.05</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35" s="4" t="n">
         <v>30.03</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35" s="4" t="n">
         <v>13.73</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35" s="4" t="n">
         <v>13.03</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35" s="4" t="n">
         <v>23.9</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35" s="4" t="n">
         <v>18.63</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" s="4" t="n">
         <v>12.72</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35" s="4" t="n">
         <v>21.72</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35" s="4" t="n">
         <v>14.15</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T35" s="4" t="n">
         <v>49.44</v>
       </c>
-      <c r="U35" t="n">
+      <c r="U35" s="4" t="n">
         <v>22.09</v>
       </c>
-      <c r="V35" t="n">
+      <c r="V35" s="4" t="n">
         <v>15.31</v>
       </c>
-      <c r="W35" t="n">
+      <c r="W35" s="4" t="n">
         <v>11.35</v>
       </c>
-      <c r="X35" t="n">
+      <c r="X35" s="4" t="n">
         <v>7.75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>2024/2/29</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <v>31.62</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="L36" s="4" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="M36" s="4" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="N36" s="4" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="O36" s="4" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="P36" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="Q36" s="4" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="R36" s="4" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="S36" s="4" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="T36" s="4" t="n">
+        <v>52.47</v>
+      </c>
+      <c r="U36" s="4" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="V36" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="W36" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="X36" s="4" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/01</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="K37" s="4" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="L37" s="4" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="M37" s="4" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="N37" s="4" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="O37" s="4" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="P37" s="4" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="Q37" s="4" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="R37" s="4" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="S37" s="4" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="T37" s="4" t="n">
+        <v>53.58</v>
+      </c>
+      <c r="U37" s="4" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="V37" s="4" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="W37" s="4" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="X37" s="4" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/04</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K38" s="4" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="L38" s="4" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="O38" s="4" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="P38" s="4" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="Q38" s="4" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="R38" s="4" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="S38" s="4" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="T38" s="4" t="n">
+        <v>53.59</v>
+      </c>
+      <c r="U38" s="4" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="V38" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="W38" s="4" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="X38" s="4" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/05</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="K39" s="4" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="L39" s="4" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="M39" s="4" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="N39" s="4" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="O39" s="4" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="P39" s="4" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="Q39" s="4" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="R39" s="4" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="S39" s="4" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="T39" s="4" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="U39" s="4" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="V39" s="4" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="W39" s="4" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="X39" s="4" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/06</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="J40" s="4" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="K40" s="4" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="L40" s="4" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="N40" s="4" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="O40" s="4" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="P40" s="4" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="Q40" s="4" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="R40" s="4" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="S40" s="4" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="T40" s="4" t="n">
+        <v>52.84</v>
+      </c>
+      <c r="U40" s="4" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="V40" s="4" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="W40" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="X40" s="4" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/07</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="K41" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="L41" s="4" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="N41" s="4" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="O41" s="4" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="P41" s="4" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="Q41" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="R41" s="4" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="S41" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="T41" s="4" t="n">
+        <v>51.68</v>
+      </c>
+      <c r="U41" s="4" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="V41" s="4" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="W41" s="4" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="X41" s="4" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/08</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="K42" s="4" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="N42" s="4" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="O42" s="4" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="P42" s="4" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="Q42" s="4" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="R42" s="4" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="S42" s="4" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="T42" s="4" t="n">
+        <v>52.76</v>
+      </c>
+      <c r="U42" s="4" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="V42" s="4" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="W42" s="4" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="X42" s="4" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/11</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="K43" s="4" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="L43" s="4" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="M43" s="4" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="N43" s="4" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="O43" s="4" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="P43" s="4" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="Q43" s="4" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="R43" s="4" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="S43" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T43" s="4" t="n">
+        <v>53.34</v>
+      </c>
+      <c r="U43" s="4" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="V43" s="4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="W43" s="4" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="X43" s="4" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/12</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="H44" s="4" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="J44" s="4" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K44" s="4" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="L44" s="4" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="M44" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="N44" s="4" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="O44" s="4" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="P44" s="4" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="Q44" s="4" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="R44" s="4" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="S44" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T44" s="4" t="n">
+        <v>53.46</v>
+      </c>
+      <c r="U44" s="4" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="V44" s="4" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="W44" s="4" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="X44" s="4" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/13</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="K45" s="4" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="L45" s="4" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="M45" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="N45" s="4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="O45" s="4" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="P45" s="4" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="Q45" s="4" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="R45" s="4" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="S45" s="4" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="T45" s="4" t="n">
+        <v>53.28</v>
+      </c>
+      <c r="U45" s="4" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="V45" s="4" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="W45" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="X45" s="4" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/14</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>33.45</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="M46" s="4" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="N46" s="4" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="O46" s="4" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="P46" s="4" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="Q46" s="4" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="R46" s="4" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="S46" s="4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T46" s="4" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="U46" s="4" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="V46" s="4" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="W46" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="X46" s="4" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/15</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="K47" s="4" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="L47" s="4" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="M47" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="N47" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="O47" s="4" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="P47" s="4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q47" s="4" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="R47" s="4" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="S47" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T47" s="4" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="U47" s="4" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="V47" s="4" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="W47" s="4" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="X47" s="4" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/18</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>34.63</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="K48" s="4" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="L48" s="4" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="M48" s="4" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="N48" s="4" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="O48" s="4" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="P48" s="4" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="Q48" s="4" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="R48" s="4" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="S48" s="4" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="T48" s="4" t="n">
+        <v>53.76</v>
+      </c>
+      <c r="U48" s="4" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="V48" s="4" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="W48" s="4" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="X48" s="4" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/19</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="H49" s="4" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="J49" s="4" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="K49" s="4" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="L49" s="4" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="M49" s="4" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="N49" s="4" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="O49" s="4" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="P49" s="4" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="Q49" s="4" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="R49" s="4" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="S49" s="4" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="T49" s="4" t="n">
+        <v>52.91</v>
+      </c>
+      <c r="U49" s="4" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="V49" s="4" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="W49" s="4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="X49" s="4" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/20</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="H50" s="4" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="J50" s="4" t="n">
+        <v>34.73</v>
+      </c>
+      <c r="K50" s="4" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="L50" s="4" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="M50" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="N50" s="4" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="O50" s="4" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="P50" s="4" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="Q50" s="4" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="R50" s="4" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="S50" s="4" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="T50" s="4" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="U50" s="4" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="V50" s="4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="W50" s="4" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="X50" s="4" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/21</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="H51" s="4" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="J51" s="4" t="n">
+        <v>34.73</v>
+      </c>
+      <c r="K51" s="4" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="L51" s="4" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="M51" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="N51" s="4" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="O51" s="4" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="P51" s="4" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="Q51" s="4" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="R51" s="4" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="S51" s="4" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="T51" s="4" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="U51" s="4" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="V51" s="4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="W51" s="4" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="X51" s="4" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/22</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H52" s="4" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>34.33</v>
+      </c>
+      <c r="K52" s="4" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="L52" s="4" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="M52" s="4" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="N52" s="4" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="O52" s="4" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="P52" s="4" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="Q52" s="4" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="R52" s="4" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="S52" s="4" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="T52" s="4" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="U52" s="4" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="V52" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="W52" s="4" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="X52" s="4" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/25</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="F53" s="4" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H53" s="4" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="J53" s="4" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="K53" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="L53" s="4" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="M53" s="4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="N53" s="4" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="O53" s="4" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="P53" s="4" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="Q53" s="4" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="R53" s="4" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="S53" s="4" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="T53" s="4" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="U53" s="4" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="V53" s="4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="W53" s="4" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="X53" s="4" t="n">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/26</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F54" s="4" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="H54" s="4" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="J54" s="4" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="K54" s="4" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="L54" s="4" t="n">
+        <v>30.93</v>
+      </c>
+      <c r="M54" s="4" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="N54" s="4" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="O54" s="4" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="P54" s="4" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="Q54" s="4" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="R54" s="4" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="S54" s="4" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="T54" s="4" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="U54" s="4" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="V54" s="4" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="W54" s="4" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="X54" s="4" t="n">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/27</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="C55" s="4" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="F55" s="4" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H55" s="4" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="J55" s="4" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="K55" s="4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L55" s="4" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="M55" s="4" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="N55" s="4" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="O55" s="4" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="P55" s="4" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Q55" s="4" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="R55" s="4" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="S55" s="4" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="T55" s="4" t="n">
+        <v>49.26</v>
+      </c>
+      <c r="U55" s="4" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="V55" s="4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="W55" s="4" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="X55" s="4" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024/3/28</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="D56" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="E56" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="F56" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="G56" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="H56" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="I56" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="J56" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="K56" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="L56" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="M56" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="N56" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="O56" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="P56" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="R56" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="S56" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="T56" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="U56" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="V56" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="W56" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="X56" t="n">
+        <v>7.73</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4022,79 +4022,1599 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>2024/3/28</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="4" t="n">
         <v>18.49</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="4" t="n">
         <v>25.34</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="4" t="n">
         <v>17.15</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="4" t="n">
         <v>19.11</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="4" t="n">
         <v>24.28</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="4" t="n">
         <v>14.99</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56" s="4" t="n">
         <v>17.66</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56" s="4" t="n">
         <v>32.75</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56" s="4" t="n">
         <v>32.79</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56" s="4" t="n">
         <v>17.97</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56" s="4" t="n">
         <v>30.76</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56" s="4" t="n">
         <v>14.81</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56" s="4" t="n">
         <v>13.36</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O56" s="4" t="n">
         <v>25.26</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P56" s="4" t="n">
         <v>19.56</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56" s="4" t="n">
         <v>12.94</v>
       </c>
-      <c r="R56" t="n">
+      <c r="R56" s="4" t="n">
         <v>23.09</v>
       </c>
-      <c r="S56" t="n">
+      <c r="S56" s="4" t="n">
         <v>14.56</v>
       </c>
-      <c r="T56" t="n">
+      <c r="T56" s="4" t="n">
         <v>49.89</v>
       </c>
-      <c r="U56" t="n">
+      <c r="U56" s="4" t="n">
         <v>21.02</v>
       </c>
-      <c r="V56" t="n">
+      <c r="V56" s="4" t="n">
         <v>16.97</v>
       </c>
-      <c r="W56" t="n">
+      <c r="W56" s="4" t="n">
         <v>11.58</v>
       </c>
-      <c r="X56" t="n">
+      <c r="X56" s="4" t="n">
         <v>7.73</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>2024/3/29</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="H57" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>33.05</v>
+      </c>
+      <c r="J57" s="4" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="K57" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="L57" s="4" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="M57" s="4" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="N57" s="4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="O57" s="4" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="P57" s="4" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="Q57" s="4" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="R57" s="4" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="S57" s="4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="T57" s="4" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="U57" s="4" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="V57" s="4" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="W57" s="4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="X57" s="4" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/01</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="K58" s="4" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="L58" s="4" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="M58" s="4" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="N58" s="4" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="O58" s="4" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="P58" s="4" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="Q58" s="4" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="R58" s="4" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="S58" s="4" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="T58" s="4" t="n">
+        <v>50.49</v>
+      </c>
+      <c r="U58" s="4" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="V58" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="W58" s="4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="X58" s="4" t="n">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/02</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F59" s="4" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="G59" s="4" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="H59" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J59" s="4" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="K59" s="4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="L59" s="4" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="M59" s="4" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="N59" s="4" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="O59" s="4" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="P59" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="Q59" s="4" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="R59" s="4" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="S59" s="4" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="T59" s="4" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="U59" s="4" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="V59" s="4" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="W59" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="X59" s="4" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/03</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="G60" s="4" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="H60" s="4" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="J60" s="4" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="K60" s="4" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="L60" s="4" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="M60" s="4" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="N60" s="4" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="O60" s="4" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="P60" s="4" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="Q60" s="4" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="R60" s="4" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="S60" s="4" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="T60" s="4" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="U60" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="V60" s="4" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="W60" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="X60" s="4" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/08</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="F61" s="4" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="G61" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="H61" s="4" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J61" s="4" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="K61" s="4" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="L61" s="4" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="M61" s="4" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="N61" s="4" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="O61" s="4" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="P61" s="4" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="Q61" s="4" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="R61" s="4" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="S61" s="4" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="T61" s="4" t="n">
+        <v>48.22</v>
+      </c>
+      <c r="U61" s="4" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="V61" s="4" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="W61" s="4" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="X61" s="4" t="n">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/09</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C62" s="4" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="F62" s="4" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="H62" s="4" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="I62" s="4" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="J62" s="4" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="K62" s="4" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="L62" s="4" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="M62" s="4" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="N62" s="4" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="O62" s="4" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="P62" s="4" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="Q62" s="4" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="R62" s="4" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="S62" s="4" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="T62" s="4" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="U62" s="4" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="V62" s="4" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="W62" s="4" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="X62" s="4" t="n">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/10</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="C63" s="4" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="F63" s="4" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="G63" s="4" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="J63" s="4" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="K63" s="4" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="L63" s="4" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="M63" s="4" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="N63" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="O63" s="4" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="P63" s="4" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="Q63" s="4" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="R63" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="S63" s="4" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="T63" s="4" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="U63" s="4" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="V63" s="4" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="W63" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="X63" s="4" t="n">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/11</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="C64" s="4" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="F64" s="4" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="G64" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="H64" s="4" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="I64" s="4" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="J64" s="4" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="K64" s="4" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="L64" s="4" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="M64" s="4" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="N64" s="4" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="O64" s="4" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="P64" s="4" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="Q64" s="4" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="R64" s="4" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="S64" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="T64" s="4" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="U64" s="4" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="V64" s="4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="W64" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="X64" s="4" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/12</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C65" s="4" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F65" s="4" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="G65" s="4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H65" s="4" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="I65" s="4" t="n">
+        <v>31.72</v>
+      </c>
+      <c r="J65" s="4" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="K65" s="4" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="L65" s="4" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="M65" s="4" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="N65" s="4" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="O65" s="4" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="P65" s="4" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="Q65" s="4" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="R65" s="4" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="S65" s="4" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="T65" s="4" t="n">
+        <v>47.86</v>
+      </c>
+      <c r="U65" s="4" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="V65" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="W65" s="4" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="X65" s="4" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/15</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="C66" s="4" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="F66" s="4" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="H66" s="4" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="I66" s="4" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="J66" s="4" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="K66" s="4" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L66" s="4" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="M66" s="4" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="N66" s="4" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="O66" s="4" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="P66" s="4" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="Q66" s="4" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="R66" s="4" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="S66" s="4" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="T66" s="4" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="U66" s="4" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="V66" s="4" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="W66" s="4" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="X66" s="4" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/16</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="F67" s="4" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="G67" s="4" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="H67" s="4" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="I67" s="4" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="J67" s="4" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="K67" s="4" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="L67" s="4" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="M67" s="4" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="N67" s="4" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="O67" s="4" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="P67" s="4" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="Q67" s="4" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="R67" s="4" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="S67" s="4" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="T67" s="4" t="n">
+        <v>47.96</v>
+      </c>
+      <c r="U67" s="4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="V67" s="4" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="W67" s="4" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="X67" s="4" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/17</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="F68" s="4" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="G68" s="4" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="H68" s="4" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="I68" s="4" t="n">
+        <v>31.48</v>
+      </c>
+      <c r="J68" s="4" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="K68" s="4" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="L68" s="4" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="M68" s="4" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="N68" s="4" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="O68" s="4" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="P68" s="4" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="Q68" s="4" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="R68" s="4" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="S68" s="4" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="T68" s="4" t="n">
+        <v>49.44</v>
+      </c>
+      <c r="U68" s="4" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="V68" s="4" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="W68" s="4" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="X68" s="4" t="n">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/18</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F69" s="4" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="G69" s="4" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="H69" s="4" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="I69" s="4" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="J69" s="4" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="K69" s="4" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="L69" s="4" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="M69" s="4" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="N69" s="4" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="O69" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="P69" s="4" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="Q69" s="4" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="R69" s="4" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="S69" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T69" s="4" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="U69" s="4" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="V69" s="4" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="W69" s="4" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="X69" s="4" t="n">
+        <v>8.210000000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/19</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="C70" s="4" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="D70" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="F70" s="4" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G70" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="H70" s="4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I70" s="4" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="J70" s="4" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="K70" s="4" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="L70" s="4" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="M70" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="N70" s="4" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="O70" s="4" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="P70" s="4" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="Q70" s="4" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="R70" s="4" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="S70" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="T70" s="4" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="U70" s="4" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="V70" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="W70" s="4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X70" s="4" t="n">
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/22</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="C71" s="4" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="D71" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="F71" s="4" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="G71" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="H71" s="4" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="J71" s="4" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="K71" s="4" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="L71" s="4" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="M71" s="4" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="N71" s="4" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="O71" s="4" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="P71" s="4" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="Q71" s="4" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="R71" s="4" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="S71" s="4" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="T71" s="4" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="U71" s="4" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="V71" s="4" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="W71" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="X71" s="4" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/23</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="F72" s="4" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="G72" s="4" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="H72" s="4" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="I72" s="4" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="J72" s="4" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K72" s="4" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="L72" s="4" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="M72" s="4" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="N72" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="O72" s="4" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="P72" s="4" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="Q72" s="4" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="R72" s="4" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="S72" s="4" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="T72" s="4" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="U72" s="4" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="V72" s="4" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="W72" s="4" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="X72" s="4" t="n">
+        <v>31.42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/24</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="C73" s="4" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="F73" s="4" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I73" s="4" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J73" s="4" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="K73" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="L73" s="4" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="M73" s="4" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="N73" s="4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="O73" s="4" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="P73" s="4" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="Q73" s="4" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="R73" s="4" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="S73" s="4" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="T73" s="4" t="n">
+        <v>46.85</v>
+      </c>
+      <c r="U73" s="4" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="V73" s="4" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="W73" s="4" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="X73" s="4" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/25</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="C74" s="4" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="D74" s="4" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="F74" s="4" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="G74" s="4" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="H74" s="4" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="I74" s="4" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="J74" s="4" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="K74" s="4" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="L74" s="4" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="M74" s="4" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="N74" s="4" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="O74" s="4" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="P74" s="4" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="Q74" s="4" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="R74" s="4" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="S74" s="4" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="T74" s="4" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="U74" s="4" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="V74" s="4" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="W74" s="4" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="X74" s="4" t="n">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/26</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="F75" s="4" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="G75" s="4" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="H75" s="4" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="I75" s="4" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="J75" s="4" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="K75" s="4" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="L75" s="4" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="M75" s="4" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="N75" s="4" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="O75" s="4" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="P75" s="4" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="Q75" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="R75" s="4" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="S75" s="4" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="T75" s="4" t="n">
+        <v>47.68</v>
+      </c>
+      <c r="U75" s="4" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="V75" s="4" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="W75" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="X75" s="4" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024/4/29</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="C76" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="D76" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="E76" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="F76" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="H76" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="I76" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="J76" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K76" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="L76" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="M76" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="N76" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="O76" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="P76" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="R76" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="S76" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="T76" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="U76" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="W76" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="X76" t="n">
+        <v>33.71</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5542,79 +5542,1599 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="4" t="inlineStr">
         <is>
           <t>2024/4/29</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="4" t="n">
         <v>19.19</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="4" t="n">
         <v>26.44</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="4" t="n">
         <v>17.66</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76" s="4" t="n">
         <v>19.73</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76" s="4" t="n">
         <v>25.4</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76" s="4" t="n">
         <v>15.33</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76" s="4" t="n">
         <v>18.29</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76" s="4" t="n">
         <v>33.71</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76" s="4" t="n">
         <v>32.8</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76" s="4" t="n">
         <v>18.58</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76" s="4" t="n">
         <v>31.28</v>
       </c>
-      <c r="M76" t="n">
+      <c r="M76" s="4" t="n">
         <v>15.46</v>
       </c>
-      <c r="N76" t="n">
+      <c r="N76" s="4" t="n">
         <v>13.71</v>
       </c>
-      <c r="O76" t="n">
+      <c r="O76" s="4" t="n">
         <v>26.56</v>
       </c>
-      <c r="P76" t="n">
+      <c r="P76" s="4" t="n">
         <v>20.43</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q76" s="4" t="n">
         <v>19.19</v>
       </c>
-      <c r="R76" t="n">
+      <c r="R76" s="4" t="n">
         <v>26.44</v>
       </c>
-      <c r="S76" t="n">
+      <c r="S76" s="4" t="n">
         <v>17.66</v>
       </c>
-      <c r="T76" t="n">
+      <c r="T76" s="4" t="n">
         <v>19.73</v>
       </c>
-      <c r="U76" t="n">
+      <c r="U76" s="4" t="n">
         <v>25.4</v>
       </c>
-      <c r="V76" t="n">
+      <c r="V76" s="4" t="n">
         <v>15.33</v>
       </c>
-      <c r="W76" t="n">
+      <c r="W76" s="4" t="n">
         <v>18.29</v>
       </c>
-      <c r="X76" t="n">
+      <c r="X76" s="4" t="n">
         <v>33.71</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>2024/4/30</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="F77" s="4" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="G77" s="4" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="H77" s="4" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="I77" s="4" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="J77" s="4" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="K77" s="4" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="L77" s="4" t="n">
+        <v>31.08</v>
+      </c>
+      <c r="M77" s="4" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="N77" s="4" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="O77" s="4" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="P77" s="4" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="Q77" s="4" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="R77" s="4" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="S77" s="4" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="T77" s="4" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="U77" s="4" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="V77" s="4" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="W77" s="4" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="X77" s="4" t="n">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/06</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="C78" s="4" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="D78" s="4" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="F78" s="4" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="G78" s="4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H78" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="I78" s="4" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="J78" s="4" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="K78" s="4" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="L78" s="4" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="M78" s="4" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="N78" s="4" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="O78" s="4" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="P78" s="4" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="Q78" s="4" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="R78" s="4" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="S78" s="4" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="T78" s="4" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="U78" s="4" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="V78" s="4" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="W78" s="4" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="X78" s="4" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/07</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="C79" s="4" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="D79" s="4" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="F79" s="4" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="G79" s="4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H79" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="I79" s="4" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="J79" s="4" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="K79" s="4" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="L79" s="4" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="M79" s="4" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="N79" s="4" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="O79" s="4" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="P79" s="4" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="Q79" s="4" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="R79" s="4" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="S79" s="4" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="T79" s="4" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="U79" s="4" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="V79" s="4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="W79" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="X79" s="4" t="n">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/08</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="D80" s="4" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F80" s="4" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="H80" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I80" s="4" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="J80" s="4" t="n">
+        <v>34.28</v>
+      </c>
+      <c r="K80" s="4" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="L80" s="4" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="M80" s="4" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="N80" s="4" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="O80" s="4" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="P80" s="4" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="Q80" s="4" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="R80" s="4" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="S80" s="4" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="T80" s="4" t="n">
+        <v>52.85</v>
+      </c>
+      <c r="U80" s="4" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="V80" s="4" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="W80" s="4" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="X80" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/09</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="C81" s="4" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="D81" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="E81" s="4" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="F81" s="4" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="G81" s="4" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="H81" s="4" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="I81" s="4" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="J81" s="4" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="K81" s="4" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="L81" s="4" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="M81" s="4" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="N81" s="4" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="O81" s="4" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="P81" s="4" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="Q81" s="4" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="R81" s="4" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="S81" s="4" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="T81" s="4" t="n">
+        <v>53.92</v>
+      </c>
+      <c r="U81" s="4" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="V81" s="4" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="W81" s="4" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="X81" s="4" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/10</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="E82" s="4" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F82" s="4" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H82" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="I82" s="4" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="J82" s="4" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="K82" s="4" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="L82" s="4" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="M82" s="4" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="N82" s="4" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="O82" s="4" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="P82" s="4" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="Q82" s="4" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="R82" s="4" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="S82" s="4" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="T82" s="4" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="U82" s="4" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="V82" s="4" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="W82" s="4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="X82" s="4" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/13</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="F83" s="4" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="G83" s="4" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="H83" s="4" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="I83" s="4" t="n">
+        <v>35.09</v>
+      </c>
+      <c r="J83" s="4" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="K83" s="4" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="L83" s="4" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="M83" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="N83" s="4" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="O83" s="4" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="P83" s="4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="Q83" s="4" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="R83" s="4" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="S83" s="4" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="T83" s="4" t="n">
+        <v>52.71</v>
+      </c>
+      <c r="U83" s="4" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="V83" s="4" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="W83" s="4" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="X83" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/14</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="E84" s="4" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="F84" s="4" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="G84" s="4" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="H84" s="4" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="I84" s="4" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="J84" s="4" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="K84" s="4" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="L84" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="M84" s="4" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="N84" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="O84" s="4" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="P84" s="4" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="Q84" s="4" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="R84" s="4" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="S84" s="4" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="T84" s="4" t="n">
+        <v>52.69</v>
+      </c>
+      <c r="U84" s="4" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="V84" s="4" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="W84" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="X84" s="4" t="n">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/15</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="C85" s="4" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="F85" s="4" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="G85" s="4" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="H85" s="4" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="I85" s="4" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="J85" s="4" t="n">
+        <v>33.63</v>
+      </c>
+      <c r="K85" s="4" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="L85" s="4" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="M85" s="4" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="N85" s="4" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="O85" s="4" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="P85" s="4" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="Q85" s="4" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="R85" s="4" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="S85" s="4" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="T85" s="4" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="U85" s="4" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="V85" s="4" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="W85" s="4" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="X85" s="4" t="n">
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/16</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="C86" s="4" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="E86" s="4" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F86" s="4" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="G86" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H86" s="4" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="I86" s="4" t="n">
+        <v>34.76</v>
+      </c>
+      <c r="J86" s="4" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="K86" s="4" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="L86" s="4" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="M86" s="4" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="N86" s="4" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="O86" s="4" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="P86" s="4" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="Q86" s="4" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="R86" s="4" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="S86" s="4" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="T86" s="4" t="n">
+        <v>52.05</v>
+      </c>
+      <c r="U86" s="4" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="V86" s="4" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="W86" s="4" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="X86" s="4" t="n">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/17</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="C87" s="4" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="E87" s="4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="F87" s="4" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="G87" s="4" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="H87" s="4" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="I87" s="4" t="n">
+        <v>35.16</v>
+      </c>
+      <c r="J87" s="4" t="n">
+        <v>34.17</v>
+      </c>
+      <c r="K87" s="4" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="L87" s="4" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="M87" s="4" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="N87" s="4" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="O87" s="4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="P87" s="4" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="Q87" s="4" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="R87" s="4" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="S87" s="4" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T87" s="4" t="n">
+        <v>52.49</v>
+      </c>
+      <c r="U87" s="4" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="V87" s="4" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="W87" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="X87" s="4" t="n">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/20</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="D88" s="4" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="E88" s="4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="F88" s="4" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="G88" s="4" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="H88" s="4" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="I88" s="4" t="n">
+        <v>35.16</v>
+      </c>
+      <c r="J88" s="4" t="n">
+        <v>34.17</v>
+      </c>
+      <c r="K88" s="4" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="L88" s="4" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="M88" s="4" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="N88" s="4" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="O88" s="4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="P88" s="4" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="Q88" s="4" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="R88" s="4" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="S88" s="4" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="T88" s="4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="U88" s="4" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="V88" s="4" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="W88" s="4" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="X88" s="4" t="n">
+        <v>35.16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/21</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C89" s="4" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="D89" s="4" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="E89" s="4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="F89" s="4" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="G89" s="4" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H89" s="4" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="I89" s="4" t="n">
+        <v>35.33</v>
+      </c>
+      <c r="J89" s="4" t="n">
+        <v>34.34</v>
+      </c>
+      <c r="K89" s="4" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="L89" s="4" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="M89" s="4" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="N89" s="4" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="O89" s="4" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="P89" s="4" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="Q89" s="4" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="R89" s="4" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="S89" s="4" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="T89" s="4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="U89" s="4" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="V89" s="4" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="W89" s="4" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="X89" s="4" t="n">
+        <v>35.33</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/22</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="C90" s="4" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D90" s="4" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="E90" s="4" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="F90" s="4" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="G90" s="4" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="H90" s="4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="I90" s="4" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="J90" s="4" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="K90" s="4" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="L90" s="4" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="M90" s="4" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="N90" s="4" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="O90" s="4" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="P90" s="4" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="Q90" s="4" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="R90" s="4" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="S90" s="4" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T90" s="4" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="U90" s="4" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="V90" s="4" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="W90" s="4" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="X90" s="4" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/23</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="F91" s="4" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="G91" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="H91" s="4" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="I91" s="4" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="J91" s="4" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="K91" s="4" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="L91" s="4" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="M91" s="4" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="N91" s="4" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="O91" s="4" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="P91" s="4" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="Q91" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="R91" s="4" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="S91" s="4" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="T91" s="4" t="n">
+        <v>51.71</v>
+      </c>
+      <c r="U91" s="4" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="V91" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="W91" s="4" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="X91" s="4" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/24</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="E92" s="4" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="F92" s="4" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="G92" s="4" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="H92" s="4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I92" s="4" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="J92" s="4" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="K92" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="L92" s="4" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="M92" s="4" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="N92" s="4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="O92" s="4" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="P92" s="4" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="Q92" s="4" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="R92" s="4" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="S92" s="4" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="T92" s="4" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="U92" s="4" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="V92" s="4" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="W92" s="4" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="X92" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/27</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="F93" s="4" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="G93" s="4" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="H93" s="4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I93" s="4" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="J93" s="4" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="K93" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="L93" s="4" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="M93" s="4" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="N93" s="4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="O93" s="4" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="P93" s="4" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="Q93" s="4" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="R93" s="4" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="S93" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="T93" s="4" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="U93" s="4" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="V93" s="4" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="W93" s="4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="X93" s="4" t="n">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/28</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="E94" s="4" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="F94" s="4" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="H94" s="4" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="I94" s="4" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="J94" s="4" t="n">
+        <v>33.44</v>
+      </c>
+      <c r="K94" s="4" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="L94" s="4" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="M94" s="4" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="N94" s="4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="O94" s="4" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="P94" s="4" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="Q94" s="4" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="R94" s="4" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="S94" s="4" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="T94" s="4" t="n">
+        <v>51.84</v>
+      </c>
+      <c r="U94" s="4" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="V94" s="4" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="W94" s="4" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="X94" s="4" t="n">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/29</t>
+        </is>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="E95" s="4" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="F95" s="4" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="G95" s="4" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="H95" s="4" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="I95" s="4" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="J95" s="4" t="n">
+        <v>33.43</v>
+      </c>
+      <c r="K95" s="4" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="L95" s="4" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="M95" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="N95" s="4" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="O95" s="4" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="P95" s="4" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="Q95" s="4" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="R95" s="4" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="S95" s="4" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="T95" s="4" t="n">
+        <v>51.46</v>
+      </c>
+      <c r="U95" s="4" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="V95" s="4" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="W95" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="X95" s="4" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024/5/30</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="C96" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="D96" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="E96" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="G96" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="H96" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="I96" t="n">
+        <v>33.82</v>
+      </c>
+      <c r="J96" t="n">
+        <v>33.22</v>
+      </c>
+      <c r="K96" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="L96" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="M96" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="N96" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="O96" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="P96" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="R96" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="S96" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="T96" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="U96" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="V96" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="W96" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="X96" t="n">
+        <v>33.82</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7062,79 +7062,1523 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="4" t="inlineStr">
         <is>
           <t>2024/5/30</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="4" t="n">
         <v>19.66</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="4" t="n">
         <v>25.68</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="4" t="n">
         <v>17.92</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96" s="4" t="n">
         <v>19.2</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96" s="4" t="n">
         <v>24.36</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96" s="4" t="n">
         <v>15.59</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96" s="4" t="n">
         <v>18.41</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96" s="4" t="n">
         <v>33.82</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96" s="4" t="n">
         <v>33.22</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96" s="4" t="n">
         <v>19.24</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L96" s="4" t="n">
         <v>27.21</v>
       </c>
-      <c r="M96" t="n">
+      <c r="M96" s="4" t="n">
         <v>17.6</v>
       </c>
-      <c r="N96" t="n">
+      <c r="N96" s="4" t="n">
         <v>13.55</v>
       </c>
-      <c r="O96" t="n">
+      <c r="O96" s="4" t="n">
         <v>25.33</v>
       </c>
-      <c r="P96" t="n">
+      <c r="P96" s="4" t="n">
         <v>20.49</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="Q96" s="4" t="n">
         <v>19.66</v>
       </c>
-      <c r="R96" t="n">
+      <c r="R96" s="4" t="n">
         <v>25.68</v>
       </c>
-      <c r="S96" t="n">
+      <c r="S96" s="4" t="n">
         <v>17.92</v>
       </c>
-      <c r="T96" t="n">
+      <c r="T96" s="4" t="n">
         <v>19.2</v>
       </c>
-      <c r="U96" t="n">
+      <c r="U96" s="4" t="n">
         <v>24.36</v>
       </c>
-      <c r="V96" t="n">
+      <c r="V96" s="4" t="n">
         <v>15.59</v>
       </c>
-      <c r="W96" t="n">
+      <c r="W96" s="4" t="n">
         <v>18.41</v>
       </c>
-      <c r="X96" t="n">
+      <c r="X96" s="4" t="n">
         <v>33.82</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>2024/5/31</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="C97" s="4" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="D97" s="4" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="E97" s="4" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="F97" s="4" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="H97" s="4" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="I97" s="4" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J97" s="4" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="K97" s="4" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="L97" s="4" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="M97" s="4" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="N97" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="O97" s="4" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="P97" s="4" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="Q97" s="4" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="R97" s="4" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="S97" s="4" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="T97" s="4" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="U97" s="4" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="V97" s="4" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="W97" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="X97" s="4" t="n">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/03</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="C98" s="4" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="D98" s="4" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="E98" s="4" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="F98" s="4" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="G98" s="4" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="H98" s="4" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="I98" s="4" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="J98" s="4" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K98" s="4" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="L98" s="4" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="M98" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="N98" s="4" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="O98" s="4" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="P98" s="4" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="Q98" s="4" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="R98" s="4" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="S98" s="4" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="T98" s="4" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="U98" s="4" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="V98" s="4" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="W98" s="4" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="X98" s="4" t="n">
+        <v>33.84</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/04</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="F99" s="4" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="H99" s="4" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="I99" s="4" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J99" s="4" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="K99" s="4" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="L99" s="4" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="M99" s="4" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="N99" s="4" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="O99" s="4" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="P99" s="4" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="Q99" s="4" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="R99" s="4" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="S99" s="4" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="T99" s="4" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="U99" s="4" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="V99" s="4" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="W99" s="4" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="X99" s="4" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/05</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="F100" s="4" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="G100" s="4" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="H100" s="4" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="I100" s="4" t="n">
+        <v>33.48</v>
+      </c>
+      <c r="J100" s="4" t="n">
+        <v>32.34</v>
+      </c>
+      <c r="K100" s="4" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="L100" s="4" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="M100" s="4" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="N100" s="4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O100" s="4" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="P100" s="4" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="Q100" s="4" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="R100" s="4" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="S100" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="T100" s="4" t="n">
+        <v>53.48</v>
+      </c>
+      <c r="U100" s="4" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="V100" s="4" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="W100" s="4" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="X100" s="4" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/06</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="F101" s="4" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="H101" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="I101" s="4" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="J101" s="4" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="K101" s="4" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="L101" s="4" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="M101" s="4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="N101" s="4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O101" s="4" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="P101" s="4" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="Q101" s="4" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="R101" s="4" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="S101" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="T101" s="4" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="U101" s="4" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="V101" s="4" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="W101" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="X101" s="4" t="n">
+        <v>32.87</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/07</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="C102" s="4" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="E102" s="4" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="F102" s="4" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="G102" s="4" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="H102" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="I102" s="4" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="J102" s="4" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="K102" s="4" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="L102" s="4" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="M102" s="4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="N102" s="4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O102" s="4" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="P102" s="4" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="Q102" s="4" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="R102" s="4" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="S102" s="4" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="T102" s="4" t="n">
+        <v>53.23</v>
+      </c>
+      <c r="U102" s="4" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="V102" s="4" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="W102" s="4" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="X102" s="4" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/11</t>
+        </is>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="C103" s="4" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="D103" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="E103" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="F103" s="4" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="G103" s="4" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="H103" s="4" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="I103" s="4" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="J103" s="4" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="K103" s="4" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="L103" s="4" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="M103" s="4" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="N103" s="4" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="O103" s="4" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="P103" s="4" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="Q103" s="4" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="R103" s="4" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="S103" s="4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T103" s="4" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="U103" s="4" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="V103" s="4" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="W103" s="4" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="X103" s="4" t="n">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/12</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="C104" s="4" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="D104" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="E104" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="F104" s="4" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="G104" s="4" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="H104" s="4" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="I104" s="4" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="J104" s="4" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="K104" s="4" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="L104" s="4" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="M104" s="4" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="N104" s="4" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="O104" s="4" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="P104" s="4" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="Q104" s="4" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="R104" s="4" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="S104" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="T104" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="U104" s="4" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="V104" s="4" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="W104" s="4" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="X104" s="4" t="n">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/13</t>
+        </is>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="C105" s="4" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="D105" s="4" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="E105" s="4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F105" s="4" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="G105" s="4" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="H105" s="4" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="I105" s="4" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="J105" s="4" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="K105" s="4" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="L105" s="4" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="M105" s="4" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="N105" s="4" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="O105" s="4" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="P105" s="4" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="Q105" s="4" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="R105" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="S105" s="4" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="T105" s="4" t="n">
+        <v>55.19</v>
+      </c>
+      <c r="U105" s="4" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="V105" s="4" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="W105" s="4" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="X105" s="4" t="n">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/14</t>
+        </is>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="C106" s="4" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="D106" s="4" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="E106" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="F106" s="4" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="G106" s="4" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="H106" s="4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I106" s="4" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="J106" s="4" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="K106" s="4" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L106" s="4" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="M106" s="4" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="N106" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="O106" s="4" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="P106" s="4" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="Q106" s="4" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="R106" s="4" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="S106" s="4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T106" s="4" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="U106" s="4" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="V106" s="4" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="W106" s="4" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="X106" s="4" t="n">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/17</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="C107" s="4" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D107" s="4" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="E107" s="4" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F107" s="4" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="G107" s="4" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="H107" s="4" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="I107" s="4" t="n">
+        <v>34.48</v>
+      </c>
+      <c r="J107" s="4" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="K107" s="4" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="L107" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="M107" s="4" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="N107" s="4" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="O107" s="4" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="P107" s="4" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="Q107" s="4" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="R107" s="4" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="S107" s="4" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="T107" s="4" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="U107" s="4" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="V107" s="4" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="W107" s="4" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="X107" s="4" t="n">
+        <v>34.48</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/18</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="F108" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G108" s="4" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="H108" s="4" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="I108" s="4" t="n">
+        <v>34.78</v>
+      </c>
+      <c r="J108" s="4" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="K108" s="4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L108" s="4" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="M108" s="4" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="N108" s="4" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="O108" s="4" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="P108" s="4" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="Q108" s="4" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="R108" s="4" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="S108" s="4" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="T108" s="4" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="U108" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="V108" s="4" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="W108" s="4" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="X108" s="4" t="n">
+        <v>34.78</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/19</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="C109" s="4" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="D109" s="4" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="E109" s="4" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F109" s="4" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="G109" s="4" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="H109" s="4" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="I109" s="4" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="J109" s="4" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K109" s="4" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="L109" s="4" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="M109" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="N109" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="O109" s="4" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="P109" s="4" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="Q109" s="4" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="R109" s="4" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="S109" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="T109" s="4" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="U109" s="4" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="V109" s="4" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="W109" s="4" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="X109" s="4" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/20</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="C110" s="4" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="D110" s="4" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="E110" s="4" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="F110" s="4" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="G110" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="H110" s="4" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="I110" s="4" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="J110" s="4" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="K110" s="4" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="L110" s="4" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="M110" s="4" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="N110" s="4" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="O110" s="4" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="P110" s="4" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="Q110" s="4" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="R110" s="4" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="S110" s="4" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="T110" s="4" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="U110" s="4" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="V110" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="W110" s="4" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="X110" s="4" t="n">
+        <v>33.52</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/21</t>
+        </is>
+      </c>
+      <c r="B111" s="4" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="C111" s="4" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="D111" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="E111" s="4" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="F111" s="4" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="G111" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="H111" s="4" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="I111" s="4" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="J111" s="4" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="K111" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="L111" s="4" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="M111" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="N111" s="4" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="O111" s="4" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="P111" s="4" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="Q111" s="4" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="R111" s="4" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="S111" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="T111" s="4" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="U111" s="4" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="V111" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="W111" s="4" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="X111" s="4" t="n">
+        <v>33.51</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/24</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D112" s="4" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="E112" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="F112" s="4" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="G112" s="4" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="H112" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I112" s="4" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="J112" s="4" t="n">
+        <v>30.78</v>
+      </c>
+      <c r="K112" s="4" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="L112" s="4" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="M112" s="4" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="N112" s="4" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="O112" s="4" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="P112" s="4" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="Q112" s="4" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="R112" s="4" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="S112" s="4" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="T112" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="U112" s="4" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="V112" s="4" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="W112" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="X112" s="4" t="n">
+        <v>32.24</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/25</t>
+        </is>
+      </c>
+      <c r="B113" s="4" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="C113" s="4" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D113" s="4" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="E113" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="F113" s="4" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="G113" s="4" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="H113" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I113" s="4" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="J113" s="4" t="n">
+        <v>30.78</v>
+      </c>
+      <c r="K113" s="4" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="L113" s="4" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="M113" s="4" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="N113" s="4" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="O113" s="4" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="P113" s="4" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="Q113" s="4" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="R113" s="4" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="S113" s="4" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="T113" s="4" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="U113" s="4" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="V113" s="4" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="W113" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="X113" s="4" t="n">
+        <v>8.640000000000001</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/26</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="C114" s="4" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="D114" s="4" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="E114" s="4" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="F114" s="4" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="G114" s="4" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="H114" s="4" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="I114" s="4" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="J114" s="4" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="K114" s="4" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="L114" s="4" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="M114" s="4" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="N114" s="4" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="O114" s="4" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P114" s="4" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="Q114" s="4" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="R114" s="4" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="S114" s="4" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="T114" s="4" t="n">
+        <v>53.81</v>
+      </c>
+      <c r="U114" s="4" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="V114" s="4" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="W114" s="4" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="X114" s="4" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024/6/27</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="C115" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="E115" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F115" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="G115" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="H115" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="I115" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="J115" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="K115" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="L115" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="M115" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="N115" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="O115" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="P115" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="R115" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="T115" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="U115" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="V115" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="W115" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="X115" t="n">
+        <v>32.48</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X115"/>
+  <dimension ref="A1:X138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -8506,79 +8506,1827 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="4" t="inlineStr">
         <is>
           <t>2024/6/27</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="4" t="n">
         <v>18.62</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="4" t="n">
         <v>24.3</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="4" t="n">
         <v>17.18</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" s="4" t="n">
         <v>18.67</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115" s="4" t="n">
         <v>22.59</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115" s="4" t="n">
         <v>15.17</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115" s="4" t="n">
         <v>17.87</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115" s="4" t="n">
         <v>32.48</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115" s="4" t="n">
         <v>30.92</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115" s="4" t="n">
         <v>18.75</v>
       </c>
-      <c r="L115" t="n">
+      <c r="L115" s="4" t="n">
         <v>27.31</v>
       </c>
-      <c r="M115" t="n">
+      <c r="M115" s="4" t="n">
         <v>16.88</v>
       </c>
-      <c r="N115" t="n">
+      <c r="N115" s="4" t="n">
         <v>12.54</v>
       </c>
-      <c r="O115" t="n">
+      <c r="O115" s="4" t="n">
         <v>24.04</v>
       </c>
-      <c r="P115" t="n">
+      <c r="P115" s="4" t="n">
         <v>19.85</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="Q115" s="4" t="n">
         <v>18.62</v>
       </c>
-      <c r="R115" t="n">
+      <c r="R115" s="4" t="n">
         <v>24.3</v>
       </c>
-      <c r="S115" t="n">
+      <c r="S115" s="4" t="n">
         <v>17.18</v>
       </c>
-      <c r="T115" t="n">
+      <c r="T115" s="4" t="n">
         <v>18.67</v>
       </c>
-      <c r="U115" t="n">
+      <c r="U115" s="4" t="n">
         <v>22.59</v>
       </c>
-      <c r="V115" t="n">
+      <c r="V115" s="4" t="n">
         <v>15.17</v>
       </c>
-      <c r="W115" t="n">
+      <c r="W115" s="4" t="n">
         <v>17.87</v>
       </c>
-      <c r="X115" t="n">
+      <c r="X115" s="4" t="n">
         <v>32.48</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="inlineStr">
+        <is>
+          <t>2024/6/28</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="F116" s="4" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="H116" s="4" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="I116" s="4" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="J116" s="4" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="K116" s="4" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="L116" s="4" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="M116" s="4" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="N116" s="4" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="O116" s="4" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="P116" s="4" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="Q116" s="4" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="R116" s="4" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="S116" s="4" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="T116" s="4" t="n">
+        <v>53.21</v>
+      </c>
+      <c r="U116" s="4" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="V116" s="4" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="W116" s="4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="X116" s="4" t="n">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/01</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="F117" s="4" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="H117" s="4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I117" s="4" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="J117" s="4" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="K117" s="4" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="L117" s="4" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="M117" s="4" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="N117" s="4" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="O117" s="4" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="P117" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q117" s="4" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="R117" s="4" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="S117" s="4" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="T117" s="4" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="U117" s="4" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="V117" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="W117" s="4" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="X117" s="4" t="n">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/02</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="E118" s="4" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="F118" s="4" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="H118" s="4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="I118" s="4" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="J118" s="4" t="n">
+        <v>31.14</v>
+      </c>
+      <c r="K118" s="4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L118" s="4" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="M118" s="4" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="N118" s="4" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="O118" s="4" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="P118" s="4" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="Q118" s="4" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="R118" s="4" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="S118" s="4" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="T118" s="4" t="n">
+        <v>52.19</v>
+      </c>
+      <c r="U118" s="4" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="V118" s="4" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="W118" s="4" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="X118" s="4" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/03</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="E119" s="4" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="F119" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H119" s="4" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="I119" s="4" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="J119" s="4" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="K119" s="4" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="L119" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="M119" s="4" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="N119" s="4" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="O119" s="4" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="P119" s="4" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="Q119" s="4" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="R119" s="4" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="S119" s="4" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="T119" s="4" t="n">
+        <v>52.76</v>
+      </c>
+      <c r="U119" s="4" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="V119" s="4" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="W119" s="4" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="X119" s="4" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/04</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="E120" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="F120" s="4" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="H120" s="4" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="I120" s="4" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="J120" s="4" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="K120" s="4" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="L120" s="4" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="M120" s="4" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="N120" s="4" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="O120" s="4" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="P120" s="4" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="Q120" s="4" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="R120" s="4" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="S120" s="4" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="T120" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="U120" s="4" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="V120" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="W120" s="4" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="X120" s="4" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/05</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="E121" s="4" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="F121" s="4" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="H121" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="I121" s="4" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="J121" s="4" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="K121" s="4" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="L121" s="4" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="M121" s="4" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="N121" s="4" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="O121" s="4" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="P121" s="4" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="Q121" s="4" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="R121" s="4" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="S121" s="4" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="T121" s="4" t="n">
+        <v>52.08</v>
+      </c>
+      <c r="U121" s="4" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="V121" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="W121" s="4" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="X121" s="4" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/08</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="E122" s="4" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="F122" s="4" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="G122" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="H122" s="4" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="I122" s="4" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="J122" s="4" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="K122" s="4" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="L122" s="4" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="M122" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="N122" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="O122" s="4" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="P122" s="4" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="Q122" s="4" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="R122" s="4" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="S122" s="4" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="T122" s="4" t="n">
+        <v>52.03</v>
+      </c>
+      <c r="U122" s="4" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="V122" s="4" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="W122" s="4" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="X122" s="4" t="n">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/09</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="F123" s="4" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="G123" s="4" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="H123" s="4" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="I123" s="4" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="J123" s="4" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="K123" s="4" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="L123" s="4" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="M123" s="4" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="N123" s="4" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="O123" s="4" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="P123" s="4" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="Q123" s="4" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="R123" s="4" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="S123" s="4" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="T123" s="4" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="U123" s="4" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="V123" s="4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="W123" s="4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="X123" s="4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/10</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="F124" s="4" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="G124" s="4" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="H124" s="4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="I124" s="4" t="n">
+        <v>31.72</v>
+      </c>
+      <c r="J124" s="4" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="K124" s="4" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="L124" s="4" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="M124" s="4" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="N124" s="4" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="O124" s="4" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="P124" s="4" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="Q124" s="4" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="R124" s="4" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="S124" s="4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="T124" s="4" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="U124" s="4" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="V124" s="4" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="W124" s="4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="X124" s="4" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/11</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E125" s="4" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="F125" s="4" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="G125" s="4" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="H125" s="4" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="I125" s="4" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="J125" s="4" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="K125" s="4" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="L125" s="4" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="M125" s="4" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="N125" s="4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="O125" s="4" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="P125" s="4" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="Q125" s="4" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="R125" s="4" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="S125" s="4" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="T125" s="4" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="U125" s="4" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="V125" s="4" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="W125" s="4" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="X125" s="4" t="n">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/12</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="E126" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="F126" s="4" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="G126" s="4" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="H126" s="4" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="I126" s="4" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="J126" s="4" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="K126" s="4" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="L126" s="4" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="M126" s="4" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="N126" s="4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="O126" s="4" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="P126" s="4" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="Q126" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="R126" s="4" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="S126" s="4" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="T126" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="U126" s="4" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="V126" s="4" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="W126" s="4" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="X126" s="4" t="n">
+        <v>32.49</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/15</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="E127" s="4" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="F127" s="4" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="G127" s="4" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="H127" s="4" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="I127" s="4" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="J127" s="4" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="K127" s="4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="L127" s="4" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="M127" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="N127" s="4" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="O127" s="4" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="P127" s="4" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="Q127" s="4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="R127" s="4" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="S127" s="4" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="T127" s="4" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="U127" s="4" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="V127" s="4" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="W127" s="4" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="X127" s="4" t="n">
+        <v>32.03</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/16</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="C128" s="4" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D128" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="E128" s="4" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F128" s="4" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="G128" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="H128" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="I128" s="4" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="J128" s="4" t="n">
+        <v>30.32</v>
+      </c>
+      <c r="K128" s="4" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="L128" s="4" t="n">
+        <v>28.17</v>
+      </c>
+      <c r="M128" s="4" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="N128" s="4" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="O128" s="4" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="P128" s="4" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="Q128" s="4" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="R128" s="4" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="S128" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="T128" s="4" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="U128" s="4" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="V128" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="W128" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="X128" s="4" t="n">
+        <v>32.18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/17</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="C129" s="4" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D129" s="4" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E129" s="4" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="F129" s="4" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="G129" s="4" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="H129" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="I129" s="4" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="J129" s="4" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="K129" s="4" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="L129" s="4" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="M129" s="4" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="N129" s="4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="O129" s="4" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="P129" s="4" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="Q129" s="4" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="R129" s="4" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="S129" s="4" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="T129" s="4" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="U129" s="4" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="V129" s="4" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="W129" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="X129" s="4" t="n">
+        <v>31.82</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/18</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="C130" s="4" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="D130" s="4" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="E130" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F130" s="4" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="G130" s="4" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="H130" s="4" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="I130" s="4" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="J130" s="4" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K130" s="4" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="L130" s="4" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="M130" s="4" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="N130" s="4" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="O130" s="4" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="P130" s="4" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="Q130" s="4" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="R130" s="4" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="S130" s="4" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="T130" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="U130" s="4" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="V130" s="4" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="W130" s="4" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="X130" s="4" t="n">
+        <v>31.89</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/19</t>
+        </is>
+      </c>
+      <c r="B131" s="4" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="C131" s="4" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="D131" s="4" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="E131" s="4" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="F131" s="4" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="G131" s="4" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="H131" s="4" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="I131" s="4" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="J131" s="4" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="K131" s="4" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="L131" s="4" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="M131" s="4" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="N131" s="4" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="O131" s="4" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="P131" s="4" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="Q131" s="4" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="R131" s="4" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S131" s="4" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="T131" s="4" t="n">
+        <v>57.57</v>
+      </c>
+      <c r="U131" s="4" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="V131" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="W131" s="4" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="X131" s="4" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/22</t>
+        </is>
+      </c>
+      <c r="B132" s="4" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="C132" s="4" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="D132" s="4" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="E132" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F132" s="4" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="G132" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="H132" s="4" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="I132" s="4" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J132" s="4" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="K132" s="4" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="L132" s="4" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="M132" s="4" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="N132" s="4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="O132" s="4" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="P132" s="4" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="Q132" s="4" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="R132" s="4" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="S132" s="4" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="T132" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="U132" s="4" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="V132" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="W132" s="4" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="X132" s="4" t="n">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/23</t>
+        </is>
+      </c>
+      <c r="B133" s="4" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="C133" s="4" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="D133" s="4" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="E133" s="4" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="F133" s="4" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="G133" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="H133" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="I133" s="4" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="J133" s="4" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="K133" s="4" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="L133" s="4" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="M133" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="N133" s="4" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="O133" s="4" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="P133" s="4" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="Q133" s="4" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="R133" s="4" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="S133" s="4" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="T133" s="4" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="U133" s="4" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="V133" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="W133" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="X133" s="4" t="n">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/24</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="C134" s="4" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="D134" s="4" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="E134" s="4" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="F134" s="4" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="G134" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="H134" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="I134" s="4" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="J134" s="4" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="K134" s="4" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="L134" s="4" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="M134" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="N134" s="4" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="O134" s="4" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="P134" s="4" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="Q134" s="4" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="R134" s="4" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="S134" s="4" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="T134" s="4" t="n">
+        <v>54.24</v>
+      </c>
+      <c r="U134" s="4" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="V134" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="W134" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="X134" s="4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/25</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="C135" s="4" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="D135" s="4" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="E135" s="4" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="F135" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G135" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="H135" s="4" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="I135" s="4" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="J135" s="4" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K135" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="L135" s="4" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="M135" s="4" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="N135" s="4" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="O135" s="4" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="P135" s="4" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="Q135" s="4" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="R135" s="4" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="S135" s="4" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="T135" s="4" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="U135" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="V135" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="W135" s="4" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="X135" s="4" t="n">
+        <v>30.73</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/26</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="C136" s="4" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="D136" s="4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E136" s="4" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="F136" s="4" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="G136" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="H136" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="I136" s="4" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="J136" s="4" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K136" s="4" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="L136" s="4" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="M136" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="N136" s="4" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="O136" s="4" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="P136" s="4" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="Q136" s="4" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="R136" s="4" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="S136" s="4" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="T136" s="4" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="U136" s="4" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="V136" s="4" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="W136" s="4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="X136" s="4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>2024/7/29</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="C137" s="4" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="D137" s="4" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="E137" s="4" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="F137" s="4" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="G137" s="4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H137" s="4" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="I137" s="4" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="J137" s="4" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="K137" s="4" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="L137" s="4" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="M137" s="4" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="N137" s="4" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="O137" s="4" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="P137" s="4" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="Q137" s="4" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="R137" s="4" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="S137" s="4" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="T137" s="4" t="n">
+        <v>53.37</v>
+      </c>
+      <c r="U137" s="4" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="V137" s="4" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="W137" s="4" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="X137" s="4" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024/7/30</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="C138" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="D138" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="E138" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="F138" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="G138" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="H138" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="I138" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="J138" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="K138" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="L138" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="M138" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="N138" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="O138" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="P138" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="R138" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="S138" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="T138" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="U138" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="V138" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="W138" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="X138" t="n">
+        <v>31.03</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -11427,95 +11427,72 @@
         <v>141</v>
       </c>
       <c r="B152" s="4">
-        <f>(B151+B153)/2</f>
         <v>17.47</v>
       </c>
       <c r="C152" s="4">
-        <f t="shared" ref="C152:X152" si="0">(C151+C153)/2</f>
         <v>22.52</v>
       </c>
       <c r="D152" s="4">
-        <f t="shared" si="0"/>
         <v>16.130000000000003</v>
       </c>
       <c r="E152" s="4">
-        <f t="shared" si="0"/>
         <v>17.454999999999998</v>
       </c>
       <c r="F152" s="4">
-        <f t="shared" si="0"/>
         <v>21.024999999999999</v>
       </c>
       <c r="G152" s="4">
-        <f t="shared" si="0"/>
         <v>14.370000000000001</v>
       </c>
       <c r="H152" s="4">
-        <f t="shared" si="0"/>
         <v>16.740000000000002</v>
       </c>
       <c r="I152" s="4">
-        <f t="shared" si="0"/>
         <v>30.55</v>
       </c>
       <c r="J152" s="4">
-        <f t="shared" si="0"/>
         <v>29.009999999999998</v>
       </c>
       <c r="K152" s="4">
-        <f t="shared" si="0"/>
         <v>17.524999999999999</v>
       </c>
       <c r="L152" s="4">
-        <f t="shared" si="0"/>
         <v>25.27</v>
       </c>
       <c r="M152" s="4">
-        <f t="shared" si="0"/>
         <v>16.215</v>
       </c>
       <c r="N152" s="4">
-        <f t="shared" si="0"/>
         <v>11.975000000000001</v>
       </c>
       <c r="O152" s="4">
-        <f t="shared" si="0"/>
         <v>22.274999999999999</v>
       </c>
       <c r="P152" s="4">
-        <f t="shared" si="0"/>
         <v>18.759999999999998</v>
       </c>
       <c r="Q152" s="4">
-        <f t="shared" si="0"/>
         <v>15.184999999999999</v>
       </c>
       <c r="R152" s="4">
-        <f t="shared" si="0"/>
         <v>21.625</v>
       </c>
       <c r="S152" s="4">
-        <f t="shared" si="0"/>
         <v>15.11</v>
       </c>
       <c r="T152" s="4">
-        <f t="shared" si="0"/>
         <v>34.265000000000001</v>
       </c>
       <c r="U152" s="4">
-        <f t="shared" si="0"/>
         <v>20.58</v>
       </c>
       <c r="V152" s="4">
-        <f t="shared" si="0"/>
         <v>16.29</v>
       </c>
       <c r="W152" s="4">
-        <f t="shared" si="0"/>
         <v>14.285</v>
       </c>
       <c r="X152" s="4">
-        <f t="shared" si="0"/>
         <v>19.740000000000002</v>
       </c>
     </row>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -491,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -503,6 +503,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11352,7 +11355,7 @@
       <c r="A151" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="5">
         <v>17.559999999999999</v>
       </c>
       <c r="C151" s="3">

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X179"/>
+  <dimension ref="A1:X197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -13379,79 +13379,1447 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="5" t="inlineStr">
         <is>
           <t>2024/9/27</t>
         </is>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="5" t="n">
         <v>19.86</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" s="5" t="n">
         <v>27.29</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="5" t="n">
         <v>18.41</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179" s="5" t="n">
         <v>20.31</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179" s="5" t="n">
         <v>25.76</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G179" s="5" t="n">
         <v>15.88</v>
       </c>
-      <c r="H179" t="n">
+      <c r="H179" s="5" t="n">
         <v>22.78</v>
       </c>
-      <c r="I179" t="n">
+      <c r="I179" s="5" t="n">
         <v>34.89</v>
       </c>
-      <c r="J179" t="n">
+      <c r="J179" s="5" t="n">
         <v>31.77</v>
       </c>
-      <c r="K179" t="n">
+      <c r="K179" s="5" t="n">
         <v>19.65</v>
       </c>
-      <c r="L179" t="n">
+      <c r="L179" s="5" t="n">
         <v>28.5</v>
       </c>
-      <c r="M179" t="n">
+      <c r="M179" s="5" t="n">
         <v>18.64</v>
       </c>
-      <c r="N179" t="n">
+      <c r="N179" s="5" t="n">
         <v>13.4</v>
       </c>
-      <c r="O179" t="n">
+      <c r="O179" s="5" t="n">
         <v>27.53</v>
       </c>
-      <c r="P179" t="n">
+      <c r="P179" s="5" t="n">
         <v>22.15</v>
       </c>
-      <c r="Q179" t="n">
+      <c r="Q179" s="5" t="n">
         <v>13.79</v>
       </c>
-      <c r="R179" t="n">
+      <c r="R179" s="5" t="n">
         <v>23.12</v>
       </c>
-      <c r="S179" t="n">
+      <c r="S179" s="5" t="n">
         <v>15.2</v>
       </c>
-      <c r="T179" t="n">
+      <c r="T179" s="5" t="n">
         <v>54.19</v>
       </c>
-      <c r="U179" t="n">
+      <c r="U179" s="5" t="n">
         <v>22.78</v>
       </c>
-      <c r="V179" t="n">
+      <c r="V179" s="5" t="n">
         <v>22.42</v>
       </c>
-      <c r="W179" t="n">
+      <c r="W179" s="5" t="n">
         <v>12.52</v>
       </c>
-      <c r="X179" t="n">
+      <c r="X179" s="5" t="n">
         <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="5" t="inlineStr">
+        <is>
+          <t>2024/9/30</t>
+        </is>
+      </c>
+      <c r="B180" s="5" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="D180" s="5" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="E180" s="5" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="F180" s="5" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="G180" s="5" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="H180" s="5" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="I180" s="5" t="n">
+        <v>40.49</v>
+      </c>
+      <c r="J180" s="5" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="K180" s="5" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="L180" s="5" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="M180" s="5" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="N180" s="5" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="O180" s="5" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="P180" s="5" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="Q180" s="5" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="R180" s="5" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="S180" s="5" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="T180" s="5" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="U180" s="5" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="V180" s="5" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="W180" s="5" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="X180" s="5" t="n">
+        <v>9.470000000000001</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="B181" s="5" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="D181" s="5" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="E181" s="5" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="F181" s="5" t="n">
+        <v>35.16</v>
+      </c>
+      <c r="G181" s="5" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="H181" s="5" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I181" s="5" t="n">
+        <v>46.63</v>
+      </c>
+      <c r="J181" s="5" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="K181" s="5" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="L181" s="5" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="M181" s="5" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="N181" s="5" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="O181" s="5" t="n">
+        <v>37.39</v>
+      </c>
+      <c r="P181" s="5" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="Q181" s="5" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="R181" s="5" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="S181" s="5" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="T181" s="5" t="n">
+        <v>72.16</v>
+      </c>
+      <c r="U181" s="5" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="V181" s="5" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="W181" s="5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="X181" s="5" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/09</t>
+        </is>
+      </c>
+      <c r="B182" s="5" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="D182" s="5" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="E182" s="5" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="F182" s="5" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="G182" s="5" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="H182" s="5" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="I182" s="5" t="n">
+        <v>42.41</v>
+      </c>
+      <c r="J182" s="5" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K182" s="5" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="L182" s="5" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="M182" s="5" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="N182" s="5" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="O182" s="5" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="P182" s="5" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="Q182" s="5" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="R182" s="5" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="S182" s="5" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="T182" s="5" t="n">
+        <v>73.14</v>
+      </c>
+      <c r="U182" s="5" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="V182" s="5" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="W182" s="5" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="X182" s="5" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="B183" s="5" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="C183" s="5" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="D183" s="5" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="E183" s="5" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="F183" s="5" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="G183" s="5" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="H183" s="5" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="I183" s="5" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="J183" s="5" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="K183" s="5" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="L183" s="5" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="M183" s="5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="N183" s="5" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="O183" s="5" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="P183" s="5" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="Q183" s="5" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="R183" s="5" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="S183" s="5" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="T183" s="5" t="n">
+        <v>69.59</v>
+      </c>
+      <c r="U183" s="5" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="V183" s="5" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="W183" s="5" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="X183" s="5" t="n">
+        <v>9.369999999999999</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/11</t>
+        </is>
+      </c>
+      <c r="B184" s="5" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="C184" s="5" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="D184" s="5" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="E184" s="5" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="F184" s="5" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="G184" s="5" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="H184" s="5" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="I184" s="5" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="J184" s="5" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="K184" s="5" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="L184" s="5" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="M184" s="5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="N184" s="5" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="O184" s="5" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="P184" s="5" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="Q184" s="5" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="R184" s="5" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="S184" s="5" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="T184" s="5" t="n">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="U184" s="5" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="V184" s="5" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="W184" s="5" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="X184" s="5" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/14</t>
+        </is>
+      </c>
+      <c r="B185" s="5" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="C185" s="5" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="D185" s="5" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="E185" s="5" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="F185" s="5" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="G185" s="5" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="H185" s="5" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="I185" s="5" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="J185" s="5" t="n">
+        <v>36.54</v>
+      </c>
+      <c r="K185" s="5" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="L185" s="5" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="M185" s="5" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="N185" s="5" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="O185" s="5" t="n">
+        <v>31.72</v>
+      </c>
+      <c r="P185" s="5" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="Q185" s="5" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="R185" s="5" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="S185" s="5" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="T185" s="5" t="n">
+        <v>66.86</v>
+      </c>
+      <c r="U185" s="5" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="V185" s="5" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="W185" s="5" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="X185" s="5" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="B186" s="5" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="C186" s="5" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="D186" s="5" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="E186" s="5" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="F186" s="5" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="G186" s="5" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="H186" s="5" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="I186" s="5" t="n">
+        <v>40.86</v>
+      </c>
+      <c r="J186" s="5" t="n">
+        <v>36.14</v>
+      </c>
+      <c r="K186" s="5" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L186" s="5" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="M186" s="5" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="N186" s="5" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="O186" s="5" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="P186" s="5" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="Q186" s="5" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="R186" s="5" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="S186" s="5" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="T186" s="5" t="n">
+        <v>65.64</v>
+      </c>
+      <c r="U186" s="5" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="V186" s="5" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="W186" s="5" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="X186" s="5" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/16</t>
+        </is>
+      </c>
+      <c r="B187" s="5" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="C187" s="5" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D187" s="5" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="E187" s="5" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="F187" s="5" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="G187" s="5" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="H187" s="5" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="I187" s="5" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="J187" s="5" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="K187" s="5" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="L187" s="5" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="M187" s="5" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="N187" s="5" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="O187" s="5" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="P187" s="5" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="Q187" s="5" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="R187" s="5" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="S187" s="5" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="T187" s="5" t="n">
+        <v>64.01000000000001</v>
+      </c>
+      <c r="U187" s="5" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="V187" s="5" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="W187" s="5" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="X187" s="5" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="B188" s="5" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="C188" s="5" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="D188" s="5" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="E188" s="5" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="F188" s="5" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="G188" s="5" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="H188" s="5" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="I188" s="5" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="J188" s="5" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="K188" s="5" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="L188" s="5" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="M188" s="5" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="N188" s="5" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="O188" s="5" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="P188" s="5" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="Q188" s="5" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="R188" s="5" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="S188" s="5" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="T188" s="5" t="n">
+        <v>64.02</v>
+      </c>
+      <c r="U188" s="5" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="V188" s="5" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="W188" s="5" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="X188" s="5" t="n">
+        <v>9.109999999999999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/18</t>
+        </is>
+      </c>
+      <c r="B189" s="5" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="C189" s="5" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="D189" s="5" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="E189" s="5" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="F189" s="5" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="G189" s="5" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="H189" s="5" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="I189" s="5" t="n">
+        <v>43.32</v>
+      </c>
+      <c r="J189" s="5" t="n">
+        <v>37.61</v>
+      </c>
+      <c r="K189" s="5" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="L189" s="5" t="n">
+        <v>33.22</v>
+      </c>
+      <c r="M189" s="5" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="N189" s="5" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="O189" s="5" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="P189" s="5" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="Q189" s="5" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="R189" s="5" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="S189" s="5" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="T189" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="U189" s="5" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="V189" s="5" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="W189" s="5" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="X189" s="5" t="n">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/21</t>
+        </is>
+      </c>
+      <c r="B190" s="5" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="D190" s="5" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="E190" s="5" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="F190" s="5" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="G190" s="5" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="H190" s="5" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="I190" s="5" t="n">
+        <v>44.97</v>
+      </c>
+      <c r="J190" s="5" t="n">
+        <v>39.31</v>
+      </c>
+      <c r="K190" s="5" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="L190" s="5" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="M190" s="5" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="N190" s="5" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="O190" s="5" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="P190" s="5" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="Q190" s="5" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="R190" s="5" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="S190" s="5" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="T190" s="5" t="n">
+        <v>72.66</v>
+      </c>
+      <c r="U190" s="5" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="V190" s="5" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="W190" s="5" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="X190" s="5" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
+      <c r="B191" s="5" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="D191" s="5" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="E191" s="5" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F191" s="5" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="G191" s="5" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="H191" s="5" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="I191" s="5" t="n">
+        <v>44.68</v>
+      </c>
+      <c r="J191" s="5" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="K191" s="5" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="L191" s="5" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="M191" s="5" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="N191" s="5" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="O191" s="5" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="P191" s="5" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="Q191" s="5" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="R191" s="5" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="S191" s="5" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="T191" s="5" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="U191" s="5" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="V191" s="5" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="W191" s="5" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="X191" s="5" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/23</t>
+        </is>
+      </c>
+      <c r="B192" s="5" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="D192" s="5" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="E192" s="5" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F192" s="5" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="G192" s="5" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="H192" s="5" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="I192" s="5" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="J192" s="5" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="K192" s="5" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="L192" s="5" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="M192" s="5" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="N192" s="5" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="O192" s="5" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="P192" s="5" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="Q192" s="5" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="R192" s="5" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="S192" s="5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T192" s="5" t="n">
+        <v>70.51000000000001</v>
+      </c>
+      <c r="U192" s="5" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="V192" s="5" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="W192" s="5" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="X192" s="5" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/24</t>
+        </is>
+      </c>
+      <c r="B193" s="5" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D193" s="5" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="E193" s="5" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="F193" s="5" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="G193" s="5" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="H193" s="5" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="I193" s="5" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="J193" s="5" t="n">
+        <v>39.31</v>
+      </c>
+      <c r="K193" s="5" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="L193" s="5" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M193" s="5" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="N193" s="5" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="O193" s="5" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="P193" s="5" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="Q193" s="5" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="R193" s="5" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="S193" s="5" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="T193" s="5" t="n">
+        <v>70.11</v>
+      </c>
+      <c r="U193" s="5" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="V193" s="5" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="W193" s="5" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="X193" s="5" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/25</t>
+        </is>
+      </c>
+      <c r="B194" s="5" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="D194" s="5" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="E194" s="5" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="F194" s="5" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="G194" s="5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H194" s="5" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="I194" s="5" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J194" s="5" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="K194" s="5" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="L194" s="5" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="M194" s="5" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="N194" s="5" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="O194" s="5" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="P194" s="5" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="Q194" s="5" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="R194" s="5" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="S194" s="5" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="T194" s="5" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="U194" s="5" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="V194" s="5" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="W194" s="5" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="X194" s="5" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/28</t>
+        </is>
+      </c>
+      <c r="B195" s="5" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="C195" s="5" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="D195" s="5" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="E195" s="5" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="F195" s="5" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="G195" s="5" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="H195" s="5" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="I195" s="5" t="n">
+        <v>45.19</v>
+      </c>
+      <c r="J195" s="5" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K195" s="5" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="L195" s="5" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="M195" s="5" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="N195" s="5" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="O195" s="5" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="P195" s="5" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="Q195" s="5" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="R195" s="5" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="S195" s="5" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="T195" s="5" t="n">
+        <v>70.45999999999999</v>
+      </c>
+      <c r="U195" s="5" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="V195" s="5" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="W195" s="5" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="X195" s="5" t="n">
+        <v>9.109999999999999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/29</t>
+        </is>
+      </c>
+      <c r="B196" s="5" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D196" s="5" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="E196" s="5" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="F196" s="5" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="G196" s="5" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="H196" s="5" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="I196" s="5" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="J196" s="5" t="n">
+        <v>40.46</v>
+      </c>
+      <c r="K196" s="5" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="L196" s="5" t="n">
+        <v>33.09</v>
+      </c>
+      <c r="M196" s="5" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="N196" s="5" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="O196" s="5" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="P196" s="5" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="Q196" s="5" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="R196" s="5" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="S196" s="5" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="T196" s="5" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="U196" s="5" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="V196" s="5" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="W196" s="5" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="X196" s="5" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="C197" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="D197" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="E197" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="F197" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="G197" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="H197" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="I197" t="n">
+        <v>44.47</v>
+      </c>
+      <c r="J197" t="n">
+        <v>40.39</v>
+      </c>
+      <c r="K197" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="L197" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="M197" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="N197" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="O197" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="P197" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="R197" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="S197" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="T197" t="n">
+        <v>69.48</v>
+      </c>
+      <c r="U197" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="V197" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="W197" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="X197" t="n">
+        <v>8.949999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X197"/>
+  <dimension ref="A1:X218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -14747,79 +14747,1675 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="A197" s="5" t="inlineStr">
         <is>
           <t>2024/10/30</t>
         </is>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" s="5" t="n">
         <v>21.79</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197" s="5" t="n">
         <v>31.02</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="5" t="n">
         <v>19.59</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197" s="5" t="n">
         <v>21.61</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197" s="5" t="n">
         <v>29.57</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G197" s="5" t="n">
         <v>16.36</v>
       </c>
-      <c r="H197" t="n">
+      <c r="H197" s="5" t="n">
         <v>25.05</v>
       </c>
-      <c r="I197" t="n">
+      <c r="I197" s="5" t="n">
         <v>44.47</v>
       </c>
-      <c r="J197" t="n">
+      <c r="J197" s="5" t="n">
         <v>40.39</v>
       </c>
-      <c r="K197" t="n">
+      <c r="K197" s="5" t="n">
         <v>20.99</v>
       </c>
-      <c r="L197" t="n">
+      <c r="L197" s="5" t="n">
         <v>32.78</v>
       </c>
-      <c r="M197" t="n">
+      <c r="M197" s="5" t="n">
         <v>20.06</v>
       </c>
-      <c r="N197" t="n">
+      <c r="N197" s="5" t="n">
         <v>13.62</v>
       </c>
-      <c r="O197" t="n">
+      <c r="O197" s="5" t="n">
         <v>31.57</v>
       </c>
-      <c r="P197" t="n">
+      <c r="P197" s="5" t="n">
         <v>24.4</v>
       </c>
-      <c r="Q197" t="n">
+      <c r="Q197" s="5" t="n">
         <v>14.5</v>
       </c>
-      <c r="R197" t="n">
+      <c r="R197" s="5" t="n">
         <v>26.49</v>
       </c>
-      <c r="S197" t="n">
+      <c r="S197" s="5" t="n">
         <v>16.36</v>
       </c>
-      <c r="T197" t="n">
+      <c r="T197" s="5" t="n">
         <v>69.48</v>
       </c>
-      <c r="U197" t="n">
+      <c r="U197" s="5" t="n">
         <v>24.29</v>
       </c>
-      <c r="V197" t="n">
+      <c r="V197" s="5" t="n">
         <v>24.72</v>
       </c>
-      <c r="W197" t="n">
+      <c r="W197" s="5" t="n">
         <v>12.81</v>
       </c>
-      <c r="X197" t="n">
+      <c r="X197" s="5" t="n">
         <v>8.949999999999999</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="5" t="inlineStr">
+        <is>
+          <t>2024/10/31</t>
+        </is>
+      </c>
+      <c r="B198" s="5" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <v>31.13</v>
+      </c>
+      <c r="D198" s="5" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="E198" s="5" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="F198" s="5" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="G198" s="5" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="H198" s="5" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="I198" s="5" t="n">
+        <v>44.89</v>
+      </c>
+      <c r="J198" s="5" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="K198" s="5" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L198" s="5" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="M198" s="5" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="N198" s="5" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="O198" s="5" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="P198" s="5" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="Q198" s="5" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="R198" s="5" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="S198" s="5" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="T198" s="5" t="n">
+        <v>70.95</v>
+      </c>
+      <c r="U198" s="5" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="V198" s="5" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="W198" s="5" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="X198" s="5" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/01</t>
+        </is>
+      </c>
+      <c r="B199" s="5" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="C199" s="5" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="D199" s="5" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="E199" s="5" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="F199" s="5" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="G199" s="5" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="H199" s="5" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="I199" s="5" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="J199" s="5" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="K199" s="5" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="L199" s="5" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="M199" s="5" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="N199" s="5" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="O199" s="5" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="P199" s="5" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="Q199" s="5" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="R199" s="5" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="S199" s="5" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="T199" s="5" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="U199" s="5" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="V199" s="5" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="W199" s="5" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="X199" s="5" t="n">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/04</t>
+        </is>
+      </c>
+      <c r="B200" s="5" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="D200" s="5" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="E200" s="5" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="F200" s="5" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G200" s="5" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="H200" s="5" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="I200" s="5" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="J200" s="5" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="K200" s="5" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L200" s="5" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="M200" s="5" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="N200" s="5" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="O200" s="5" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="P200" s="5" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="Q200" s="5" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="R200" s="5" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="S200" s="5" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="T200" s="5" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="U200" s="5" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="V200" s="5" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="W200" s="5" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="X200" s="5" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/05</t>
+        </is>
+      </c>
+      <c r="B201" s="5" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="C201" s="5" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="D201" s="5" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="E201" s="5" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="F201" s="5" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="G201" s="5" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="H201" s="5" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="I201" s="5" t="n">
+        <v>46.63</v>
+      </c>
+      <c r="J201" s="5" t="n">
+        <v>42.57</v>
+      </c>
+      <c r="K201" s="5" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="L201" s="5" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="M201" s="5" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="N201" s="5" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="O201" s="5" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="P201" s="5" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="Q201" s="5" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="R201" s="5" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="S201" s="5" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="T201" s="5" t="n">
+        <v>68.14</v>
+      </c>
+      <c r="U201" s="5" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="V201" s="5" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="W201" s="5" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="X201" s="5" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/06</t>
+        </is>
+      </c>
+      <c r="B202" s="5" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C202" s="5" t="n">
+        <v>33.07</v>
+      </c>
+      <c r="D202" s="5" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="E202" s="5" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="F202" s="5" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="G202" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H202" s="5" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="I202" s="5" t="n">
+        <v>47.14</v>
+      </c>
+      <c r="J202" s="5" t="n">
+        <v>42.85</v>
+      </c>
+      <c r="K202" s="5" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="L202" s="5" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M202" s="5" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="N202" s="5" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="O202" s="5" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="P202" s="5" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="Q202" s="5" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="R202" s="5" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="S202" s="5" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="T202" s="5" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="U202" s="5" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="V202" s="5" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="W202" s="5" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="X202" s="5" t="n">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/07</t>
+        </is>
+      </c>
+      <c r="B203" s="5" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="C203" s="5" t="n">
+        <v>34.36</v>
+      </c>
+      <c r="D203" s="5" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="E203" s="5" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="F203" s="5" t="n">
+        <v>32.64</v>
+      </c>
+      <c r="G203" s="5" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="H203" s="5" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="I203" s="5" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="J203" s="5" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="K203" s="5" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="L203" s="5" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="M203" s="5" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="N203" s="5" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="O203" s="5" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="P203" s="5" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="Q203" s="5" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="R203" s="5" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="S203" s="5" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="T203" s="5" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="U203" s="5" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="V203" s="5" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="W203" s="5" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="X203" s="5" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/08</t>
+        </is>
+      </c>
+      <c r="B204" s="5" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="C204" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D204" s="5" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="E204" s="5" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="F204" s="5" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="G204" s="5" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="H204" s="5" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="I204" s="5" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="J204" s="5" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="K204" s="5" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="L204" s="5" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="M204" s="5" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="N204" s="5" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="O204" s="5" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="P204" s="5" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="Q204" s="5" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="R204" s="5" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="S204" s="5" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="T204" s="5" t="n">
+        <v>72.55</v>
+      </c>
+      <c r="U204" s="5" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="V204" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="W204" s="5" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="X204" s="5" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/11</t>
+        </is>
+      </c>
+      <c r="B205" s="5" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="C205" s="5" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="D205" s="5" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="E205" s="5" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F205" s="5" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="G205" s="5" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="H205" s="5" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="I205" s="5" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="J205" s="5" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="K205" s="5" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="L205" s="5" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="M205" s="5" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="N205" s="5" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="O205" s="5" t="n">
+        <v>34.93</v>
+      </c>
+      <c r="P205" s="5" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="Q205" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="R205" s="5" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="S205" s="5" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="T205" s="5" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="U205" s="5" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="V205" s="5" t="n">
+        <v>27.07</v>
+      </c>
+      <c r="W205" s="5" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="X205" s="5" t="n">
+        <v>16.85</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/12</t>
+        </is>
+      </c>
+      <c r="B206" s="5" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="C206" s="5" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="D206" s="5" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="E206" s="5" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="F206" s="5" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="G206" s="5" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="H206" s="5" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="I206" s="5" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="J206" s="5" t="n">
+        <v>44.42</v>
+      </c>
+      <c r="K206" s="5" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="L206" s="5" t="n">
+        <v>36.78</v>
+      </c>
+      <c r="M206" s="5" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="N206" s="5" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="O206" s="5" t="n">
+        <v>35.06</v>
+      </c>
+      <c r="P206" s="5" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="Q206" s="5" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="R206" s="5" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="S206" s="5" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="T206" s="5" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="U206" s="5" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="V206" s="5" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="W206" s="5" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="X206" s="5" t="n">
+        <v>16.69</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/13</t>
+        </is>
+      </c>
+      <c r="B207" s="5" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="C207" s="5" t="n">
+        <v>35.33</v>
+      </c>
+      <c r="D207" s="5" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="E207" s="5" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="F207" s="5" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="G207" s="5" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="H207" s="5" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="I207" s="5" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="J207" s="5" t="n">
+        <v>44.53</v>
+      </c>
+      <c r="K207" s="5" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="L207" s="5" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="M207" s="5" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="N207" s="5" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="O207" s="5" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="P207" s="5" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="Q207" s="5" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="R207" s="5" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="S207" s="5" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="T207" s="5" t="n">
+        <v>75.02</v>
+      </c>
+      <c r="U207" s="5" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="V207" s="5" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="W207" s="5" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="X207" s="5" t="n">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/14</t>
+        </is>
+      </c>
+      <c r="B208" s="5" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="C208" s="5" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="D208" s="5" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="E208" s="5" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="F208" s="5" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="G208" s="5" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="H208" s="5" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="I208" s="5" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="J208" s="5" t="n">
+        <v>42.88</v>
+      </c>
+      <c r="K208" s="5" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="L208" s="5" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="M208" s="5" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="N208" s="5" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="O208" s="5" t="n">
+        <v>34.37</v>
+      </c>
+      <c r="P208" s="5" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="Q208" s="5" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="R208" s="5" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="S208" s="5" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="T208" s="5" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="U208" s="5" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="V208" s="5" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="W208" s="5" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="X208" s="5" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/15</t>
+        </is>
+      </c>
+      <c r="B209" s="5" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C209" s="5" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="D209" s="5" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="E209" s="5" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="F209" s="5" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="G209" s="5" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="H209" s="5" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="I209" s="5" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="J209" s="5" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="K209" s="5" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="L209" s="5" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M209" s="5" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="N209" s="5" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="O209" s="5" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="P209" s="5" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="Q209" s="5" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="R209" s="5" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="S209" s="5" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="T209" s="5" t="n">
+        <v>68.95</v>
+      </c>
+      <c r="U209" s="5" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="V209" s="5" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="W209" s="5" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="X209" s="5" t="n">
+        <v>16.24</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="B210" s="5" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C210" s="5" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="D210" s="5" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="E210" s="5" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="F210" s="5" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="G210" s="5" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H210" s="5" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="I210" s="5" t="n">
+        <v>43.91</v>
+      </c>
+      <c r="J210" s="5" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="K210" s="5" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="L210" s="5" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="M210" s="5" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="N210" s="5" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="O210" s="5" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="P210" s="5" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="Q210" s="5" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="R210" s="5" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="S210" s="5" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="T210" s="5" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="U210" s="5" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="V210" s="5" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="W210" s="5" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="X210" s="5" t="n">
+        <v>16.15</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/19</t>
+        </is>
+      </c>
+      <c r="B211" s="5" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="C211" s="5" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="D211" s="5" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="E211" s="5" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="F211" s="5" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="G211" s="5" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="H211" s="5" t="n">
+        <v>25.27</v>
+      </c>
+      <c r="I211" s="5" t="n">
+        <v>45.64</v>
+      </c>
+      <c r="J211" s="5" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="K211" s="5" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="L211" s="5" t="n">
+        <v>34.34</v>
+      </c>
+      <c r="M211" s="5" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="N211" s="5" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="O211" s="5" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="P211" s="5" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="Q211" s="5" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="R211" s="5" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="S211" s="5" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="T211" s="5" t="n">
+        <v>69.68000000000001</v>
+      </c>
+      <c r="U211" s="5" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="V211" s="5" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="W211" s="5" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="X211" s="5" t="n">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/20</t>
+        </is>
+      </c>
+      <c r="B212" s="5" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="C212" s="5" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="D212" s="5" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="E212" s="5" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="F212" s="5" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G212" s="5" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="H212" s="5" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="I212" s="5" t="n">
+        <v>46.49</v>
+      </c>
+      <c r="J212" s="5" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="K212" s="5" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="L212" s="5" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="M212" s="5" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="N212" s="5" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="O212" s="5" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="P212" s="5" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="Q212" s="5" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="R212" s="5" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="S212" s="5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T212" s="5" t="n">
+        <v>69.37</v>
+      </c>
+      <c r="U212" s="5" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="V212" s="5" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="W212" s="5" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="X212" s="5" t="n">
+        <v>16.31</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="B213" s="5" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="C213" s="5" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="D213" s="5" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E213" s="5" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F213" s="5" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="G213" s="5" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="H213" s="5" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="I213" s="5" t="n">
+        <v>46.27</v>
+      </c>
+      <c r="J213" s="5" t="n">
+        <v>42.33</v>
+      </c>
+      <c r="K213" s="5" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="L213" s="5" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="M213" s="5" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="N213" s="5" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="O213" s="5" t="n">
+        <v>33.28</v>
+      </c>
+      <c r="P213" s="5" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="Q213" s="5" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="R213" s="5" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="S213" s="5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T213" s="5" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="U213" s="5" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="V213" s="5" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="W213" s="5" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="X213" s="5" t="n">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/22</t>
+        </is>
+      </c>
+      <c r="B214" s="5" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="C214" s="5" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="D214" s="5" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="E214" s="5" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F214" s="5" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="G214" s="5" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="H214" s="5" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="I214" s="5" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="J214" s="5" t="n">
+        <v>40.47</v>
+      </c>
+      <c r="K214" s="5" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="L214" s="5" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="M214" s="5" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="N214" s="5" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="O214" s="5" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="P214" s="5" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="Q214" s="5" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="R214" s="5" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="S214" s="5" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="T214" s="5" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="U214" s="5" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="V214" s="5" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="W214" s="5" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="X214" s="5" t="n">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/25</t>
+        </is>
+      </c>
+      <c r="B215" s="5" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="C215" s="5" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="D215" s="5" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="E215" s="5" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="F215" s="5" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="G215" s="5" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="H215" s="5" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="I215" s="5" t="n">
+        <v>44.97</v>
+      </c>
+      <c r="J215" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="K215" s="5" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="L215" s="5" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="M215" s="5" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="N215" s="5" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="O215" s="5" t="n">
+        <v>31.99</v>
+      </c>
+      <c r="P215" s="5" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="Q215" s="5" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="R215" s="5" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="S215" s="5" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="T215" s="5" t="n">
+        <v>65.47</v>
+      </c>
+      <c r="U215" s="5" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="V215" s="5" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="W215" s="5" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="X215" s="5" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/26</t>
+        </is>
+      </c>
+      <c r="B216" s="5" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="D216" s="5" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="E216" s="5" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="F216" s="5" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="G216" s="5" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="H216" s="5" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="I216" s="5" t="n">
+        <v>44.22</v>
+      </c>
+      <c r="J216" s="5" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="K216" s="5" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="L216" s="5" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="M216" s="5" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="N216" s="5" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="O216" s="5" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="P216" s="5" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="Q216" s="5" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="R216" s="5" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="S216" s="5" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="T216" s="5" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="U216" s="5" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="V216" s="5" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="W216" s="5" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="X216" s="5" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="5" t="inlineStr">
+        <is>
+          <t>2024/11/27</t>
+        </is>
+      </c>
+      <c r="B217" s="5" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="C217" s="5" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="D217" s="5" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="E217" s="5" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="F217" s="5" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="G217" s="5" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="H217" s="5" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="I217" s="5" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="J217" s="5" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="K217" s="5" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="L217" s="5" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="M217" s="5" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="N217" s="5" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="O217" s="5" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="P217" s="5" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="Q217" s="5" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="R217" s="5" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="S217" s="5" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="T217" s="5" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="U217" s="5" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="V217" s="5" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="W217" s="5" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="X217" s="5" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2024/11/28</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="C218" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="D218" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E218" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="F218" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="H218" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="I218" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="J218" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="K218" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="L218" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="M218" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="N218" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="O218" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="P218" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="R218" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="S218" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="T218" t="n">
+        <v>66.56999999999999</v>
+      </c>
+      <c r="U218" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="V218" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="W218" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="X218" t="n">
+        <v>15.79</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -1,44 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="135" windowWidth="15600" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="15600" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="start_from_2024.12.6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="start_from_2024.12.6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Dynamic PE</t>
+  </si>
+  <si>
+    <t>2024/12/06</t>
+  </si>
+  <si>
+    <t>2024/12/09</t>
+  </si>
+  <si>
+    <t>2024/12/10</t>
+  </si>
+  <si>
+    <t>2024/12/11</t>
+  </si>
+  <si>
+    <t>2024/12/12</t>
+  </si>
+  <si>
+    <t>2024/12/13</t>
+  </si>
+  <si>
+    <t>2024/12/16</t>
+  </si>
+  <si>
+    <t>2024/12/17</t>
+  </si>
+  <si>
+    <t>2024/12/18</t>
+  </si>
+  <si>
+    <t>2024/12/19</t>
+  </si>
+  <si>
+    <t>2024/12/20</t>
+  </si>
+  <si>
+    <t>2024/12/23</t>
+  </si>
+  <si>
+    <t>2024/12/24</t>
+  </si>
+  <si>
+    <t>2024/12/25</t>
+  </si>
+  <si>
+    <t>2024/12/26</t>
+  </si>
+  <si>
+    <t>2024/12/27</t>
+  </si>
+  <si>
+    <t>2024/12/30</t>
+  </si>
+  <si>
+    <t>2024/12/31</t>
+  </si>
+  <si>
+    <t>2025/1/02</t>
+  </si>
+  <si>
+    <t>2025/1/03</t>
+  </si>
+  <si>
+    <t>2025/1/06</t>
+  </si>
+  <si>
+    <t>2025/1/07</t>
+  </si>
+  <si>
+    <t>2025/1/08</t>
+  </si>
+  <si>
+    <t>2025/1/09</t>
+  </si>
+  <si>
+    <t>2025/1/10</t>
+  </si>
+  <si>
+    <t>2025/1/13</t>
+  </si>
+  <si>
+    <t>2025/1/14</t>
+  </si>
+  <si>
+    <t>2025/1/15</t>
+  </si>
+  <si>
+    <t>2025/1/16</t>
+  </si>
+  <si>
+    <t>2025/1/17</t>
+  </si>
+  <si>
+    <t>2025/1/20</t>
+  </si>
+  <si>
+    <t>2025/1/21</t>
+  </si>
+  <si>
+    <t>2025/1/22</t>
+  </si>
+  <si>
+    <t>2025/1/23</t>
+  </si>
+  <si>
+    <t>2025/1/24</t>
+  </si>
+  <si>
+    <t>2025/1/27</t>
+  </si>
+  <si>
+    <t>2025/2/05</t>
+  </si>
+  <si>
+    <t>2025/2/06</t>
+  </si>
+  <si>
+    <t>2025/2/07</t>
+  </si>
+  <si>
+    <t>2025/2/10</t>
+  </si>
+  <si>
+    <t>2025/2/11</t>
+  </si>
+  <si>
+    <t>2025/2/12</t>
+  </si>
+  <si>
+    <t>2025/2/13</t>
+  </si>
+  <si>
+    <t>2025/2/14</t>
+  </si>
+  <si>
+    <t>2025/2/17</t>
+  </si>
+  <si>
+    <t>2025/2/18</t>
+  </si>
+  <si>
+    <t>2025/2/19</t>
+  </si>
+  <si>
+    <t>2025/2/21</t>
+  </si>
+  <si>
+    <t>2025/2/24</t>
+  </si>
+  <si>
+    <t>2025/2/25</t>
+  </si>
+  <si>
+    <t>2025/2/26</t>
+  </si>
+  <si>
+    <t>2025/2/27</t>
+  </si>
+  <si>
+    <t>2025/2/20</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,91 +226,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,3010 +544,4428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="11.625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Dynamic PE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/06</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
         <v>22.33</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>33.25</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>20.07</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>21.94</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>31.57</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>16.53</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>25.2</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>47.69</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="2">
         <v>43.11</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="2">
         <v>21.08</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="2">
         <v>34.74</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="2">
         <v>20.14</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="2">
         <v>13.71</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>33.45</v>
-      </c>
-      <c r="P2" s="2" t="n">
+      <c r="O2" s="2">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="P2" s="2">
         <v>24.87</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="2">
         <v>14.52</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="2">
         <v>28.59</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="2">
         <v>16.63</v>
       </c>
-      <c r="T2" s="2" t="n">
-        <v>68.20999999999999</v>
-      </c>
-      <c r="U2" s="2" t="n">
+      <c r="T2" s="2">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="U2" s="2">
         <v>27.1</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="2">
         <v>25.79</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="2">
         <v>13.95</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="2">
         <v>16.27</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="2">
         <v>47.32</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="2">
         <v>10.23</v>
       </c>
-      <c r="AA2" s="2" t="n">
-        <v>8.859999999999999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/09</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="AA2" s="2">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>22.24</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>33.02</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="C3" s="2">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="E3" s="2">
         <v>21.89</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>31.37</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="G3" s="2">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="H3" s="2">
         <v>25.18</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2">
         <v>47.42</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>43.1</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>21.05</v>
       </c>
-      <c r="L3" s="2" t="n">
-        <v>34.48</v>
-      </c>
-      <c r="M3" s="2" t="n">
+      <c r="L3" s="2">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="M3" s="2">
         <v>20.16</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="2">
         <v>13.7</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="2">
         <v>33.21</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>24.81</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="2">
         <v>14.51</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="2">
         <v>28.51</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" s="2">
         <v>16.61</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="2">
         <v>67.11</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="2">
         <v>27.24</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="2">
         <v>25.85</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="2">
         <v>13.94</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="2">
         <v>16.27</v>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="Y3" s="2">
         <v>46.91</v>
       </c>
-      <c r="Z3" s="2" t="n">
+      <c r="Z3" s="2">
         <v>10.26</v>
       </c>
-      <c r="AA3" s="2" t="n">
-        <v>8.890000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/10</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="AA3" s="2">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
         <v>22.41</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="C4" s="2">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="D4" s="2">
         <v>20.2</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>22.15</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>31.56</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>16.7</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>25.34</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>48.05</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>43.69</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2">
         <v>21.22</v>
       </c>
-      <c r="L4" s="2" t="n">
-        <v>34.73</v>
-      </c>
-      <c r="M4" s="2" t="n">
+      <c r="L4" s="2">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="M4" s="2">
         <v>20.25</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="2">
         <v>13.85</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="2">
         <v>33.43</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>24.98</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="2">
         <v>14.6</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="2">
         <v>28.77</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="2">
         <v>16.72</v>
       </c>
-      <c r="T4" s="2" t="n">
-        <v>67.65000000000001</v>
-      </c>
-      <c r="U4" s="2" t="n">
+      <c r="T4" s="2">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="U4" s="2">
         <v>27.29</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="2">
         <v>25.93</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="2">
         <v>14.03</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="2">
         <v>16.37</v>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Y4" s="2">
         <v>47.3</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="Z4" s="2">
         <v>10.29</v>
       </c>
-      <c r="AA4" s="2" t="n">
-        <v>8.949999999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/11</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="AA4" s="2">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
         <v>22.5</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>33.24</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>20.18</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>22.11</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>31.49</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="G5" s="2">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="H5" s="2">
         <v>25.28</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>48.44</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2">
         <v>44.24</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2">
         <v>21.21</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2">
         <v>34.69</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="2">
         <v>20.23</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="2">
         <v>13.9</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="2">
         <v>33.36</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2">
         <v>24.93</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="2">
         <v>14.61</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="2">
         <v>29.2</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="2">
         <v>16.78</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="2">
         <v>66.95</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="2">
         <v>27.32</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="2">
         <v>25.68</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="2">
         <v>14.03</v>
       </c>
-      <c r="X5" s="2" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="Y5" s="2" t="n">
+      <c r="X5" s="2">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="Y5" s="2">
         <v>47.84</v>
       </c>
-      <c r="Z5" s="2" t="n">
+      <c r="Z5" s="2">
         <v>10.35</v>
       </c>
-      <c r="AA5" s="2" t="n">
+      <c r="AA5" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/12</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
         <v>22.74</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>33.72</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>20.41</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>22.4</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>32.01</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="G6" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H6" s="2">
         <v>25.55</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>48.79</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>44.6</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2">
         <v>21.44</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2">
         <v>35.04</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="2">
         <v>20.46</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="2">
         <v>14.01</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="2">
         <v>33.89</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="2">
         <v>25.25</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="2">
         <v>14.75</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="2">
         <v>29.44</v>
       </c>
-      <c r="S6" s="2" t="n">
-        <v>16.94</v>
-      </c>
-      <c r="T6" s="2" t="n">
+      <c r="S6" s="2">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="T6" s="2">
         <v>67.34</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="2">
         <v>27.39</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="2">
         <v>26.07</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="2">
         <v>14.16</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="2">
         <v>16.53</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Y6" s="2">
         <v>48.18</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="Z6" s="2">
         <v>10.42</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AA6" s="2">
         <v>8.99</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/13</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
         <v>22.24</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>32.91</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="C7" s="2">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="D7" s="2">
         <v>19.89</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>21.82</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>31.15</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>16.54</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>24.95</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>47.8</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>43.93</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>20.93</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2">
         <v>34.25</v>
       </c>
-      <c r="M7" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="N7" s="2" t="n">
+      <c r="M7" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="N7" s="2">
         <v>13.7</v>
       </c>
-      <c r="O7" s="2" t="n">
-        <v>32.87</v>
-      </c>
-      <c r="P7" s="2" t="n">
+      <c r="O7" s="2">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="P7" s="2">
         <v>24.58</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="2">
         <v>14.44</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="2">
         <v>28.89</v>
       </c>
-      <c r="S7" s="2" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="T7" s="2" t="n">
+      <c r="S7" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="T7" s="2">
         <v>66.11</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="2">
         <v>26.7</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="2">
         <v>25.41</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="2">
         <v>13.87</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="X7" s="2">
         <v>16.14</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Y7" s="2">
         <v>47.55</v>
       </c>
-      <c r="Z7" s="2" t="n">
+      <c r="Z7" s="2">
         <v>10.18</v>
       </c>
-      <c r="AA7" s="2" t="n">
+      <c r="AA7" s="2">
         <v>8.82</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/16</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
         <v>21.78</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="C8" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="E8" s="2">
         <v>21.91</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>31.03</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>15.43</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>24.47</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>44.37</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2">
         <v>45.34</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>20.81</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2">
         <v>34.44</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="2">
         <v>19.89</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="2">
         <v>14.28</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="2">
         <v>31.4</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="2">
         <v>24.46</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="2">
         <v>14.43</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="2">
         <v>29.19</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="2">
         <v>16.53</v>
       </c>
-      <c r="T8" s="2" t="n">
-        <v>65.26000000000001</v>
-      </c>
-      <c r="U8" s="2" t="n">
+      <c r="T8" s="2">
+        <v>65.260000000000005</v>
+      </c>
+      <c r="U8" s="2">
         <v>26.39</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="2">
         <v>25.26</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="2">
         <v>13.98</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="2">
         <v>17.25</v>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Y8" s="2">
         <v>47.03</v>
       </c>
-      <c r="Z8" s="2" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="AA8" s="2" t="n">
-        <v>8.880000000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/17</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="Z8" s="2">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>21.74</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D9" s="2" t="n">
+      <c r="C9" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D9" s="2">
         <v>19.75</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>22.07</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>31.13</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>15.51</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>24.65</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>43.13</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>43.54</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2">
         <v>21.02</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2">
         <v>34.54</v>
       </c>
-      <c r="M9" s="2" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="N9" s="2" t="n">
+      <c r="M9" s="2">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="N9" s="2">
         <v>14.28</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="2">
         <v>31.5</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="2">
         <v>24.67</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="2">
         <v>14.42</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="R9" s="2">
         <v>28.35</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="2">
         <v>16.39</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="2">
         <v>64.8</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="2">
         <v>26.21</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="2">
         <v>25.74</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="2">
         <v>13.99</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="X9" s="2">
         <v>17.34</v>
       </c>
-      <c r="Y9" s="2" t="n">
+      <c r="Y9" s="2">
         <v>46.66</v>
       </c>
-      <c r="Z9" s="2" t="n">
+      <c r="Z9" s="2">
         <v>8.27</v>
       </c>
-      <c r="AA9" s="2" t="n">
+      <c r="AA9" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/18</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
         <v>21.83</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>32.85</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>19.8</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>22.1</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>31.13</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>15.58</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>24.76</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>43.77</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>44.28</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2">
         <v>21.09</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="M10" s="2" t="n">
+      <c r="L10" s="2">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="M10" s="2">
         <v>20.11</v>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="N10" s="2">
         <v>14.34</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="2">
         <v>31.48</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="2">
         <v>24.64</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="2">
         <v>14.49</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="R10" s="2">
         <v>28.59</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="2">
         <v>16.48</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="2">
         <v>66.17</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="2">
         <v>26.26</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="2">
         <v>25.66</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="2">
         <v>14.05</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="X10" s="2">
         <v>17.39</v>
       </c>
-      <c r="Y10" s="2" t="n">
+      <c r="Y10" s="2">
         <v>47.16</v>
       </c>
-      <c r="Z10" s="2" t="n">
+      <c r="Z10" s="2">
         <v>8.33</v>
       </c>
-      <c r="AA10" s="2" t="n">
-        <v>8.960000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/19</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="AA10" s="2">
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
         <v>21.96</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>33.04</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>19.88</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>22.23</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>31.34</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>15.67</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>25.01</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>44.28</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2">
         <v>44.54</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="2">
         <v>21.24</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2">
         <v>35.75</v>
       </c>
-      <c r="M11" s="2" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="N11" s="2" t="n">
+      <c r="M11" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N11" s="2">
         <v>14.39</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="O11" s="2">
         <v>31.71</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="2">
         <v>24.86</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="Q11" s="2">
         <v>14.48</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="R11" s="2">
         <v>28.67</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="2">
         <v>16.48</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="2">
         <v>67.7</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="2">
         <v>26.18</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="2">
         <v>25.61</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="2">
         <v>14.03</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="X11" s="2">
         <v>17.41</v>
       </c>
-      <c r="Y11" s="2" t="n">
+      <c r="Y11" s="2">
         <v>48.3</v>
       </c>
-      <c r="Z11" s="2" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>8.880000000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/20</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="Z11" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
         <v>21.94</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>32.98</v>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="C12" s="2">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="D12" s="2">
         <v>19.78</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>22.06</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>31.24</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>15.56</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>24.93</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>44.97</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>45.41</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2">
         <v>21.06</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2">
         <v>36.06</v>
       </c>
-      <c r="M12" s="2" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="N12" s="2" t="n">
+      <c r="M12" s="2">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="N12" s="2">
         <v>14.33</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="2">
         <v>31.55</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="2">
         <v>24.68</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="Q12" s="2">
         <v>14.43</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="R12" s="2">
         <v>29.02</v>
       </c>
-      <c r="S12" s="2" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="T12" s="2" t="n">
+      <c r="S12" s="2">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="T12" s="2">
         <v>69.66</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="2">
         <v>26.2</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="2">
         <v>25.23</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="2">
         <v>13.98</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="X12" s="2">
         <v>17.3</v>
       </c>
-      <c r="Y12" s="2" t="n">
+      <c r="Y12" s="2">
         <v>49.05</v>
       </c>
-      <c r="Z12" s="2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA12" s="2" t="n">
+      <c r="Z12" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AA12" s="2">
         <v>8.82</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/23</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
         <v>21.77</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>32.69</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>19.72</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2">
         <v>22.01</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2">
         <v>31.06</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>15.56</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>24.81</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="2">
         <v>43.54</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="2">
         <v>43.39</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="2">
         <v>21.03</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="2">
         <v>35.54</v>
       </c>
-      <c r="M13" s="2" t="n">
+      <c r="M13" s="2">
         <v>19.88</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="N13" s="2">
         <v>14.39</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="2">
         <v>31.34</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="2">
         <v>24.52</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="2">
         <v>14.44</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="R13" s="2">
         <v>28.09</v>
       </c>
-      <c r="S13" s="2" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="T13" s="2" t="n">
+      <c r="S13" s="2">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="T13" s="2">
         <v>69.13</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="2">
         <v>25.91</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="2">
         <v>25.13</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="2">
         <v>14</v>
       </c>
-      <c r="X13" s="2" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="Y13" s="2" t="n">
+      <c r="X13" s="2">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="Y13" s="2">
         <v>48.42</v>
       </c>
-      <c r="Z13" s="2" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>8.960000000000001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/24</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="Z13" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
         <v>22.06</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>33.08</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="D14" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E14" s="2">
         <v>22.33</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>31.4</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>15.76</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>25.2</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2">
         <v>44.08</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="2">
         <v>44.09</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="2">
         <v>21.36</v>
       </c>
-      <c r="L14" s="2" t="n">
-        <v>35.84</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="N14" s="2" t="n">
+      <c r="L14" s="2">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="M14" s="2">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="N14" s="2">
         <v>14.53</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="2">
         <v>31.74</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="2">
         <v>24.95</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="2">
         <v>14.63</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="R14" s="2">
         <v>28.49</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="2">
         <v>16.57</v>
       </c>
-      <c r="T14" s="2" t="n">
-        <v>70.15000000000001</v>
-      </c>
-      <c r="U14" s="2" t="n">
+      <c r="T14" s="2">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="U14" s="2">
         <v>26.16</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="2">
         <v>25.58</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="2">
         <v>14.19</v>
       </c>
-      <c r="X14" s="2" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="Y14" s="2" t="n">
+      <c r="X14" s="2">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="Y14" s="2">
         <v>49.08</v>
       </c>
-      <c r="Z14" s="2" t="n">
+      <c r="Z14" s="2">
         <v>8.42</v>
       </c>
-      <c r="AA14" s="2" t="n">
+      <c r="AA14" s="2">
         <v>9.07</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/25</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
         <v>21.93</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>32.91</v>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="C15" s="2">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="D15" s="2">
         <v>19.93</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2">
         <v>22.28</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>31.26</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>15.72</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>25.13</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="2">
         <v>43.3</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="2">
         <v>43.49</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="2">
         <v>21.31</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="2">
         <v>35.79</v>
       </c>
-      <c r="M15" s="2" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="N15" s="2" t="n">
+      <c r="M15" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N15" s="2">
         <v>14.53</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="2">
         <v>31.58</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="2">
         <v>24.87</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="Q15" s="2">
         <v>14.64</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="R15" s="2">
         <v>28.15</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="S15" s="2">
         <v>16.52</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="2">
         <v>70.78</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="2">
         <v>25.96</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="2">
         <v>25.38</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="2">
         <v>14.21</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="X15" s="2">
         <v>17.53</v>
       </c>
-      <c r="Y15" s="2" t="n">
+      <c r="Y15" s="2">
         <v>49.42</v>
       </c>
-      <c r="Z15" s="2" t="n">
+      <c r="Z15" s="2">
         <v>8.52</v>
       </c>
-      <c r="AA15" s="2" t="n">
+      <c r="AA15" s="2">
         <v>9.16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/26</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
         <v>22.05</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>32.99</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>19.97</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2">
         <v>22.3</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2">
         <v>31.31</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>15.76</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="2">
         <v>25.33</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="2">
         <v>44.04</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="2">
         <v>44.62</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="2">
         <v>21.4</v>
       </c>
-      <c r="L16" s="2" t="n">
-        <v>36.62</v>
-      </c>
-      <c r="M16" s="2" t="n">
+      <c r="L16" s="2">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="M16" s="2">
         <v>20</v>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="N16" s="2">
         <v>14.5</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="O16" s="2">
         <v>31.61</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="2">
         <v>25.02</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="2">
         <v>14.66</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="R16" s="2">
         <v>28.54</v>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="2">
         <v>16.59</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="2">
         <v>72.2</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="2">
         <v>25.86</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="2">
         <v>25.17</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="2">
         <v>14.22</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="2">
         <v>17.54</v>
       </c>
-      <c r="Y16" s="2" t="n">
+      <c r="Y16" s="2">
         <v>50.85</v>
       </c>
-      <c r="Z16" s="2" t="n">
+      <c r="Z16" s="2">
         <v>8.48</v>
       </c>
-      <c r="AA16" s="2" t="n">
-        <v>9.119999999999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/27</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
+      <c r="AA16" s="2">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
         <v>22.03</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>32.91</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C17" s="2">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="D17" s="2">
         <v>19.93</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2">
         <v>22.27</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>31.21</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>15.71</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2">
         <v>25.21</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="2">
         <v>43.97</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="2">
         <v>44.36</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="2">
         <v>21.3</v>
       </c>
-      <c r="L17" s="2" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="N17" s="2" t="n">
+      <c r="L17" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="M17" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="N17" s="2">
         <v>14.46</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="2">
         <v>31.53</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="2">
         <v>24.94</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="2">
         <v>14.65</v>
       </c>
-      <c r="R17" s="2" t="n">
+      <c r="R17" s="2">
         <v>28.62</v>
       </c>
-      <c r="S17" s="2" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="T17" s="2" t="n">
+      <c r="S17" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="T17" s="2">
         <v>71.48</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="2">
         <v>25.74</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="2">
         <v>25.22</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="2">
         <v>14.21</v>
       </c>
-      <c r="X17" s="2" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="Y17" s="2" t="n">
+      <c r="X17" s="2">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="Y17" s="2">
         <v>50.09</v>
       </c>
-      <c r="Z17" s="2" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="AA17" s="2" t="n">
-        <v>9.119999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/30</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
+      <c r="Z17" s="2">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
         <v>22.05</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>32.91</v>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="C18" s="2">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="D18" s="2">
         <v>19.96</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>22.29</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>31.26</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>15.74</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>25.27</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="2">
         <v>43.91</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="2">
         <v>44</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="2">
         <v>21.35</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="2">
         <v>36.17</v>
       </c>
-      <c r="M18" s="2" t="n">
+      <c r="M18" s="2">
         <v>20.07</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="N18" s="2">
         <v>14.44</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="2">
         <v>31.6</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="2">
         <v>25</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="2">
         <v>14.7</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="R18" s="2">
         <v>28.47</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="2">
         <v>16.62</v>
       </c>
-      <c r="T18" s="2" t="n">
-        <v>71.34999999999999</v>
-      </c>
-      <c r="U18" s="2" t="n">
+      <c r="T18" s="2">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="U18" s="2">
         <v>25.7</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="2">
         <v>25.41</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="2">
         <v>14.27</v>
       </c>
-      <c r="X18" s="2" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="Y18" s="2" t="n">
+      <c r="X18" s="2">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="Y18" s="2">
         <v>49.81</v>
       </c>
-      <c r="Z18" s="2" t="n">
+      <c r="Z18" s="2">
         <v>8.56</v>
       </c>
-      <c r="AA18" s="2" t="n">
+      <c r="AA18" s="2">
         <v>9.19</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>2024/12/31</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
         <v>21.55</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>32</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>19.62</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>21.97</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>30.33</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>15.56</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>24.8</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="2">
         <v>42.2</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="2">
         <v>42.22</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="2">
         <v>21.03</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="2">
         <v>34.78</v>
       </c>
-      <c r="M19" s="2" t="n">
+      <c r="M19" s="2">
         <v>19.86</v>
       </c>
-      <c r="N19" s="2" t="n">
+      <c r="N19" s="2">
         <v>14.28</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="2">
         <v>30.76</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="2">
         <v>24.51</v>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="Q19" s="2">
         <v>14.46</v>
       </c>
-      <c r="R19" s="2" t="n">
+      <c r="R19" s="2">
         <v>27.64</v>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="2">
         <v>16.3</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="2">
         <v>68.36</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="2">
         <v>25.1</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="2">
         <v>25.1</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="2">
         <v>14.05</v>
       </c>
-      <c r="X19" s="2" t="n">
+      <c r="X19" s="2">
         <v>17.32</v>
       </c>
-      <c r="Y19" s="2" t="n">
+      <c r="Y19" s="2">
         <v>48.09</v>
       </c>
-      <c r="Z19" s="2" t="n">
+      <c r="Z19" s="2">
         <v>8.49</v>
       </c>
-      <c r="AA19" s="2" t="n">
-        <v>9.119999999999999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/02</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
+      <c r="AA19" s="2">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
         <v>20.88</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>30.81</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>19.03</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2">
         <v>21.34</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2">
         <v>29.18</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>15.15</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>23.98</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="2">
         <v>40.9</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="2">
         <v>41.35</v>
       </c>
-      <c r="K20" s="2" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="L20" s="2" t="n">
+      <c r="K20" s="2">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="L20" s="2">
         <v>33.22</v>
       </c>
-      <c r="M20" s="2" t="n">
+      <c r="M20" s="2">
         <v>19.38</v>
       </c>
-      <c r="N20" s="2" t="n">
+      <c r="N20" s="2">
         <v>13.99</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="2">
         <v>29.62</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="2">
         <v>23.7</v>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="Q20" s="2">
         <v>14.04</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="R20" s="2">
         <v>27.04</v>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="2">
         <v>15.86</v>
       </c>
-      <c r="T20" s="2" t="n">
-        <v>64.93000000000001</v>
-      </c>
-      <c r="U20" s="2" t="n">
+      <c r="T20" s="2">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="U20" s="2">
         <v>24.5</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="2">
         <v>24.27</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="2">
         <v>13.65</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="2">
         <v>16.8</v>
       </c>
-      <c r="Y20" s="2" t="n">
+      <c r="Y20" s="2">
         <v>46.35</v>
       </c>
-      <c r="Z20" s="2" t="n">
+      <c r="Z20" s="2">
         <v>8.35</v>
       </c>
-      <c r="AA20" s="2" t="n">
+      <c r="AA20" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/03</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
         <v>20.53</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>30.16</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>18.78</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2">
         <v>21.07</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>28.57</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>15</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2">
         <v>23.57</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="2">
         <v>39.33</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="2">
         <v>39.67</v>
       </c>
-      <c r="K21" s="2" t="n">
-        <v>20.17</v>
-      </c>
-      <c r="L21" s="2" t="n">
+      <c r="K21" s="2">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="L21" s="2">
         <v>32.26</v>
       </c>
-      <c r="M21" s="2" t="n">
+      <c r="M21" s="2">
         <v>19.16</v>
       </c>
-      <c r="N21" s="2" t="n">
+      <c r="N21" s="2">
         <v>13.85</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="O21" s="2">
         <v>29.04</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="2">
         <v>23.38</v>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="Q21" s="2">
         <v>13.87</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" s="2">
         <v>26.17</v>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="2">
         <v>15.59</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="2">
         <v>63.8</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="2">
         <v>24.15</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="2">
         <v>24.01</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="2">
         <v>13.48</v>
       </c>
-      <c r="X21" s="2" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="Y21" s="2" t="n">
+      <c r="X21" s="2">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="Y21" s="2">
         <v>45.49</v>
       </c>
-      <c r="Z21" s="2" t="n">
+      <c r="Z21" s="2">
         <v>8.31</v>
       </c>
-      <c r="AA21" s="2" t="n">
+      <c r="AA21" s="2">
         <v>8.84</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/06</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
         <v>20.49</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>30.11</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>18.73</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2">
         <v>21.01</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2">
         <v>28.53</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>14.94</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>23.55</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="2">
         <v>38.96</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="2">
         <v>39.33</v>
       </c>
-      <c r="K22" s="2" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="L22" s="2" t="n">
+      <c r="K22" s="2">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="L22" s="2">
         <v>32.03</v>
       </c>
-      <c r="M22" s="2" t="n">
+      <c r="M22" s="2">
         <v>19.18</v>
       </c>
-      <c r="N22" s="2" t="n">
+      <c r="N22" s="2">
         <v>13.76</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="O22" s="2">
         <v>29</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="2">
         <v>23.37</v>
       </c>
-      <c r="Q22" s="2" t="n">
+      <c r="Q22" s="2">
         <v>13.85</v>
       </c>
-      <c r="R22" s="2" t="n">
+      <c r="R22" s="2">
         <v>26.09</v>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="2">
         <v>15.57</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="2">
         <v>63.25</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="2">
         <v>24.37</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="2">
         <v>24.02</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="2">
         <v>13.47</v>
       </c>
-      <c r="X22" s="2" t="n">
+      <c r="X22" s="2">
         <v>16.53</v>
       </c>
-      <c r="Y22" s="2" t="n">
+      <c r="Y22" s="2">
         <v>45.35</v>
       </c>
-      <c r="Z22" s="2" t="n">
+      <c r="Z22" s="2">
         <v>8.35</v>
       </c>
-      <c r="AA22" s="2" t="n">
+      <c r="AA22" s="2">
         <v>8.84</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/07</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
         <v>20.68</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>30.31</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>18.86</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2">
         <v>21.1</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>28.68</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>15.06</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2">
         <v>23.73</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="2">
         <v>39.86</v>
       </c>
-      <c r="J23" s="2" t="n">
-        <v>40.66</v>
-      </c>
-      <c r="K23" s="2" t="n">
+      <c r="J23" s="2">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="K23" s="2">
         <v>20.29</v>
       </c>
-      <c r="L23" s="2" t="n">
+      <c r="L23" s="2">
         <v>32.9</v>
       </c>
-      <c r="M23" s="2" t="n">
+      <c r="M23" s="2">
         <v>19.11</v>
       </c>
-      <c r="N23" s="2" t="n">
+      <c r="N23" s="2">
         <v>13.81</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="O23" s="2">
         <v>29.17</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="2">
         <v>23.54</v>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="Q23" s="2">
         <v>13.93</v>
       </c>
-      <c r="R23" s="2" t="n">
+      <c r="R23" s="2">
         <v>26.57</v>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="2">
         <v>15.71</v>
       </c>
-      <c r="T23" s="2" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="U23" s="2" t="n">
+      <c r="T23" s="2">
+        <v>65.959999999999994</v>
+      </c>
+      <c r="U23" s="2">
         <v>24.12</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="2">
         <v>23.86</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="2">
         <v>13.54</v>
       </c>
-      <c r="X23" s="2" t="n">
+      <c r="X23" s="2">
         <v>16.57</v>
       </c>
-      <c r="Y23" s="2" t="n">
+      <c r="Y23" s="2">
         <v>47.27</v>
       </c>
-      <c r="Z23" s="2" t="n">
+      <c r="Z23" s="2">
         <v>8.33</v>
       </c>
-      <c r="AA23" s="2" t="n">
+      <c r="AA23" s="2">
         <v>8.84</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/08</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
         <v>20.59</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>30.05</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="E24" s="2" t="n">
+      <c r="D24" s="2">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="E24" s="2">
         <v>20.94</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2">
         <v>28.35</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>15.02</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2">
         <v>23.61</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="2">
         <v>39.72</v>
       </c>
-      <c r="J24" s="2" t="n">
-        <v>40.73</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="L24" s="2" t="n">
+      <c r="J24" s="2">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="K24" s="2">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="L24" s="2">
         <v>32.58</v>
       </c>
-      <c r="M24" s="2" t="n">
+      <c r="M24" s="2">
         <v>19.07</v>
       </c>
-      <c r="N24" s="2" t="n">
+      <c r="N24" s="2">
         <v>13.86</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="O24" s="2">
         <v>28.87</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="2">
         <v>23.33</v>
       </c>
-      <c r="Q24" s="2" t="n">
+      <c r="Q24" s="2">
         <v>13.91</v>
       </c>
-      <c r="R24" s="2" t="n">
+      <c r="R24" s="2">
         <v>26.54</v>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="2">
         <v>15.69</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="2">
         <v>66.06</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="2">
         <v>23.97</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="2">
         <v>23.52</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="2">
         <v>13.52</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="X24" s="2">
         <v>16.54</v>
       </c>
-      <c r="Y24" s="2" t="n">
+      <c r="Y24" s="2">
         <v>47.37</v>
       </c>
-      <c r="Z24" s="2" t="n">
+      <c r="Z24" s="2">
         <v>8.42</v>
       </c>
-      <c r="AA24" s="2" t="n">
-        <v>8.880000000000001</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/09</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
+      <c r="AA24" s="2">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
         <v>20.62</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>30.08</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>18.79</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2">
         <v>21.01</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2">
         <v>28.43</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>15.06</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2">
         <v>23.8</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="2">
         <v>39.85</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="2">
         <v>41.11</v>
       </c>
-      <c r="K25" s="2" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="M25" s="2" t="n">
+      <c r="K25" s="2">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="L25" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="M25" s="2">
         <v>19.18</v>
       </c>
-      <c r="N25" s="2" t="n">
+      <c r="N25" s="2">
         <v>13.87</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="2">
         <v>28.9</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="2">
         <v>23.47</v>
       </c>
-      <c r="Q25" s="2" t="n">
+      <c r="Q25" s="2">
         <v>13.85</v>
       </c>
-      <c r="R25" s="2" t="n">
+      <c r="R25" s="2">
         <v>26.59</v>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="2">
         <v>15.65</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="2">
         <v>66.31</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="2">
         <v>23.91</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="2">
         <v>23.76</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="2">
         <v>13.46</v>
       </c>
-      <c r="X25" s="2" t="n">
+      <c r="X25" s="2">
         <v>16.48</v>
       </c>
-      <c r="Y25" s="2" t="n">
+      <c r="Y25" s="2">
         <v>47.54</v>
       </c>
-      <c r="Z25" s="2" t="n">
+      <c r="Z25" s="2">
         <v>8.32</v>
       </c>
-      <c r="AA25" s="2" t="n">
-        <v>8.789999999999999</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/10</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
+      <c r="AA25" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
         <v>20.28</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>29.59</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>18.5</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2">
         <v>20.64</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2">
         <v>27.94</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>14.8</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2">
         <v>23.5</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="2">
         <v>38.65</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="2">
         <v>39.93</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" s="2">
         <v>19.96</v>
       </c>
-      <c r="L26" s="2" t="n">
-        <v>32.13</v>
-      </c>
-      <c r="M26" s="2" t="n">
+      <c r="L26" s="2">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="M26" s="2">
         <v>18.91</v>
       </c>
-      <c r="N26" s="2" t="n">
+      <c r="N26" s="2">
         <v>13.62</v>
       </c>
-      <c r="O26" s="2" t="n">
+      <c r="O26" s="2">
         <v>28.42</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="2">
         <v>23.11</v>
       </c>
-      <c r="Q26" s="2" t="n">
+      <c r="Q26" s="2">
         <v>13.68</v>
       </c>
-      <c r="R26" s="2" t="n">
+      <c r="R26" s="2">
         <v>25.96</v>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="2">
         <v>15.4</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="2">
         <v>65.77</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="2">
         <v>23.58</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="2">
         <v>23.57</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="W26" s="2">
         <v>13.29</v>
       </c>
-      <c r="X26" s="2" t="n">
+      <c r="X26" s="2">
         <v>16.25</v>
       </c>
-      <c r="Y26" s="2" t="n">
+      <c r="Y26" s="2">
         <v>46.49</v>
       </c>
-      <c r="Z26" s="2" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AA26" s="2" t="n">
-        <v>8.710000000000001</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/13</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
+      <c r="Z26" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
         <v>20.28</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>29.7</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>18.46</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2">
         <v>20.62</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2">
         <v>28.01</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>14.75</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>23.39</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="2">
         <v>38.86</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="2">
         <v>40.04</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" s="2">
         <v>19.84</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="L27" s="2">
         <v>32.07</v>
       </c>
-      <c r="M27" s="2" t="n">
+      <c r="M27" s="2">
         <v>18.82</v>
       </c>
-      <c r="N27" s="2" t="n">
+      <c r="N27" s="2">
         <v>13.56</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="O27" s="2">
         <v>28.5</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="2">
         <v>23.07</v>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="Q27" s="2">
         <v>13.64</v>
       </c>
-      <c r="R27" s="2" t="n">
+      <c r="R27" s="2">
         <v>25.96</v>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="2">
         <v>15.38</v>
       </c>
-      <c r="T27" s="2" t="n">
-        <v>65.43000000000001</v>
-      </c>
-      <c r="U27" s="2" t="n">
+      <c r="T27" s="2">
+        <v>65.430000000000007</v>
+      </c>
+      <c r="U27" s="2">
         <v>23.62</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="2">
         <v>23.64</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="2">
         <v>13.25</v>
       </c>
-      <c r="X27" s="2" t="n">
+      <c r="X27" s="2">
         <v>16.21</v>
       </c>
-      <c r="Y27" s="2" t="n">
+      <c r="Y27" s="2">
         <v>45.99</v>
       </c>
-      <c r="Z27" s="2" t="n">
+      <c r="Z27" s="2">
         <v>8.16</v>
       </c>
-      <c r="AA27" s="2" t="n">
+      <c r="AA27" s="2">
         <v>8.65</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/14</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
         <v>21.01</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>31.08</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>19.11</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>21.3</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2">
         <v>29.46</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>15.17</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2">
         <v>24.31</v>
       </c>
-      <c r="I28" s="2" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="J28" s="2" t="n">
+      <c r="I28" s="2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="J28" s="2">
         <v>42.41</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K28" s="2">
         <v>20.56</v>
       </c>
-      <c r="L28" s="2" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="M28" s="2" t="n">
+      <c r="L28" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="M28" s="2">
         <v>19.41</v>
       </c>
-      <c r="N28" s="2" t="n">
+      <c r="N28" s="2">
         <v>13.91</v>
       </c>
-      <c r="O28" s="2" t="n">
+      <c r="O28" s="2">
         <v>29.89</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="2">
         <v>23.99</v>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="Q28" s="2">
         <v>14</v>
       </c>
-      <c r="R28" s="2" t="n">
+      <c r="R28" s="2">
         <v>27.16</v>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="2">
         <v>15.87</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="2">
         <v>67.92</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="2">
         <v>24.31</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="2">
         <v>24.58</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="2">
         <v>13.59</v>
       </c>
-      <c r="X28" s="2" t="n">
+      <c r="X28" s="2">
         <v>16.63</v>
       </c>
-      <c r="Y28" s="2" t="n">
+      <c r="Y28" s="2">
         <v>48.01</v>
       </c>
-      <c r="Z28" s="2" t="n">
+      <c r="Z28" s="2">
         <v>8.27</v>
       </c>
-      <c r="AA28" s="2" t="n">
+      <c r="AA28" s="2">
         <v>8.76</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/15</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
         <v>20.79</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>30.5</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>18.89</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2">
         <v>21.04</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2">
         <v>28.85</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2">
         <v>15.09</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>23.93</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="2">
         <v>40.6</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="2">
         <v>42.33</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="2">
         <v>20.28</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="L29" s="2">
         <v>33.03</v>
       </c>
-      <c r="M29" s="2" t="n">
+      <c r="M29" s="2">
         <v>19.2</v>
       </c>
-      <c r="N29" s="2" t="n">
+      <c r="N29" s="2">
         <v>13.82</v>
       </c>
-      <c r="O29" s="2" t="n">
+      <c r="O29" s="2">
         <v>29.29</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="2">
         <v>23.64</v>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="Q29" s="2">
         <v>13.91</v>
       </c>
-      <c r="R29" s="2" t="n">
+      <c r="R29" s="2">
         <v>27.04</v>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="S29" s="2">
         <v>15.78</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="2">
         <v>67.87</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="2">
         <v>24.01</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="2">
         <v>24.24</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="2">
         <v>13.5</v>
       </c>
-      <c r="X29" s="2" t="n">
+      <c r="X29" s="2">
         <v>16.5</v>
       </c>
-      <c r="Y29" s="2" t="n">
+      <c r="Y29" s="2">
         <v>47.87</v>
       </c>
-      <c r="Z29" s="2" t="n">
+      <c r="Z29" s="2">
         <v>8.27</v>
       </c>
-      <c r="AA29" s="2" t="n">
+      <c r="AA29" s="2">
         <v>8.75</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/16</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
         <v>20.85</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>30.67</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>18.93</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2">
         <v>21.07</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2">
         <v>29.07</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>15.09</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2">
         <v>23.98</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="2">
         <v>40.69</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="J30" s="2">
         <v>42.43</v>
       </c>
-      <c r="K30" s="2" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="L30" s="2" t="n">
+      <c r="K30" s="2">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="L30" s="2">
         <v>33.42</v>
       </c>
-      <c r="M30" s="2" t="n">
+      <c r="M30" s="2">
         <v>19.21</v>
       </c>
-      <c r="N30" s="2" t="n">
+      <c r="N30" s="2">
         <v>13.84</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="O30" s="2">
         <v>29.5</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="2">
         <v>23.74</v>
       </c>
-      <c r="Q30" s="2" t="n">
+      <c r="Q30" s="2">
         <v>13.95</v>
       </c>
-      <c r="R30" s="2" t="n">
+      <c r="R30" s="2">
         <v>27.17</v>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="S30" s="2">
         <v>15.83</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="2">
         <v>66.59</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="2">
         <v>23.96</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="2">
         <v>24.17</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="2">
         <v>13.54</v>
       </c>
-      <c r="X30" s="2" t="n">
+      <c r="X30" s="2">
         <v>16.5</v>
       </c>
-      <c r="Y30" s="2" t="n">
+      <c r="Y30" s="2">
         <v>47.59</v>
       </c>
-      <c r="Z30" s="2" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AA30" s="2" t="n">
-        <v>8.789999999999999</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/17</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
+      <c r="Z30" s="2">
+        <v>8.36</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
         <v>20.99</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>30.91</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>19.05</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>21.16</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2">
         <v>29.26</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>15.16</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2">
         <v>24.18</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="2">
         <v>41.03</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="2">
         <v>42.64</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="2">
         <v>20.48</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="L31" s="2">
         <v>33.79</v>
       </c>
-      <c r="M31" s="2" t="n">
+      <c r="M31" s="2">
         <v>19.32</v>
       </c>
-      <c r="N31" s="2" t="n">
+      <c r="N31" s="2">
         <v>13.91</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="2">
         <v>29.74</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="2">
         <v>23.94</v>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="Q31" s="2">
         <v>14</v>
       </c>
-      <c r="R31" s="2" t="n">
+      <c r="R31" s="2">
         <v>27.31</v>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="2">
         <v>15.88</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="2">
         <v>67.98</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="2">
         <v>24.04</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="2">
         <v>24.36</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="2">
         <v>13.57</v>
       </c>
-      <c r="X31" s="2" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="Y31" s="2" t="n">
+      <c r="X31" s="2">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="Y31" s="2">
         <v>48.29</v>
       </c>
-      <c r="Z31" s="2" t="n">
+      <c r="Z31" s="2">
         <v>8.31</v>
       </c>
-      <c r="AA31" s="2" t="n">
+      <c r="AA31" s="2">
         <v>8.76</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/20</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
         <v>21.13</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>31.04</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="2">
         <v>19.25</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="2">
         <v>21.46</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2">
         <v>29.41</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>15.24</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="2">
         <v>24.68</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="2">
         <v>41.42</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="2">
         <v>43.29</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" s="2">
         <v>20.83</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="L32" s="2">
         <v>33.19</v>
       </c>
-      <c r="M32" s="2" t="n">
+      <c r="M32" s="2">
         <v>19.77</v>
       </c>
-      <c r="N32" s="2" t="n">
+      <c r="N32" s="2">
         <v>13.93</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="O32" s="2">
         <v>30.38</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="2">
         <v>24.41</v>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="Q32" s="2">
         <v>14.03</v>
       </c>
-      <c r="R32" s="2" t="n">
+      <c r="R32" s="2">
         <v>27.54</v>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="2">
         <v>15.94</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="2">
         <v>67.94</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="2">
         <v>24.4</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="2">
         <v>25.23</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="2">
         <v>13.6</v>
       </c>
-      <c r="X32" s="2" t="n">
+      <c r="X32" s="2">
         <v>16.72</v>
       </c>
-      <c r="Y32" s="2" t="n">
+      <c r="Y32" s="2">
         <v>48.94</v>
       </c>
-      <c r="Z32" s="2" t="n">
+      <c r="Z32" s="2">
         <v>8.23</v>
       </c>
-      <c r="AA32" s="2" t="n">
+      <c r="AA32" s="2">
         <v>8.73</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/21</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
         <v>21.21</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>31.15</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2">
         <v>19.32</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>21.53</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2">
         <v>29.5</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2">
         <v>15.27</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2">
         <v>24.88</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="2">
         <v>42.02</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="2">
         <v>43.76</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="2">
         <v>20.96</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="L33" s="2">
         <v>33.76</v>
       </c>
-      <c r="M33" s="2" t="n">
+      <c r="M33" s="2">
         <v>19.73</v>
       </c>
-      <c r="N33" s="2" t="n">
+      <c r="N33" s="2">
         <v>13.9</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="2">
         <v>30.52</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="2">
         <v>24.55</v>
       </c>
-      <c r="Q33" s="2" t="n">
+      <c r="Q33" s="2">
         <v>14.03</v>
       </c>
-      <c r="R33" s="2" t="n">
+      <c r="R33" s="2">
         <v>27.7</v>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="S33" s="2">
         <v>15.97</v>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="2">
         <v>68.47</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="2">
         <v>24.37</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="2">
         <v>25.2</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="W33" s="2">
         <v>13.59</v>
       </c>
-      <c r="X33" s="2" t="n">
-        <v>16.74</v>
-      </c>
-      <c r="Y33" s="2" t="n">
+      <c r="X33" s="2">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="Y33" s="2">
         <v>49.97</v>
       </c>
-      <c r="Z33" s="2" t="n">
+      <c r="Z33" s="2">
         <v>8.17</v>
       </c>
-      <c r="AA33" s="2" t="n">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/22</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
+      <c r="AA33" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
         <v>21.21</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>31.75</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="E34" s="2" t="n">
+      <c r="D34" s="2">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="E34" s="2">
         <v>21.29</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2">
         <v>30.33</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2">
         <v>15.1</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2">
         <v>24.66</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="2">
         <v>41.37</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J34" s="2">
         <v>43.37</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="K34" s="2">
         <v>20.73</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="L34" s="2">
         <v>35.42</v>
       </c>
-      <c r="M34" s="2" t="n">
-        <v>19.44</v>
-      </c>
-      <c r="N34" s="2" t="n">
+      <c r="M34" s="2">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="N34" s="2">
         <v>13.77</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="2">
         <v>30.34</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="2">
         <v>24.34</v>
       </c>
-      <c r="Q34" s="2" t="n">
+      <c r="Q34" s="2">
         <v>13.95</v>
       </c>
-      <c r="R34" s="2" t="n">
+      <c r="R34" s="2">
         <v>27.43</v>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="S34" s="2">
         <v>15.85</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="2">
         <v>68.09</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="2">
         <v>24.12</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="2">
         <v>24.73</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="2">
         <v>13.51</v>
       </c>
-      <c r="X34" s="2" t="n">
+      <c r="X34" s="2">
         <v>16.61</v>
       </c>
-      <c r="Y34" s="2" t="n">
+      <c r="Y34" s="2">
         <v>50.41</v>
       </c>
-      <c r="Z34" s="2" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AA34" s="2" t="n">
+      <c r="Z34" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AA34" s="2">
         <v>8.56</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>2025/1/23</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
         <v>21.13</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>31.61</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E35" s="2" t="n">
+      <c r="D35" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E35" s="2">
         <v>21.2</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>30.18</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2">
         <v>15.06</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>24.48</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="2">
         <v>41.22</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J35" s="2">
         <v>43.38</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="K35" s="2">
         <v>20.63</v>
       </c>
-      <c r="L35" s="2" t="n">
+      <c r="L35" s="2">
         <v>35.06</v>
       </c>
-      <c r="M35" s="2" t="n">
+      <c r="M35" s="2">
         <v>19.36</v>
       </c>
-      <c r="N35" s="2" t="n">
+      <c r="N35" s="2">
         <v>13.77</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="O35" s="2">
         <v>30.26</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="P35" s="2">
         <v>24.18</v>
       </c>
-      <c r="Q35" s="2" t="n">
+      <c r="Q35" s="2">
         <v>14</v>
       </c>
-      <c r="R35" s="2" t="n">
+      <c r="R35" s="2">
         <v>27.36</v>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="S35" s="2">
         <v>15.89</v>
       </c>
-      <c r="T35" s="2" t="n">
-        <v>67.23999999999999</v>
-      </c>
-      <c r="U35" s="2" t="n">
+      <c r="T35" s="2">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="U35" s="2">
         <v>24.11</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="2">
         <v>24.54</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="2">
         <v>13.57</v>
       </c>
-      <c r="X35" s="2" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="Y35" s="2" t="n">
+      <c r="X35" s="2">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="Y35" s="2">
         <v>49.66</v>
       </c>
-      <c r="Z35" s="2" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="AA35" s="2" t="n">
+      <c r="Z35" s="2">
+        <v>8.14</v>
+      </c>
+      <c r="AA35" s="2">
         <v>8.69</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025/1/24</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
         <v>21.35</v>
       </c>
-      <c r="C36" t="n">
-        <v>32.05</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36" s="2">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="D36" s="2">
         <v>19.27</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="2">
         <v>21.36</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="2">
         <v>30.66</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="2">
         <v>15.16</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" s="2">
         <v>24.85</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="2">
         <v>42.38</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36" s="2">
         <v>44.24</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="2">
         <v>20.88</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36" s="2">
         <v>35.74</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" s="2">
         <v>19.54</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36" s="2">
         <v>13.84</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36" s="2">
         <v>30.67</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36" s="2">
         <v>24.46</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" s="2">
         <v>14.09</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36" s="2">
         <v>27.81</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S36" s="2">
         <v>16.03</v>
       </c>
-      <c r="T36" t="n">
-        <v>67.68000000000001</v>
-      </c>
-      <c r="U36" t="n">
+      <c r="T36" s="2">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="U36" s="2">
         <v>24.24</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V36" s="2">
         <v>24.86</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W36" s="2">
         <v>13.66</v>
       </c>
-      <c r="X36" t="n">
+      <c r="X36" s="2">
         <v>16.75</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y36" s="2">
         <v>50.34</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="Z36" s="2">
         <v>8.16</v>
       </c>
-      <c r="AA36" t="n">
-        <v>8.699999999999999</v>
+      <c r="AA36" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>21.11</v>
+      </c>
+      <c r="C37" s="2">
+        <v>31.26</v>
+      </c>
+      <c r="D37" s="2">
+        <v>19.07</v>
+      </c>
+      <c r="E37" s="2">
+        <v>21.13</v>
+      </c>
+      <c r="F37" s="2">
+        <v>29.77</v>
+      </c>
+      <c r="G37" s="2">
+        <v>15.15</v>
+      </c>
+      <c r="H37" s="2">
+        <v>24.41</v>
+      </c>
+      <c r="I37" s="2">
+        <v>41.52</v>
+      </c>
+      <c r="J37" s="2">
+        <v>43.14</v>
+      </c>
+      <c r="K37" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="L37" s="2">
+        <v>34.46</v>
+      </c>
+      <c r="M37" s="2">
+        <v>19.38</v>
+      </c>
+      <c r="N37" s="2">
+        <v>13.87</v>
+      </c>
+      <c r="O37" s="2">
+        <v>29.85</v>
+      </c>
+      <c r="P37" s="2">
+        <v>23.98</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>14.07</v>
+      </c>
+      <c r="R37" s="2">
+        <v>27.42</v>
+      </c>
+      <c r="S37" s="2">
+        <v>15.96</v>
+      </c>
+      <c r="T37" s="2">
+        <v>66.14</v>
+      </c>
+      <c r="U37" s="2">
+        <v>24.14</v>
+      </c>
+      <c r="V37" s="2">
+        <v>24.51</v>
+      </c>
+      <c r="W37" s="2">
+        <v>13.65</v>
+      </c>
+      <c r="X37" s="2">
+        <v>16.64</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>49.01</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>8.26</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>21.09</v>
+      </c>
+      <c r="C38" s="2">
+        <v>31.28</v>
+      </c>
+      <c r="D38" s="2">
+        <v>18.98</v>
+      </c>
+      <c r="E38" s="2">
+        <v>21.08</v>
+      </c>
+      <c r="F38" s="2">
+        <v>29.66</v>
+      </c>
+      <c r="G38" s="2">
+        <v>15.14</v>
+      </c>
+      <c r="H38" s="2">
+        <v>24.47</v>
+      </c>
+      <c r="I38" s="2">
+        <v>42.12</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43.43</v>
+      </c>
+      <c r="K38" s="2">
+        <v>20.53</v>
+      </c>
+      <c r="L38" s="2">
+        <v>34.79</v>
+      </c>
+      <c r="M38" s="2">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="N38" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="O38" s="2">
+        <v>29.73</v>
+      </c>
+      <c r="P38" s="2">
+        <v>23.84</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>13.96</v>
+      </c>
+      <c r="R38" s="2">
+        <v>27.53</v>
+      </c>
+      <c r="S38" s="2">
+        <v>15.88</v>
+      </c>
+      <c r="T38" s="2">
+        <v>68.680000000000007</v>
+      </c>
+      <c r="U38" s="2">
+        <v>24.37</v>
+      </c>
+      <c r="V38" s="2">
+        <v>24.53</v>
+      </c>
+      <c r="W38" s="2">
+        <v>13.53</v>
+      </c>
+      <c r="X38" s="2">
+        <v>16.48</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>8.11</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>21.55</v>
+      </c>
+      <c r="C39" s="2">
+        <v>32.14</v>
+      </c>
+      <c r="D39" s="2">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="E39" s="2">
+        <v>21.51</v>
+      </c>
+      <c r="F39" s="2">
+        <v>30.52</v>
+      </c>
+      <c r="G39" s="2">
+        <v>15.36</v>
+      </c>
+      <c r="H39" s="2">
+        <v>25.27</v>
+      </c>
+      <c r="I39" s="2">
+        <v>43.62</v>
+      </c>
+      <c r="J39" s="2">
+        <v>45.04</v>
+      </c>
+      <c r="K39" s="2">
+        <v>21.12</v>
+      </c>
+      <c r="L39" s="2">
+        <v>36.19</v>
+      </c>
+      <c r="M39" s="2">
+        <v>19.78</v>
+      </c>
+      <c r="N39" s="2">
+        <v>13.83</v>
+      </c>
+      <c r="O39" s="2">
+        <v>30.45</v>
+      </c>
+      <c r="P39" s="2">
+        <v>24.53</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>14.15</v>
+      </c>
+      <c r="R39" s="2">
+        <v>28.23</v>
+      </c>
+      <c r="S39" s="2">
+        <v>16.14</v>
+      </c>
+      <c r="T39" s="2">
+        <v>71.69</v>
+      </c>
+      <c r="U39" s="2">
+        <v>24.78</v>
+      </c>
+      <c r="V39" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="W39" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="X39" s="2">
+        <v>16.66</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>49.98</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>21.91</v>
+      </c>
+      <c r="C40" s="2">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="D40" s="2">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="E40" s="2">
+        <v>21.96</v>
+      </c>
+      <c r="F40" s="2">
+        <v>31.33</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15.58</v>
+      </c>
+      <c r="H40" s="2">
+        <v>25.81</v>
+      </c>
+      <c r="I40" s="2">
+        <v>44.14</v>
+      </c>
+      <c r="J40" s="2">
+        <v>45.66</v>
+      </c>
+      <c r="K40" s="2">
+        <v>21.58</v>
+      </c>
+      <c r="L40" s="2">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="M40" s="2">
+        <v>20.28</v>
+      </c>
+      <c r="N40" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="O40" s="2">
+        <v>31.23</v>
+      </c>
+      <c r="P40" s="2">
+        <v>25.11</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>14.31</v>
+      </c>
+      <c r="R40" s="2">
+        <v>28.57</v>
+      </c>
+      <c r="S40" s="2">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="T40" s="2">
+        <v>71.67</v>
+      </c>
+      <c r="U40" s="2">
+        <v>25.02</v>
+      </c>
+      <c r="V40" s="2">
+        <v>26.22</v>
+      </c>
+      <c r="W40" s="2">
+        <v>13.85</v>
+      </c>
+      <c r="X40" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>50.62</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>8.17</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="C41" s="2">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="D41" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="E41" s="2">
+        <v>21.96</v>
+      </c>
+      <c r="F41" s="2">
+        <v>31.42</v>
+      </c>
+      <c r="G41" s="2">
+        <v>15.59</v>
+      </c>
+      <c r="H41" s="2">
+        <v>25.83</v>
+      </c>
+      <c r="I41" s="2">
+        <v>45.06</v>
+      </c>
+      <c r="J41" s="2">
+        <v>46.35</v>
+      </c>
+      <c r="K41" s="2">
+        <v>21.54</v>
+      </c>
+      <c r="L41" s="2">
+        <v>37.06</v>
+      </c>
+      <c r="M41" s="2">
+        <v>20.16</v>
+      </c>
+      <c r="N41" s="2">
+        <v>14</v>
+      </c>
+      <c r="O41" s="2">
+        <v>31.25</v>
+      </c>
+      <c r="P41" s="2">
+        <v>25.09</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>14.35</v>
+      </c>
+      <c r="R41" s="2">
+        <v>28.92</v>
+      </c>
+      <c r="S41" s="2">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="T41" s="2">
+        <v>72.11</v>
+      </c>
+      <c r="U41" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="V41" s="2">
+        <v>26.07</v>
+      </c>
+      <c r="W41" s="2">
+        <v>13.88</v>
+      </c>
+      <c r="X41" s="2">
+        <v>16.89</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>50.9</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>21.88</v>
+      </c>
+      <c r="C42" s="2">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="D42" s="2">
+        <v>19.57</v>
+      </c>
+      <c r="E42" s="2">
+        <v>21.75</v>
+      </c>
+      <c r="F42" s="2">
+        <v>30.93</v>
+      </c>
+      <c r="G42" s="2">
+        <v>15.55</v>
+      </c>
+      <c r="H42" s="2">
+        <v>25.68</v>
+      </c>
+      <c r="I42" s="2">
+        <v>44.75</v>
+      </c>
+      <c r="J42" s="2">
+        <v>46.25</v>
+      </c>
+      <c r="K42" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="L42" s="2">
+        <v>36.89</v>
+      </c>
+      <c r="M42" s="2">
+        <v>19.96</v>
+      </c>
+      <c r="N42" s="2">
+        <v>13.97</v>
+      </c>
+      <c r="O42" s="2">
+        <v>30.83</v>
+      </c>
+      <c r="P42" s="2">
+        <v>24.85</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>14.32</v>
+      </c>
+      <c r="R42" s="2">
+        <v>28.87</v>
+      </c>
+      <c r="S42" s="2">
+        <v>16.39</v>
+      </c>
+      <c r="T42" s="2">
+        <v>71.11</v>
+      </c>
+      <c r="U42" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="V42" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="W42" s="2">
+        <v>13.86</v>
+      </c>
+      <c r="X42" s="2">
+        <v>16.78</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>50.78</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>22.17</v>
+      </c>
+      <c r="C43" s="2">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="D43" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="E43" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="F43" s="2">
+        <v>31.42</v>
+      </c>
+      <c r="G43" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="H43" s="2">
+        <v>26.06</v>
+      </c>
+      <c r="I43" s="2">
+        <v>45.66</v>
+      </c>
+      <c r="J43" s="2">
+        <v>46.93</v>
+      </c>
+      <c r="K43" s="2">
+        <v>21.71</v>
+      </c>
+      <c r="L43" s="2">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="M43" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="N43" s="2">
+        <v>14.01</v>
+      </c>
+      <c r="O43" s="2">
+        <v>31.34</v>
+      </c>
+      <c r="P43" s="2">
+        <v>25.22</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>14.45</v>
+      </c>
+      <c r="R43" s="2">
+        <v>29.24</v>
+      </c>
+      <c r="S43" s="2">
+        <v>16.55</v>
+      </c>
+      <c r="T43" s="2">
+        <v>73.56</v>
+      </c>
+      <c r="U43" s="2">
+        <v>25.02</v>
+      </c>
+      <c r="V43" s="2">
+        <v>26.24</v>
+      </c>
+      <c r="W43" s="2">
+        <v>13.98</v>
+      </c>
+      <c r="X43" s="2">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>55.31</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="C44" s="2">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="D44" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="E44" s="2">
+        <v>21.96</v>
+      </c>
+      <c r="F44" s="2">
+        <v>31.19</v>
+      </c>
+      <c r="G44" s="2">
+        <v>15.65</v>
+      </c>
+      <c r="H44" s="2">
+        <v>25.72</v>
+      </c>
+      <c r="I44" s="2">
+        <v>44.91</v>
+      </c>
+      <c r="J44" s="2">
+        <v>46.12</v>
+      </c>
+      <c r="K44" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="L44" s="2">
+        <v>36.89</v>
+      </c>
+      <c r="M44" s="2">
+        <v>20.18</v>
+      </c>
+      <c r="N44" s="2">
+        <v>14.03</v>
+      </c>
+      <c r="O44" s="2">
+        <v>31.09</v>
+      </c>
+      <c r="P44" s="2">
+        <v>24.96</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="R44" s="2">
+        <v>28.83</v>
+      </c>
+      <c r="S44" s="2">
+        <v>16.45</v>
+      </c>
+      <c r="T44" s="2">
+        <v>71.47</v>
+      </c>
+      <c r="U44" s="2">
+        <v>24.86</v>
+      </c>
+      <c r="V44" s="2">
+        <v>26.39</v>
+      </c>
+      <c r="W44" s="2">
+        <v>13.94</v>
+      </c>
+      <c r="X44" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>53.67</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>22.27</v>
+      </c>
+      <c r="C45" s="2">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="D45" s="2">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="E45" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>31.68</v>
+      </c>
+      <c r="G45" s="2">
+        <v>15.82</v>
+      </c>
+      <c r="H45" s="2">
+        <v>26.21</v>
+      </c>
+      <c r="I45" s="2">
+        <v>45.45</v>
+      </c>
+      <c r="J45" s="2">
+        <v>46.13</v>
+      </c>
+      <c r="K45" s="2">
+        <v>21.86</v>
+      </c>
+      <c r="L45" s="2">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="M45" s="2">
+        <v>20.52</v>
+      </c>
+      <c r="N45" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="O45" s="2">
+        <v>31.61</v>
+      </c>
+      <c r="P45" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>14.51</v>
+      </c>
+      <c r="R45" s="2">
+        <v>28.87</v>
+      </c>
+      <c r="S45" s="2">
+        <v>16.55</v>
+      </c>
+      <c r="T45" s="2">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="U45" s="2">
+        <v>25.49</v>
+      </c>
+      <c r="V45" s="2">
+        <v>27.07</v>
+      </c>
+      <c r="W45" s="2">
+        <v>14</v>
+      </c>
+      <c r="X45" s="2">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>22.34</v>
+      </c>
+      <c r="C46" s="2">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="D46" s="2">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="E46" s="2">
+        <v>22.34</v>
+      </c>
+      <c r="F46" s="2">
+        <v>31.87</v>
+      </c>
+      <c r="G46" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="H46" s="2">
+        <v>26.34</v>
+      </c>
+      <c r="I46" s="2">
+        <v>46.08</v>
+      </c>
+      <c r="J46" s="2">
+        <v>47.19</v>
+      </c>
+      <c r="K46" s="2">
+        <v>21.92</v>
+      </c>
+      <c r="L46" s="2">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="M46" s="2">
+        <v>20.47</v>
+      </c>
+      <c r="N46" s="2">
+        <v>14.14</v>
+      </c>
+      <c r="O46" s="2">
+        <v>31.85</v>
+      </c>
+      <c r="P46" s="2">
+        <v>25.37</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>14.53</v>
+      </c>
+      <c r="R46" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="S46" s="2">
+        <v>16.62</v>
+      </c>
+      <c r="T46" s="2">
+        <v>72.72</v>
+      </c>
+      <c r="U46" s="2">
+        <v>25.89</v>
+      </c>
+      <c r="V46" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="W46" s="2">
+        <v>14.05</v>
+      </c>
+      <c r="X46" s="2">
+        <v>17.13</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>54.79</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>8.14</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="D47" s="2">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="E47" s="2">
+        <v>22.14</v>
+      </c>
+      <c r="F47" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>15.68</v>
+      </c>
+      <c r="H47" s="2">
+        <v>26.17</v>
+      </c>
+      <c r="I47" s="2">
+        <v>44.67</v>
+      </c>
+      <c r="J47" s="2">
+        <v>45.69</v>
+      </c>
+      <c r="K47" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="L47" s="2">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="M47" s="2">
+        <v>20.47</v>
+      </c>
+      <c r="N47" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="O47" s="2">
+        <v>31.29</v>
+      </c>
+      <c r="P47" s="2">
+        <v>25.14</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="R47" s="2">
+        <v>28.54</v>
+      </c>
+      <c r="S47" s="2">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="T47" s="2">
+        <v>71.55</v>
+      </c>
+      <c r="U47" s="2">
+        <v>25.34</v>
+      </c>
+      <c r="V47" s="2">
+        <v>27.13</v>
+      </c>
+      <c r="W47" s="2">
+        <v>13.95</v>
+      </c>
+      <c r="X47" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>53.85</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>22.31</v>
+      </c>
+      <c r="C48" s="2">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="D48" s="2">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="E48" s="2">
+        <v>22.35</v>
+      </c>
+      <c r="F48" s="2">
+        <v>31.78</v>
+      </c>
+      <c r="G48" s="2">
+        <v>15.73</v>
+      </c>
+      <c r="H48" s="2">
+        <v>26.62</v>
+      </c>
+      <c r="I48" s="2">
+        <v>46.3</v>
+      </c>
+      <c r="J48" s="2">
+        <v>47.54</v>
+      </c>
+      <c r="K48" s="2">
+        <v>22.04</v>
+      </c>
+      <c r="L48" s="2">
+        <v>37.93</v>
+      </c>
+      <c r="M48" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="N48" s="2">
+        <v>14.02</v>
+      </c>
+      <c r="O48" s="2">
+        <v>31.84</v>
+      </c>
+      <c r="P48" s="2">
+        <v>25.46</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>14.51</v>
+      </c>
+      <c r="R48" s="2">
+        <v>29.28</v>
+      </c>
+      <c r="S48" s="2">
+        <v>16.61</v>
+      </c>
+      <c r="T48" s="2">
+        <v>74.34</v>
+      </c>
+      <c r="U48" s="2">
+        <v>25.52</v>
+      </c>
+      <c r="V48" s="2">
+        <v>27.46</v>
+      </c>
+      <c r="W48" s="2">
+        <v>14.03</v>
+      </c>
+      <c r="X48" s="2">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>55.28</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>8.08</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="3">
+        <v>22.350000381469727</v>
+      </c>
+      <c r="C49" s="3">
+        <v>33.540000915527344</v>
+      </c>
+      <c r="D49" s="3">
+        <v>20</v>
+      </c>
+      <c r="E49" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="F49" s="3">
+        <v>31.719999313354492</v>
+      </c>
+      <c r="G49" s="3">
+        <v>15.75</v>
+      </c>
+      <c r="H49" s="3">
+        <v>26.639999389648437</v>
+      </c>
+      <c r="I49" s="3">
+        <v>47.020000457763672</v>
+      </c>
+      <c r="J49" s="3">
+        <v>48.540000915527344</v>
+      </c>
+      <c r="K49" s="3">
+        <v>22.040000915527344</v>
+      </c>
+      <c r="L49" s="3">
+        <v>37.869998931884766</v>
+      </c>
+      <c r="M49" s="3">
+        <v>20.520000457763672</v>
+      </c>
+      <c r="N49" s="3">
+        <v>13.979999542236328</v>
+      </c>
+      <c r="O49" s="3">
+        <v>31.850000381469727</v>
+      </c>
+      <c r="P49" s="4">
+        <v>25.779999732971191</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>14.489999771118164</v>
+      </c>
+      <c r="R49" s="3">
+        <v>29.590000152587891</v>
+      </c>
+      <c r="S49" s="3">
+        <v>16.639999389648437</v>
+      </c>
+      <c r="T49" s="4">
+        <v>75.879997253417969</v>
+      </c>
+      <c r="U49" s="3">
+        <v>26.120000839233398</v>
+      </c>
+      <c r="V49" s="4">
+        <v>27.789999961853027</v>
+      </c>
+      <c r="W49" s="4">
+        <v>14.085000038146973</v>
+      </c>
+      <c r="X49" s="4">
+        <v>17.220000267028809</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>56.494998931884766</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>8.059999942779541</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>8.8000001907348633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>22.74</v>
+      </c>
+      <c r="C50" s="2">
+        <v>34.35</v>
+      </c>
+      <c r="D50" s="2">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="E50" s="2">
+        <v>22.68</v>
+      </c>
+      <c r="F50" s="2">
+        <v>32.51</v>
+      </c>
+      <c r="G50" s="2">
+        <v>15.98</v>
+      </c>
+      <c r="H50" s="2">
+        <v>27.31</v>
+      </c>
+      <c r="I50" s="2">
+        <v>48.16</v>
+      </c>
+      <c r="J50" s="2">
+        <v>49.45</v>
+      </c>
+      <c r="K50" s="2">
+        <v>22.46</v>
+      </c>
+      <c r="L50" s="2">
+        <v>39.21</v>
+      </c>
+      <c r="M50" s="2">
+        <v>20.87</v>
+      </c>
+      <c r="N50" s="2">
+        <v>14.12</v>
+      </c>
+      <c r="O50" s="2">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="P50" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>14.63</v>
+      </c>
+      <c r="R50" s="2">
+        <v>30.02</v>
+      </c>
+      <c r="S50" s="2">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="T50" s="2">
+        <v>77.42</v>
+      </c>
+      <c r="U50" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="V50" s="2">
+        <v>28.12</v>
+      </c>
+      <c r="W50" s="2">
+        <v>14.14</v>
+      </c>
+      <c r="X50" s="2">
+        <v>17.29</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>57.71</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>22.73</v>
+      </c>
+      <c r="C51" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D51" s="2">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="E51" s="2">
+        <v>22.61</v>
+      </c>
+      <c r="F51" s="2">
+        <v>32.32</v>
+      </c>
+      <c r="G51" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="H51" s="2">
+        <v>27.15</v>
+      </c>
+      <c r="I51" s="2">
+        <v>47.85</v>
+      </c>
+      <c r="J51" s="2">
+        <v>49.47</v>
+      </c>
+      <c r="K51" s="2">
+        <v>22.34</v>
+      </c>
+      <c r="L51" s="2">
+        <v>38.97</v>
+      </c>
+      <c r="M51" s="2">
+        <v>20.77</v>
+      </c>
+      <c r="N51" s="2">
+        <v>14.17</v>
+      </c>
+      <c r="O51" s="2">
+        <v>32.51</v>
+      </c>
+      <c r="P51" s="2">
+        <v>25.86</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="R51" s="2">
+        <v>30.06</v>
+      </c>
+      <c r="S51" s="2">
+        <v>16.79</v>
+      </c>
+      <c r="T51" s="2">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="U51" s="2">
+        <v>25.88</v>
+      </c>
+      <c r="V51" s="2">
+        <v>27.81</v>
+      </c>
+      <c r="W51" s="2">
+        <v>14.11</v>
+      </c>
+      <c r="X51" s="2">
+        <v>17.22</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>56.91</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>8.01</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>22.45</v>
+      </c>
+      <c r="C52" s="2">
+        <v>33.78</v>
+      </c>
+      <c r="D52" s="2">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="E52" s="2">
+        <v>22.31</v>
+      </c>
+      <c r="F52" s="2">
+        <v>31.91</v>
+      </c>
+      <c r="G52" s="2">
+        <v>15.81</v>
+      </c>
+      <c r="H52" s="2">
+        <v>26.83</v>
+      </c>
+      <c r="I52" s="2">
+        <v>47.48</v>
+      </c>
+      <c r="J52" s="2">
+        <v>49.68</v>
+      </c>
+      <c r="K52" s="2">
+        <v>22.12</v>
+      </c>
+      <c r="L52" s="2">
+        <v>38.29</v>
+      </c>
+      <c r="M52" s="2">
+        <v>20.56</v>
+      </c>
+      <c r="N52" s="2">
+        <v>13.96</v>
+      </c>
+      <c r="O52" s="2">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="P52" s="2">
+        <v>25.57</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>14.44</v>
+      </c>
+      <c r="R52" s="2">
+        <v>29.93</v>
+      </c>
+      <c r="S52" s="2">
+        <v>16.63</v>
+      </c>
+      <c r="T52" s="2">
+        <v>76.72</v>
+      </c>
+      <c r="U52" s="2">
+        <v>25.51</v>
+      </c>
+      <c r="V52" s="2">
+        <v>27.67</v>
+      </c>
+      <c r="W52" s="2">
+        <v>13.95</v>
+      </c>
+      <c r="X52" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>56.73</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>22.66</v>
+      </c>
+      <c r="C53" s="2">
+        <v>34.17</v>
+      </c>
+      <c r="D53" s="2">
+        <v>20.14</v>
+      </c>
+      <c r="E53" s="2">
+        <v>22.43</v>
+      </c>
+      <c r="F53" s="2">
+        <v>32.29</v>
+      </c>
+      <c r="G53" s="2">
+        <v>15.87</v>
+      </c>
+      <c r="H53" s="2">
+        <v>27.05</v>
+      </c>
+      <c r="I53" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="J53" s="2">
+        <v>50.23</v>
+      </c>
+      <c r="K53" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="L53" s="2">
+        <v>38.78</v>
+      </c>
+      <c r="M53" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="N53" s="2">
+        <v>14.09</v>
+      </c>
+      <c r="O53" s="2">
+        <v>32.47</v>
+      </c>
+      <c r="P53" s="2">
+        <v>25.76</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>14.56</v>
+      </c>
+      <c r="R53" s="2">
+        <v>30.37</v>
+      </c>
+      <c r="S53" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="T53" s="2">
+        <v>78.25</v>
+      </c>
+      <c r="U53" s="2">
+        <v>25.95</v>
+      </c>
+      <c r="V53" s="2">
+        <v>27.79</v>
+      </c>
+      <c r="W53" s="2">
+        <v>14.06</v>
+      </c>
+      <c r="X53" s="2">
+        <v>17.14</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>57.8</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>22.62</v>
+      </c>
+      <c r="C54">
+        <v>34.03</v>
+      </c>
+      <c r="D54">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="E54">
+        <v>22.5</v>
+      </c>
+      <c r="F54">
+        <v>32.14</v>
+      </c>
+      <c r="G54">
+        <v>15.96</v>
+      </c>
+      <c r="H54">
+        <v>26.96</v>
+      </c>
+      <c r="I54">
+        <v>47.91</v>
+      </c>
+      <c r="J54">
+        <v>49.63</v>
+      </c>
+      <c r="K54">
+        <v>22.2</v>
+      </c>
+      <c r="L54">
+        <v>38.08</v>
+      </c>
+      <c r="M54">
+        <v>20.81</v>
+      </c>
+      <c r="N54">
+        <v>14.17</v>
+      </c>
+      <c r="O54">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="P54">
+        <v>25.79</v>
+      </c>
+      <c r="Q54">
+        <v>14.59</v>
+      </c>
+      <c r="R54">
+        <v>30.27</v>
+      </c>
+      <c r="S54">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="T54">
+        <v>77.88</v>
+      </c>
+      <c r="U54">
+        <v>25.78</v>
+      </c>
+      <c r="V54">
+        <v>27.95</v>
+      </c>
+      <c r="W54">
+        <v>14.09</v>
+      </c>
+      <c r="X54">
+        <v>17.21</v>
+      </c>
+      <c r="Y54">
+        <v>57.69</v>
+      </c>
+      <c r="Z54">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AA54">
+        <v>8.76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -33,12 +33,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,12 +61,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4448,429 +4457,2299 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="1" s="2">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2025/2/21</t>
+          <t>2025/2/20</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>22.74</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>34.35</v>
+        <v>33.54000091552734</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>20.31</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>22.68</v>
+        <v>22.3</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>32.51</v>
+        <v>31.71999931335449</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>15.98</v>
+        <v>15.75</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>27.31</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>48.16</v>
+        <v>47.02000045776367</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>49.45</v>
+        <v>48.54000091552734</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>22.46</v>
+        <v>22.04000091552734</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>39.21</v>
+        <v>37.86999893188477</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>20.87</v>
+        <v>20.52000045776367</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>14.12</v>
+        <v>13.97999954223633</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>32.73</v>
-      </c>
-      <c r="P49" s="2" t="n">
-        <v>26.1</v>
+        <v>31.85000038146973</v>
+      </c>
+      <c r="P49" s="3" t="n">
+        <v>25.77999973297119</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>14.63</v>
+        <v>14.48999977111816</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>30.02</v>
+        <v>29.59000015258789</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="T49" s="2" t="n">
-        <v>77.42</v>
+        <v>16.63999938964844</v>
+      </c>
+      <c r="T49" s="3" t="n">
+        <v>75.87999725341797</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="V49" s="2" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="W49" s="2" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="X49" s="2" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="Y49" s="2" t="n">
-        <v>57.71</v>
-      </c>
-      <c r="Z49" s="2" t="n">
-        <v>8.039999999999999</v>
+        <v>26.1200008392334</v>
+      </c>
+      <c r="V49" s="3" t="n">
+        <v>27.78999996185303</v>
+      </c>
+      <c r="W49" s="3" t="n">
+        <v>14.08500003814697</v>
+      </c>
+      <c r="X49" s="3" t="n">
+        <v>17.22000026702881</v>
+      </c>
+      <c r="Y49" s="3" t="n">
+        <v>56.49499893188477</v>
+      </c>
+      <c r="Z49" s="3" t="n">
+        <v>8.059999942779541</v>
       </c>
       <c r="AA49" s="2" t="n">
-        <v>8.75</v>
+        <v>8.800000190734863</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2025/2/24</t>
+          <t>2025/2/21</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>22.73</v>
+        <v>22.74</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>34.2</v>
+        <v>34.35</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>20.26</v>
+        <v>20.31</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>22.61</v>
+        <v>22.68</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>32.32</v>
+        <v>32.51</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>15.99</v>
+        <v>15.98</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>27.15</v>
+        <v>27.31</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>47.85</v>
+        <v>48.16</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>49.47</v>
+        <v>49.45</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>22.34</v>
+        <v>22.46</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>38.97</v>
+        <v>39.21</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>20.77</v>
+        <v>20.87</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>14.17</v>
+        <v>14.12</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>32.51</v>
+        <v>32.73</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>25.86</v>
+        <v>26.1</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>14.6</v>
+        <v>14.63</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>30.06</v>
+        <v>30.02</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>16.79</v>
+        <v>16.81</v>
       </c>
       <c r="T50" s="2" t="n">
-        <v>77.18000000000001</v>
+        <v>77.42</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>25.88</v>
+        <v>26.6</v>
       </c>
       <c r="V50" s="2" t="n">
-        <v>27.81</v>
+        <v>28.12</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>14.11</v>
+        <v>14.14</v>
       </c>
       <c r="X50" s="2" t="n">
-        <v>17.22</v>
+        <v>17.29</v>
       </c>
       <c r="Y50" s="2" t="n">
-        <v>56.91</v>
+        <v>57.71</v>
       </c>
       <c r="Z50" s="2" t="n">
-        <v>8.01</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="AA50" s="2" t="n">
-        <v>8.720000000000001</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2025/2/25</t>
+          <t>2025/2/24</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>22.45</v>
+        <v>22.73</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>33.78</v>
+        <v>34.2</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>20.01</v>
+        <v>20.26</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>22.31</v>
+        <v>22.61</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>31.91</v>
+        <v>32.32</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>15.81</v>
+        <v>15.99</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>26.83</v>
+        <v>27.15</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>47.48</v>
+        <v>47.85</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>49.68</v>
+        <v>49.47</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>22.12</v>
+        <v>22.34</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>38.29</v>
+        <v>38.97</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>20.56</v>
+        <v>20.77</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>13.96</v>
+        <v>14.17</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>32.12</v>
+        <v>32.51</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>25.57</v>
+        <v>25.86</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>14.44</v>
+        <v>14.6</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>29.93</v>
+        <v>30.06</v>
       </c>
       <c r="S51" s="2" t="n">
-        <v>16.63</v>
+        <v>16.79</v>
       </c>
       <c r="T51" s="2" t="n">
-        <v>76.72</v>
+        <v>77.18000000000001</v>
       </c>
       <c r="U51" s="2" t="n">
-        <v>25.51</v>
+        <v>25.88</v>
       </c>
       <c r="V51" s="2" t="n">
-        <v>27.67</v>
+        <v>27.81</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>13.95</v>
+        <v>14.11</v>
       </c>
       <c r="X51" s="2" t="n">
-        <v>17</v>
+        <v>17.22</v>
       </c>
       <c r="Y51" s="2" t="n">
-        <v>56.73</v>
+        <v>56.91</v>
       </c>
       <c r="Z51" s="2" t="n">
-        <v>7.93</v>
+        <v>8.01</v>
       </c>
       <c r="AA51" s="2" t="n">
-        <v>8.619999999999999</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
+          <t>2025/2/25</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>33.78</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>47.48</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>49.68</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="P52" s="2" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="Q52" s="2" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="R52" s="2" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="S52" s="2" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="T52" s="2" t="n">
+        <v>76.72</v>
+      </c>
+      <c r="U52" s="2" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="V52" s="2" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="W52" s="2" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="X52" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>56.73</v>
+      </c>
+      <c r="Z52" s="2" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="AA52" s="2" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
           <t>2025/2/26</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B53" s="2" t="n">
         <v>22.66</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C53" s="2" t="n">
         <v>34.17</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D53" s="2" t="n">
         <v>20.14</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E53" s="2" t="n">
         <v>22.43</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F53" s="2" t="n">
         <v>32.29</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G53" s="2" t="n">
         <v>15.87</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H53" s="2" t="n">
         <v>27.05</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I53" s="2" t="n">
         <v>48.2</v>
       </c>
-      <c r="J52" s="2" t="n">
+      <c r="J53" s="2" t="n">
         <v>50.23</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="K53" s="2" t="n">
         <v>22.22</v>
       </c>
-      <c r="L52" s="2" t="n">
+      <c r="L53" s="2" t="n">
         <v>38.78</v>
       </c>
-      <c r="M52" s="2" t="n">
+      <c r="M53" s="2" t="n">
         <v>20.7</v>
       </c>
-      <c r="N52" s="2" t="n">
+      <c r="N53" s="2" t="n">
         <v>14.09</v>
       </c>
-      <c r="O52" s="2" t="n">
+      <c r="O53" s="2" t="n">
         <v>32.47</v>
       </c>
-      <c r="P52" s="2" t="n">
+      <c r="P53" s="2" t="n">
         <v>25.76</v>
       </c>
-      <c r="Q52" s="2" t="n">
+      <c r="Q53" s="2" t="n">
         <v>14.56</v>
       </c>
-      <c r="R52" s="2" t="n">
+      <c r="R53" s="2" t="n">
         <v>30.37</v>
       </c>
-      <c r="S52" s="2" t="n">
+      <c r="S53" s="2" t="n">
         <v>16.8</v>
       </c>
-      <c r="T52" s="2" t="n">
+      <c r="T53" s="2" t="n">
         <v>78.25</v>
       </c>
-      <c r="U52" s="2" t="n">
+      <c r="U53" s="2" t="n">
         <v>25.95</v>
       </c>
-      <c r="V52" s="2" t="n">
+      <c r="V53" s="2" t="n">
         <v>27.79</v>
       </c>
-      <c r="W52" s="2" t="n">
+      <c r="W53" s="2" t="n">
         <v>14.06</v>
       </c>
-      <c r="X52" s="2" t="n">
+      <c r="X53" s="2" t="n">
         <v>17.14</v>
       </c>
-      <c r="Y52" s="2" t="n">
+      <c r="Y53" s="2" t="n">
         <v>57.8</v>
       </c>
-      <c r="Z52" s="2" t="n">
+      <c r="Z53" s="2" t="n">
         <v>7.96</v>
       </c>
-      <c r="AA52" s="2" t="n">
+      <c r="AA53" s="2" t="n">
         <v>8.67</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>2025/2/27</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B54" s="2" t="n">
         <v>22.62</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C54" s="2" t="n">
         <v>34.03</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D54" s="2" t="n">
         <v>20.17</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E54" s="2" t="n">
         <v>22.5</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F54" s="2" t="n">
         <v>32.14</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G54" s="2" t="n">
         <v>15.96</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H54" s="2" t="n">
         <v>26.96</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I54" s="2" t="n">
         <v>47.91</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J54" s="2" t="n">
         <v>49.63</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K54" s="2" t="n">
         <v>22.2</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L54" s="2" t="n">
         <v>38.08</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M54" s="2" t="n">
         <v>20.81</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N54" s="2" t="n">
         <v>14.17</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O54" s="2" t="n">
         <v>32.34</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P54" s="2" t="n">
         <v>25.79</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q54" s="2" t="n">
         <v>14.59</v>
       </c>
-      <c r="R53" t="n">
+      <c r="R54" s="2" t="n">
         <v>30.27</v>
       </c>
-      <c r="S53" t="n">
+      <c r="S54" s="2" t="n">
         <v>16.81</v>
       </c>
-      <c r="T53" t="n">
+      <c r="T54" s="2" t="n">
         <v>77.88</v>
       </c>
-      <c r="U53" t="n">
+      <c r="U54" s="2" t="n">
         <v>25.78</v>
       </c>
-      <c r="V53" t="n">
+      <c r="V54" s="2" t="n">
         <v>27.95</v>
       </c>
-      <c r="W53" t="n">
+      <c r="W54" s="2" t="n">
         <v>14.09</v>
       </c>
-      <c r="X53" t="n">
+      <c r="X54" s="2" t="n">
         <v>17.21</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Y54" s="2" t="n">
         <v>57.69</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="Z54" s="2" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AA54" s="2" t="n">
         <v>8.76</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>2025/2/28</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>30.93</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45.76</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>36.27</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>31.14</v>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="T55" s="2" t="n">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="U55" s="2" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="V55" s="2" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="W55" s="2" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="X55" s="2" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="Y55" s="2" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="Z55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA55" s="2" t="n">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/03</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>46.06</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="P56" s="2" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="Q56" s="2" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="R56" s="2" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="S56" s="2" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="T56" s="2" t="n">
+        <v>73.08</v>
+      </c>
+      <c r="U56" s="2" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="V56" s="2" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="W56" s="2" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="X56" s="2" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>54.35</v>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="AA56" s="2" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/04</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>31.08</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>47.93</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>36.39</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="R57" s="2" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="S57" s="2" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="T57" s="2" t="n">
+        <v>74.53</v>
+      </c>
+      <c r="U57" s="2" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="V57" s="2" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="W57" s="2" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="X57" s="2" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="Y57" s="2" t="n">
+        <v>55.09</v>
+      </c>
+      <c r="Z57" s="2" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="AA57" s="2" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/05</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>47.08</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>48.53</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="Q58" s="2" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="R58" s="2" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="S58" s="2" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="T58" s="2" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="U58" s="2" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="V58" s="2" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="W58" s="2" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="X58" s="2" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>55.72</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AA58" s="2" t="n">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/06</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>48.57</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="P59" s="2" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="R59" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="S59" s="2" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="T59" s="2" t="n">
+        <v>77.16</v>
+      </c>
+      <c r="U59" s="2" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="V59" s="2" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="W59" s="2" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="X59" s="2" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="Y59" s="2" t="n">
+        <v>56.86</v>
+      </c>
+      <c r="Z59" s="2" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="AA59" s="2" t="n">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/07</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>48.11</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>37.58</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="P60" s="2" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="Q60" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="R60" s="2" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="S60" s="2" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="T60" s="2" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="U60" s="2" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="V60" s="2" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="W60" s="2" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="X60" s="2" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="Y60" s="2" t="n">
+        <v>56.19</v>
+      </c>
+      <c r="Z60" s="2" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AA60" s="2" t="n">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/10</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>31.18</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>49.44</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>37.41</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="P61" s="2" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="Q61" s="2" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="R61" s="2" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="S61" s="2" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="T61" s="2" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="U61" s="2" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="V61" s="2" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="W61" s="2" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="X61" s="2" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="Y61" s="2" t="n">
+        <v>56.59</v>
+      </c>
+      <c r="Z61" s="2" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="AA61" s="2" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/11</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>48.13</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="P62" s="2" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="Q62" s="2" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="R62" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="S62" s="2" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="T62" s="2" t="n">
+        <v>74.84999999999999</v>
+      </c>
+      <c r="U62" s="2" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="V62" s="2" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="W62" s="2" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="X62" s="2" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="Y62" s="2" t="n">
+        <v>56.15</v>
+      </c>
+      <c r="Z62" s="2" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="AA62" s="2" t="n">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/12</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>33.08</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>15.83</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>48.23</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>49.68</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="N63" s="2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="P63" s="2" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="Q63" s="2" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="R63" s="2" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="S63" s="2" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="T63" s="2" t="n">
+        <v>74.78</v>
+      </c>
+      <c r="U63" s="2" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="V63" s="2" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="W63" s="2" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="X63" s="2" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="Y63" s="2" t="n">
+        <v>56.34</v>
+      </c>
+      <c r="Z63" s="2" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AA63" s="2" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/13</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>47.09</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>48.51</v>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="L64" s="2" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N64" s="2" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="P64" s="2" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="Q64" s="2" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="R64" s="2" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="S64" s="2" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="T64" s="2" t="n">
+        <v>72.72</v>
+      </c>
+      <c r="U64" s="2" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="V64" s="2" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="W64" s="2" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="X64" s="2" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="Y64" s="2" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="Z64" s="2" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AA64" s="2" t="n">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/14</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>49.68</v>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="L65" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="M65" s="2" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="N65" s="2" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="P65" s="2" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="Q65" s="2" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="R65" s="2" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="S65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="T65" s="2" t="n">
+        <v>74.04000000000001</v>
+      </c>
+      <c r="U65" s="2" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="V65" s="2" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="W65" s="2" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="X65" s="2" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="Y65" s="2" t="n">
+        <v>56.28</v>
+      </c>
+      <c r="Z65" s="2" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="AA65" s="2" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/17</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>50.08</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="M66" s="2" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="N66" s="2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="O66" s="2" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="P66" s="2" t="n">
+        <v>25.27</v>
+      </c>
+      <c r="Q66" s="2" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="R66" s="2" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="S66" s="2" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="T66" s="2" t="n">
+        <v>73.56999999999999</v>
+      </c>
+      <c r="U66" s="2" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="V66" s="2" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="W66" s="2" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="X66" s="2" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="Y66" s="2" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="Z66" s="2" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AA66" s="2" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/18</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="L67" s="2" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="M67" s="2" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="N67" s="2" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="O67" s="2" t="n">
+        <v>32.53</v>
+      </c>
+      <c r="P67" s="2" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="Q67" s="2" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="R67" s="2" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="S67" s="2" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="T67" s="2" t="n">
+        <v>73.98</v>
+      </c>
+      <c r="U67" s="2" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="V67" s="2" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="W67" s="2" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="X67" s="2" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="Y67" s="2" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="Z67" s="2" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="AA67" s="2" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/19</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>33.49</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>50.12</v>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="L68" s="2" t="n">
+        <v>37.08</v>
+      </c>
+      <c r="M68" s="2" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="N68" s="2" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="O68" s="2" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="P68" s="2" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="Q68" s="2" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="R68" s="2" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="S68" s="2" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="T68" s="2" t="n">
+        <v>73.37</v>
+      </c>
+      <c r="U68" s="2" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="V68" s="2" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="W68" s="2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="X68" s="2" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="Y68" s="2" t="n">
+        <v>56.33</v>
+      </c>
+      <c r="Z68" s="2" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="AA68" s="2" t="n">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/20</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>50.06</v>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="L69" s="2" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="M69" s="2" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="N69" s="2" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="O69" s="2" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="P69" s="2" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="Q69" s="2" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="R69" s="2" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="S69" s="2" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="T69" s="2" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="U69" s="2" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="V69" s="2" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="W69" s="2" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="X69" s="2" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="Y69" s="2" t="n">
+        <v>55.95</v>
+      </c>
+      <c r="Z69" s="2" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="AA69" s="2" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/21</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L70" s="2" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="M70" s="2" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="O70" s="2" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="P70" s="2" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="Q70" s="2" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="R70" s="2" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="S70" s="2" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="T70" s="2" t="n">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="U70" s="2" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="V70" s="2" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="W70" s="2" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="X70" s="2" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="Y70" s="2" t="n">
+        <v>54.45</v>
+      </c>
+      <c r="Z70" s="2" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="AA70" s="2" t="n">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/24</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>45.93</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>48.24</v>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="L71" s="2" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="M71" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N71" s="2" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="O71" s="2" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="P71" s="2" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="Q71" s="2" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="R71" s="2" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="S71" s="2" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="T71" s="2" t="n">
+        <v>71.56999999999999</v>
+      </c>
+      <c r="U71" s="2" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="V71" s="2" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="W71" s="2" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="X71" s="2" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="Y71" s="2" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="Z71" s="2" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AA71" s="2" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/25</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>45.35</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>47.37</v>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="L72" s="2" t="n">
+        <v>35.33</v>
+      </c>
+      <c r="M72" s="2" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="N72" s="2" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="O72" s="2" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="P72" s="2" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="Q72" s="2" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="R72" s="2" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="S72" s="2" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="T72" s="2" t="n">
+        <v>70.48</v>
+      </c>
+      <c r="U72" s="2" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="V72" s="2" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="W72" s="2" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="X72" s="2" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="Y72" s="2" t="n">
+        <v>53.82</v>
+      </c>
+      <c r="Z72" s="2" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AA72" s="2" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/26</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>45.61</v>
+      </c>
+      <c r="J73" s="2" t="n">
+        <v>47.99</v>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="L73" s="2" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="M73" s="2" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="N73" s="2" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="O73" s="2" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="P73" s="2" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="Q73" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="R73" s="2" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="S73" s="2" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="T73" s="2" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="U73" s="2" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="V73" s="2" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="W73" s="2" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="X73" s="2" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="Y73" s="2" t="n">
+        <v>53.98</v>
+      </c>
+      <c r="Z73" s="2" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="AA73" s="2" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/27</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>47.72</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="L74" s="2" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="M74" s="2" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="N74" s="2" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="O74" s="2" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="P74" s="2" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="Q74" s="2" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="R74" s="2" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="S74" s="2" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="T74" s="2" t="n">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="U74" s="2" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="V74" s="2" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="W74" s="2" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="X74" s="2" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Y74" s="2" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="Z74" s="2" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AA74" s="2" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025/3/28</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="C75" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="D75" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="E75" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="F75" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="G75" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="H75" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="I75" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="J75" t="n">
+        <v>46.96</v>
+      </c>
+      <c r="K75" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="L75" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="M75" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="N75" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="O75" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="P75" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="R75" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="S75" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="T75" t="n">
+        <v>69.73</v>
+      </c>
+      <c r="U75" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="V75" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="W75" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="X75" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>8.869999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6668,88 +6668,1873 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>2025/3/28</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="2" t="n">
         <v>22.12</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="2" t="n">
         <v>32.56</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>19.69</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75" s="2" t="n">
         <v>21.92</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75" s="2" t="n">
         <v>30.68</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75" s="2" t="n">
         <v>15.97</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75" s="2" t="n">
         <v>25.85</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75" s="2" t="n">
         <v>44.94</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75" s="2" t="n">
         <v>46.96</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75" s="2" t="n">
         <v>21.47</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75" s="2" t="n">
         <v>35.86</v>
       </c>
-      <c r="M75" t="n">
+      <c r="M75" s="2" t="n">
         <v>20.59</v>
       </c>
-      <c r="N75" t="n">
+      <c r="N75" s="2" t="n">
         <v>14.4</v>
       </c>
-      <c r="O75" t="n">
+      <c r="O75" s="2" t="n">
         <v>31.09</v>
       </c>
-      <c r="P75" t="n">
+      <c r="P75" s="2" t="n">
         <v>24.94</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q75" s="2" t="n">
         <v>14.48</v>
       </c>
-      <c r="R75" t="n">
+      <c r="R75" s="2" t="n">
         <v>29.51</v>
       </c>
-      <c r="S75" t="n">
+      <c r="S75" s="2" t="n">
         <v>16.64</v>
       </c>
-      <c r="T75" t="n">
+      <c r="T75" s="2" t="n">
         <v>69.73</v>
       </c>
-      <c r="U75" t="n">
+      <c r="U75" s="2" t="n">
         <v>25.78</v>
       </c>
-      <c r="V75" t="n">
+      <c r="V75" s="2" t="n">
         <v>27.04</v>
       </c>
-      <c r="W75" t="n">
+      <c r="W75" s="2" t="n">
         <v>14.04</v>
       </c>
-      <c r="X75" t="n">
+      <c r="X75" s="2" t="n">
         <v>16.98</v>
       </c>
-      <c r="Y75" t="n">
+      <c r="Y75" s="2" t="n">
         <v>53.8</v>
       </c>
-      <c r="Z75" t="n">
+      <c r="Z75" s="2" t="n">
         <v>7.92</v>
       </c>
-      <c r="AA75" t="n">
+      <c r="AA75" s="2" t="n">
         <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>2025/3/31</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>44.68</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>46.62</v>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="L76" s="2" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="O76" s="2" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="P76" s="2" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="Q76" s="2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="R76" s="2" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="S76" s="2" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="T76" s="2" t="n">
+        <v>69.65000000000001</v>
+      </c>
+      <c r="U76" s="2" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="V76" s="2" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="W76" s="2" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="X76" s="2" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="Y76" s="2" t="n">
+        <v>53.97</v>
+      </c>
+      <c r="Z76" s="2" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AA76" s="2" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/01</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>44.74</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>35.55</v>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="P77" s="2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="Q77" s="2" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="R77" s="2" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="S77" s="2" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="T77" s="2" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="U77" s="2" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="V77" s="2" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="W77" s="2" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="X77" s="2" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="Y77" s="2" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="Z77" s="2" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="AA77" s="2" t="n">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/02</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>44.91</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>47.07</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>29.58</v>
+      </c>
+      <c r="S78" s="2" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="T78" s="2" t="n">
+        <v>69.76000000000001</v>
+      </c>
+      <c r="U78" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="V78" s="2" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="W78" s="2" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="X78" s="2" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="Y78" s="2" t="n">
+        <v>54.11</v>
+      </c>
+      <c r="Z78" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA78" s="2" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/03</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>46.18</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>35.24</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="Q79" s="2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="S79" s="2" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="T79" s="2" t="n">
+        <v>69.62</v>
+      </c>
+      <c r="U79" s="2" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="V79" s="2" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="W79" s="2" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="X79" s="2" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="Y79" s="2" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="Z79" s="2" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="AA79" s="2" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/07</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>38.06</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="P80" s="2" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="Q80" s="2" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="S80" s="2" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T80" s="2" t="n">
+        <v>64.45</v>
+      </c>
+      <c r="U80" s="2" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="V80" s="2" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="W80" s="2" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="X80" s="2" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="Y80" s="2" t="n">
+        <v>46.55</v>
+      </c>
+      <c r="Z80" s="2" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="AA80" s="2" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/08</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>38.23</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="Q81" s="2" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="R81" s="2" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="S81" s="2" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="T81" s="2" t="n">
+        <v>64.31999999999999</v>
+      </c>
+      <c r="U81" s="2" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="V81" s="2" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="W81" s="2" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="X81" s="2" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="Y81" s="2" t="n">
+        <v>45.93</v>
+      </c>
+      <c r="Z81" s="2" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="AA81" s="2" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/09</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="R82" s="2" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="S82" s="2" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="T82" s="2" t="n">
+        <v>67.61</v>
+      </c>
+      <c r="U82" s="2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="V82" s="2" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="W82" s="2" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="X82" s="2" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="Y82" s="2" t="n">
+        <v>47.13</v>
+      </c>
+      <c r="Z82" s="2" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="AA82" s="2" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/10</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="S83" s="2" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="T83" s="2" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="U83" s="2" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="V83" s="2" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="W83" s="2" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="X83" s="2" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="Y83" s="2" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="Z83" s="2" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="AA83" s="2" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/11</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>33.46</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="S84" s="2" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="T84" s="2" t="n">
+        <v>70.97</v>
+      </c>
+      <c r="U84" s="2" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="V84" s="2" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="W84" s="2" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="X84" s="2" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="Y84" s="2" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="Z84" s="2" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="AA84" s="2" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/14</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>43.31</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>28.01</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="S85" s="2" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="T85" s="2" t="n">
+        <v>70.95999999999999</v>
+      </c>
+      <c r="U85" s="2" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="V85" s="2" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="W85" s="2" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="X85" s="2" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="Y85" s="2" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="Z85" s="2" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="AA85" s="2" t="n">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/15</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>43.38</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="S86" s="2" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="T86" s="2" t="n">
+        <v>70.18000000000001</v>
+      </c>
+      <c r="U86" s="2" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="V86" s="2" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="W86" s="2" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="X86" s="2" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="Y86" s="2" t="n">
+        <v>50.42</v>
+      </c>
+      <c r="Z86" s="2" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="AA86" s="2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/16</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>40.76</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>42.57</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="S87" s="2" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="T87" s="2" t="n">
+        <v>71.14</v>
+      </c>
+      <c r="U87" s="2" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="V87" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="W87" s="2" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="X87" s="2" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="Y87" s="2" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="Z87" s="2" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="AA87" s="2" t="n">
+        <v>8.890000000000001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/17</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>42.67</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="S88" s="2" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="T88" s="2" t="n">
+        <v>71.04000000000001</v>
+      </c>
+      <c r="U88" s="2" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="V88" s="2" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="W88" s="2" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="X88" s="2" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="Y88" s="2" t="n">
+        <v>50.08</v>
+      </c>
+      <c r="Z88" s="2" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="AA88" s="2" t="n">
+        <v>8.890000000000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/18</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>40.49</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>42.58</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="S89" s="2" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="T89" s="2" t="n">
+        <v>70.13</v>
+      </c>
+      <c r="U89" s="2" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="V89" s="2" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="W89" s="2" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="X89" s="2" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="Y89" s="2" t="n">
+        <v>50.02</v>
+      </c>
+      <c r="Z89" s="2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA89" s="2" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/21</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>41.33</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>43.84</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="S90" s="2" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="T90" s="2" t="n">
+        <v>70.81</v>
+      </c>
+      <c r="U90" s="2" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="V90" s="2" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="W90" s="2" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="X90" s="2" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="Y90" s="2" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="Z90" s="2" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="AA90" s="2" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/22</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="S91" s="2" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="T91" s="2" t="n">
+        <v>70.56999999999999</v>
+      </c>
+      <c r="U91" s="2" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="V91" s="2" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="W91" s="2" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="X91" s="2" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="Y91" s="2" t="n">
+        <v>50.11</v>
+      </c>
+      <c r="Z91" s="2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA91" s="2" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/23</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>44.54</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>28.29</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="S92" s="2" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="T92" s="2" t="n">
+        <v>70.29000000000001</v>
+      </c>
+      <c r="U92" s="2" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="V92" s="2" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="W92" s="2" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="X92" s="2" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="Y92" s="2" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="Z92" s="2" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="AA92" s="2" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/24</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>44.02</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="S93" s="2" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="T93" s="2" t="n">
+        <v>69.39</v>
+      </c>
+      <c r="U93" s="2" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="V93" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="W93" s="2" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="X93" s="2" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="Y93" s="2" t="n">
+        <v>50.19</v>
+      </c>
+      <c r="Z93" s="2" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="AA93" s="2" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/25</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="S94" s="2" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="T94" s="2" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="U94" s="2" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="V94" s="2" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="W94" s="2" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="X94" s="2" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="Y94" s="2" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="Z94" s="2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA94" s="2" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/28</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>43.42</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="S95" s="2" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="T95" s="2" t="n">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="U95" s="2" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="V95" s="2" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="W95" s="2" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="X95" s="2" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="Y95" s="2" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="Z95" s="2" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="AA95" s="2" t="n">
+        <v>8.949999999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025/4/29</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="C96" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="D96" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="E96" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="F96" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="H96" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="I96" t="n">
+        <v>40.76</v>
+      </c>
+      <c r="J96" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="K96" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="L96" t="n">
+        <v>32.91</v>
+      </c>
+      <c r="M96" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="O96" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="P96" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="R96" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="S96" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="T96" t="n">
+        <v>69.95999999999999</v>
+      </c>
+      <c r="U96" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="V96" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="W96" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="X96" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>8.92</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA96"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -8453,88 +8453,1703 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>2025/4/29</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="2" t="n">
         <v>20.62</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="2" t="n">
         <v>29.52</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>18.39</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96" s="2" t="n">
         <v>20.53</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96" s="2" t="n">
         <v>27.5</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96" s="2" t="n">
         <v>15.14</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96" s="2" t="n">
         <v>23.89</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96" s="2" t="n">
         <v>40.76</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96" s="2" t="n">
         <v>43.85</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96" s="2" t="n">
         <v>19.68</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L96" s="2" t="n">
         <v>32.91</v>
       </c>
-      <c r="M96" t="n">
+      <c r="M96" s="2" t="n">
         <v>19.1</v>
       </c>
-      <c r="N96" t="n">
+      <c r="N96" s="2" t="n">
         <v>13.77</v>
       </c>
-      <c r="O96" t="n">
+      <c r="O96" s="2" t="n">
         <v>28.02</v>
       </c>
-      <c r="P96" t="n">
+      <c r="P96" s="2" t="n">
         <v>22.7</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="Q96" s="2" t="n">
         <v>14.02</v>
       </c>
-      <c r="R96" t="n">
+      <c r="R96" s="2" t="n">
         <v>28.02</v>
       </c>
-      <c r="S96" t="n">
+      <c r="S96" s="2" t="n">
         <v>16.05</v>
       </c>
-      <c r="T96" t="n">
+      <c r="T96" s="2" t="n">
         <v>69.95999999999999</v>
       </c>
-      <c r="U96" t="n">
+      <c r="U96" s="2" t="n">
         <v>23.59</v>
       </c>
-      <c r="V96" t="n">
+      <c r="V96" s="2" t="n">
         <v>24.52</v>
       </c>
-      <c r="W96" t="n">
+      <c r="W96" s="2" t="n">
         <v>13.61</v>
       </c>
-      <c r="X96" t="n">
+      <c r="X96" s="2" t="n">
         <v>16.29</v>
       </c>
-      <c r="Y96" t="n">
+      <c r="Y96" s="2" t="n">
         <v>50.79</v>
       </c>
-      <c r="Z96" t="n">
+      <c r="Z96" s="2" t="n">
         <v>7.93</v>
       </c>
-      <c r="AA96" t="n">
+      <c r="AA96" s="2" t="n">
         <v>8.92</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>2025/4/30</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>41.39</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>44.77</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="S97" s="2" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="T97" s="2" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="U97" s="2" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="V97" s="2" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="W97" s="2" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="X97" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="Y97" s="2" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="Z97" s="2" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AA97" s="2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/06</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>47.89</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="S98" s="2" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="T98" s="2" t="n">
+        <v>77.63</v>
+      </c>
+      <c r="U98" s="2" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="V98" s="2" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="W98" s="2" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="X98" s="2" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="Y98" s="2" t="n">
+        <v>39.89</v>
+      </c>
+      <c r="Z98" s="2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA98" s="2" t="n">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/07</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>27.11</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>48.21</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="P99" s="2" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="S99" s="2" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="T99" s="2" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="U99" s="2" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="V99" s="2" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="W99" s="2" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="X99" s="2" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="Y99" s="2" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="Z99" s="2" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="AA99" s="2" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/08</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>43.77</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>34.56</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="P100" s="2" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="S100" s="2" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="T100" s="2" t="n">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="U100" s="2" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="V100" s="2" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="W100" s="2" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="X100" s="2" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="Y100" s="2" t="n">
+        <v>40.03</v>
+      </c>
+      <c r="Z100" s="2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA100" s="2" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/09</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>43.04</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="P101" s="2" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="S101" s="2" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="T101" s="2" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="U101" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="V101" s="2" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="W101" s="2" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="X101" s="2" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="Y101" s="2" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="Z101" s="2" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="AA101" s="2" t="n">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/12</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>28.28</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>48.57</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="O102" s="2" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="P102" s="2" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="Q102" s="2" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="S102" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T102" s="2" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="U102" s="2" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="V102" s="2" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="W102" s="2" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="X102" s="2" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="Y102" s="2" t="n">
+        <v>40.01</v>
+      </c>
+      <c r="Z102" s="2" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="AA102" s="2" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/13</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>48.41</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>34.46</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="N103" s="2" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="P103" s="2" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Q103" s="2" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="S103" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T103" s="2" t="n">
+        <v>74.62</v>
+      </c>
+      <c r="U103" s="2" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="V103" s="2" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="W103" s="2" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="X103" s="2" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="Y103" s="2" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="Z103" s="2" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="AA103" s="2" t="n">
+        <v>9.039999999999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/14</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>43.76</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>48.41</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>34.86</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="O104" s="2" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="P104" s="2" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="Q104" s="2" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="S104" s="2" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="T104" s="2" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="U104" s="2" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="V104" s="2" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="W104" s="2" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="X104" s="2" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="Y104" s="2" t="n">
+        <v>42.93</v>
+      </c>
+      <c r="Z104" s="2" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AA104" s="2" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/15</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="N105" s="2" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="O105" s="2" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="P105" s="2" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="Q105" s="2" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="S105" s="2" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="T105" s="2" t="n">
+        <v>73.63</v>
+      </c>
+      <c r="U105" s="2" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="V105" s="2" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="W105" s="2" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="X105" s="2" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="Y105" s="2" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="Z105" s="2" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AA105" s="2" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/16</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="N106" s="2" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="P106" s="2" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="Q106" s="2" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="S106" s="2" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="T106" s="2" t="n">
+        <v>73.27</v>
+      </c>
+      <c r="U106" s="2" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="V106" s="2" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="W106" s="2" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="X106" s="2" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="Y106" s="2" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="Z106" s="2" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="AA106" s="2" t="n">
+        <v>9.039999999999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/19</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="P107" s="2" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="S107" s="2" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="T107" s="2" t="n">
+        <v>73.66</v>
+      </c>
+      <c r="U107" s="2" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="V107" s="2" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="W107" s="2" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="X107" s="2" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="Y107" s="2" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="Z107" s="2" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AA107" s="2" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/20</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>48.26</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="S108" s="2" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="T108" s="2" t="n">
+        <v>73.81</v>
+      </c>
+      <c r="U108" s="2" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="V108" s="2" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="W108" s="2" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="X108" s="2" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="Y108" s="2" t="n">
+        <v>42.13</v>
+      </c>
+      <c r="Z108" s="2" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="AA108" s="2" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/21</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>43.14</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>47.68</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="P109" s="2" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="S109" s="2" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="T109" s="2" t="n">
+        <v>72.95999999999999</v>
+      </c>
+      <c r="U109" s="2" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="V109" s="2" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="W109" s="2" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="X109" s="2" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="Y109" s="2" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="Z109" s="2" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AA109" s="2" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/22</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>42.63</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="P110" s="2" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="S110" s="2" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="T110" s="2" t="n">
+        <v>72.65000000000001</v>
+      </c>
+      <c r="U110" s="2" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="V110" s="2" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="W110" s="2" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="X110" s="2" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="Y110" s="2" t="n">
+        <v>41.56</v>
+      </c>
+      <c r="Z110" s="2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA110" s="2" t="n">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/23</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>42.05</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>46.59</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="P111" s="2" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="S111" s="2" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="T111" s="2" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="U111" s="2" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="V111" s="2" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="W111" s="2" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="X111" s="2" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="Y111" s="2" t="n">
+        <v>40.97</v>
+      </c>
+      <c r="Z111" s="2" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AA111" s="2" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/26</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>42.64</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>47.13</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="N112" s="2" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="P112" s="2" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="Q112" s="2" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="S112" s="2" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="T112" s="2" t="n">
+        <v>72.16</v>
+      </c>
+      <c r="U112" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="V112" s="2" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="W112" s="2" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="X112" s="2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="Y112" s="2" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="Z112" s="2" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="AA112" s="2" t="n">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/27</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>42.64</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>47.13</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="P113" s="2" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="S113" s="2" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="T113" s="2" t="n">
+        <v>72.16</v>
+      </c>
+      <c r="U113" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="V113" s="2" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="W113" s="2" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="X113" s="2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="Y113" s="2" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="Z113" s="2" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="AA113" s="2" t="n">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/28</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>42.24</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="N114" s="2" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="P114" s="2" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="Q114" s="2" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="R114" s="2" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="S114" s="2" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="T114" s="2" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="U114" s="2" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="V114" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="W114" s="2" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="X114" s="2" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="Y114" s="2" t="n">
+        <v>40.83</v>
+      </c>
+      <c r="Z114" s="2" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="AA114" s="2" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025/5/29</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="C115" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="D115" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="E115" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="F115" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="G115" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="H115" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="I115" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="J115" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="K115" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="L115" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="M115" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="N115" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="O115" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="P115" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="R115" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="S115" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="T115" t="n">
+        <v>71.89</v>
+      </c>
+      <c r="U115" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="V115" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="W115" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="X115" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>8.98</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -10068,88 +10068,1788 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>2025/5/29</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="2" t="n">
         <v>20.22</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="2" t="n">
         <v>27.37</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>17.65</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" s="2" t="n">
         <v>18.58</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115" s="2" t="n">
         <v>27.19</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115" s="2" t="n">
         <v>14.57</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115" s="2" t="n">
         <v>23.6</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115" s="2" t="n">
         <v>43.27</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115" s="2" t="n">
         <v>47.52</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115" s="2" t="n">
         <v>19.55</v>
       </c>
-      <c r="L115" t="n">
+      <c r="L115" s="2" t="n">
         <v>33.5</v>
       </c>
-      <c r="M115" t="n">
+      <c r="M115" s="2" t="n">
         <v>17.98</v>
       </c>
-      <c r="N115" t="n">
+      <c r="N115" s="2" t="n">
         <v>13.12</v>
       </c>
-      <c r="O115" t="n">
+      <c r="O115" s="2" t="n">
         <v>26.82</v>
       </c>
-      <c r="P115" t="n">
+      <c r="P115" s="2" t="n">
         <v>21.57</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="Q115" s="2" t="n">
         <v>13.93</v>
       </c>
-      <c r="R115" t="n">
+      <c r="R115" s="2" t="n">
         <v>29.76</v>
       </c>
-      <c r="S115" t="n">
+      <c r="S115" s="2" t="n">
         <v>16.2</v>
       </c>
-      <c r="T115" t="n">
+      <c r="T115" s="2" t="n">
         <v>71.89</v>
       </c>
-      <c r="U115" t="n">
+      <c r="U115" s="2" t="n">
         <v>27.66</v>
       </c>
-      <c r="V115" t="n">
+      <c r="V115" s="2" t="n">
         <v>22.58</v>
       </c>
-      <c r="W115" t="n">
+      <c r="W115" s="2" t="n">
         <v>13.51</v>
       </c>
-      <c r="X115" t="n">
+      <c r="X115" s="2" t="n">
         <v>15.84</v>
       </c>
-      <c r="Y115" t="n">
+      <c r="Y115" s="2" t="n">
         <v>41.43</v>
       </c>
-      <c r="Z115" t="n">
+      <c r="Z115" s="2" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="AA115" t="n">
+      <c r="AA115" s="2" t="n">
         <v>8.98</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2025/5/30</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>46.65</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="N116" s="2" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="P116" s="2" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="Q116" s="2" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="R116" s="2" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="S116" s="2" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="T116" s="2" t="n">
+        <v>70.84999999999999</v>
+      </c>
+      <c r="U116" s="2" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="V116" s="2" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="W116" s="2" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="X116" s="2" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="Y116" s="2" t="n">
+        <v>41.03</v>
+      </c>
+      <c r="Z116" s="2" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AA116" s="2" t="n">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/03</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>46.65</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="O117" s="2" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="S117" s="2" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="T117" s="2" t="n">
+        <v>70.84999999999999</v>
+      </c>
+      <c r="U117" s="2" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="V117" s="2" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="W117" s="2" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="X117" s="2" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="Y117" s="2" t="n">
+        <v>41.03</v>
+      </c>
+      <c r="Z117" s="2" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AA117" s="2" t="n">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/04</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>43.54</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>47.72</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="N118" s="2" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="O118" s="2" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="P118" s="2" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="Q118" s="2" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="S118" s="2" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="T118" s="2" t="n">
+        <v>71.62</v>
+      </c>
+      <c r="U118" s="2" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="V118" s="2" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="W118" s="2" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="X118" s="2" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="Y118" s="2" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="Z118" s="2" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="AA118" s="2" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/05</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>43.93</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="O119" s="2" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="S119" s="2" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="T119" s="2" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="U119" s="2" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="V119" s="2" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="W119" s="2" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="X119" s="2" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="Y119" s="2" t="n">
+        <v>42.83</v>
+      </c>
+      <c r="Z119" s="2" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="AA119" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/06</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>48.05</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>34.17</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="S120" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T120" s="2" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="U120" s="2" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="V120" s="2" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="W120" s="2" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="X120" s="2" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="Y120" s="2" t="n">
+        <v>42.91</v>
+      </c>
+      <c r="Z120" s="2" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AA120" s="2" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/09</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>34.56</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="N121" s="2" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="P121" s="2" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="Q121" s="2" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="S121" s="2" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="T121" s="2" t="n">
+        <v>72.51000000000001</v>
+      </c>
+      <c r="U121" s="2" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="V121" s="2" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="W121" s="2" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="X121" s="2" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="Y121" s="2" t="n">
+        <v>43.23</v>
+      </c>
+      <c r="Z121" s="2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA121" s="2" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/10</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>48.32</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="N122" s="2" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="P122" s="2" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="Q122" s="2" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="S122" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T122" s="2" t="n">
+        <v>72.51000000000001</v>
+      </c>
+      <c r="U122" s="2" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="V122" s="2" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="W122" s="2" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="X122" s="2" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="Y122" s="2" t="n">
+        <v>43.23</v>
+      </c>
+      <c r="Z122" s="2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA122" s="2" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/11</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="R123" s="2" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="S123" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="T123" s="2" t="n">
+        <v>70.93000000000001</v>
+      </c>
+      <c r="U123" s="2" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="V123" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="W123" s="2" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="X123" s="2" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="Y123" s="2" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="Z123" s="2" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="AA123" s="2" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/12</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>44.02</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="O124" s="2" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="P124" s="2" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="R124" s="2" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="S124" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="T124" s="2" t="n">
+        <v>70.39</v>
+      </c>
+      <c r="U124" s="2" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="V124" s="2" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="W124" s="2" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="X124" s="2" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="Y124" s="2" t="n">
+        <v>43.04</v>
+      </c>
+      <c r="Z124" s="2" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="AA124" s="2" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/13</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="Q125" s="2" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="S125" s="2" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="T125" s="2" t="n">
+        <v>70.39</v>
+      </c>
+      <c r="U125" s="2" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="V125" s="2" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="W125" s="2" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="X125" s="2" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="Y125" s="2" t="n">
+        <v>43.04</v>
+      </c>
+      <c r="Z125" s="2" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="AA125" s="2" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/16</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>47.53</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="S126" s="2" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="T126" s="2" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="U126" s="2" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="V126" s="2" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="W126" s="2" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="X126" s="2" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="Y126" s="2" t="n">
+        <v>43.28</v>
+      </c>
+      <c r="Z126" s="2" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AA126" s="2" t="n">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/17</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>47.59</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="S127" s="2" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="T127" s="2" t="n">
+        <v>71.22</v>
+      </c>
+      <c r="U127" s="2" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="V127" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="W127" s="2" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="X127" s="2" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="Y127" s="2" t="n">
+        <v>43.15</v>
+      </c>
+      <c r="Z127" s="2" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="AA127" s="2" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/18</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>43.21</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="S128" s="2" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="T128" s="2" t="n">
+        <v>71.56999999999999</v>
+      </c>
+      <c r="U128" s="2" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="V128" s="2" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="W128" s="2" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="X128" s="2" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="Y128" s="2" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="Z128" s="2" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AA128" s="2" t="n">
+        <v>9.289999999999999</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/19</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>46.72</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="S129" s="2" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="T129" s="2" t="n">
+        <v>71.55</v>
+      </c>
+      <c r="U129" s="2" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="V129" s="2" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="W129" s="2" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="X129" s="2" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="Y129" s="2" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="Z129" s="2" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="AA129" s="2" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/20</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>42.09</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>46.29</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="N130" s="2" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="Q130" s="2" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="R130" s="2" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="S130" s="2" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="T130" s="2" t="n">
+        <v>71.14</v>
+      </c>
+      <c r="U130" s="2" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="V130" s="2" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="W130" s="2" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="X130" s="2" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="Y130" s="2" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="Z130" s="2" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="AA130" s="2" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/23</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>42.83</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="R131" s="2" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="S131" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="T131" s="2" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="U131" s="2" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="V131" s="2" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="W131" s="2" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="X131" s="2" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="Y131" s="2" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="Z131" s="2" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="AA131" s="2" t="n">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/24</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>43.96</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>33.43</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="Q132" s="2" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="R132" s="2" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="S132" s="2" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="T132" s="2" t="n">
+        <v>73.34</v>
+      </c>
+      <c r="U132" s="2" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="V132" s="2" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="W132" s="2" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="X132" s="2" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="Y132" s="2" t="n">
+        <v>43.84</v>
+      </c>
+      <c r="Z132" s="2" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="AA132" s="2" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/25</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>44.53</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>49.19</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="N133" s="2" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="P133" s="2" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="Q133" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="R133" s="2" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="S133" s="2" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="T133" s="2" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="U133" s="2" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="V133" s="2" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="W133" s="2" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="X133" s="2" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="Y133" s="2" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="Z133" s="2" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="AA133" s="2" t="n">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/26</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>44.42</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>34.34</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="N134" s="2" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="P134" s="2" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="Q134" s="2" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="R134" s="2" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="S134" s="2" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="T134" s="2" t="n">
+        <v>74.05</v>
+      </c>
+      <c r="U134" s="2" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="V134" s="2" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="W134" s="2" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="X134" s="2" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="Y134" s="2" t="n">
+        <v>44.83</v>
+      </c>
+      <c r="Z134" s="2" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="AA134" s="2" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025/6/27</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="D135" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="E135" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="F135" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="G135" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="H135" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>44.63</v>
+      </c>
+      <c r="J135" t="n">
+        <v>49.19</v>
+      </c>
+      <c r="K135" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="L135" t="n">
+        <v>34.63</v>
+      </c>
+      <c r="M135" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="N135" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="O135" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="P135" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="R135" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="S135" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="T135" t="n">
+        <v>73.84999999999999</v>
+      </c>
+      <c r="U135" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="V135" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="W135" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="X135" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>45.28</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>9.56</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA135"/>
+  <dimension ref="A1:AA158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -11768,88 +11768,2043 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="2" t="inlineStr">
         <is>
           <t>2025/6/27</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="2" t="n">
         <v>20.8</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="2" t="n">
         <v>29.12</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>18.16</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135" s="2" t="n">
         <v>18.44</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135" s="2" t="n">
         <v>28.86</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135" s="2" t="n">
         <v>14.95</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135" s="2" t="n">
         <v>24.1</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I135" s="2" t="n">
         <v>44.63</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135" s="2" t="n">
         <v>49.19</v>
       </c>
-      <c r="K135" t="n">
+      <c r="K135" s="2" t="n">
         <v>20.35</v>
       </c>
-      <c r="L135" t="n">
+      <c r="L135" s="2" t="n">
         <v>34.63</v>
       </c>
-      <c r="M135" t="n">
+      <c r="M135" s="2" t="n">
         <v>17.92</v>
       </c>
-      <c r="N135" t="n">
+      <c r="N135" s="2" t="n">
         <v>14.19</v>
       </c>
-      <c r="O135" t="n">
+      <c r="O135" s="2" t="n">
         <v>29.14</v>
       </c>
-      <c r="P135" t="n">
+      <c r="P135" s="2" t="n">
         <v>20.25</v>
       </c>
-      <c r="Q135" t="n">
+      <c r="Q135" s="2" t="n">
         <v>14.4</v>
       </c>
-      <c r="R135" t="n">
+      <c r="R135" s="2" t="n">
         <v>30.85</v>
       </c>
-      <c r="S135" t="n">
+      <c r="S135" s="2" t="n">
         <v>16.63</v>
       </c>
-      <c r="T135" t="n">
+      <c r="T135" s="2" t="n">
         <v>73.84999999999999</v>
       </c>
-      <c r="U135" t="n">
+      <c r="U135" s="2" t="n">
         <v>27.67</v>
       </c>
-      <c r="V135" t="n">
+      <c r="V135" s="2" t="n">
         <v>22.62</v>
       </c>
-      <c r="W135" t="n">
+      <c r="W135" s="2" t="n">
         <v>13.86</v>
       </c>
-      <c r="X135" t="n">
+      <c r="X135" s="2" t="n">
         <v>14.69</v>
       </c>
-      <c r="Y135" t="n">
+      <c r="Y135" s="2" t="n">
         <v>45.28</v>
       </c>
-      <c r="Z135" t="n">
+      <c r="Z135" s="2" t="n">
         <v>8.56</v>
       </c>
-      <c r="AA135" t="n">
+      <c r="AA135" s="2" t="n">
         <v>9.56</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2025/6/30</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>45.41</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="N136" s="2" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="P136" s="2" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="Q136" s="2" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="R136" s="2" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="S136" s="2" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="T136" s="2" t="n">
+        <v>74.91</v>
+      </c>
+      <c r="U136" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="V136" s="2" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="W136" s="2" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="X136" s="2" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="Y136" s="2" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="Z136" s="2" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AA136" s="2" t="n">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/01</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>50.04</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>34.97</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="N137" s="2" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="P137" s="2" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="R137" s="2" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="S137" s="2" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="T137" s="2" t="n">
+        <v>74.08</v>
+      </c>
+      <c r="U137" s="2" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="V137" s="2" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="W137" s="2" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="X137" s="2" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="Y137" s="2" t="n">
+        <v>45.94</v>
+      </c>
+      <c r="Z137" s="2" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AA137" s="2" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/02</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>49.33</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="N138" s="2" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="P138" s="2" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="Q138" s="2" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="R138" s="2" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="S138" s="2" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="T138" s="2" t="n">
+        <v>72.67</v>
+      </c>
+      <c r="U138" s="2" t="n">
+        <v>28.47</v>
+      </c>
+      <c r="V138" s="2" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="W138" s="2" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="X138" s="2" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="Y138" s="2" t="n">
+        <v>45.09</v>
+      </c>
+      <c r="Z138" s="2" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="AA138" s="2" t="n">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/03</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>44.82</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>34.89</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="N139" s="2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="R139" s="2" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="S139" s="2" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="T139" s="2" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="U139" s="2" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="V139" s="2" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="W139" s="2" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="X139" s="2" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="Y139" s="2" t="n">
+        <v>45.64</v>
+      </c>
+      <c r="Z139" s="2" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AA139" s="2" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/04</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>44.43</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>49.26</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="N140" s="2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="P140" s="2" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="Q140" s="2" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="R140" s="2" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="S140" s="2" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="T140" s="2" t="n">
+        <v>72.97</v>
+      </c>
+      <c r="U140" s="2" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="V140" s="2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="W140" s="2" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="X140" s="2" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="Y140" s="2" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="Z140" s="2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA140" s="2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/07</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>44.61</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>49.61</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="N141" s="2" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="P141" s="2" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="Q141" s="2" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="R141" s="2" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="S141" s="2" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="T141" s="2" t="n">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="U141" s="2" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="V141" s="2" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="W141" s="2" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="X141" s="2" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="Y141" s="2" t="n">
+        <v>45.16</v>
+      </c>
+      <c r="Z141" s="2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA141" s="2" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/08</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>50.45</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="N142" s="2" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="P142" s="2" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="Q142" s="2" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="R142" s="2" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="S142" s="2" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="T142" s="2" t="n">
+        <v>73.54000000000001</v>
+      </c>
+      <c r="U142" s="2" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="V142" s="2" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="W142" s="2" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="X142" s="2" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="Y142" s="2" t="n">
+        <v>46.26</v>
+      </c>
+      <c r="Z142" s="2" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="AA142" s="2" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/09</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>45.37</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="N143" s="2" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="P143" s="2" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="Q143" s="2" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="R143" s="2" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="S143" s="2" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="T143" s="2" t="n">
+        <v>72.78</v>
+      </c>
+      <c r="U143" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="V143" s="2" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="W143" s="2" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="X143" s="2" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="Y143" s="2" t="n">
+        <v>45.81</v>
+      </c>
+      <c r="Z143" s="2" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="AA143" s="2" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/10</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>45.31</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>50.09</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>35.17</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="N144" s="2" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="O144" s="2" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="P144" s="2" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="Q144" s="2" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>31.48</v>
+      </c>
+      <c r="S144" s="2" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="T144" s="2" t="n">
+        <v>72.37</v>
+      </c>
+      <c r="U144" s="2" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="V144" s="2" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="W144" s="2" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="X144" s="2" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="Y144" s="2" t="n">
+        <v>45.72</v>
+      </c>
+      <c r="Z144" s="2" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="AA144" s="2" t="n">
+        <v>9.859999999999999</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/11</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>45.76</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>30.32</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="S145" s="2" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="T145" s="2" t="n">
+        <v>73.63</v>
+      </c>
+      <c r="U145" s="2" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="V145" s="2" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="W145" s="2" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="X145" s="2" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="Y145" s="2" t="n">
+        <v>46.04</v>
+      </c>
+      <c r="Z145" s="2" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="AA145" s="2" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/14</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>45.64</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>50.52</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="N146" s="2" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="P146" s="2" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="Q146" s="2" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="R146" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="S146" s="2" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="T146" s="2" t="n">
+        <v>73.23999999999999</v>
+      </c>
+      <c r="U146" s="2" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="V146" s="2" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="W146" s="2" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="X146" s="2" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="Y146" s="2" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="Z146" s="2" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="AA146" s="2" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/15</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>45.74</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>50.53</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>36.33</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="N147" s="2" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="S147" s="2" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="T147" s="2" t="n">
+        <v>73.13</v>
+      </c>
+      <c r="U147" s="2" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="V147" s="2" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="W147" s="2" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="X147" s="2" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="Y147" s="2" t="n">
+        <v>47.34</v>
+      </c>
+      <c r="Z147" s="2" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="AA147" s="2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/16</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>45.91</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="N148" s="2" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="O148" s="2" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="P148" s="2" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="S148" s="2" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="T148" s="2" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="U148" s="2" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="V148" s="2" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="W148" s="2" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="X148" s="2" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="Y148" s="2" t="n">
+        <v>47.37</v>
+      </c>
+      <c r="Z148" s="2" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="AA148" s="2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/17</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>51.44</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="N149" s="2" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="S149" s="2" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="T149" s="2" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="U149" s="2" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="V149" s="2" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="W149" s="2" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="X149" s="2" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="Y149" s="2" t="n">
+        <v>48.53</v>
+      </c>
+      <c r="Z149" s="2" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="AA149" s="2" t="n">
+        <v>9.710000000000001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/18</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>30.93</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>46.33</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>51.38</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>36.97</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="N150" s="2" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="O150" s="2" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="P150" s="2" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="S150" s="2" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="T150" s="2" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="U150" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="V150" s="2" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="W150" s="2" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="X150" s="2" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="Y150" s="2" t="n">
+        <v>48.49</v>
+      </c>
+      <c r="Z150" s="2" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="AA150" s="2" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/21</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>46.59</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>51.87</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="S151" s="2" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="T151" s="2" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="U151" s="2" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="V151" s="2" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="W151" s="2" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="X151" s="2" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="Y151" s="2" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="Z151" s="2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA151" s="2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/22</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>46.69</v>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="N152" s="2" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="P152" s="2" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="Q152" s="2" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="R152" s="2" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="S152" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="T152" s="2" t="n">
+        <v>74.31999999999999</v>
+      </c>
+      <c r="U152" s="2" t="n">
+        <v>31.01</v>
+      </c>
+      <c r="V152" s="2" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="W152" s="2" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="X152" s="2" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="Y152" s="2" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="Z152" s="2" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AA152" s="2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/23</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>46.36</v>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>51.46</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="N153" s="2" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="O153" s="2" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="S153" s="2" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="T153" s="2" t="n">
+        <v>75.04000000000001</v>
+      </c>
+      <c r="U153" s="2" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="V153" s="2" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="W153" s="2" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="X153" s="2" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="Y153" s="2" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="Z153" s="2" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="AA153" s="2" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/24</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>46.85</v>
+      </c>
+      <c r="J154" s="2" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="K154" s="2" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L154" s="2" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="M154" s="2" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="N154" s="2" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="O154" s="2" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="P154" s="2" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="Q154" s="2" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="R154" s="2" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="S154" s="2" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="T154" s="2" t="n">
+        <v>76.03</v>
+      </c>
+      <c r="U154" s="2" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="V154" s="2" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="W154" s="2" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="X154" s="2" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="Y154" s="2" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="Z154" s="2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA154" s="2" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/25</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>46.85</v>
+      </c>
+      <c r="J155" s="2" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="K155" s="2" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="L155" s="2" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="M155" s="2" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="N155" s="2" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="O155" s="2" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="P155" s="2" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="Q155" s="2" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="R155" s="2" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="S155" s="2" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="T155" s="2" t="n">
+        <v>76.03</v>
+      </c>
+      <c r="U155" s="2" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="V155" s="2" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="W155" s="2" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="X155" s="2" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="Y155" s="2" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="Z155" s="2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA155" s="2" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/28</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>32.04</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>47.64</v>
+      </c>
+      <c r="J156" s="2" t="n">
+        <v>52.79</v>
+      </c>
+      <c r="K156" s="2" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="L156" s="2" t="n">
+        <v>37.81</v>
+      </c>
+      <c r="M156" s="2" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="N156" s="2" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="O156" s="2" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="P156" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="Q156" s="2" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="R156" s="2" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="S156" s="2" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="T156" s="2" t="n">
+        <v>77.81</v>
+      </c>
+      <c r="U156" s="2" t="n">
+        <v>33.06</v>
+      </c>
+      <c r="V156" s="2" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="W156" s="2" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="X156" s="2" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="Y156" s="2" t="n">
+        <v>50.26</v>
+      </c>
+      <c r="Z156" s="2" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="AA156" s="2" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/29</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="J157" s="2" t="n">
+        <v>53.08</v>
+      </c>
+      <c r="K157" s="2" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="L157" s="2" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="M157" s="2" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="N157" s="2" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="O157" s="2" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="P157" s="2" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="Q157" s="2" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="R157" s="2" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="S157" s="2" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="T157" s="2" t="n">
+        <v>79.08</v>
+      </c>
+      <c r="U157" s="2" t="n">
+        <v>34.33</v>
+      </c>
+      <c r="V157" s="2" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="W157" s="2" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="X157" s="2" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="Y157" s="2" t="n">
+        <v>51.31</v>
+      </c>
+      <c r="Z157" s="2" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="AA157" s="2" t="n">
+        <v>9.609999999999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025/7/30</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="C158" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="D158" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="E158" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="F158" t="n">
+        <v>32.17</v>
+      </c>
+      <c r="G158" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="H158" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="I158" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="J158" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="K158" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="L158" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="N158" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="O158" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="P158" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="R158" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="S158" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="T158" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="U158" t="n">
+        <v>34.31</v>
+      </c>
+      <c r="V158" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="W158" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="X158" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA158"/>
+  <dimension ref="A1:AA180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -13723,88 +13723,1958 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="A158" s="2" t="inlineStr">
         <is>
           <t>2025/7/30</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="2" t="n">
         <v>22.39</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="2" t="n">
         <v>32.05</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>19.53</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158" s="2" t="n">
         <v>19.75</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158" s="2" t="n">
         <v>32.17</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158" s="2" t="n">
         <v>15.73</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H158" s="2" t="n">
         <v>25.76</v>
       </c>
-      <c r="I158" t="n">
+      <c r="I158" s="2" t="n">
         <v>47.43</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J158" s="2" t="n">
         <v>52.32</v>
       </c>
-      <c r="K158" t="n">
+      <c r="K158" s="2" t="n">
         <v>22.02</v>
       </c>
-      <c r="L158" t="n">
+      <c r="L158" s="2" t="n">
         <v>38.2</v>
       </c>
-      <c r="M158" t="n">
+      <c r="M158" s="2" t="n">
         <v>18.78</v>
       </c>
-      <c r="N158" t="n">
+      <c r="N158" s="2" t="n">
         <v>14.85</v>
       </c>
-      <c r="O158" t="n">
+      <c r="O158" s="2" t="n">
         <v>32.36</v>
       </c>
-      <c r="P158" t="n">
+      <c r="P158" s="2" t="n">
         <v>22.11</v>
       </c>
-      <c r="Q158" t="n">
+      <c r="Q158" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="R158" t="n">
+      <c r="R158" s="2" t="n">
         <v>33.01</v>
       </c>
-      <c r="S158" t="n">
+      <c r="S158" s="2" t="n">
         <v>17.65</v>
       </c>
-      <c r="T158" t="n">
+      <c r="T158" s="2" t="n">
         <v>78.26000000000001</v>
       </c>
-      <c r="U158" t="n">
+      <c r="U158" s="2" t="n">
         <v>34.31</v>
       </c>
-      <c r="V158" t="n">
+      <c r="V158" s="2" t="n">
         <v>23.95</v>
       </c>
-      <c r="W158" t="n">
+      <c r="W158" s="2" t="n">
         <v>14.63</v>
       </c>
-      <c r="X158" t="n">
+      <c r="X158" s="2" t="n">
         <v>15.67</v>
       </c>
-      <c r="Y158" t="n">
+      <c r="Y158" s="2" t="n">
         <v>50.85</v>
       </c>
-      <c r="Z158" t="n">
+      <c r="Z158" s="2" t="n">
         <v>8.65</v>
       </c>
-      <c r="AA158" t="n">
+      <c r="AA158" s="2" t="n">
         <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>2025/7/31</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="I159" s="2" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="J159" s="2" t="n">
+        <v>52.02</v>
+      </c>
+      <c r="K159" s="2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L159" s="2" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="M159" s="2" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="N159" s="2" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="O159" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="P159" s="2" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="Q159" s="2" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="R159" s="2" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="S159" s="2" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="T159" s="2" t="n">
+        <v>77.19</v>
+      </c>
+      <c r="U159" s="2" t="n">
+        <v>33.86</v>
+      </c>
+      <c r="V159" s="2" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="W159" s="2" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="X159" s="2" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="Y159" s="2" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="Z159" s="2" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="AA159" s="2" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/01</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>47.33</v>
+      </c>
+      <c r="J160" s="2" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="K160" s="2" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="L160" s="2" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="M160" s="2" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="N160" s="2" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="O160" s="2" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="P160" s="2" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="Q160" s="2" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="R160" s="2" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="S160" s="2" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="T160" s="2" t="n">
+        <v>76.28</v>
+      </c>
+      <c r="U160" s="2" t="n">
+        <v>33.43</v>
+      </c>
+      <c r="V160" s="2" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="W160" s="2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="X160" s="2" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="Y160" s="2" t="n">
+        <v>49.98</v>
+      </c>
+      <c r="Z160" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA160" s="2" t="n">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/04</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="I161" s="2" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="J161" s="2" t="n">
+        <v>53.01</v>
+      </c>
+      <c r="K161" s="2" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="L161" s="2" t="n">
+        <v>37.72</v>
+      </c>
+      <c r="M161" s="2" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="N161" s="2" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="O161" s="2" t="n">
+        <v>31.74</v>
+      </c>
+      <c r="P161" s="2" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="Q161" s="2" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="R161" s="2" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="S161" s="2" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="T161" s="2" t="n">
+        <v>77.03</v>
+      </c>
+      <c r="U161" s="2" t="n">
+        <v>33.34</v>
+      </c>
+      <c r="V161" s="2" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="W161" s="2" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="X161" s="2" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="Y161" s="2" t="n">
+        <v>50.49</v>
+      </c>
+      <c r="Z161" s="2" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AA161" s="2" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/05</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="I162" s="2" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="J162" s="2" t="n">
+        <v>53.56</v>
+      </c>
+      <c r="K162" s="2" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="L162" s="2" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="M162" s="2" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="N162" s="2" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="O162" s="2" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="P162" s="2" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="Q162" s="2" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="R162" s="2" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="S162" s="2" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="T162" s="2" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="U162" s="2" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="V162" s="2" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="W162" s="2" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="X162" s="2" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="Y162" s="2" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="Z162" s="2" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AA162" s="2" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/06</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="G163" s="2" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I163" s="2" t="n">
+        <v>49.05</v>
+      </c>
+      <c r="J163" s="2" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="K163" s="2" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="L163" s="2" t="n">
+        <v>38.16</v>
+      </c>
+      <c r="M163" s="2" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="N163" s="2" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="O163" s="2" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="P163" s="2" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="Q163" s="2" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="R163" s="2" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="S163" s="2" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="T163" s="2" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="U163" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="V163" s="2" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="W163" s="2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="X163" s="2" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="Y163" s="2" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="Z163" s="2" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="AA163" s="2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/07</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="I164" s="2" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="J164" s="2" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="K164" s="2" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="L164" s="2" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="M164" s="2" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="N164" s="2" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="O164" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="P164" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="Q164" s="2" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="R164" s="2" t="n">
+        <v>33.86</v>
+      </c>
+      <c r="S164" s="2" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="T164" s="2" t="n">
+        <v>77.63</v>
+      </c>
+      <c r="U164" s="2" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="V164" s="2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="W164" s="2" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="X164" s="2" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="Y164" s="2" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="Z164" s="2" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="AA164" s="2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/08</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="G165" s="2" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="H165" s="2" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="I165" s="2" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="J165" s="2" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K165" s="2" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="L165" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="M165" s="2" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="N165" s="2" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="O165" s="2" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="P165" s="2" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="Q165" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="R165" s="2" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="S165" s="2" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="T165" s="2" t="n">
+        <v>76.41</v>
+      </c>
+      <c r="U165" s="2" t="n">
+        <v>32.64</v>
+      </c>
+      <c r="V165" s="2" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="W165" s="2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="X165" s="2" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="Y165" s="2" t="n">
+        <v>65.47</v>
+      </c>
+      <c r="Z165" s="2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA165" s="2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/11</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="G166" s="2" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="H166" s="2" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="I166" s="2" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="J166" s="2" t="n">
+        <v>54.74</v>
+      </c>
+      <c r="K166" s="2" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="L166" s="2" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="M166" s="2" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="N166" s="2" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="O166" s="2" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="P166" s="2" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="Q166" s="2" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="R166" s="2" t="n">
+        <v>34.29</v>
+      </c>
+      <c r="S166" s="2" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="T166" s="2" t="n">
+        <v>76.76000000000001</v>
+      </c>
+      <c r="U166" s="2" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="V166" s="2" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="W166" s="2" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="X166" s="2" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="Y166" s="2" t="n">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="Z166" s="2" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AA166" s="2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/12</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="G167" s="2" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="I167" s="2" t="n">
+        <v>50.31</v>
+      </c>
+      <c r="J167" s="2" t="n">
+        <v>55.08</v>
+      </c>
+      <c r="K167" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="L167" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="M167" s="2" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="N167" s="2" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="O167" s="2" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="P167" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="Q167" s="2" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="R167" s="2" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="S167" s="2" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="T167" s="2" t="n">
+        <v>79.38</v>
+      </c>
+      <c r="U167" s="2" t="n">
+        <v>33.07</v>
+      </c>
+      <c r="V167" s="2" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="W167" s="2" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="X167" s="2" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="Y167" s="2" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="Z167" s="2" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="AA167" s="2" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/13</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>33.78</v>
+      </c>
+      <c r="G168" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="I168" s="2" t="n">
+        <v>51.08</v>
+      </c>
+      <c r="J168" s="2" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="K168" s="2" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="L168" s="2" t="n">
+        <v>40.39</v>
+      </c>
+      <c r="M168" s="2" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="N168" s="2" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="O168" s="2" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="P168" s="2" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="Q168" s="2" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="R168" s="2" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="S168" s="2" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="T168" s="2" t="n">
+        <v>79.38</v>
+      </c>
+      <c r="U168" s="2" t="n">
+        <v>33.07</v>
+      </c>
+      <c r="V168" s="2" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="W168" s="2" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="X168" s="2" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="Y168" s="2" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="Z168" s="2" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="AA168" s="2" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/14</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>33.49</v>
+      </c>
+      <c r="G169" s="2" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="I169" s="2" t="n">
+        <v>50.27</v>
+      </c>
+      <c r="J169" s="2" t="n">
+        <v>54.54</v>
+      </c>
+      <c r="K169" s="2" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="L169" s="2" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="M169" s="2" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="N169" s="2" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="O169" s="2" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="P169" s="2" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="Q169" s="2" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="R169" s="2" t="n">
+        <v>34.33</v>
+      </c>
+      <c r="S169" s="2" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="T169" s="2" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="U169" s="2" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="V169" s="2" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="W169" s="2" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="X169" s="2" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="Y169" s="2" t="n">
+        <v>68.37</v>
+      </c>
+      <c r="Z169" s="2" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AA169" s="2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/15</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>34.37</v>
+      </c>
+      <c r="G170" s="2" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="I170" s="2" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="J170" s="2" t="n">
+        <v>55.84</v>
+      </c>
+      <c r="K170" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="L170" s="2" t="n">
+        <v>40.86</v>
+      </c>
+      <c r="M170" s="2" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="N170" s="2" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="O170" s="2" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="P170" s="2" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="Q170" s="2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="R170" s="2" t="n">
+        <v>35.04</v>
+      </c>
+      <c r="S170" s="2" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="T170" s="2" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="U170" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="V170" s="2" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="W170" s="2" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="X170" s="2" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="Y170" s="2" t="n">
+        <v>70.48</v>
+      </c>
+      <c r="Z170" s="2" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="AA170" s="2" t="n">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/18</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>34.98</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="G171" s="2" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="I171" s="2" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="J171" s="2" t="n">
+        <v>57.23</v>
+      </c>
+      <c r="K171" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="L171" s="2" t="n">
+        <v>42.71</v>
+      </c>
+      <c r="M171" s="2" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="N171" s="2" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="O171" s="2" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="P171" s="2" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="Q171" s="2" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="R171" s="2" t="n">
+        <v>35.68</v>
+      </c>
+      <c r="S171" s="2" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="T171" s="2" t="n">
+        <v>84.12</v>
+      </c>
+      <c r="U171" s="2" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="V171" s="2" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="W171" s="2" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="X171" s="2" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="Y171" s="2" t="n">
+        <v>73.19</v>
+      </c>
+      <c r="Z171" s="2" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="AA171" s="2" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/19</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>34.89</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="G172" s="2" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="I172" s="2" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J172" s="2" t="n">
+        <v>57.44</v>
+      </c>
+      <c r="K172" s="2" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="L172" s="2" t="n">
+        <v>42.73</v>
+      </c>
+      <c r="M172" s="2" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="N172" s="2" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="O172" s="2" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="P172" s="2" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="Q172" s="2" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="R172" s="2" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="S172" s="2" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="T172" s="2" t="n">
+        <v>82.79000000000001</v>
+      </c>
+      <c r="U172" s="2" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="V172" s="2" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="W172" s="2" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="X172" s="2" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="Y172" s="2" t="n">
+        <v>73.78</v>
+      </c>
+      <c r="Z172" s="2" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="AA172" s="2" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/20</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>35.04</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>35.46</v>
+      </c>
+      <c r="G173" s="2" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="I173" s="2" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="J173" s="2" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="K173" s="2" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="L173" s="2" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="M173" s="2" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="N173" s="2" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="O173" s="2" t="n">
+        <v>35.57</v>
+      </c>
+      <c r="P173" s="2" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="Q173" s="2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="R173" s="2" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="S173" s="2" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="T173" s="2" t="n">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="U173" s="2" t="n">
+        <v>33.43</v>
+      </c>
+      <c r="V173" s="2" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="W173" s="2" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="X173" s="2" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="Y173" s="2" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="Z173" s="2" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="AA173" s="2" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/21</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="G174" s="2" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="I174" s="2" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="J174" s="2" t="n">
+        <v>57.28</v>
+      </c>
+      <c r="K174" s="2" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L174" s="2" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="M174" s="2" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="N174" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="O174" s="2" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="P174" s="2" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="Q174" s="2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="R174" s="2" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="S174" s="2" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="T174" s="2" t="n">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="U174" s="2" t="n">
+        <v>33.43</v>
+      </c>
+      <c r="V174" s="2" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="W174" s="2" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="X174" s="2" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="Y174" s="2" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="Z174" s="2" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="AA174" s="2" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/22</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="G175" s="2" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="I175" s="2" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="J175" s="2" t="n">
+        <v>57.93</v>
+      </c>
+      <c r="K175" s="2" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="L175" s="2" t="n">
+        <v>44.99</v>
+      </c>
+      <c r="M175" s="2" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="N175" s="2" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="O175" s="2" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="P175" s="2" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="Q175" s="2" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="R175" s="2" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="S175" s="2" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="T175" s="2" t="n">
+        <v>96.04000000000001</v>
+      </c>
+      <c r="U175" s="2" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="V175" s="2" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="W175" s="2" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="X175" s="2" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="Y175" s="2" t="n">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="Z175" s="2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA175" s="2" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/25</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="F176" s="2" t="n">
+        <v>37.65</v>
+      </c>
+      <c r="G176" s="2" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="H176" s="2" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="I176" s="2" t="n">
+        <v>53.94</v>
+      </c>
+      <c r="J176" s="2" t="n">
+        <v>58.76</v>
+      </c>
+      <c r="K176" s="2" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="L176" s="2" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="M176" s="2" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="N176" s="2" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="O176" s="2" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="P176" s="2" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="Q176" s="2" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="R176" s="2" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="S176" s="2" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="T176" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="U176" s="2" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="V176" s="2" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="W176" s="2" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="X176" s="2" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="Y176" s="2" t="n">
+        <v>80.63</v>
+      </c>
+      <c r="Z176" s="2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA176" s="2" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/26</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="G177" s="2" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="I177" s="2" t="n">
+        <v>53.61</v>
+      </c>
+      <c r="J177" s="2" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="K177" s="2" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="L177" s="2" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="M177" s="2" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="N177" s="2" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="O177" s="2" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="P177" s="2" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="Q177" s="2" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="R177" s="2" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="S177" s="2" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="T177" s="2" t="n">
+        <v>99.04000000000001</v>
+      </c>
+      <c r="U177" s="2" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="V177" s="2" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="W177" s="2" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="X177" s="2" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="Y177" s="2" t="n">
+        <v>79.84</v>
+      </c>
+      <c r="Z177" s="2" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AA177" s="2" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/27</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>37.22</v>
+      </c>
+      <c r="G178" s="2" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="H178" s="2" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="I178" s="2" t="n">
+        <v>52.52</v>
+      </c>
+      <c r="J178" s="2" t="n">
+        <v>57.31</v>
+      </c>
+      <c r="K178" s="2" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="L178" s="2" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="M178" s="2" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="N178" s="2" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="O178" s="2" t="n">
+        <v>37.19</v>
+      </c>
+      <c r="P178" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="Q178" s="2" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="R178" s="2" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="S178" s="2" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="T178" s="2" t="n">
+        <v>98.88</v>
+      </c>
+      <c r="U178" s="2" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="V178" s="2" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="W178" s="2" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="X178" s="2" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="Y178" s="2" t="n">
+        <v>81.42</v>
+      </c>
+      <c r="Z178" s="2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA178" s="2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/28</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>37.65</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G179" s="2" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="I179" s="2" t="n">
+        <v>53.58</v>
+      </c>
+      <c r="J179" s="2" t="n">
+        <v>58.25</v>
+      </c>
+      <c r="K179" s="2" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="L179" s="2" t="n">
+        <v>48.83</v>
+      </c>
+      <c r="M179" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="N179" s="2" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="O179" s="2" t="n">
+        <v>38.43</v>
+      </c>
+      <c r="P179" s="2" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="Q179" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="R179" s="2" t="n">
+        <v>36.34</v>
+      </c>
+      <c r="S179" s="2" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="T179" s="2" t="n">
+        <v>106.81</v>
+      </c>
+      <c r="U179" s="2" t="n">
+        <v>33.61</v>
+      </c>
+      <c r="V179" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="W179" s="2" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="X179" s="2" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="Y179" s="2" t="n">
+        <v>86.11</v>
+      </c>
+      <c r="Z179" s="2" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AA179" s="2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025/8/29</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="C180" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="D180" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="E180" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="F180" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="G180" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="H180" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="I180" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="J180" t="n">
+        <v>57.96</v>
+      </c>
+      <c r="K180" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="L180" t="n">
+        <v>49.05</v>
+      </c>
+      <c r="M180" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="N180" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="O180" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="P180" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="R180" t="n">
+        <v>36.27</v>
+      </c>
+      <c r="S180" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="T180" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="U180" t="n">
+        <v>34.37</v>
+      </c>
+      <c r="V180" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="W180" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="X180" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>86.26000000000001</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA180"/>
+  <dimension ref="A1:AA179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -15508,173 +15508,88 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="inlineStr">
+      <c r="A179" t="inlineStr">
         <is>
           <t>2025/8/28</t>
         </is>
       </c>
-      <c r="B179" s="2" t="n">
+      <c r="B179" t="n">
         <v>24.89</v>
       </c>
-      <c r="C179" s="2" t="n">
+      <c r="C179" t="n">
         <v>37.65</v>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>21.67</v>
       </c>
-      <c r="E179" s="2" t="n">
+      <c r="E179" t="n">
         <v>21.88</v>
       </c>
-      <c r="F179" s="2" t="n">
+      <c r="F179" t="n">
         <v>38.5</v>
       </c>
-      <c r="G179" s="2" t="n">
+      <c r="G179" t="n">
         <v>16.84</v>
       </c>
-      <c r="H179" s="2" t="n">
+      <c r="H179" t="n">
         <v>29.41</v>
       </c>
-      <c r="I179" s="2" t="n">
+      <c r="I179" t="n">
         <v>53.58</v>
       </c>
-      <c r="J179" s="2" t="n">
+      <c r="J179" t="n">
         <v>58.25</v>
       </c>
-      <c r="K179" s="2" t="n">
+      <c r="K179" t="n">
         <v>24.84</v>
       </c>
-      <c r="L179" s="2" t="n">
+      <c r="L179" t="n">
         <v>48.83</v>
       </c>
-      <c r="M179" s="2" t="n">
+      <c r="M179" t="n">
         <v>20.06</v>
       </c>
-      <c r="N179" s="2" t="n">
+      <c r="N179" t="n">
         <v>15.36</v>
       </c>
-      <c r="O179" s="2" t="n">
+      <c r="O179" t="n">
         <v>38.43</v>
       </c>
-      <c r="P179" s="2" t="n">
+      <c r="P179" t="n">
         <v>25.28</v>
       </c>
-      <c r="Q179" s="2" t="n">
+      <c r="Q179" t="n">
         <v>16.3</v>
       </c>
-      <c r="R179" s="2" t="n">
+      <c r="R179" t="n">
         <v>36.34</v>
       </c>
-      <c r="S179" s="2" t="n">
+      <c r="S179" t="n">
         <v>19.02</v>
       </c>
-      <c r="T179" s="2" t="n">
+      <c r="T179" t="n">
         <v>106.81</v>
       </c>
-      <c r="U179" s="2" t="n">
+      <c r="U179" t="n">
         <v>33.61</v>
       </c>
-      <c r="V179" s="2" t="n">
+      <c r="V179" t="n">
         <v>25</v>
       </c>
-      <c r="W179" s="2" t="n">
+      <c r="W179" t="n">
         <v>15.61</v>
       </c>
-      <c r="X179" s="2" t="n">
+      <c r="X179" t="n">
         <v>16.7</v>
       </c>
-      <c r="Y179" s="2" t="n">
+      <c r="Y179" t="n">
         <v>86.11</v>
       </c>
-      <c r="Z179" s="2" t="n">
+      <c r="Z179" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="AA179" s="2" t="n">
+      <c r="AA179" t="n">
         <v>9.789999999999999</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2025/8/29</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="C180" t="n">
-        <v>38.59</v>
-      </c>
-      <c r="D180" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="E180" t="n">
-        <v>22.21</v>
-      </c>
-      <c r="F180" t="n">
-        <v>39.73</v>
-      </c>
-      <c r="G180" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="H180" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="I180" t="n">
-        <v>53.45</v>
-      </c>
-      <c r="J180" t="n">
-        <v>57.96</v>
-      </c>
-      <c r="K180" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="L180" t="n">
-        <v>49.05</v>
-      </c>
-      <c r="M180" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="N180" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="O180" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="P180" t="n">
-        <v>25.98</v>
-      </c>
-      <c r="Q180" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="R180" t="n">
-        <v>36.27</v>
-      </c>
-      <c r="S180" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="T180" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="U180" t="n">
-        <v>34.37</v>
-      </c>
-      <c r="V180" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="W180" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="X180" t="n">
-        <v>16.97</v>
-      </c>
-      <c r="Y180" t="n">
-        <v>86.26000000000001</v>
-      </c>
-      <c r="Z180" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="AA180" t="n">
-        <v>9.800000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA179"/>
+  <dimension ref="A1:AA201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -15508,88 +15508,1958 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="2" t="inlineStr">
         <is>
           <t>2025/8/28</t>
         </is>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="2" t="n">
         <v>24.89</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" s="2" t="n">
         <v>37.65</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>21.67</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179" s="2" t="n">
         <v>21.88</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179" s="2" t="n">
         <v>38.5</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G179" s="2" t="n">
         <v>16.84</v>
       </c>
-      <c r="H179" t="n">
+      <c r="H179" s="2" t="n">
         <v>29.41</v>
       </c>
-      <c r="I179" t="n">
+      <c r="I179" s="2" t="n">
         <v>53.58</v>
       </c>
-      <c r="J179" t="n">
+      <c r="J179" s="2" t="n">
         <v>58.25</v>
       </c>
-      <c r="K179" t="n">
+      <c r="K179" s="2" t="n">
         <v>24.84</v>
       </c>
-      <c r="L179" t="n">
+      <c r="L179" s="2" t="n">
         <v>48.83</v>
       </c>
-      <c r="M179" t="n">
+      <c r="M179" s="2" t="n">
         <v>20.06</v>
       </c>
-      <c r="N179" t="n">
+      <c r="N179" s="2" t="n">
         <v>15.36</v>
       </c>
-      <c r="O179" t="n">
+      <c r="O179" s="2" t="n">
         <v>38.43</v>
       </c>
-      <c r="P179" t="n">
+      <c r="P179" s="2" t="n">
         <v>25.28</v>
       </c>
-      <c r="Q179" t="n">
+      <c r="Q179" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="R179" t="n">
+      <c r="R179" s="2" t="n">
         <v>36.34</v>
       </c>
-      <c r="S179" t="n">
+      <c r="S179" s="2" t="n">
         <v>19.02</v>
       </c>
-      <c r="T179" t="n">
+      <c r="T179" s="2" t="n">
         <v>106.81</v>
       </c>
-      <c r="U179" t="n">
+      <c r="U179" s="2" t="n">
         <v>33.61</v>
       </c>
-      <c r="V179" t="n">
+      <c r="V179" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="W179" t="n">
+      <c r="W179" s="2" t="n">
         <v>15.61</v>
       </c>
-      <c r="X179" t="n">
+      <c r="X179" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="Y179" t="n">
+      <c r="Y179" s="2" t="n">
         <v>86.11</v>
       </c>
-      <c r="Z179" t="n">
+      <c r="Z179" s="2" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="AA179" t="n">
+      <c r="AA179" s="2" t="n">
         <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>2025/8/29</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="H180" s="2" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="I180" s="2" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="J180" s="2" t="n">
+        <v>57.96</v>
+      </c>
+      <c r="K180" s="2" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="L180" s="2" t="n">
+        <v>49.05</v>
+      </c>
+      <c r="M180" s="2" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="N180" s="2" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="O180" s="2" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="P180" s="2" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="Q180" s="2" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="R180" s="2" t="n">
+        <v>36.27</v>
+      </c>
+      <c r="S180" s="2" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="T180" s="2" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="U180" s="2" t="n">
+        <v>34.37</v>
+      </c>
+      <c r="V180" s="2" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="W180" s="2" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="X180" s="2" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="Y180" s="2" t="n">
+        <v>86.26000000000001</v>
+      </c>
+      <c r="Z180" s="2" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="AA180" s="2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/01</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="G181" s="2" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="I181" s="2" t="n">
+        <v>52.26</v>
+      </c>
+      <c r="J181" s="2" t="n">
+        <v>56.31</v>
+      </c>
+      <c r="K181" s="2" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="L181" s="2" t="n">
+        <v>47.09</v>
+      </c>
+      <c r="M181" s="2" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="N181" s="2" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="O181" s="2" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="P181" s="2" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="Q181" s="2" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="R181" s="2" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="S181" s="2" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="T181" s="2" t="n">
+        <v>98.84</v>
+      </c>
+      <c r="U181" s="2" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="V181" s="2" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="W181" s="2" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="X181" s="2" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="Y181" s="2" t="n">
+        <v>71.56999999999999</v>
+      </c>
+      <c r="Z181" s="2" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AA181" s="2" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/02</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>37.19</v>
+      </c>
+      <c r="G182" s="2" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="I182" s="2" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="J182" s="2" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="K182" s="2" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="L182" s="2" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="M182" s="2" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="N182" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="O182" s="2" t="n">
+        <v>37.38</v>
+      </c>
+      <c r="P182" s="2" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="Q182" s="2" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="R182" s="2" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="S182" s="2" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="T182" s="2" t="n">
+        <v>98.84</v>
+      </c>
+      <c r="U182" s="2" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="V182" s="2" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="W182" s="2" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="X182" s="2" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="Y182" s="2" t="n">
+        <v>71.56999999999999</v>
+      </c>
+      <c r="Z182" s="2" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AA182" s="2" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/03</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>36.81</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G183" s="2" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="I183" s="2" t="n">
+        <v>50.05</v>
+      </c>
+      <c r="J183" s="2" t="n">
+        <v>53.54</v>
+      </c>
+      <c r="K183" s="2" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="L183" s="2" t="n">
+        <v>44.78</v>
+      </c>
+      <c r="M183" s="2" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="N183" s="2" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="O183" s="2" t="n">
+        <v>37.61</v>
+      </c>
+      <c r="P183" s="2" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="Q183" s="2" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="R183" s="2" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="S183" s="2" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="T183" s="2" t="n">
+        <v>94.23</v>
+      </c>
+      <c r="U183" s="2" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="V183" s="2" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="W183" s="2" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="X183" s="2" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="Y183" s="2" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="Z183" s="2" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AA183" s="2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/04</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="I184" s="2" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="J184" s="2" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="K184" s="2" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="L184" s="2" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="M184" s="2" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="N184" s="2" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="O184" s="2" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="P184" s="2" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="Q184" s="2" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="R184" s="2" t="n">
+        <v>34.09</v>
+      </c>
+      <c r="S184" s="2" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="T184" s="2" t="n">
+        <v>86.69</v>
+      </c>
+      <c r="U184" s="2" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="V184" s="2" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="W184" s="2" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="X184" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="Y184" s="2" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="Z184" s="2" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AA184" s="2" t="n">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/05</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>37.52</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>38.32</v>
+      </c>
+      <c r="G185" s="2" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="I185" s="2" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="J185" s="2" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="K185" s="2" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="L185" s="2" t="n">
+        <v>43.72</v>
+      </c>
+      <c r="M185" s="2" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="N185" s="2" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="O185" s="2" t="n">
+        <v>38.32</v>
+      </c>
+      <c r="P185" s="2" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="Q185" s="2" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="R185" s="2" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="S185" s="2" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="T185" s="2" t="n">
+        <v>89.73</v>
+      </c>
+      <c r="U185" s="2" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="V185" s="2" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="W185" s="2" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="X185" s="2" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="Y185" s="2" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="Z185" s="2" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="AA185" s="2" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/08</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>37.92</v>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="I186" s="2" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="J186" s="2" t="n">
+        <v>54.59</v>
+      </c>
+      <c r="K186" s="2" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="L186" s="2" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="M186" s="2" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="N186" s="2" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="O186" s="2" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="P186" s="2" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="Q186" s="2" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="R186" s="2" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="S186" s="2" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="T186" s="2" t="n">
+        <v>89.88</v>
+      </c>
+      <c r="U186" s="2" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="V186" s="2" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="W186" s="2" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="X186" s="2" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="Y186" s="2" t="n">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="Z186" s="2" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="AA186" s="2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/09</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>36.51</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="I187" s="2" t="n">
+        <v>50.09</v>
+      </c>
+      <c r="J187" s="2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="K187" s="2" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="L187" s="2" t="n">
+        <v>42.37</v>
+      </c>
+      <c r="M187" s="2" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="N187" s="2" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="O187" s="2" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="P187" s="2" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="Q187" s="2" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="R187" s="2" t="n">
+        <v>34.97</v>
+      </c>
+      <c r="S187" s="2" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="T187" s="2" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="U187" s="2" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="V187" s="2" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="W187" s="2" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="X187" s="2" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="Y187" s="2" t="n">
+        <v>63.86</v>
+      </c>
+      <c r="Z187" s="2" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="AA187" s="2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/10</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="H188" s="2" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="I188" s="2" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="J188" s="2" t="n">
+        <v>54.03</v>
+      </c>
+      <c r="K188" s="2" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="L188" s="2" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="M188" s="2" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="N188" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="O188" s="2" t="n">
+        <v>37.51</v>
+      </c>
+      <c r="P188" s="2" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="Q188" s="2" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="R188" s="2" t="n">
+        <v>35.02</v>
+      </c>
+      <c r="S188" s="2" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="T188" s="2" t="n">
+        <v>89.48</v>
+      </c>
+      <c r="U188" s="2" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="V188" s="2" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="W188" s="2" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="X188" s="2" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="Y188" s="2" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="Z188" s="2" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="AA188" s="2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/11</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>38.58</v>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="G189" s="2" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="I189" s="2" t="n">
+        <v>51.66</v>
+      </c>
+      <c r="J189" s="2" t="n">
+        <v>55.53</v>
+      </c>
+      <c r="K189" s="2" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="L189" s="2" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="M189" s="2" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="N189" s="2" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="O189" s="2" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="P189" s="2" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="Q189" s="2" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="R189" s="2" t="n">
+        <v>35.78</v>
+      </c>
+      <c r="S189" s="2" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="T189" s="2" t="n">
+        <v>96.09</v>
+      </c>
+      <c r="U189" s="2" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="V189" s="2" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="W189" s="2" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="X189" s="2" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="Y189" s="2" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="Z189" s="2" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="AA189" s="2" t="n">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/12</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>38.95</v>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="H190" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I190" s="2" t="n">
+        <v>51.78</v>
+      </c>
+      <c r="J190" s="2" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="K190" s="2" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="L190" s="2" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="M190" s="2" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="N190" s="2" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="O190" s="2" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="P190" s="2" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="Q190" s="2" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="R190" s="2" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="S190" s="2" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="T190" s="2" t="n">
+        <v>97.75</v>
+      </c>
+      <c r="U190" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="V190" s="2" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="W190" s="2" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="X190" s="2" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="Y190" s="2" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="Z190" s="2" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AA190" s="2" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/15</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>38.87</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="I191" s="2" t="n">
+        <v>51.71</v>
+      </c>
+      <c r="J191" s="2" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="K191" s="2" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="L191" s="2" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="M191" s="2" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="N191" s="2" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="O191" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="P191" s="2" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="Q191" s="2" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="R191" s="2" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="S191" s="2" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="T191" s="2" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="U191" s="2" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="V191" s="2" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="W191" s="2" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="X191" s="2" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="Y191" s="2" t="n">
+        <v>68.36</v>
+      </c>
+      <c r="Z191" s="2" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AA191" s="2" t="n">
+        <v>9.710000000000001</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/16</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>40.03</v>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="H192" s="2" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="I192" s="2" t="n">
+        <v>52.52</v>
+      </c>
+      <c r="J192" s="2" t="n">
+        <v>56.57</v>
+      </c>
+      <c r="K192" s="2" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="L192" s="2" t="n">
+        <v>46.06</v>
+      </c>
+      <c r="M192" s="2" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="N192" s="2" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="O192" s="2" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="P192" s="2" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="Q192" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="R192" s="2" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="S192" s="2" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="T192" s="2" t="n">
+        <v>99.93000000000001</v>
+      </c>
+      <c r="U192" s="2" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="V192" s="2" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="W192" s="2" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="X192" s="2" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="Y192" s="2" t="n">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="Z192" s="2" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="AA192" s="2" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/17</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="H193" s="2" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="I193" s="2" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="J193" s="2" t="n">
+        <v>57.11</v>
+      </c>
+      <c r="K193" s="2" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="L193" s="2" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="M193" s="2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="N193" s="2" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="O193" s="2" t="n">
+        <v>42.17</v>
+      </c>
+      <c r="P193" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Q193" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="R193" s="2" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="S193" s="2" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="T193" s="2" t="n">
+        <v>100.94</v>
+      </c>
+      <c r="U193" s="2" t="n">
+        <v>31.99</v>
+      </c>
+      <c r="V193" s="2" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="W193" s="2" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="X193" s="2" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="Y193" s="2" t="n">
+        <v>69.52</v>
+      </c>
+      <c r="Z193" s="2" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="AA193" s="2" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/18</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>39.23</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="H194" s="2" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="I194" s="2" t="n">
+        <v>52.47</v>
+      </c>
+      <c r="J194" s="2" t="n">
+        <v>56.62</v>
+      </c>
+      <c r="K194" s="2" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="L194" s="2" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="M194" s="2" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="N194" s="2" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="O194" s="2" t="n">
+        <v>41.47</v>
+      </c>
+      <c r="P194" s="2" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="Q194" s="2" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="R194" s="2" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="S194" s="2" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="T194" s="2" t="n">
+        <v>102.68</v>
+      </c>
+      <c r="U194" s="2" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="V194" s="2" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="W194" s="2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X194" s="2" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="Y194" s="2" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="Z194" s="2" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="AA194" s="2" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/19</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="H195" s="2" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="I195" s="2" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="J195" s="2" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="K195" s="2" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="L195" s="2" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="M195" s="2" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="N195" s="2" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="O195" s="2" t="n">
+        <v>41.46</v>
+      </c>
+      <c r="P195" s="2" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="Q195" s="2" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="R195" s="2" t="n">
+        <v>35.87</v>
+      </c>
+      <c r="S195" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="T195" s="2" t="n">
+        <v>100.64</v>
+      </c>
+      <c r="U195" s="2" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="V195" s="2" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="W195" s="2" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="X195" s="2" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="Y195" s="2" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="Z195" s="2" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="AA195" s="2" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/22</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>40.52</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="I196" s="2" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="J196" s="2" t="n">
+        <v>56.31</v>
+      </c>
+      <c r="K196" s="2" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="L196" s="2" t="n">
+        <v>47.11</v>
+      </c>
+      <c r="M196" s="2" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="N196" s="2" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="O196" s="2" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="P196" s="2" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="Q196" s="2" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="R196" s="2" t="n">
+        <v>36.04</v>
+      </c>
+      <c r="S196" s="2" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="T196" s="2" t="n">
+        <v>105.09</v>
+      </c>
+      <c r="U196" s="2" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="V196" s="2" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="W196" s="2" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="X196" s="2" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="Y196" s="2" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="Z196" s="2" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="AA196" s="2" t="n">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/23</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>40.62</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="I197" s="2" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J197" s="2" t="n">
+        <v>55.53</v>
+      </c>
+      <c r="K197" s="2" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="L197" s="2" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="M197" s="2" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="N197" s="2" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="O197" s="2" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="P197" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="Q197" s="2" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="R197" s="2" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="S197" s="2" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="T197" s="2" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="U197" s="2" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="V197" s="2" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="W197" s="2" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="X197" s="2" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="Y197" s="2" t="n">
+        <v>69.65000000000001</v>
+      </c>
+      <c r="Z197" s="2" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AA197" s="2" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/24</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>40.27</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="H198" s="2" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="I198" s="2" t="n">
+        <v>52.54</v>
+      </c>
+      <c r="J198" s="2" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="K198" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L198" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="M198" s="2" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="N198" s="2" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="O198" s="2" t="n">
+        <v>42.61</v>
+      </c>
+      <c r="P198" s="2" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="Q198" s="2" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="R198" s="2" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="S198" s="2" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="T198" s="2" t="n">
+        <v>109.08</v>
+      </c>
+      <c r="U198" s="2" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="V198" s="2" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="W198" s="2" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="X198" s="2" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="Y198" s="2" t="n">
+        <v>70.61</v>
+      </c>
+      <c r="Z198" s="2" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="AA198" s="2" t="n">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/25</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="I199" s="2" t="n">
+        <v>52.49</v>
+      </c>
+      <c r="J199" s="2" t="n">
+        <v>55.86</v>
+      </c>
+      <c r="K199" s="2" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="L199" s="2" t="n">
+        <v>48.43</v>
+      </c>
+      <c r="M199" s="2" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="N199" s="2" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="O199" s="2" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="P199" s="2" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="Q199" s="2" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="R199" s="2" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="S199" s="2" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="T199" s="2" t="n">
+        <v>110.02</v>
+      </c>
+      <c r="U199" s="2" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="V199" s="2" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="W199" s="2" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="X199" s="2" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="Y199" s="2" t="n">
+        <v>71.28</v>
+      </c>
+      <c r="Z199" s="2" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="AA199" s="2" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/26</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>39.93</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="I200" s="2" t="n">
+        <v>51.32</v>
+      </c>
+      <c r="J200" s="2" t="n">
+        <v>54.56</v>
+      </c>
+      <c r="K200" s="2" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="L200" s="2" t="n">
+        <v>47.13</v>
+      </c>
+      <c r="M200" s="2" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="N200" s="2" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="O200" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="P200" s="2" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="Q200" s="2" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="R200" s="2" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="S200" s="2" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="T200" s="2" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="U200" s="2" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="V200" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="W200" s="2" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="X200" s="2" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="Y200" s="2" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="Z200" s="2" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AA200" s="2" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025/9/29</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="C201" t="n">
+        <v>40.96</v>
+      </c>
+      <c r="D201" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="E201" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="F201" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="G201" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="H201" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="I201" t="n">
+        <v>51.93</v>
+      </c>
+      <c r="J201" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="K201" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="L201" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="M201" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="N201" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="O201" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="P201" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="R201" t="n">
+        <v>35.87</v>
+      </c>
+      <c r="S201" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="T201" t="n">
+        <v>109.78</v>
+      </c>
+      <c r="U201" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="V201" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="W201" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="X201" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>70.98</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>9.369999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA201"/>
+  <dimension ref="A1:AA218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -17378,88 +17378,1533 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="A201" s="2" t="inlineStr">
         <is>
           <t>2025/9/29</t>
         </is>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" s="2" t="n">
         <v>25.94</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201" s="2" t="n">
         <v>40.96</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" s="2" t="n">
         <v>22.75</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201" s="2" t="n">
         <v>23.47</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201" s="2" t="n">
         <v>42.48</v>
       </c>
-      <c r="G201" t="n">
+      <c r="G201" s="2" t="n">
         <v>16.86</v>
       </c>
-      <c r="H201" t="n">
+      <c r="H201" s="2" t="n">
         <v>32.75</v>
       </c>
-      <c r="I201" t="n">
+      <c r="I201" s="2" t="n">
         <v>51.93</v>
       </c>
-      <c r="J201" t="n">
+      <c r="J201" s="2" t="n">
         <v>55.13</v>
       </c>
-      <c r="K201" t="n">
+      <c r="K201" s="2" t="n">
         <v>27.57</v>
       </c>
-      <c r="L201" t="n">
+      <c r="L201" s="2" t="n">
         <v>48.25</v>
       </c>
-      <c r="M201" t="n">
+      <c r="M201" s="2" t="n">
         <v>24.16</v>
       </c>
-      <c r="N201" t="n">
+      <c r="N201" s="2" t="n">
         <v>15.61</v>
       </c>
-      <c r="O201" t="n">
+      <c r="O201" s="2" t="n">
         <v>43.49</v>
       </c>
-      <c r="P201" t="n">
+      <c r="P201" s="2" t="n">
         <v>27.61</v>
       </c>
-      <c r="Q201" t="n">
+      <c r="Q201" s="2" t="n">
         <v>16.49</v>
       </c>
-      <c r="R201" t="n">
+      <c r="R201" s="2" t="n">
         <v>35.87</v>
       </c>
-      <c r="S201" t="n">
+      <c r="S201" s="2" t="n">
         <v>19.09</v>
       </c>
-      <c r="T201" t="n">
+      <c r="T201" s="2" t="n">
         <v>109.78</v>
       </c>
-      <c r="U201" t="n">
+      <c r="U201" s="2" t="n">
         <v>30.95</v>
       </c>
-      <c r="V201" t="n">
+      <c r="V201" s="2" t="n">
         <v>32.29</v>
       </c>
-      <c r="W201" t="n">
+      <c r="W201" s="2" t="n">
         <v>15.76</v>
       </c>
-      <c r="X201" t="n">
+      <c r="X201" s="2" t="n">
         <v>17.47</v>
       </c>
-      <c r="Y201" t="n">
+      <c r="Y201" s="2" t="n">
         <v>70.98</v>
       </c>
-      <c r="Z201" t="n">
+      <c r="Z201" s="2" t="n">
         <v>8.640000000000001</v>
       </c>
-      <c r="AA201" t="n">
+      <c r="AA201" s="2" t="n">
         <v>9.369999999999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>2025/9/30</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>41.03</v>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="F202" s="2" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="H202" s="2" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="I202" s="2" t="n">
+        <v>52.47</v>
+      </c>
+      <c r="J202" s="2" t="n">
+        <v>55.18</v>
+      </c>
+      <c r="K202" s="2" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="L202" s="2" t="n">
+        <v>47.92</v>
+      </c>
+      <c r="M202" s="2" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="N202" s="2" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="O202" s="2" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="P202" s="2" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="Q202" s="2" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="R202" s="2" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="S202" s="2" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="T202" s="2" t="n">
+        <v>111.38</v>
+      </c>
+      <c r="U202" s="2" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="V202" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="W202" s="2" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="X202" s="2" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="Y202" s="2" t="n">
+        <v>71.16</v>
+      </c>
+      <c r="Z202" s="2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA202" s="2" t="n">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>41.35</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="H203" s="2" t="n">
+        <v>33.43</v>
+      </c>
+      <c r="I203" s="2" t="n">
+        <v>53.01</v>
+      </c>
+      <c r="J203" s="2" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="K203" s="2" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="L203" s="2" t="n">
+        <v>48.74</v>
+      </c>
+      <c r="M203" s="2" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="N203" s="2" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="O203" s="2" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="P203" s="2" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="Q203" s="2" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="R203" s="2" t="n">
+        <v>36.37</v>
+      </c>
+      <c r="S203" s="2" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="T203" s="2" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="U203" s="2" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="V203" s="2" t="n">
+        <v>33.61</v>
+      </c>
+      <c r="W203" s="2" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="X203" s="2" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="Y203" s="2" t="n">
+        <v>71.69</v>
+      </c>
+      <c r="Z203" s="2" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="AA203" s="2" t="n">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/10</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>39.53</v>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="F204" s="2" t="n">
+        <v>40.62</v>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="H204" s="2" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="I204" s="2" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="J204" s="2" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="K204" s="2" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="L204" s="2" t="n">
+        <v>46.98</v>
+      </c>
+      <c r="M204" s="2" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="N204" s="2" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="O204" s="2" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="P204" s="2" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="Q204" s="2" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="R204" s="2" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="S204" s="2" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="T204" s="2" t="n">
+        <v>107.32</v>
+      </c>
+      <c r="U204" s="2" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="V204" s="2" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="W204" s="2" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="X204" s="2" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="Y204" s="2" t="n">
+        <v>69.81</v>
+      </c>
+      <c r="Z204" s="2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA204" s="2" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/13</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="F205" s="2" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="H205" s="2" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="I205" s="2" t="n">
+        <v>51.96</v>
+      </c>
+      <c r="J205" s="2" t="n">
+        <v>53.98</v>
+      </c>
+      <c r="K205" s="2" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="L205" s="2" t="n">
+        <v>46.46</v>
+      </c>
+      <c r="M205" s="2" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="N205" s="2" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="O205" s="2" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="P205" s="2" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="Q205" s="2" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="R205" s="2" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="S205" s="2" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="T205" s="2" t="n">
+        <v>108.92</v>
+      </c>
+      <c r="U205" s="2" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="V205" s="2" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="W205" s="2" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="X205" s="2" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="Y205" s="2" t="n">
+        <v>70.09</v>
+      </c>
+      <c r="Z205" s="2" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="AA205" s="2" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/14</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="F206" s="2" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="H206" s="2" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="I206" s="2" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="J206" s="2" t="n">
+        <v>52.93</v>
+      </c>
+      <c r="K206" s="2" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="L206" s="2" t="n">
+        <v>44.28</v>
+      </c>
+      <c r="M206" s="2" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="N206" s="2" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="O206" s="2" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="P206" s="2" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="Q206" s="2" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="R206" s="2" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="S206" s="2" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="T206" s="2" t="n">
+        <v>102.61</v>
+      </c>
+      <c r="U206" s="2" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="V206" s="2" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="W206" s="2" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="X206" s="2" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="Y206" s="2" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="Z206" s="2" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="AA206" s="2" t="n">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/15</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="F207" s="2" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="H207" s="2" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="I207" s="2" t="n">
+        <v>51.61</v>
+      </c>
+      <c r="J207" s="2" t="n">
+        <v>53.95</v>
+      </c>
+      <c r="K207" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="L207" s="2" t="n">
+        <v>45.08</v>
+      </c>
+      <c r="M207" s="2" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="N207" s="2" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="O207" s="2" t="n">
+        <v>40.33</v>
+      </c>
+      <c r="P207" s="2" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="Q207" s="2" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="R207" s="2" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="S207" s="2" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="T207" s="2" t="n">
+        <v>105.07</v>
+      </c>
+      <c r="U207" s="2" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="V207" s="2" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="W207" s="2" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="X207" s="2" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="Y207" s="2" t="n">
+        <v>68.37</v>
+      </c>
+      <c r="Z207" s="2" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="AA207" s="2" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/16</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>25.27</v>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>38.58</v>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="F208" s="2" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="H208" s="2" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="I208" s="2" t="n">
+        <v>50.91</v>
+      </c>
+      <c r="J208" s="2" t="n">
+        <v>53.34</v>
+      </c>
+      <c r="K208" s="2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="L208" s="2" t="n">
+        <v>45.21</v>
+      </c>
+      <c r="M208" s="2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="N208" s="2" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="O208" s="2" t="n">
+        <v>40.57</v>
+      </c>
+      <c r="P208" s="2" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="Q208" s="2" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="R208" s="2" t="n">
+        <v>35.44</v>
+      </c>
+      <c r="S208" s="2" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="T208" s="2" t="n">
+        <v>104.39</v>
+      </c>
+      <c r="U208" s="2" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="V208" s="2" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="W208" s="2" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="X208" s="2" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="Y208" s="2" t="n">
+        <v>67.66</v>
+      </c>
+      <c r="Z208" s="2" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="AA208" s="2" t="n">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/17</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F209" s="2" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="G209" s="2" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="H209" s="2" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="I209" s="2" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="J209" s="2" t="n">
+        <v>51.78</v>
+      </c>
+      <c r="K209" s="2" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="L209" s="2" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="M209" s="2" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="N209" s="2" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="O209" s="2" t="n">
+        <v>39.18</v>
+      </c>
+      <c r="P209" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="Q209" s="2" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="R209" s="2" t="n">
+        <v>34.43</v>
+      </c>
+      <c r="S209" s="2" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="T209" s="2" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="U209" s="2" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="V209" s="2" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="W209" s="2" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="X209" s="2" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="Y209" s="2" t="n">
+        <v>64.93000000000001</v>
+      </c>
+      <c r="Z209" s="2" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="AA209" s="2" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/20</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>37.97</v>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="F210" s="2" t="n">
+        <v>39.11</v>
+      </c>
+      <c r="G210" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H210" s="2" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="I210" s="2" t="n">
+        <v>49.86</v>
+      </c>
+      <c r="J210" s="2" t="n">
+        <v>52.48</v>
+      </c>
+      <c r="K210" s="2" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="L210" s="2" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="M210" s="2" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="N210" s="2" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="O210" s="2" t="n">
+        <v>40.09</v>
+      </c>
+      <c r="P210" s="2" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="Q210" s="2" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="R210" s="2" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="S210" s="2" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="T210" s="2" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="U210" s="2" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="V210" s="2" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="W210" s="2" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="X210" s="2" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Y210" s="2" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="Z210" s="2" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AA210" s="2" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/21</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>38.99</v>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="F211" s="2" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="G211" s="2" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="H211" s="2" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="I211" s="2" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="J211" s="2" t="n">
+        <v>53.58</v>
+      </c>
+      <c r="K211" s="2" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="L211" s="2" t="n">
+        <v>46.13</v>
+      </c>
+      <c r="M211" s="2" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="N211" s="2" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="O211" s="2" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="P211" s="2" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="Q211" s="2" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="R211" s="2" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="S211" s="2" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="T211" s="2" t="n">
+        <v>105.17</v>
+      </c>
+      <c r="U211" s="2" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="V211" s="2" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="W211" s="2" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="X211" s="2" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="Y211" s="2" t="n">
+        <v>68.45</v>
+      </c>
+      <c r="Z211" s="2" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="AA211" s="2" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/22</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="F212" s="2" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="G212" s="2" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="H212" s="2" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="I212" s="2" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="J212" s="2" t="n">
+        <v>53.37</v>
+      </c>
+      <c r="K212" s="2" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="L212" s="2" t="n">
+        <v>45.94</v>
+      </c>
+      <c r="M212" s="2" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="N212" s="2" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="O212" s="2" t="n">
+        <v>41.08</v>
+      </c>
+      <c r="P212" s="2" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="Q212" s="2" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="R212" s="2" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="S212" s="2" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="T212" s="2" t="n">
+        <v>105.46</v>
+      </c>
+      <c r="U212" s="2" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="V212" s="2" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="W212" s="2" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="X212" s="2" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="Y212" s="2" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="Z212" s="2" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AA212" s="2" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/23</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F213" s="2" t="n">
+        <v>40.09</v>
+      </c>
+      <c r="G213" s="2" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="H213" s="2" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I213" s="2" t="n">
+        <v>50.44</v>
+      </c>
+      <c r="J213" s="2" t="n">
+        <v>53.14</v>
+      </c>
+      <c r="K213" s="2" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="L213" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="M213" s="2" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="N213" s="2" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="O213" s="2" t="n">
+        <v>41.15</v>
+      </c>
+      <c r="P213" s="2" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="Q213" s="2" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="R213" s="2" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="S213" s="2" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="T213" s="2" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="U213" s="2" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="V213" s="2" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="W213" s="2" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="X213" s="2" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="Y213" s="2" t="n">
+        <v>67.20999999999999</v>
+      </c>
+      <c r="Z213" s="2" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AA213" s="2" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/24</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="F214" s="2" t="n">
+        <v>41.56</v>
+      </c>
+      <c r="G214" s="2" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="H214" s="2" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="I214" s="2" t="n">
+        <v>51.39</v>
+      </c>
+      <c r="J214" s="2" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="K214" s="2" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="L214" s="2" t="n">
+        <v>47.32</v>
+      </c>
+      <c r="M214" s="2" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="N214" s="2" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="O214" s="2" t="n">
+        <v>42.67</v>
+      </c>
+      <c r="P214" s="2" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="Q214" s="2" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="R214" s="2" t="n">
+        <v>35.63</v>
+      </c>
+      <c r="S214" s="2" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="T214" s="2" t="n">
+        <v>110.13</v>
+      </c>
+      <c r="U214" s="2" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="V214" s="2" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="W214" s="2" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="X214" s="2" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="Y214" s="2" t="n">
+        <v>70.13</v>
+      </c>
+      <c r="Z214" s="2" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="AA214" s="2" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/27</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>40.57</v>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="F215" s="2" t="n">
+        <v>42.21</v>
+      </c>
+      <c r="G215" s="2" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="H215" s="2" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="I215" s="2" t="n">
+        <v>52.02</v>
+      </c>
+      <c r="J215" s="2" t="n">
+        <v>54.86</v>
+      </c>
+      <c r="K215" s="2" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="L215" s="2" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="M215" s="2" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="N215" s="2" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="O215" s="2" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="P215" s="2" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="Q215" s="2" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="R215" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="S215" s="2" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="T215" s="2" t="n">
+        <v>112.44</v>
+      </c>
+      <c r="U215" s="2" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="V215" s="2" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="W215" s="2" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="X215" s="2" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="Y215" s="2" t="n">
+        <v>72.58</v>
+      </c>
+      <c r="Z215" s="2" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="AA215" s="2" t="n">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/28</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>40.55</v>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="F216" s="2" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="H216" s="2" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="I216" s="2" t="n">
+        <v>52.04</v>
+      </c>
+      <c r="J216" s="2" t="n">
+        <v>54.84</v>
+      </c>
+      <c r="K216" s="2" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="L216" s="2" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="M216" s="2" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="N216" s="2" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="O216" s="2" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="P216" s="2" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="Q216" s="2" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="R216" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="S216" s="2" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="T216" s="2" t="n">
+        <v>111.13</v>
+      </c>
+      <c r="U216" s="2" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="V216" s="2" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="W216" s="2" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="X216" s="2" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="Y216" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z216" s="2" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="AA216" s="2" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/29</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="F217" s="2" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="G217" s="2" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="H217" s="2" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="I217" s="2" t="n">
+        <v>52.79</v>
+      </c>
+      <c r="J217" s="2" t="n">
+        <v>55.29</v>
+      </c>
+      <c r="K217" s="2" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="L217" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="M217" s="2" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="N217" s="2" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="O217" s="2" t="n">
+        <v>44.78</v>
+      </c>
+      <c r="P217" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="Q217" s="2" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="R217" s="2" t="n">
+        <v>36.37</v>
+      </c>
+      <c r="S217" s="2" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="T217" s="2" t="n">
+        <v>111.15</v>
+      </c>
+      <c r="U217" s="2" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="V217" s="2" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="W217" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="X217" s="2" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="Y217" s="2" t="n">
+        <v>74.27</v>
+      </c>
+      <c r="Z217" s="2" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="AA217" s="2" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025/10/30</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="C218" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="D218" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="E218" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="F218" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="G218" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="H218" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="I218" t="n">
+        <v>51.78</v>
+      </c>
+      <c r="J218" t="n">
+        <v>54.43</v>
+      </c>
+      <c r="K218" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="L218" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="M218" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="N218" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="O218" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="P218" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="R218" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="S218" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="T218" t="n">
+        <v>108.72</v>
+      </c>
+      <c r="U218" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="V218" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="W218" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="X218" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>9.93</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA218"/>
+  <dimension ref="A1:AA238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -18823,88 +18823,1788 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="A218" s="2" t="inlineStr">
         <is>
           <t>2025/10/30</t>
         </is>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" s="2" t="n">
         <v>25.92</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218" s="2" t="n">
         <v>40.9</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>22.76</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218" s="2" t="n">
         <v>23.47</v>
       </c>
-      <c r="F218" t="n">
+      <c r="F218" s="2" t="n">
         <v>42.69</v>
       </c>
-      <c r="G218" t="n">
+      <c r="G218" s="2" t="n">
         <v>16.78</v>
       </c>
-      <c r="H218" t="n">
+      <c r="H218" s="2" t="n">
         <v>32.79</v>
       </c>
-      <c r="I218" t="n">
+      <c r="I218" s="2" t="n">
         <v>51.78</v>
       </c>
-      <c r="J218" t="n">
+      <c r="J218" s="2" t="n">
         <v>54.43</v>
       </c>
-      <c r="K218" t="n">
+      <c r="K218" s="2" t="n">
         <v>27.85</v>
       </c>
-      <c r="L218" t="n">
+      <c r="L218" s="2" t="n">
         <v>47.6</v>
       </c>
-      <c r="M218" t="n">
+      <c r="M218" s="2" t="n">
         <v>24.72</v>
       </c>
-      <c r="N218" t="n">
+      <c r="N218" s="2" t="n">
         <v>15.66</v>
       </c>
-      <c r="O218" t="n">
+      <c r="O218" s="2" t="n">
         <v>43.85</v>
       </c>
-      <c r="P218" t="n">
+      <c r="P218" s="2" t="n">
         <v>27.88</v>
       </c>
-      <c r="Q218" t="n">
+      <c r="Q218" s="2" t="n">
         <v>16.95</v>
       </c>
-      <c r="R218" t="n">
+      <c r="R218" s="2" t="n">
         <v>35.83</v>
       </c>
-      <c r="S218" t="n">
+      <c r="S218" s="2" t="n">
         <v>19.52</v>
       </c>
-      <c r="T218" t="n">
+      <c r="T218" s="2" t="n">
         <v>108.72</v>
       </c>
-      <c r="U218" t="n">
+      <c r="U218" s="2" t="n">
         <v>29.39</v>
       </c>
-      <c r="V218" t="n">
+      <c r="V218" s="2" t="n">
         <v>32.62</v>
       </c>
-      <c r="W218" t="n">
+      <c r="W218" s="2" t="n">
         <v>16.27</v>
       </c>
-      <c r="X218" t="n">
+      <c r="X218" s="2" t="n">
         <v>18.08</v>
       </c>
-      <c r="Y218" t="n">
+      <c r="Y218" s="2" t="n">
         <v>72.14</v>
       </c>
-      <c r="Z218" t="n">
+      <c r="Z218" s="2" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="AA218" t="n">
+      <c r="AA218" s="2" t="n">
         <v>9.93</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>2025/10/31</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>40.08</v>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="F219" s="2" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="G219" s="2" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H219" s="2" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="I219" s="2" t="n">
+        <v>51.97</v>
+      </c>
+      <c r="J219" s="2" t="n">
+        <v>54.74</v>
+      </c>
+      <c r="K219" s="2" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="L219" s="2" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="M219" s="2" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="N219" s="2" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="O219" s="2" t="n">
+        <v>42.61</v>
+      </c>
+      <c r="P219" s="2" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="Q219" s="2" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="R219" s="2" t="n">
+        <v>35.96</v>
+      </c>
+      <c r="S219" s="2" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="T219" s="2" t="n">
+        <v>104.36</v>
+      </c>
+      <c r="U219" s="2" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="V219" s="2" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="W219" s="2" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="X219" s="2" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="Y219" s="2" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="Z219" s="2" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="AA219" s="2" t="n">
+        <v>9.859999999999999</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/03</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="F220" s="2" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="G220" s="2" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="H220" s="2" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="I220" s="2" t="n">
+        <v>49.71</v>
+      </c>
+      <c r="J220" s="2" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="K220" s="2" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="L220" s="2" t="n">
+        <v>43.61</v>
+      </c>
+      <c r="M220" s="2" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="N220" s="2" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="O220" s="2" t="n">
+        <v>38.03</v>
+      </c>
+      <c r="P220" s="2" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="Q220" s="2" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="R220" s="2" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="S220" s="2" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="T220" s="2" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="U220" s="2" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="V220" s="2" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="W220" s="2" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="X220" s="2" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Y220" s="2" t="n">
+        <v>58.52</v>
+      </c>
+      <c r="Z220" s="2" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="AA220" s="2" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/04</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="F221" s="2" t="n">
+        <v>37.21</v>
+      </c>
+      <c r="G221" s="2" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="H221" s="2" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="I221" s="2" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="J221" s="2" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="K221" s="2" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="L221" s="2" t="n">
+        <v>43.04</v>
+      </c>
+      <c r="M221" s="2" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="N221" s="2" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="O221" s="2" t="n">
+        <v>37.26</v>
+      </c>
+      <c r="P221" s="2" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="Q221" s="2" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="R221" s="2" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="S221" s="2" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="T221" s="2" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="U221" s="2" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="V221" s="2" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="W221" s="2" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="X221" s="2" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="Y221" s="2" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="Z221" s="2" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="AA221" s="2" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/05</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="F222" s="2" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="H222" s="2" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="I222" s="2" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="J222" s="2" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="K222" s="2" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="L222" s="2" t="n">
+        <v>42.73</v>
+      </c>
+      <c r="M222" s="2" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="N222" s="2" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="O222" s="2" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="P222" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="Q222" s="2" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="R222" s="2" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="S222" s="2" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="T222" s="2" t="n">
+        <v>95.16</v>
+      </c>
+      <c r="U222" s="2" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="V222" s="2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="W222" s="2" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="X222" s="2" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="Y222" s="2" t="n">
+        <v>57.41</v>
+      </c>
+      <c r="Z222" s="2" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="AA222" s="2" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/06</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="F223" s="2" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="H223" s="2" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="I223" s="2" t="n">
+        <v>49.54</v>
+      </c>
+      <c r="J223" s="2" t="n">
+        <v>55.74</v>
+      </c>
+      <c r="K223" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="L223" s="2" t="n">
+        <v>43.74</v>
+      </c>
+      <c r="M223" s="2" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="N223" s="2" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="O223" s="2" t="n">
+        <v>38.53</v>
+      </c>
+      <c r="P223" s="2" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="Q223" s="2" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="R223" s="2" t="n">
+        <v>35.88</v>
+      </c>
+      <c r="S223" s="2" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="T223" s="2" t="n">
+        <v>99.67</v>
+      </c>
+      <c r="U223" s="2" t="n">
+        <v>28.47</v>
+      </c>
+      <c r="V223" s="2" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="W223" s="2" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="X223" s="2" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="Y223" s="2" t="n">
+        <v>58.56</v>
+      </c>
+      <c r="Z223" s="2" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AA223" s="2" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/07</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>25.27</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="F224" s="2" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="H224" s="2" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="I224" s="2" t="n">
+        <v>49.42</v>
+      </c>
+      <c r="J224" s="2" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="K224" s="2" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="L224" s="2" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="M224" s="2" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="N224" s="2" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="O224" s="2" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="P224" s="2" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="Q224" s="2" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="R224" s="2" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="S224" s="2" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="T224" s="2" t="n">
+        <v>98.06</v>
+      </c>
+      <c r="U224" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="V224" s="2" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="W224" s="2" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="X224" s="2" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Y224" s="2" t="n">
+        <v>57.78</v>
+      </c>
+      <c r="Z224" s="2" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AA224" s="2" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/10</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F225" s="2" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="H225" s="2" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="I225" s="2" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="J225" s="2" t="n">
+        <v>55.18</v>
+      </c>
+      <c r="K225" s="2" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="L225" s="2" t="n">
+        <v>43.23</v>
+      </c>
+      <c r="M225" s="2" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="N225" s="2" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="O225" s="2" t="n">
+        <v>37.78</v>
+      </c>
+      <c r="P225" s="2" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="Q225" s="2" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="R225" s="2" t="n">
+        <v>35.88</v>
+      </c>
+      <c r="S225" s="2" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="T225" s="2" t="n">
+        <v>97.20999999999999</v>
+      </c>
+      <c r="U225" s="2" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="V225" s="2" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="W225" s="2" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="X225" s="2" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="Y225" s="2" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="Z225" s="2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA225" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/11</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>37.11</v>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="F226" s="2" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="G226" s="2" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="H226" s="2" t="n">
+        <v>30.32</v>
+      </c>
+      <c r="I226" s="2" t="n">
+        <v>49.22</v>
+      </c>
+      <c r="J226" s="2" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="K226" s="2" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="L226" s="2" t="n">
+        <v>42.33</v>
+      </c>
+      <c r="M226" s="2" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="N226" s="2" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="O226" s="2" t="n">
+        <v>37.19</v>
+      </c>
+      <c r="P226" s="2" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="Q226" s="2" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="R226" s="2" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="S226" s="2" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="T226" s="2" t="n">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="U226" s="2" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="V226" s="2" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="W226" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="X226" s="2" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="Y226" s="2" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="Z226" s="2" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="AA226" s="2" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/12</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>36.97</v>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>37.08</v>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="H227" s="2" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="I227" s="2" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="J227" s="2" t="n">
+        <v>55.08</v>
+      </c>
+      <c r="K227" s="2" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="L227" s="2" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="M227" s="2" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="N227" s="2" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="O227" s="2" t="n">
+        <v>37.07</v>
+      </c>
+      <c r="P227" s="2" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="Q227" s="2" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="R227" s="2" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="S227" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="T227" s="2" t="n">
+        <v>95.05</v>
+      </c>
+      <c r="U227" s="2" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="V227" s="2" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="W227" s="2" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="X227" s="2" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="Y227" s="2" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="Z227" s="2" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="AA227" s="2" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>37.92</v>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="F228" s="2" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="H228" s="2" t="n">
+        <v>31.01</v>
+      </c>
+      <c r="I228" s="2" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="J228" s="2" t="n">
+        <v>55.55</v>
+      </c>
+      <c r="K228" s="2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="L228" s="2" t="n">
+        <v>42.35</v>
+      </c>
+      <c r="M228" s="2" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="N228" s="2" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="O228" s="2" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="P228" s="2" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="Q228" s="2" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="R228" s="2" t="n">
+        <v>36.01</v>
+      </c>
+      <c r="S228" s="2" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="T228" s="2" t="n">
+        <v>96.45</v>
+      </c>
+      <c r="U228" s="2" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="V228" s="2" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="W228" s="2" t="n">
+        <v>15.83</v>
+      </c>
+      <c r="X228" s="2" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="Y228" s="2" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="Z228" s="2" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="AA228" s="2" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/14</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>36.88</v>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F229" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="H229" s="2" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="I229" s="2" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="J229" s="2" t="n">
+        <v>54.94</v>
+      </c>
+      <c r="K229" s="2" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L229" s="2" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="M229" s="2" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="N229" s="2" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="O229" s="2" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="P229" s="2" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="Q229" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="R229" s="2" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="S229" s="2" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="T229" s="2" t="n">
+        <v>92.26000000000001</v>
+      </c>
+      <c r="U229" s="2" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="V229" s="2" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="W229" s="2" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="X229" s="2" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="Y229" s="2" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="Z229" s="2" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="AA229" s="2" t="n">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/17</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>36.78</v>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="H230" s="2" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="I230" s="2" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="J230" s="2" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="K230" s="2" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L230" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="M230" s="2" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="N230" s="2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="O230" s="2" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="P230" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="Q230" s="2" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="R230" s="2" t="n">
+        <v>35.63</v>
+      </c>
+      <c r="S230" s="2" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="T230" s="2" t="n">
+        <v>91.56999999999999</v>
+      </c>
+      <c r="U230" s="2" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="V230" s="2" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="W230" s="2" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="X230" s="2" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="Y230" s="2" t="n">
+        <v>49.85</v>
+      </c>
+      <c r="Z230" s="2" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="AA230" s="2" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/18</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="F231" s="2" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="G231" s="2" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H231" s="2" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="I231" s="2" t="n">
+        <v>48.16</v>
+      </c>
+      <c r="J231" s="2" t="n">
+        <v>54.76</v>
+      </c>
+      <c r="K231" s="2" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="L231" s="2" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="M231" s="2" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="N231" s="2" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="O231" s="2" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="P231" s="2" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="Q231" s="2" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="R231" s="2" t="n">
+        <v>35.24</v>
+      </c>
+      <c r="S231" s="2" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="T231" s="2" t="n">
+        <v>92.73999999999999</v>
+      </c>
+      <c r="U231" s="2" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="V231" s="2" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="W231" s="2" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="X231" s="2" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="Y231" s="2" t="n">
+        <v>49.36</v>
+      </c>
+      <c r="Z231" s="2" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="AA231" s="2" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/19</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>36.27</v>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="F232" s="2" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="G232" s="2" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="H232" s="2" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="I232" s="2" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="J232" s="2" t="n">
+        <v>53.96</v>
+      </c>
+      <c r="K232" s="2" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="L232" s="2" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="M232" s="2" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="N232" s="2" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="O232" s="2" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="P232" s="2" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="Q232" s="2" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="R232" s="2" t="n">
+        <v>34.86</v>
+      </c>
+      <c r="S232" s="2" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="T232" s="2" t="n">
+        <v>91.83</v>
+      </c>
+      <c r="U232" s="2" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="V232" s="2" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="W232" s="2" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="X232" s="2" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="Y232" s="2" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="Z232" s="2" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AA232" s="2" t="n">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/20</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>35.78</v>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="F233" s="2" t="n">
+        <v>35.95</v>
+      </c>
+      <c r="G233" s="2" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="H233" s="2" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I233" s="2" t="n">
+        <v>47.24</v>
+      </c>
+      <c r="J233" s="2" t="n">
+        <v>53.71</v>
+      </c>
+      <c r="K233" s="2" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="L233" s="2" t="n">
+        <v>40.96</v>
+      </c>
+      <c r="M233" s="2" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="N233" s="2" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="O233" s="2" t="n">
+        <v>36.13</v>
+      </c>
+      <c r="P233" s="2" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="Q233" s="2" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="R233" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="S233" s="2" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="T233" s="2" t="n">
+        <v>90.73</v>
+      </c>
+      <c r="U233" s="2" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="V233" s="2" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="W233" s="2" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="X233" s="2" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="Y233" s="2" t="n">
+        <v>49.67</v>
+      </c>
+      <c r="Z233" s="2" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="AA233" s="2" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>34.43</v>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="F234" s="2" t="n">
+        <v>34.56</v>
+      </c>
+      <c r="G234" s="2" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="H234" s="2" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="I234" s="2" t="n">
+        <v>45.66</v>
+      </c>
+      <c r="J234" s="2" t="n">
+        <v>51.97</v>
+      </c>
+      <c r="K234" s="2" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="L234" s="2" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="M234" s="2" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="N234" s="2" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="O234" s="2" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="P234" s="2" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="Q234" s="2" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="R234" s="2" t="n">
+        <v>33.39</v>
+      </c>
+      <c r="S234" s="2" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="T234" s="2" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="U234" s="2" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="V234" s="2" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="W234" s="2" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="X234" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="Y234" s="2" t="n">
+        <v>46.69</v>
+      </c>
+      <c r="Z234" s="2" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="AA234" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/24</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F235" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G235" s="2" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="H235" s="2" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="I235" s="2" t="n">
+        <v>46.53</v>
+      </c>
+      <c r="J235" s="2" t="n">
+        <v>53.14</v>
+      </c>
+      <c r="K235" s="2" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="L235" s="2" t="n">
+        <v>39.61</v>
+      </c>
+      <c r="M235" s="2" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="N235" s="2" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="O235" s="2" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="P235" s="2" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="Q235" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="R235" s="2" t="n">
+        <v>33.92</v>
+      </c>
+      <c r="S235" s="2" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="T235" s="2" t="n">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="U235" s="2" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="V235" s="2" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="W235" s="2" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="X235" s="2" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="Y235" s="2" t="n">
+        <v>45.86</v>
+      </c>
+      <c r="Z235" s="2" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="AA235" s="2" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/25</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>35.02</v>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="F236" s="2" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="G236" s="2" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="H236" s="2" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="I236" s="2" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="J236" s="2" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="K236" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="L236" s="2" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="M236" s="2" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="N236" s="2" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="O236" s="2" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="P236" s="2" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="Q236" s="2" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="R236" s="2" t="n">
+        <v>34.41</v>
+      </c>
+      <c r="S236" s="2" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="T236" s="2" t="n">
+        <v>88.23999999999999</v>
+      </c>
+      <c r="U236" s="2" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="V236" s="2" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="W236" s="2" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="X236" s="2" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="Y236" s="2" t="n">
+        <v>47.24</v>
+      </c>
+      <c r="Z236" s="2" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AA236" s="2" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/26</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="F237" s="2" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="G237" s="2" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H237" s="2" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="I237" s="2" t="n">
+        <v>47.21</v>
+      </c>
+      <c r="J237" s="2" t="n">
+        <v>53.94</v>
+      </c>
+      <c r="K237" s="2" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="L237" s="2" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="M237" s="2" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="N237" s="2" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="O237" s="2" t="n">
+        <v>36.14</v>
+      </c>
+      <c r="P237" s="2" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="Q237" s="2" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="R237" s="2" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="S237" s="2" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="T237" s="2" t="n">
+        <v>89.92</v>
+      </c>
+      <c r="U237" s="2" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="V237" s="2" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="W237" s="2" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="X237" s="2" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="Y237" s="2" t="n">
+        <v>49.07</v>
+      </c>
+      <c r="Z237" s="2" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="AA237" s="2" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025/11/27</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C238" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D238" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="E238" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="F238" t="n">
+        <v>35.73</v>
+      </c>
+      <c r="G238" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="H238" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="I238" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="J238" t="n">
+        <v>53.93</v>
+      </c>
+      <c r="K238" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="L238" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="M238" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="N238" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="O238" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="P238" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="R238" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="S238" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="T238" t="n">
+        <v>90.12</v>
+      </c>
+      <c r="U238" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="V238" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="W238" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="X238" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>9.949999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/crawler/headpagepedynamic.xlsx
+++ b/crawler/headpagepedynamic.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA238"/>
+  <dimension ref="A1:AA261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -20523,88 +20523,2043 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
+      <c r="A238" s="2" t="inlineStr">
         <is>
           <t>2025/11/27</t>
         </is>
       </c>
-      <c r="B238" t="n">
+      <c r="B238" s="2" t="n">
         <v>24.2</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238" s="2" t="n">
         <v>35.5</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" s="2" t="n">
         <v>21.33</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238" s="2" t="n">
         <v>22.52</v>
       </c>
-      <c r="F238" t="n">
+      <c r="F238" s="2" t="n">
         <v>35.73</v>
       </c>
-      <c r="G238" t="n">
+      <c r="G238" s="2" t="n">
         <v>16.57</v>
       </c>
-      <c r="H238" t="n">
+      <c r="H238" s="2" t="n">
         <v>29.56</v>
       </c>
-      <c r="I238" t="n">
+      <c r="I238" s="2" t="n">
         <v>47.41</v>
       </c>
-      <c r="J238" t="n">
+      <c r="J238" s="2" t="n">
         <v>53.93</v>
       </c>
-      <c r="K238" t="n">
+      <c r="K238" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="L238" t="n">
+      <c r="L238" s="2" t="n">
         <v>41.43</v>
       </c>
-      <c r="M238" t="n">
+      <c r="M238" s="2" t="n">
         <v>22.33</v>
       </c>
-      <c r="N238" t="n">
+      <c r="N238" s="2" t="n">
         <v>15.59</v>
       </c>
-      <c r="O238" t="n">
+      <c r="O238" s="2" t="n">
         <v>35.98</v>
       </c>
-      <c r="P238" t="n">
+      <c r="P238" s="2" t="n">
         <v>25.63</v>
       </c>
-      <c r="Q238" t="n">
+      <c r="Q238" s="2" t="n">
         <v>15.86</v>
       </c>
-      <c r="R238" t="n">
+      <c r="R238" s="2" t="n">
         <v>34.42</v>
       </c>
-      <c r="S238" t="n">
+      <c r="S238" s="2" t="n">
         <v>18.39</v>
       </c>
-      <c r="T238" t="n">
+      <c r="T238" s="2" t="n">
         <v>90.12</v>
       </c>
-      <c r="U238" t="n">
+      <c r="U238" s="2" t="n">
         <v>27.18</v>
       </c>
-      <c r="V238" t="n">
+      <c r="V238" s="2" t="n">
         <v>28.02</v>
       </c>
-      <c r="W238" t="n">
+      <c r="W238" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="X238" t="n">
+      <c r="X238" s="2" t="n">
         <v>16.47</v>
       </c>
-      <c r="Y238" t="n">
+      <c r="Y238" s="2" t="n">
         <v>49.11</v>
       </c>
-      <c r="Z238" t="n">
+      <c r="Z238" s="2" t="n">
         <v>9.390000000000001</v>
       </c>
-      <c r="AA238" t="n">
+      <c r="AA238" s="2" t="n">
         <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>2025/11/28</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>35.78</v>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="F239" s="2" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="G239" s="2" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="H239" s="2" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="I239" s="2" t="n">
+        <v>47.93</v>
+      </c>
+      <c r="J239" s="2" t="n">
+        <v>54.66</v>
+      </c>
+      <c r="K239" s="2" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="L239" s="2" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="M239" s="2" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="N239" s="2" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="O239" s="2" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="P239" s="2" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="Q239" s="2" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="R239" s="2" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="S239" s="2" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="T239" s="2" t="n">
+        <v>91.28</v>
+      </c>
+      <c r="U239" s="2" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="V239" s="2" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="W239" s="2" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="X239" s="2" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="Y239" s="2" t="n">
+        <v>49.46</v>
+      </c>
+      <c r="Z239" s="2" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="AA239" s="2" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/01</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="F240" s="2" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="G240" s="2" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="H240" s="2" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="I240" s="2" t="n">
+        <v>48.34</v>
+      </c>
+      <c r="J240" s="2" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="K240" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="L240" s="2" t="n">
+        <v>42.63</v>
+      </c>
+      <c r="M240" s="2" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="N240" s="2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="O240" s="2" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="P240" s="2" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="Q240" s="2" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="R240" s="2" t="n">
+        <v>35.09</v>
+      </c>
+      <c r="S240" s="2" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="T240" s="2" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="U240" s="2" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="V240" s="2" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="W240" s="2" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="X240" s="2" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="Y240" s="2" t="n">
+        <v>49.82</v>
+      </c>
+      <c r="Z240" s="2" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="AA240" s="2" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/02</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F241" s="2" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="G241" s="2" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H241" s="2" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="I241" s="2" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="J241" s="2" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="K241" s="2" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="L241" s="2" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="M241" s="2" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="N241" s="2" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="O241" s="2" t="n">
+        <v>36.51</v>
+      </c>
+      <c r="P241" s="2" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="Q241" s="2" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="R241" s="2" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="S241" s="2" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="T241" s="2" t="n">
+        <v>91.26000000000001</v>
+      </c>
+      <c r="U241" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="V241" s="2" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="W241" s="2" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="X241" s="2" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="Y241" s="2" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="Z241" s="2" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="AA241" s="2" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/03</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F242" s="2" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="G242" s="2" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="H242" s="2" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="I242" s="2" t="n">
+        <v>47.01</v>
+      </c>
+      <c r="J242" s="2" t="n">
+        <v>53.92</v>
+      </c>
+      <c r="K242" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="L242" s="2" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="M242" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N242" s="2" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="O242" s="2" t="n">
+        <v>36.14</v>
+      </c>
+      <c r="P242" s="2" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="Q242" s="2" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="R242" s="2" t="n">
+        <v>34.56</v>
+      </c>
+      <c r="S242" s="2" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="T242" s="2" t="n">
+        <v>90.87</v>
+      </c>
+      <c r="U242" s="2" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="V242" s="2" t="n">
+        <v>28.17</v>
+      </c>
+      <c r="W242" s="2" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="X242" s="2" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="Y242" s="2" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="Z242" s="2" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AA242" s="2" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/04</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>35.94</v>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="F243" s="2" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="G243" s="2" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="H243" s="2" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="I243" s="2" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="J243" s="2" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="K243" s="2" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="L243" s="2" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="M243" s="2" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="N243" s="2" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="O243" s="2" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="P243" s="2" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="Q243" s="2" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="R243" s="2" t="n">
+        <v>34.46</v>
+      </c>
+      <c r="S243" s="2" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="T243" s="2" t="n">
+        <v>92.95999999999999</v>
+      </c>
+      <c r="U243" s="2" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="V243" s="2" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="W243" s="2" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="X243" s="2" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="Y243" s="2" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="Z243" s="2" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="AA243" s="2" t="n">
+        <v>9.880000000000001</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/05</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="F244" s="2" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="G244" s="2" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="H244" s="2" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="I244" s="2" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="J244" s="2" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K244" s="2" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L244" s="2" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="M244" s="2" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="N244" s="2" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="O244" s="2" t="n">
+        <v>37.15</v>
+      </c>
+      <c r="P244" s="2" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="Q244" s="2" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="R244" s="2" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="S244" s="2" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="T244" s="2" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="U244" s="2" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="V244" s="2" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="W244" s="2" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="X244" s="2" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="Y244" s="2" t="n">
+        <v>50.26</v>
+      </c>
+      <c r="Z244" s="2" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AA244" s="2" t="n">
+        <v>9.880000000000001</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/08</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F245" s="2" t="n">
+        <v>37.92</v>
+      </c>
+      <c r="G245" s="2" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="H245" s="2" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="I245" s="2" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="J245" s="2" t="n">
+        <v>55.72</v>
+      </c>
+      <c r="K245" s="2" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="L245" s="2" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="M245" s="2" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="N245" s="2" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="O245" s="2" t="n">
+        <v>38.11</v>
+      </c>
+      <c r="P245" s="2" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="Q245" s="2" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="R245" s="2" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="S245" s="2" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="T245" s="2" t="n">
+        <v>95.06</v>
+      </c>
+      <c r="U245" s="2" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="V245" s="2" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="W245" s="2" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="X245" s="2" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="Y245" s="2" t="n">
+        <v>52.29</v>
+      </c>
+      <c r="Z245" s="2" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="AA245" s="2" t="n">
+        <v>9.869999999999999</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/09</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>37.48</v>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="F246" s="2" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="G246" s="2" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="H246" s="2" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="I246" s="2" t="n">
+        <v>48.49</v>
+      </c>
+      <c r="J246" s="2" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="K246" s="2" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="L246" s="2" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="M246" s="2" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="N246" s="2" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="O246" s="2" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="P246" s="2" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="Q246" s="2" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="R246" s="2" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="S246" s="2" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="T246" s="2" t="n">
+        <v>95.03</v>
+      </c>
+      <c r="U246" s="2" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="V246" s="2" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="W246" s="2" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="X246" s="2" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="Y246" s="2" t="n">
+        <v>54.23</v>
+      </c>
+      <c r="Z246" s="2" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AA246" s="2" t="n">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/10</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>37.41</v>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F247" s="2" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="G247" s="2" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H247" s="2" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="I247" s="2" t="n">
+        <v>48.62</v>
+      </c>
+      <c r="J247" s="2" t="n">
+        <v>55.72</v>
+      </c>
+      <c r="K247" s="2" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="L247" s="2" t="n">
+        <v>44.84</v>
+      </c>
+      <c r="M247" s="2" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="N247" s="2" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="O247" s="2" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="P247" s="2" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="Q247" s="2" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="R247" s="2" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="S247" s="2" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="T247" s="2" t="n">
+        <v>95.15000000000001</v>
+      </c>
+      <c r="U247" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="V247" s="2" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="W247" s="2" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="X247" s="2" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="Y247" s="2" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="Z247" s="2" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="AA247" s="2" t="n">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/11</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F248" s="2" t="n">
+        <v>37.51</v>
+      </c>
+      <c r="G248" s="2" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="H248" s="2" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="I248" s="2" t="n">
+        <v>47.86</v>
+      </c>
+      <c r="J248" s="2" t="n">
+        <v>54.54</v>
+      </c>
+      <c r="K248" s="2" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="L248" s="2" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="M248" s="2" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="N248" s="2" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="O248" s="2" t="n">
+        <v>37.79</v>
+      </c>
+      <c r="P248" s="2" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="Q248" s="2" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="R248" s="2" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="S248" s="2" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="T248" s="2" t="n">
+        <v>93.34</v>
+      </c>
+      <c r="U248" s="2" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="V248" s="2" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="W248" s="2" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="X248" s="2" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="Y248" s="2" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="Z248" s="2" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA248" s="2" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/12</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F249" s="2" t="n">
+        <v>37.82</v>
+      </c>
+      <c r="G249" s="2" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="H249" s="2" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="I249" s="2" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="J249" s="2" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="K249" s="2" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="L249" s="2" t="n">
+        <v>43.96</v>
+      </c>
+      <c r="M249" s="2" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="N249" s="2" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="O249" s="2" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="P249" s="2" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="Q249" s="2" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="R249" s="2" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="S249" s="2" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="T249" s="2" t="n">
+        <v>94.22</v>
+      </c>
+      <c r="U249" s="2" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="V249" s="2" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="W249" s="2" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="X249" s="2" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="Y249" s="2" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="Z249" s="2" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA249" s="2" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/15</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>37.11</v>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="F250" s="2" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="G250" s="2" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="H250" s="2" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="I250" s="2" t="n">
+        <v>47.96</v>
+      </c>
+      <c r="J250" s="2" t="n">
+        <v>53.06</v>
+      </c>
+      <c r="K250" s="2" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="L250" s="2" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="M250" s="2" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="N250" s="2" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="O250" s="2" t="n">
+        <v>37.54</v>
+      </c>
+      <c r="P250" s="2" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="Q250" s="2" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="R250" s="2" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="S250" s="2" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="T250" s="2" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="U250" s="2" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="V250" s="2" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="W250" s="2" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="X250" s="2" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="Y250" s="2" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="Z250" s="2" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="AA250" s="2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/16</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>36.39</v>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="F251" s="2" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="G251" s="2" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H251" s="2" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="I251" s="2" t="n">
+        <v>47.26</v>
+      </c>
+      <c r="J251" s="2" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="K251" s="2" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="L251" s="2" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="M251" s="2" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="N251" s="2" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="O251" s="2" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="P251" s="2" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="Q251" s="2" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="R251" s="2" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="S251" s="2" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="T251" s="2" t="n">
+        <v>91.26000000000001</v>
+      </c>
+      <c r="U251" s="2" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="V251" s="2" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="W251" s="2" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="X251" s="2" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="Y251" s="2" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="Z251" s="2" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AA251" s="2" t="n">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/17</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>37.56</v>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="F252" s="2" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="G252" s="2" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="H252" s="2" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="I252" s="2" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="J252" s="2" t="n">
+        <v>52.93</v>
+      </c>
+      <c r="K252" s="2" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="L252" s="2" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="M252" s="2" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="N252" s="2" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="O252" s="2" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="P252" s="2" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="Q252" s="2" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="R252" s="2" t="n">
+        <v>35.34</v>
+      </c>
+      <c r="S252" s="2" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="T252" s="2" t="n">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="U252" s="2" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="V252" s="2" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="W252" s="2" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="X252" s="2" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="Y252" s="2" t="n">
+        <v>52.73</v>
+      </c>
+      <c r="Z252" s="2" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="AA252" s="2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/18</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="C253" s="2" t="n">
+        <v>36.76</v>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F253" s="2" t="n">
+        <v>37.35</v>
+      </c>
+      <c r="G253" s="2" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="H253" s="2" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="I253" s="2" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="J253" s="2" t="n">
+        <v>52.93</v>
+      </c>
+      <c r="K253" s="2" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="L253" s="2" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="M253" s="2" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="N253" s="2" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="O253" s="2" t="n">
+        <v>37.08</v>
+      </c>
+      <c r="P253" s="2" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="Q253" s="2" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="R253" s="2" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="S253" s="2" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="T253" s="2" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="U253" s="2" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="V253" s="2" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="W253" s="2" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="X253" s="2" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="Y253" s="2" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="Z253" s="2" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="AA253" s="2" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/19</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F254" s="2" t="n">
+        <v>37.48</v>
+      </c>
+      <c r="G254" s="2" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="H254" s="2" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="I254" s="2" t="n">
+        <v>48.04</v>
+      </c>
+      <c r="J254" s="2" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="K254" s="2" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="L254" s="2" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="M254" s="2" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="N254" s="2" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="O254" s="2" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="P254" s="2" t="n">
+        <v>27.07</v>
+      </c>
+      <c r="Q254" s="2" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="R254" s="2" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="S254" s="2" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="T254" s="2" t="n">
+        <v>92.47</v>
+      </c>
+      <c r="U254" s="2" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="V254" s="2" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="W254" s="2" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="X254" s="2" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="Y254" s="2" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="Z254" s="2" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="AA254" s="2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/22</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F255" s="2" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="G255" s="2" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="H255" s="2" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="I255" s="2" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="J255" s="2" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="K255" s="2" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="L255" s="2" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="M255" s="2" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="N255" s="2" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="O255" s="2" t="n">
+        <v>38.02</v>
+      </c>
+      <c r="P255" s="2" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="Q255" s="2" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="R255" s="2" t="n">
+        <v>36.01</v>
+      </c>
+      <c r="S255" s="2" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="T255" s="2" t="n">
+        <v>95.52</v>
+      </c>
+      <c r="U255" s="2" t="n">
+        <v>27.07</v>
+      </c>
+      <c r="V255" s="2" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="W255" s="2" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="X255" s="2" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="Y255" s="2" t="n">
+        <v>53.44</v>
+      </c>
+      <c r="Z255" s="2" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="AA255" s="2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/23</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="C256" s="2" t="n">
+        <v>37.78</v>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="F256" s="2" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="G256" s="2" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="H256" s="2" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="I256" s="2" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="J256" s="2" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="K256" s="2" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="L256" s="2" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="M256" s="2" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="N256" s="2" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="O256" s="2" t="n">
+        <v>38.21</v>
+      </c>
+      <c r="P256" s="2" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="Q256" s="2" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="R256" s="2" t="n">
+        <v>35.96</v>
+      </c>
+      <c r="S256" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="T256" s="2" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="U256" s="2" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="V256" s="2" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="W256" s="2" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="X256" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y256" s="2" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="Z256" s="2" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AA256" s="2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/24</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="C257" s="2" t="n">
+        <v>38.06</v>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F257" s="2" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="G257" s="2" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="H257" s="2" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="I257" s="2" t="n">
+        <v>49.63</v>
+      </c>
+      <c r="J257" s="2" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="K257" s="2" t="n">
+        <v>27.86</v>
+      </c>
+      <c r="L257" s="2" t="n">
+        <v>45.71</v>
+      </c>
+      <c r="M257" s="2" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="N257" s="2" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="O257" s="2" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="P257" s="2" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="Q257" s="2" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="R257" s="2" t="n">
+        <v>36.49</v>
+      </c>
+      <c r="S257" s="2" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="T257" s="2" t="n">
+        <v>97.52</v>
+      </c>
+      <c r="U257" s="2" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="V257" s="2" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="W257" s="2" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="X257" s="2" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="Y257" s="2" t="n">
+        <v>55.46</v>
+      </c>
+      <c r="Z257" s="2" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="AA257" s="2" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/25</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C258" s="2" t="n">
+        <v>38.18</v>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="F258" s="2" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="G258" s="2" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="H258" s="2" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="I258" s="2" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="J258" s="2" t="n">
+        <v>55.57</v>
+      </c>
+      <c r="K258" s="2" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="L258" s="2" t="n">
+        <v>45.72</v>
+      </c>
+      <c r="M258" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="N258" s="2" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="O258" s="2" t="n">
+        <v>38.49</v>
+      </c>
+      <c r="P258" s="2" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="Q258" s="2" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="R258" s="2" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="S258" s="2" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="T258" s="2" t="n">
+        <v>97.34</v>
+      </c>
+      <c r="U258" s="2" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="V258" s="2" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="W258" s="2" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="X258" s="2" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="Y258" s="2" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="Z258" s="2" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="AA258" s="2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/26</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="C259" s="2" t="n">
+        <v>38.26</v>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="F259" s="2" t="n">
+        <v>38.92</v>
+      </c>
+      <c r="G259" s="2" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="H259" s="2" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="I259" s="2" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="J259" s="2" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="K259" s="2" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="L259" s="2" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="M259" s="2" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="N259" s="2" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="O259" s="2" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="P259" s="2" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="Q259" s="2" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="R259" s="2" t="n">
+        <v>36.86</v>
+      </c>
+      <c r="S259" s="2" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="T259" s="2" t="n">
+        <v>96.56999999999999</v>
+      </c>
+      <c r="U259" s="2" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="V259" s="2" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="W259" s="2" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="X259" s="2" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="Y259" s="2" t="n">
+        <v>55.19</v>
+      </c>
+      <c r="Z259" s="2" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AA259" s="2" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>2025/12/29</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="C260" s="2" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="F260" s="2" t="n">
+        <v>38.62</v>
+      </c>
+      <c r="G260" s="2" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="H260" s="2" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="I260" s="2" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="J260" s="2" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="K260" s="2" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="L260" s="2" t="n">
+        <v>45.47</v>
+      </c>
+      <c r="M260" s="2" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="N260" s="2" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="O260" s="2" t="n">
+        <v>38.26</v>
+      </c>
+      <c r="P260" s="2" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="Q260" s="2" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="R260" s="2" t="n">
+        <v>36.83</v>
+      </c>
+      <c r="S260" s="2" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="T260" s="2" t="n">
+        <v>96.86</v>
+      </c>
+      <c r="U260" s="2" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="V260" s="2" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="W260" s="2" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="X260" s="2" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="Y260" s="2" t="n">
+        <v>55.53</v>
+      </c>
+      <c r="Z260" s="2" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="AA260" s="2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025/12/30</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="C261" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="D261" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="E261" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="F261" t="n">
+        <v>38.84</v>
+      </c>
+      <c r="G261" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="H261" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="I261" t="n">
+        <v>50.16</v>
+      </c>
+      <c r="J261" t="n">
+        <v>55.84</v>
+      </c>
+      <c r="K261" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="L261" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="M261" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="N261" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="O261" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="P261" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="R261" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="S261" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="T261" t="n">
+        <v>98.16</v>
+      </c>
+      <c r="U261" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="V261" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="W261" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="X261" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
   </sheetData>
